--- a/docs/scheduleTurtlestitch10.xlsx
+++ b/docs/scheduleTurtlestitch10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joekvanmontfort/Documents/GitHub/turtlestitch10/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5394408C-74AB-AA41-9590-78666D5E576E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78B5215-8C9A-F945-A166-8E2DF8A31164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16840" xr2:uid="{81F1DF98-07C1-7A42-BCBC-CF2DA53DE83F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Friday</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Sunday Library Hours: 12:00-17:00</t>
   </si>
   <si>
-    <t>Saturday Library Hours: 10:00-17:00</t>
-  </si>
-  <si>
     <t>Friday Library Hours: 10:00-22:00</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>Dinner break</t>
   </si>
   <si>
-    <t>Teachmeet</t>
-  </si>
-  <si>
     <t>Getting started workshop</t>
   </si>
   <si>
@@ -108,6 +102,15 @@
   </si>
   <si>
     <t>LocHal Plenary</t>
+  </si>
+  <si>
+    <t>TeachMeet</t>
+  </si>
+  <si>
+    <t>Coderdojo</t>
+  </si>
+  <si>
+    <t>Saturday Library Hours: 09:00-17:00</t>
   </si>
 </sst>
 </file>
@@ -378,130 +381,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -513,6 +428,69 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -522,28 +500,79 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -886,12 +915,12 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -902,341 +931,343 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="43" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="I4" s="49" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="I4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="I6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="I8" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="I5" s="50"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="I6" s="51" t="s">
+    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="14"/>
+      <c r="I10" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="I7" s="52"/>
-    </row>
-    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="I8" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="54"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="44"/>
-      <c r="I10" s="55" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="44"/>
-      <c r="I11" s="56"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="14"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
+      <c r="A12" s="2">
         <v>0.8125</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="44"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="45"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="38" t="s">
-        <v>15</v>
+      <c r="G15" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+      <c r="B16" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+    </row>
+    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
+      <c r="D17" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>0.4375</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="47"/>
-    </row>
-    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
+      <c r="B18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="47"/>
-    </row>
-    <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
+      <c r="B19" s="47"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="47"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>0.5</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="47"/>
-    </row>
-    <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="47"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="21">
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="47"/>
-    </row>
-    <row r="24" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>0.5625</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="47"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="47"/>
-    </row>
-    <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="47"/>
-    </row>
-    <row r="27" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="38"/>
+    </row>
+    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>0.625</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="47"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="21">
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="38"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="47"/>
-    </row>
-    <row r="29" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="47"/>
-    </row>
-    <row r="30" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21">
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>0.6875</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="48"/>
-    </row>
-    <row r="31" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="39"/>
+    </row>
+    <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>0.70833333333333337</v>
       </c>
       <c r="B31" s="42" t="s">
@@ -1248,295 +1279,250 @@
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="3" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
+    </row>
+    <row r="35" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="36"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="27"/>
+    </row>
+    <row r="38" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="57"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="30"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="30"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="30"/>
-    </row>
-    <row r="35" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="30"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="30"/>
-    </row>
-    <row r="37" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="30"/>
-    </row>
-    <row r="38" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="21">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21">
+    </row>
+    <row r="43" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="44"/>
-    </row>
-    <row r="44" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21">
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>0.5625</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="44"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="21">
+      <c r="D44" s="62"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="44"/>
-    </row>
-    <row r="46" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21">
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="44"/>
-    </row>
-    <row r="47" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21">
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>0.625</v>
       </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="44"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="21">
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="14"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="44"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="14"/>
     </row>
     <row r="49" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="21">
+      <c r="A49" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="44"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21">
+      <c r="A50" s="2">
         <v>0.6875</v>
       </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="45"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="15"/>
     </row>
     <row r="51" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="21">
+      <c r="A51" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="19"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="31"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="33"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="18"/>
     </row>
     <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="34"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="36"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="28"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="24"/>
     </row>
     <row r="55" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="24"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="29"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="B52:G53"/>
-    <mergeCell ref="B54:G55"/>
-    <mergeCell ref="B36:G37"/>
-    <mergeCell ref="B32:G35"/>
-    <mergeCell ref="G17:G30"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B4:G8"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B23:F24"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="G42:G50"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F17:F22"/>
-    <mergeCell ref="F25:F30"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D22"/>
+  <mergeCells count="48">
+    <mergeCell ref="D42:F44"/>
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="D28:D30"/>
     <mergeCell ref="B9:F13"/>
@@ -1546,6 +1532,44 @@
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D17:F20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B4:G8"/>
+    <mergeCell ref="B23:F24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B52:G53"/>
+    <mergeCell ref="B54:G55"/>
+    <mergeCell ref="B36:G37"/>
+    <mergeCell ref="B32:G35"/>
+    <mergeCell ref="G17:G30"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="G42:G50"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="G9:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/scheduleTurtlestitch10.xlsx
+++ b/docs/scheduleTurtlestitch10.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joekvanmontfort/Documents/GitHub/turtlestitch10/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78B5215-8C9A-F945-A166-8E2DF8A31164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5FA289-1920-6240-BE26-A48A247AC4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16840" xr2:uid="{81F1DF98-07C1-7A42-BCBC-CF2DA53DE83F}"/>
+    <workbookView xWindow="280" yWindow="800" windowWidth="28240" windowHeight="16840" activeTab="1" xr2:uid="{81F1DF98-07C1-7A42-BCBC-CF2DA53DE83F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="ingredients" sheetId="3" r:id="rId1"/>
+    <sheet name="block schedule" sheetId="2" r:id="rId2"/>
+    <sheet name="first sketch" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'block schedule'!$A$1:$I$59</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="386">
   <si>
     <t>Friday</t>
   </si>
@@ -111,13 +116,1127 @@
   </si>
   <si>
     <t>Saturday Library Hours: 09:00-17:00</t>
+  </si>
+  <si>
+    <t>Demo 1</t>
+  </si>
+  <si>
+    <t>Talks 2</t>
+  </si>
+  <si>
+    <t>Workshop 1</t>
+  </si>
+  <si>
+    <t>Workshop 2</t>
+  </si>
+  <si>
+    <t>Workshop 3</t>
+  </si>
+  <si>
+    <t>Workshop 4</t>
+  </si>
+  <si>
+    <t>Workshop 5</t>
+  </si>
+  <si>
+    <t>Workshop 6</t>
+  </si>
+  <si>
+    <t>Workshop 7</t>
+  </si>
+  <si>
+    <t>Workshop 8</t>
+  </si>
+  <si>
+    <t>Workshop 9</t>
+  </si>
+  <si>
+    <t>Workshop 10</t>
+  </si>
+  <si>
+    <t>Workshop 11</t>
+  </si>
+  <si>
+    <t>Workshop 12</t>
+  </si>
+  <si>
+    <t>Workshop 13</t>
+  </si>
+  <si>
+    <t>Talks 3</t>
+  </si>
+  <si>
+    <t>Talks 4</t>
+  </si>
+  <si>
+    <t>Demo 2</t>
+  </si>
+  <si>
+    <t>Talks 5</t>
+  </si>
+  <si>
+    <t>(-)</t>
+  </si>
+  <si>
+    <t>Talks 1
+Opening</t>
+  </si>
+  <si>
+    <t>Birds of a feather 1</t>
+  </si>
+  <si>
+    <t>Birds of a feather 3</t>
+  </si>
+  <si>
+    <t>Demo 3</t>
+  </si>
+  <si>
+    <t>Talks 6
+Closing</t>
+  </si>
+  <si>
+    <t>Arrive early and take your chance to visit Textile Museum
+If your arrive real early you can visit Bridges conference July 14-17 Eindhoven!</t>
+  </si>
+  <si>
+    <t>Workshop Teach the teachers</t>
+  </si>
+  <si>
+    <t>Coderdojo 9:30-11:30</t>
+  </si>
+  <si>
+    <t>Getting started workshop
+Registration
+Exhibition</t>
+  </si>
+  <si>
+    <t>Speed talks</t>
+  </si>
+  <si>
+    <t>futurelab</t>
+  </si>
+  <si>
+    <t>talks 60</t>
+  </si>
+  <si>
+    <t>workshop 60</t>
+  </si>
+  <si>
+    <t>workshop 90</t>
+  </si>
+  <si>
+    <t>workshop 120</t>
+  </si>
+  <si>
+    <t>workshop 150</t>
+  </si>
+  <si>
+    <t>self organized sessions 60</t>
+  </si>
+  <si>
+    <t>self organized sessions 150</t>
+  </si>
+  <si>
+    <t>self organized sessions 120</t>
+  </si>
+  <si>
+    <t>self organized sessions 90</t>
+  </si>
+  <si>
+    <t>talks 30</t>
+  </si>
+  <si>
+    <t>Coderdojo 12:30-14:30</t>
+  </si>
+  <si>
+    <t>talks C
+Andrea / Beth</t>
+  </si>
+  <si>
+    <t>talks B
+Margaret M / Beatrice / Jadga / Jakob</t>
+  </si>
+  <si>
+    <t>talks G
+Pauline / Mags</t>
+  </si>
+  <si>
+    <t>talks A
+Beth/ Jacob/ Jadga/ Richard/ Martine</t>
+  </si>
+  <si>
+    <t>talks D
+Mags: Blockly Games</t>
+  </si>
+  <si>
+    <t>talks F
+Stephen / Pauline</t>
+  </si>
+  <si>
+    <t>talks E
+Bhavik / Elaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audience: children to adults. Some space / ability to cordon off small area needed for cameras. Electricity sockets x 2. Small table and chair for presenter (if low table, no chair needed if podium style). Projector / large TV for audience. Happy to run as 90 minute workshop or 180 minutes as timetable requires. </t>
+  </si>
+  <si>
+    <t>Participants will explore how machine learning pose detection can transform physical movement into creative data streams. Using familiar Scratch blocks, we'll build projects that capture body positions and gestures, then investigate how this embodied data might translate into stitchable patterns and designs.</t>
+  </si>
+  <si>
+    <t>Create stitched patterns using your body as the creative input, no keyboard or mouse needed!</t>
+  </si>
+  <si>
+    <t>Bodies as Data: From Pose Detection to Stitched Patterns</t>
+  </si>
+  <si>
+    <t>extended</t>
+  </si>
+  <si>
+    <t>W12</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Dunleer</t>
+  </si>
+  <si>
+    <t>University College Dublin</t>
+  </si>
+  <si>
+    <t>stephen.r.howell@gmail.com</t>
+  </si>
+  <si>
+    <t>Stephen Howell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The plan is to run the workshop as a 'follow me' style to explore the built in embroidery commands, then participants can create their own patterns. It would be useful to have some additional tutorial assistance to help anyone new to TurtleStitch to keep up.  AV: useful to have a screen at the front of the room, so people can see and follow what I'm doing in TurtleStitch. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hands-on workshop explores the creative potential of TurtleStitch’s built-in embroidery commands (the dark green section). Whether you’re new to TurtleStitch or looking expand your knowledge of TurtleStitch, this session will guide you through a variety of techniques to generate stunning geometric patterns using a range of built in embroidery commands. RETURNRETURNFrom precise lines and structured squares to the elegance of bows and intricate rectangles, we'll show how simple commands can produce complex and visually striking designs. Through interactive activities, you will experiment with key embroidery functions, understanding how adjustments in placement, repetition, and orientation can transform basic shapes into dynamic compositions.RETURNRETURNBy the end of the session, you will have gained confidence in using the full range of embroidery commands, equipping you with the skills to design your own unique designs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creative and playful patterns exploring the built in embroidery commands. </t>
+  </si>
+  <si>
+    <t>Loops, Twirls &amp; Swirls</t>
+  </si>
+  <si>
+    <t>workshop</t>
+  </si>
+  <si>
+    <t>W11</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
+    <t>University of Warwick</t>
+  </si>
+  <si>
+    <t>+44 7779243391</t>
+  </si>
+  <si>
+    <t>megjlow</t>
+  </si>
+  <si>
+    <t>m.j.low@warwick.ac.uk</t>
+  </si>
+  <si>
+    <t>Margaret Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Workshop will  have Hands On aspects but, due to the stage of development and only one of the Machines on site, it will be more of a mixture of Talk and Workshop.   </t>
+  </si>
+  <si>
+    <t>StitchLAB is a low-cost, open-source embroidery machine created by upgrading old sewing machines with widely available DIY 3D-printer components and software. The modular hardware (3D-printed parts, Raspberry Pi) and software (Klipper) enable new and exciting ways to work with embroidery machines—whether stitching with a game controller or running TurtleStitch directly on the machine. This workshop provides insights into the development process and a hands-on experience with the machine. StitchLAB was developed by Paul-Reza Klein (Studio Praxistest), Walter Lunzer, and Ute Neuber (Department of Textiles) at the University of Applied Arts Vienna.</t>
+  </si>
+  <si>
+    <t>Introducing StichLAB, an OpenSource DIY Embroidery Maschine featuring  TurtleStich</t>
+  </si>
+  <si>
+    <t>StichLAB meets Turtlestitch</t>
+  </si>
+  <si>
+    <t>W10</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Vienna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of applied Arts, Vienna </t>
+  </si>
+  <si>
+    <t>prntr</t>
+  </si>
+  <si>
+    <t>paulreza.klein@uni-ak.ac.at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul-Reza Klein, Walter Lunzer </t>
+  </si>
+  <si>
+    <t>Title: ""TurtleStitch: Where Code Beats Pen!""RETURNTo celebrate TurtleStitch’s 10th anniversary, I’m excited to host a hands-on workshop showcasing a major upgrade to two block libraries, designed to bridge the gap between creative freedom and precision in machine embroidery.RETURNKey Features:RETURNNatural Curve Drawing: New blocks enable mouse-followed natural sketching, turning freehand gestures into smooth stitch-ready paths.RETURNSmart Area Filling: Fill bounded regions with parametric control over angle, density, and even user-defined stitch patterns.RETURNCustom Stitch &amp; Fill Methods: Users can now define and reuse their own stitch styles (e.g., square, diamond) and fill methods.RETURNRETURNWorkshop Flow:RETURNParticipants will learn these blocks through a fun demo project—designing an embroidery pattern as intuitively as drawing on paper, using keyboard and mouse. By the end, attendees will:RETURNRETURNMaster the new blocks for organic design and structured filling.RETURNCreate a personalized embroidery file to stitch physically.RETURNLeave inspired to merge analog artistry with digital precision.RETURNRETURNWhy Attend?RETURNWhether you’re a coder, artist, or educator, this upgrade empowers expressive and repeatable textile art. Let’s celebrate a decade of TurtleStitch by pushing its creative limits together!</t>
+  </si>
+  <si>
+    <t>Unleash your creativity without limits—TurtleStitch turns code into embroidery art faster than a pen!</t>
+  </si>
+  <si>
+    <t>TurtleStitch: Where Code Beats Pen!</t>
+  </si>
+  <si>
+    <t>W-9</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Suzhou</t>
+  </si>
+  <si>
+    <t>snapontop.org</t>
+  </si>
+  <si>
+    <t>+86 13862589738</t>
+  </si>
+  <si>
+    <t>SimonMong</t>
+  </si>
+  <si>
+    <t>simon@snapontop.org</t>
+  </si>
+  <si>
+    <t>Simon Mong</t>
+  </si>
+  <si>
+    <t>Mixing handembroidery with machineembroidery</t>
+  </si>
+  <si>
+    <t>W-8b</t>
+  </si>
+  <si>
+    <t>The Netherlands</t>
+  </si>
+  <si>
+    <t>Hasselt</t>
+  </si>
+  <si>
+    <t>Borduurburo</t>
+  </si>
+  <si>
+    <t>+31 6 41 29 09 84</t>
+  </si>
+  <si>
+    <t>info@martinevanthul.com</t>
+  </si>
+  <si>
+    <t>Martine van 't Hul</t>
+  </si>
+  <si>
+    <t>Participants of all ages are invited to design and make their very critter using TurtleStitch, a visual programming platform that turns code into embroidery. You can choose to create a finger puppet, or a pocket sized toy or mini-buddy.RETURNTurtleStitch is used to create the outline of your puppet. Once your design is ready, it will be created using a digital embroidery machine, which will stitch your creation onto two layers of colourful fabric.RETURNFrom there, you’ll cut out your creation and bring it to life! Whether you want to make a finger puppet, a small toy, or a cuddly pocket-sized companion, you can decorate your critter with eyes, hair, accessories, and more to give it a unique personality.RETURNThis workshop is useful for STEM classrooms seeking to mix maths, coding and creativity, or for drop in sessions at libraries, museums or community centres. RETURN</t>
+  </si>
+  <si>
+    <t>Design Your Own Finger Puppet or Mini Buddy with TurtleStitch</t>
+  </si>
+  <si>
+    <t>Create a Critter</t>
+  </si>
+  <si>
+    <t>W-8a</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>This session provides essential knowledge to help you use an embroidery machine with confidence. Regardless of the make or model of machine, understanding key aspects of the machine can ensure its smooth operation and high quality results.RETURNWe’ll consider: Embroidery machines and their capabilities, hoops and fabric, needles and thread, machine setup and maintenance, common problems and how to resolve them. RETURNBy drawing insights from the wider TurtleStitch community, together we will collaborate to compile our shared expertise into a valuable, widely accessible resource.RETURN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the machine with confidence. </t>
+  </si>
+  <si>
+    <t>Embroidery Machine Essentials</t>
+  </si>
+  <si>
+    <t>W-7</t>
+  </si>
+  <si>
+    <t>Recursion is a powerful programming technique that allows complex structures to emerge from simple rules—and trees are the perfect example! Each branch divides into smaller branches, creating intricate patterns that resemble nature itself.RETURNIn this hands on workshop, you'll discover how recursion works and use it to generate tree-like patterns with TurtleStitch. We'll start by developing a simple recursive tree, breaking down its structure step by step. Then, we'll explore how to introduce variations, randomness, and creative elements to generate unique tree designs.RETURN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> getting started with recursion</t>
+  </si>
+  <si>
+    <t>Lets grow trees</t>
+  </si>
+  <si>
+    <t>W-6</t>
+  </si>
+  <si>
+    <t>This could be very helpful for us as CoderDojo or other interested.</t>
+  </si>
+  <si>
+    <t>Teach the teacher. How to start teaching/using Turtlestitch</t>
+  </si>
+  <si>
+    <t>Teach the teacher</t>
+  </si>
+  <si>
+    <t>W-5</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Tilburg</t>
+  </si>
+  <si>
+    <t>pmathijssen@gmail.com</t>
+  </si>
+  <si>
+    <t>TAB•TABProjector and screen for demoRETURNTAB•TABTables for hands-on activitiesRETURNTAB•TABPower outlets for laptops and microcontrollersRETURNTAB•TABBasic kits with conductive thread, fabric swatches, LEDs, small microcontrollers (e.g., Micro:bit or Arduino), and batteriesRETURNTAB•TABParticipants should bring a laptopRETURN</t>
+  </si>
+  <si>
+    <t>In this workshop, participants will learn how to design embroidered patterns in TurtleStitch and integrate simple electronic components (like LEDs, touch sensors, or motion sensors) into their fabric projects using conductive thread and microcontrollers. The session will introduce basic concepts of e-textiles, show real-world applications, and guide participants through a hands-on project to build a small interactive embroidery prototype. This workshop is ideal for educators, makers, and designers looking to merge art, technology, and storytelling through fabric-based computing.</t>
+  </si>
+  <si>
+    <t>Explore how TurtleStitch and basic electronics can be combined to create dynamic, interactive embroidery pieces that respond to touch, motion, or sound.</t>
+  </si>
+  <si>
+    <t>Blending Code and Craft: Interactive Embroidery with Sensors and TurtleStitch</t>
+  </si>
+  <si>
+    <t>W-4</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Takoradi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana Fablab / Takoradi Technical institute / university </t>
+  </si>
+  <si>
+    <t>lusy.smith41@gmail.com</t>
+  </si>
+  <si>
+    <t>Matthew koomson</t>
+  </si>
+  <si>
+    <t>Originally this workshop was given with late Susan Klimczak and Elaine Wolfe who's attending online.</t>
+  </si>
+  <si>
+    <t>Cynthia and Beth will get you started</t>
+  </si>
+  <si>
+    <t>Starting TurtleStitch</t>
+  </si>
+  <si>
+    <t>W-3</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Summerville MA</t>
+  </si>
+  <si>
+    <t>cynthiasolomon</t>
+  </si>
+  <si>
+    <t>cynthia@xota.nl</t>
+  </si>
+  <si>
+    <t>Cynthia Solomon</t>
+  </si>
+  <si>
+    <t>None. Particpants should bring laptops.</t>
+  </si>
+  <si>
+    <t>It is a known problem that people are diverse in the way they read out loud a computer program, and that this may indicate a problem regarding their understanding the program. This workshop will demonstrate an early prototype of a Snap! microworld with limited commands and using turtle graphics to help the development of a 'speaking' literacy with regard to Snap! programs. Participants who enjoy designing or are interested in pedagogy for early programmers will practically take the prototype further in small groups or as individuals to explore the ideas and improve the practice.</t>
+  </si>
+  <si>
+    <t>Jigsaw programming is very visual but this doesn't help us to say it out loud - how should we?</t>
+  </si>
+  <si>
+    <t>How do we say our code out loud?</t>
+  </si>
+  <si>
+    <t>W-2</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>Trinity College Dublin</t>
+  </si>
+  <si>
+    <t>07790558641</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>richardmillwood@mac.com</t>
+  </si>
+  <si>
+    <t>Richard Millwood</t>
+  </si>
+  <si>
+    <t>I believe Cynthia will be my assistant!</t>
+  </si>
+  <si>
+    <t>Put down your computer, tie up your shoes, and make the world your TurtleStitch stage. All you need is a free running app to start coding with your feet. You can plan out your path or simply see where your feet take you. When you are finished, you’ll have an image of how you moved through space. This will be used to code a satisfying TurtleStitch design.  Don’t be surprised to find that you are challenged to walk/run more, making TurtleStitch a part of a creative and healthy lifestyle.</t>
+  </si>
+  <si>
+    <t>How well can you code with your feet?</t>
+  </si>
+  <si>
+    <t>Get Up and Running with TurtleStitch</t>
+  </si>
+  <si>
+    <t>W-1</t>
+  </si>
+  <si>
+    <t>Newport, Rhode Island</t>
+  </si>
+  <si>
+    <t>retired</t>
+  </si>
+  <si>
+    <t>+1 6179539352</t>
+  </si>
+  <si>
+    <t>lloydcrew</t>
+  </si>
+  <si>
+    <t>lloydcrew5@gmail.com</t>
+  </si>
+  <si>
+    <t>Beth Lloyd</t>
+  </si>
+  <si>
+    <t>We need to let people know about it in advance and tell them how to sign up to present -  that might be best done in person during Friday evening and Saturday. RETURNEquipment is usually a good projection set up, some people may need sound.RETURNEither a circle of chairs, or a selection of tables and chairs.RETURNIf possible some simple treats and beverage.RETURN"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The TeachMeet is an Open Space at which all are welcome. RETURNAttendees are invited to put their name down to do share a short presentation (between 2 and 7 minutes approx.) in a relaxed atmosphere. There is no strict agenda. The order will be randomly chosen on the night. It is a social ocassion, at which we can learn from each other as well as relax together. Timekeeping will be strict but fun! </t>
+  </si>
+  <si>
+    <t>Sharing random short stories in a social setting</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>Cavan</t>
+  </si>
+  <si>
+    <t>CESI, Computers in Education Society of Ireland</t>
+  </si>
+  <si>
+    <t>magsamond</t>
+  </si>
+  <si>
+    <t>mags.amond@gmail.com</t>
+  </si>
+  <si>
+    <t>Mags Amond</t>
+  </si>
+  <si>
+    <t>This is best for small groups, but can be done over and over - in one hour, three groups in a row is good.RETURNA table for putting stuff on is the only furniture needed.RETURNSpace for standing in a circle.RETURNA supply of 3v lithium 'coin' batteries (cheapest from IKEA or some such discount store).RETURNLEDS.RETURNSticky tape.RETURNWill people have name badges or some such - they can stick their 'glowies' on the badges.</t>
+  </si>
+  <si>
+    <t>All computers depend on semi-conducting materials - this brief excercise might help us to understand and appreciate them.RETURNWe will form a human circuit incorporating a small chirpy chicken toy called Pieu Pieu, who will act as both input (battery) and output (chirper) in our circuit.RETURNWe will do a group investigation into conducting and non-conducting materials in simple circuits.RETURNWe will introduce ouselves to semi-conducting materials using a diode which is central to all electronic circuits. We will learn a little about these materials - their source and sustainability.RETURNEach of us can then use these materials to make and take way a personalised LED 'Glowie'. RETURNRETURN</t>
+  </si>
+  <si>
+    <t>a hands-on sensemaking excercise to introduce ourselves to the role semi-conductors in electronic circuits</t>
+  </si>
+  <si>
+    <t>Chicken &amp; Chips</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>T-G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I will give examples, Maybe my colleguea will help. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">That will come. </t>
+  </si>
+  <si>
+    <t>Showing what is possible with our visual impaired students and turtle stitch</t>
+  </si>
+  <si>
+    <t>Turtle Stitch with our visual impaired students</t>
+  </si>
+  <si>
+    <t>Arnhem</t>
+  </si>
+  <si>
+    <t>4pipt</t>
+  </si>
+  <si>
+    <t>pauline@4pip.nl</t>
+  </si>
+  <si>
+    <t>Pauline Maas</t>
+  </si>
+  <si>
+    <t>will come</t>
+  </si>
+  <si>
+    <t>Add wearables to your turtle stitch paterns</t>
+  </si>
+  <si>
+    <t>And now wearables</t>
+  </si>
+  <si>
+    <t>T-F</t>
+  </si>
+  <si>
+    <t>4pip</t>
+  </si>
+  <si>
+    <t>What shifts when students can control their Scratch projects by jumping, dancing, or striking poses instead of clicking keys or moving the mouse? This talk examines how ML-powered body tracking as input creates new forms of engagement and joy in programming education, making code feel alive and responsive to our full physical presence.</t>
+  </si>
+  <si>
+    <t>From clicks to kicks: how embodied interaction transforms the joy of learning to code</t>
+  </si>
+  <si>
+    <t>Beyond the Mouse &amp; Keyboard: The Joy of Body-Responsive Coding</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>I will not be attending the workshop. I could present  this talk via Zoom.  Where should I send the 25 Koch Snowflakes that I have embroidered? Included with the embroidery is a little booklet explaining how the Koch snowflake was coded.  I have also embroidered a tote bag that I have made for the conference exemplifying what can be done with TurtleStitch.  The tote bag pattern was coded in TurtleStitch in addition to the design on the tote bag. (The tote bag can either be given to Andrea or as a  token of appreciation or as a giveaway.)</t>
+  </si>
+  <si>
+    <t>A link to the slides, https://docs.google.com/presentation/d/1IBXjHPVGl6vBtBFvvbJIAZbq6kvitxws86n_5CLEObs/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>This TurtleStitch program is a recursive program</t>
+  </si>
+  <si>
+    <t>The Beauty of Coding:  Koch Snowflake</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>T-E</t>
+  </si>
+  <si>
+    <t>Oak Hill, VA</t>
+  </si>
+  <si>
+    <t>Make to Learn, TurtleStitch.blogspot.com and Papercraftetc.blogspot.com</t>
+  </si>
+  <si>
+    <t>1-703-648-3826</t>
+  </si>
+  <si>
+    <t>Elaine</t>
+  </si>
+  <si>
+    <t>surferwolf@aol.com</t>
+  </si>
+  <si>
+    <t>Elaine Wolfe</t>
+  </si>
+  <si>
+    <t>Intended audience: Math/Art Enthusiasts.RETURNWould need to share my screen and demonstrate.RETURNBonus: It would be great if I could generate a .dst file during the demonstration for any of your images, send it to one of your volunteers and stitch it over there for the live demo!</t>
+  </si>
+  <si>
+    <t>Given a picture of your face or any sketch, we can turn it into an embroidery/stitch using just a single continuous line! This project has been inspired by ""Mona Lisa TSP Challenge"" by the University of Waterloo. In the talk, I'm going to cover all the necessary domain knowledge required to theoretically compute it as well as walk you through the entire pipeline of the project to go from the input image to finally exporting the .dst file, which can be imported into your sewing machine to stitch your image.</t>
+  </si>
+  <si>
+    <t>Stich your face with a single continuous line!</t>
+  </si>
+  <si>
+    <t>Face Stitching</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Surat</t>
+  </si>
+  <si>
+    <t>SVNIT</t>
+  </si>
+  <si>
+    <t>+91 9963027979</t>
+  </si>
+  <si>
+    <t>Bhavik_Dodda</t>
+  </si>
+  <si>
+    <t>bhavikdodda22@gmail.com</t>
+  </si>
+  <si>
+    <t>Bhavik Dodda</t>
+  </si>
+  <si>
+    <t>&gt; Blockly games can run on laptop, tablet, mobile, both online and offline - it could be downloaded in English and Dutch (and many other languages)RETURN&gt; Best run as a short workshop, 45 minutes; maybe twice in the 90 minutesRETURN&gt; ideal as a parent &amp; child paired activity, where both. are relative beginners</t>
+  </si>
+  <si>
+    <t>In this self-paced workshop, we will work with a partner through the Blockly levels ....RETURN&gt; navigate the maze with Google MapMan, solve level 10 and claim a prize!RETURN&gt; use conditionals in control-flow to fly the Bird past the snakes back to her nextRETURN&gt; use loops and nested loops to take the Turtle on a tripRETURN&gt; use maths equations to make a mini animated MovieRETURN&gt; use functions to compose music for your own mini-orchestraRETURN&gt; switch between block based and text based commands in the battle PondRETURNRETURNNeil Frazer's Blockly Games are designed as an introduction, a precursor to text-based programming. There are built-in exit strategies in the design - text on blocks is in lower case, java script displayed after each block based success, the final game is built within a text editor.  Contextually aware popups appear and disappear to help with flow.</t>
+  </si>
+  <si>
+    <t>Navigate the maze, make movies with maths, make music and more</t>
+  </si>
+  <si>
+    <t>Blockly Games - learn to think like a turtle</t>
+  </si>
+  <si>
+    <t>T-D</t>
+  </si>
+  <si>
+    <t>Just a projector to show slides.</t>
+  </si>
+  <si>
+    <t>Living on the Atlantic coast in Newport, Rhode Island, I found myself getting curious about seaweed. I kept thinking, ""I should be able to embroider these beautiful specimens."" After two years, I finally figured out how to code them in TurtleStitch. Join me on this journey of discovery without even getting your feet wet!</t>
+  </si>
+  <si>
+    <t>How seaweed made me a better coder.</t>
+  </si>
+  <si>
+    <t>From Seashore to TurtleStitch</t>
+  </si>
+  <si>
+    <t>T-C-2</t>
+  </si>
+  <si>
+    <t>As TurtleStitch marks its 10th anniversary, this talk looks back at the project's journey, celebrates the community that shaped it, and shares a vision for the future of creative, open, and educational technologies. A personal summary from the project lead</t>
+  </si>
+  <si>
+    <t>Reflecting on 10 years of TurtleStitch — and imagining what’s next</t>
+  </si>
+  <si>
+    <t>TurtleStitch at 10: Reflecting Back, Threading Forward</t>
+  </si>
+  <si>
+    <t>T-C-1</t>
+  </si>
+  <si>
+    <t>TurtleStitch</t>
+  </si>
+  <si>
+    <t>chmod</t>
+  </si>
+  <si>
+    <t>mayr@sil.at</t>
+  </si>
+  <si>
+    <t>Andrea Mayr-Stalder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I will showcase some expermental  mixed-media  embroidery projects, using laserengraving,  cyanotype, stencils and varied materials …  using nature motifs as inspiation </t>
+  </si>
+  <si>
+    <t>Showcasing experimental embrodey works by danish artist Jacob Tekiela</t>
+  </si>
+  <si>
+    <t>Expermental mixed-media Practice</t>
+  </si>
+  <si>
+    <t>T-B-4</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Rudkøbing</t>
+  </si>
+  <si>
+    <t>Freelance</t>
+  </si>
+  <si>
+    <t>+45 31768334</t>
+  </si>
+  <si>
+    <t>tekiela</t>
+  </si>
+  <si>
+    <t>jacob.tekiela@gmail.com</t>
+  </si>
+  <si>
+    <t>Jacob Tekiela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no, thanks. my co-presenter would potentially be Sinobia Kenny (if she's coming, I'd love to give her a little more time), if she's not coming, I can totally do with a 10-15 minutes short talk :) </t>
+  </si>
+  <si>
+    <t>For quite a while I've noticed that geometric patterns are all around us. And if you've seen them once, you can't unsee them. RETURNIn this talk, I want to share a couple of ideas from different cities and cultural backgrounds on how to use these unique geometries for generative art in Turtlestitch. How to identify patterns, recode and remix them and make custom merchandise for your city, region, school,...</t>
+  </si>
+  <si>
+    <t>Geometry is everywhere around us - let's use it to create local, custom merchandise</t>
+  </si>
+  <si>
+    <t>Finding Patterns in Your Environment</t>
+  </si>
+  <si>
+    <t>T-B-3</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Heidelberg</t>
+  </si>
+  <si>
+    <t>SAP SE</t>
+  </si>
+  <si>
+    <t>jadga</t>
+  </si>
+  <si>
+    <t>jadga.h@gmail.com</t>
+  </si>
+  <si>
+    <t>Jadga Hügle</t>
+  </si>
+  <si>
+    <t>This the slides I presented at MakerFaire in Orebro, Sweden. RETURNin this vodeo we have the Italian translation for a introductory course I had on Turtlestitch. I have to modify a ltittle  the talk to the Turtlestich audience within next meeting (june)RETURNhttps://www.youtube.com/watch?v=fPt6yXOqahQ</t>
+  </si>
+  <si>
+    <t>In this talk, we explore the story of human creativity, starting with the myth of Arachne. We look at how weaving tools have changed over time , from hand-weaving to the invention of the Jacquard loom. We’ll see how punched cards, used in the loom, helped inspire the first ideas of modern computing. Even though weaving and programming seem very different, they share surprising connections. By mixing old and new technologies, we show how Turtlestitch Platform supports creative collaboration, using code new thread of expressionRETURN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> From weaving a spider web to coding a TurtleStitch project</t>
+  </si>
+  <si>
+    <t>Arachne and Téchne: the story of a turtle who wanted to become a spider</t>
+  </si>
+  <si>
+    <t>T-B-2</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Città di Castello (PG)</t>
+  </si>
+  <si>
+    <t>Università Link</t>
+  </si>
+  <si>
+    <t>brapacc</t>
+  </si>
+  <si>
+    <t>brapacc@yahoo.it</t>
+  </si>
+  <si>
+    <t>Maria Beatrice Rapaccini</t>
+  </si>
+  <si>
+    <t>A roundup of other experiments with other pipelines for machine embroidery. Let's learn together and discuss how these relate to Turtlestitch.</t>
+  </si>
+  <si>
+    <t>Learning from Other ways to Design Machine Embroidery</t>
+  </si>
+  <si>
+    <t>Computer Embroidery Partners</t>
+  </si>
+  <si>
+    <t>T-B-1</t>
+  </si>
+  <si>
+    <t>Guangzhou</t>
+  </si>
+  <si>
+    <t>HKUST Guangzhou</t>
+  </si>
+  <si>
+    <t>+1 413 282 7009</t>
+  </si>
+  <si>
+    <t>margmarg</t>
+  </si>
+  <si>
+    <t>margaret.minsky@gmail.com</t>
+  </si>
+  <si>
+    <t>Margaret Minsky</t>
+  </si>
+  <si>
+    <t>T-A-5</t>
+  </si>
+  <si>
+    <t>+31 6 41 29 09 85</t>
+  </si>
+  <si>
+    <t>None.</t>
+  </si>
+  <si>
+    <t>Great aesthetic value is gained by using a computer to generate interesting graphic forms using Turtlestitch, but usually stitches which are built in to Turtlestitch are used. This talk is to explain how we can use Turtlestitch to vary the stitches themselves, so that they may change their form according to an algorithm, random chance or some linear function of their position in a line of sewing. Such a focus on the micro level is certainly found in hand sewing and may prove a fertile area for artistic and mathematical exploration.</t>
+  </si>
+  <si>
+    <t>TurtleStitch comes with some repeating styles for stitching - can we vary as we sew?</t>
+  </si>
+  <si>
+    <t>Small is beautiful - focussing on the stitch</t>
+  </si>
+  <si>
+    <t>T-A-4</t>
+  </si>
+  <si>
+    <t>Nope, thanks :)</t>
+  </si>
+  <si>
+    <t>Snap! has a lot of power user features that are also available in TurtleStitch. But as it is often with these features, they aren't really discoverable  if you don't already know that they're there. In this talk, I want to share 10 tips in 10 minutes of things that you might not yet be aware of that help me program in TurtleStitch or write curriculum. Learn how to translate custom blocks or create your own block libraries to share with a class, create script and IDE pictures without backgrounds, create blocks with images in the block titles and many more helpful features.</t>
+  </si>
+  <si>
+    <t>Learn a couple of tricks in the TurtleStitch IDE that you might not yet be aware of :)</t>
+  </si>
+  <si>
+    <t>10 things you might not have known about Turtlestitch</t>
+  </si>
+  <si>
+    <t>T-A-3</t>
+  </si>
+  <si>
+    <t>show from laptop via hdmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A presentation of  a work-in-progrss library of patterns up for discussion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shared Library brainstrorm </t>
+  </si>
+  <si>
+    <t>Shared pattern library</t>
+  </si>
+  <si>
+    <t>T-A-2</t>
+  </si>
+  <si>
+    <t>T-A-1</t>
+  </si>
+  <si>
+    <t>Zaterdag 19 juli van 9:30 - 11:30</t>
+  </si>
+  <si>
+    <t>CoderDojo Tilburg</t>
+  </si>
+  <si>
+    <t>CoderDojo session for  CoderDojo children</t>
+  </si>
+  <si>
+    <t>CoderDojo</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Zondag 20 juli van 12:30 - 14:30</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>We want to group the questions and ideas of the community in a organised,  open and inviting place. Too much solutions live in inboxes a small group of people. Where they are forgotten, never updated. We realise this is the start of continuous work, so extra attention should be paid on how to manage this over months and years.</t>
+  </si>
+  <si>
+    <t>Setting up support is work. Inspired by efforts of our family (Scratch, Snap!, Microblocks) this workshop will build a similar system for the TurtleStitch community.</t>
+  </si>
+  <si>
+    <t>Self organised support by TurtleStitch community</t>
+  </si>
+  <si>
+    <t>bof</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Montessori Lyceum Amsterdam</t>
+  </si>
+  <si>
+    <t>xota</t>
+  </si>
+  <si>
+    <t>joek@xota.nl</t>
+  </si>
+  <si>
+    <t>Joek van Montfort</t>
+  </si>
+  <si>
+    <t>Requirments</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Teaser</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Minutes</t>
+  </si>
+  <si>
+    <t>ProgramType</t>
+  </si>
+  <si>
+    <t>ProgramCode</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Affiliation</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Turtlestitch</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>Teach the teacher (All)</t>
+  </si>
+  <si>
+    <t>W-1
+Get Up and Running with TurtleStitch (Beth)</t>
+  </si>
+  <si>
+    <t>W-3
+Starting TurtleStitch (Cynthia)</t>
+  </si>
+  <si>
+    <t>W-4
+Blending Code and Craft (Matthew)</t>
+  </si>
+  <si>
+    <t>W12
+Bodies as Data: From Pose Detection to Stitched Patterns (Stephen)</t>
+  </si>
+  <si>
+    <t>W-2 How … say our code out loud? (Richard)</t>
+  </si>
+  <si>
+    <t>W-7
+Embroidery Machine Essentials (Margaret Low)</t>
+  </si>
+  <si>
+    <t>W-6
+Lets grow trees (Margaret Low)</t>
+  </si>
+  <si>
+    <t>W-8a
+Mixing hand- with machineembroidery (Martine)</t>
+  </si>
+  <si>
+    <t>W-8b
+Create a Critter (Margaret Low)</t>
+  </si>
+  <si>
+    <t>W-9
+TurtleStitch: Where Code Beats Pen! (Simon)</t>
+  </si>
+  <si>
+    <t>W10
+StichLAB &amp; Turtlestitch (Paul-Reza &amp; Walter)</t>
+  </si>
+  <si>
+    <t>W11
+Loops, Twirls &amp; Swirls (Margaret Low)</t>
+  </si>
+  <si>
+    <t>BOF
+Self organised support by TS community</t>
+  </si>
+  <si>
+    <t>TeachMeet @ Hostel Roots Bar (Stationsstraat 41)</t>
+  </si>
+  <si>
+    <t>Refreshments</t>
+  </si>
+  <si>
+    <t>LocHal workshops
+Open for General Public</t>
+  </si>
+  <si>
+    <t>LocHal workshops
+Professionals</t>
+  </si>
+  <si>
+    <t>talks C
+Paul-Reza &amp; Walter / Beth</t>
+  </si>
+  <si>
+    <t>Andrea and friends</t>
+  </si>
+  <si>
+    <t>Some tekst here would be nice</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Workshops 1-3</t>
+  </si>
+  <si>
+    <t>W-4 (Zoom session)
+Blending Code and Craft (Matthew)</t>
+  </si>
+  <si>
+    <t>talks E (Zoom session)
+Bhavik / Elaine</t>
+  </si>
+  <si>
+    <t>W-6
+Lets grow trees (TBA)</t>
+  </si>
+  <si>
+    <t>W-8b
+Create a Critter (TBA)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,8 +1244,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,8 +1302,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAF2D0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkTrellis">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.59996337778862885"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -377,11 +1570,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -395,28 +1601,135 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -428,88 +1741,115 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,20 +1858,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -542,38 +1876,71 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,23 +2275,2662 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ECB2EF-8E52-3942-A2A9-853D953ABB09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD505F6A-EEE1-C84D-8465-DB7BD84C7DE4}">
+  <dimension ref="A1:S36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4:M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="19.5" hidden="1" customWidth="1"/>
+    <col min="8" max="14" width="19.5" customWidth="1"/>
+    <col min="15" max="15" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="65.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="131.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2">
+        <v>31641290984</v>
+      </c>
+      <c r="E2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>334</v>
+      </c>
+      <c r="O2">
+        <v>60</v>
+      </c>
+      <c r="P2" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>332</v>
+      </c>
+      <c r="R2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3">
+        <v>31619440710</v>
+      </c>
+      <c r="F3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>381</v>
+      </c>
+      <c r="M3">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O3">
+        <v>120</v>
+      </c>
+      <c r="P3" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>326</v>
+      </c>
+      <c r="R3" t="s">
+        <v>325</v>
+      </c>
+      <c r="S3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" t="s">
+        <v>328</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>381</v>
+      </c>
+      <c r="M4">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4">
+        <v>120</v>
+      </c>
+      <c r="P4" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>326</v>
+      </c>
+      <c r="R4" t="s">
+        <v>325</v>
+      </c>
+      <c r="S4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" t="s">
+        <v>226</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>181</v>
+      </c>
+      <c r="R5" t="s">
+        <v>180</v>
+      </c>
+      <c r="S5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6">
+        <v>4531768334</v>
+      </c>
+      <c r="E6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" t="s">
+        <v>226</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>320</v>
+      </c>
+      <c r="R6" t="s">
+        <v>319</v>
+      </c>
+      <c r="S6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7">
+        <v>4915117195452</v>
+      </c>
+      <c r="E7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" t="s">
+        <v>226</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>315</v>
+      </c>
+      <c r="R7" t="s">
+        <v>314</v>
+      </c>
+      <c r="S7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" t="s">
+        <v>172</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" t="s">
+        <v>226</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+      <c r="P8" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>310</v>
+      </c>
+      <c r="R8" t="s">
+        <v>309</v>
+      </c>
+      <c r="S8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" t="s">
+        <v>226</v>
+      </c>
+      <c r="O9">
+        <v>10</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>375</v>
+      </c>
+      <c r="R9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" t="s">
+        <v>302</v>
+      </c>
+      <c r="E10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" t="s">
+        <v>226</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>297</v>
+      </c>
+      <c r="R10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D11">
+        <v>393405018258</v>
+      </c>
+      <c r="E11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11" t="s">
+        <v>291</v>
+      </c>
+      <c r="G11" t="s">
+        <v>290</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" t="s">
+        <v>226</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>287</v>
+      </c>
+      <c r="R11" t="s">
+        <v>286</v>
+      </c>
+      <c r="S11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12">
+        <v>4915117195452</v>
+      </c>
+      <c r="E12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12" t="s">
+        <v>280</v>
+      </c>
+      <c r="G12" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" t="s">
+        <v>203</v>
+      </c>
+      <c r="O12">
+        <v>20</v>
+      </c>
+      <c r="P12" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>276</v>
+      </c>
+      <c r="R12" t="s">
+        <v>275</v>
+      </c>
+      <c r="S12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F13" t="s">
+        <v>268</v>
+      </c>
+      <c r="G13" t="s">
+        <v>267</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" t="s">
+        <v>203</v>
+      </c>
+      <c r="O13">
+        <v>20</v>
+      </c>
+      <c r="P13" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>264</v>
+      </c>
+      <c r="R13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14">
+        <v>4369911098878</v>
+      </c>
+      <c r="E14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" t="s">
+        <v>203</v>
+      </c>
+      <c r="O14">
+        <v>30</v>
+      </c>
+      <c r="P14" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>256</v>
+      </c>
+      <c r="R14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F15" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" t="s">
+        <v>221</v>
+      </c>
+      <c r="O15">
+        <v>30</v>
+      </c>
+      <c r="P15" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>252</v>
+      </c>
+      <c r="R15" t="s">
+        <v>251</v>
+      </c>
+      <c r="S15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16">
+        <v>353879373803</v>
+      </c>
+      <c r="E16" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" t="s">
+        <v>221</v>
+      </c>
+      <c r="O16">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>247</v>
+      </c>
+      <c r="R16" t="s">
+        <v>246</v>
+      </c>
+      <c r="S16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" t="s">
+        <v>238</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" t="s">
+        <v>203</v>
+      </c>
+      <c r="O17">
+        <v>20</v>
+      </c>
+      <c r="P17" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>236</v>
+      </c>
+      <c r="R17" t="s">
+        <v>235</v>
+      </c>
+      <c r="S17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" t="s">
+        <v>229</v>
+      </c>
+      <c r="F18" t="s">
+        <v>228</v>
+      </c>
+      <c r="G18" t="s">
+        <v>162</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" t="s">
+        <v>226</v>
+      </c>
+      <c r="O18">
+        <v>15</v>
+      </c>
+      <c r="P18" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>224</v>
+      </c>
+      <c r="R18" t="s">
+        <v>223</v>
+      </c>
+      <c r="S18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19">
+        <v>353878245959</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" t="s">
+        <v>221</v>
+      </c>
+      <c r="O19">
+        <v>30</v>
+      </c>
+      <c r="P19" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>219</v>
+      </c>
+      <c r="R19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20">
+        <v>31653334731</v>
+      </c>
+      <c r="F20" t="s">
+        <v>209</v>
+      </c>
+      <c r="G20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" t="s">
+        <v>203</v>
+      </c>
+      <c r="O20">
+        <v>20</v>
+      </c>
+      <c r="P20" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>214</v>
+      </c>
+      <c r="R20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21">
+        <v>31653334731</v>
+      </c>
+      <c r="F21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" t="s">
+        <v>203</v>
+      </c>
+      <c r="O21">
+        <v>20</v>
+      </c>
+      <c r="P21" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>207</v>
+      </c>
+      <c r="R21" t="s">
+        <v>206</v>
+      </c>
+      <c r="S21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22">
+        <v>353879373803</v>
+      </c>
+      <c r="E22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" t="s">
+        <v>203</v>
+      </c>
+      <c r="O22">
+        <v>30</v>
+      </c>
+      <c r="P22" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>201</v>
+      </c>
+      <c r="R22" t="s">
+        <v>200</v>
+      </c>
+      <c r="S22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23">
+        <v>353879373803</v>
+      </c>
+      <c r="E23" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" t="s">
+        <v>193</v>
+      </c>
+      <c r="N23" t="s">
+        <v>89</v>
+      </c>
+      <c r="O23">
+        <v>120</v>
+      </c>
+      <c r="P23" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>192</v>
+      </c>
+      <c r="R23" t="s">
+        <v>191</v>
+      </c>
+      <c r="S23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" t="s">
+        <v>183</v>
+      </c>
+      <c r="N24" t="s">
+        <v>89</v>
+      </c>
+      <c r="O24">
+        <v>60</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>181</v>
+      </c>
+      <c r="R24" t="s">
+        <v>180</v>
+      </c>
+      <c r="S24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" t="s">
+        <v>172</v>
+      </c>
+      <c r="H25" t="s">
+        <v>171</v>
+      </c>
+      <c r="N25" t="s">
+        <v>89</v>
+      </c>
+      <c r="O25">
+        <v>30</v>
+      </c>
+      <c r="P25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>169</v>
+      </c>
+      <c r="R25" t="s">
+        <v>168</v>
+      </c>
+      <c r="S25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26">
+        <v>31641290984</v>
+      </c>
+      <c r="F26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" t="s">
+        <v>161</v>
+      </c>
+      <c r="N26" t="s">
+        <v>89</v>
+      </c>
+      <c r="O26">
+        <v>60</v>
+      </c>
+      <c r="P26" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>159</v>
+      </c>
+      <c r="R26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27">
+        <v>233550189144</v>
+      </c>
+      <c r="E27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" t="s">
+        <v>154</v>
+      </c>
+      <c r="G27" t="s">
+        <v>153</v>
+      </c>
+      <c r="H27" t="s">
+        <v>152</v>
+      </c>
+      <c r="N27" t="s">
+        <v>89</v>
+      </c>
+      <c r="O27">
+        <v>60</v>
+      </c>
+      <c r="P27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>150</v>
+      </c>
+      <c r="R27" t="s">
+        <v>149</v>
+      </c>
+      <c r="S27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28">
+        <v>31619440710</v>
+      </c>
+      <c r="F28" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" t="s">
+        <v>144</v>
+      </c>
+      <c r="N28" t="s">
+        <v>89</v>
+      </c>
+      <c r="O28">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>142</v>
+      </c>
+      <c r="R28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" t="s">
+        <v>140</v>
+      </c>
+      <c r="N29" t="s">
+        <v>89</v>
+      </c>
+      <c r="O29">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>138</v>
+      </c>
+      <c r="R29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" t="s">
+        <v>136</v>
+      </c>
+      <c r="N30" t="s">
+        <v>89</v>
+      </c>
+      <c r="O30">
+        <v>60</v>
+      </c>
+      <c r="P30" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>134</v>
+      </c>
+      <c r="R30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" t="s">
+        <v>131</v>
+      </c>
+      <c r="N31" t="s">
+        <v>89</v>
+      </c>
+      <c r="O31">
+        <v>60</v>
+      </c>
+      <c r="P31" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>129</v>
+      </c>
+      <c r="R31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" t="s">
+        <v>121</v>
+      </c>
+      <c r="N32" t="s">
+        <v>89</v>
+      </c>
+      <c r="O32">
+        <v>60</v>
+      </c>
+      <c r="P32" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>375</v>
+      </c>
+      <c r="R32" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" t="s">
+        <v>113</v>
+      </c>
+      <c r="H33" t="s">
+        <v>112</v>
+      </c>
+      <c r="N33" t="s">
+        <v>89</v>
+      </c>
+      <c r="O33">
+        <v>60</v>
+      </c>
+      <c r="P33" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>110</v>
+      </c>
+      <c r="R33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34">
+        <v>436801162512</v>
+      </c>
+      <c r="E34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" t="s">
+        <v>102</v>
+      </c>
+      <c r="N34" t="s">
+        <v>89</v>
+      </c>
+      <c r="O34">
+        <v>60</v>
+      </c>
+      <c r="P34" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>100</v>
+      </c>
+      <c r="R34" t="s">
+        <v>99</v>
+      </c>
+      <c r="S34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" t="s">
+        <v>90</v>
+      </c>
+      <c r="N35" t="s">
+        <v>89</v>
+      </c>
+      <c r="O35">
+        <v>60</v>
+      </c>
+      <c r="P35" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>87</v>
+      </c>
+      <c r="R35" t="s">
+        <v>86</v>
+      </c>
+      <c r="S35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36">
+        <v>353878245959</v>
+      </c>
+      <c r="E36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s">
+        <v>79</v>
+      </c>
+      <c r="N36" t="s">
+        <v>78</v>
+      </c>
+      <c r="O36">
+        <v>90</v>
+      </c>
+      <c r="P36" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>76</v>
+      </c>
+      <c r="R36" t="s">
+        <v>75</v>
+      </c>
+      <c r="S36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7920298-6934-7444-8006-6BD14A404B06}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="58" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="2" max="7" width="39" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" s="17" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+    </row>
+    <row r="8" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+    </row>
+    <row r="9" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="71"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="57"/>
+      <c r="J10" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="57"/>
+      <c r="J11" s="52"/>
+      <c r="L11" s="40"/>
+    </row>
+    <row r="12" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="57"/>
+      <c r="J12" s="54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="83"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="57"/>
+      <c r="J13" s="55"/>
+      <c r="L13" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>374</v>
+      </c>
+      <c r="C14" s="83"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="57"/>
+      <c r="J14" s="47" t="s">
+        <v>371</v>
+      </c>
+      <c r="L14" s="36"/>
+      <c r="N14" s="33"/>
+    </row>
+    <row r="15" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="58"/>
+      <c r="J15" s="48"/>
+    </row>
+    <row r="16" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="17" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="50"/>
+      <c r="K17"/>
+      <c r="L17" s="35"/>
+      <c r="M17"/>
+      <c r="N17" s="32"/>
+      <c r="O17"/>
+    </row>
+    <row r="18" spans="1:15" s="17" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="J18" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18" s="36"/>
+      <c r="M18"/>
+      <c r="N18" s="33"/>
+      <c r="O18"/>
+    </row>
+    <row r="19" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="62"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="46"/>
+    </row>
+    <row r="20" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="59"/>
+      <c r="L20" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="N20" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="64"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
+      <c r="H21" s="59"/>
+      <c r="L21" s="35"/>
+      <c r="N21" s="32"/>
+    </row>
+    <row r="22" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="69"/>
+      <c r="H22" s="59"/>
+      <c r="L22" s="35"/>
+      <c r="N22" s="32"/>
+    </row>
+    <row r="23" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="59"/>
+      <c r="L23" s="36"/>
+      <c r="N23" s="33"/>
+    </row>
+    <row r="24" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="61" t="s">
+        <v>357</v>
+      </c>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="56" t="s">
+        <v>382</v>
+      </c>
+      <c r="H24" s="59"/>
+    </row>
+    <row r="25" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="59"/>
+      <c r="L25" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B26" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="59"/>
+      <c r="L26" s="35"/>
+      <c r="N26" s="32"/>
+    </row>
+    <row r="27" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="B27" s="85"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="59"/>
+      <c r="L27" s="35"/>
+      <c r="N27" s="32"/>
+    </row>
+    <row r="28" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>384</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="47" t="s">
+        <v>385</v>
+      </c>
+      <c r="G28" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="H28" s="59"/>
+      <c r="L28" s="35"/>
+      <c r="N28" s="32"/>
+    </row>
+    <row r="29" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="59"/>
+      <c r="L29" s="36"/>
+      <c r="N29" s="33"/>
+    </row>
+    <row r="30" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="61" t="s">
+        <v>363</v>
+      </c>
+      <c r="E30" s="62"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="59"/>
+    </row>
+    <row r="31" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="H31" s="59"/>
+    </row>
+    <row r="32" spans="1:15" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B32" s="125"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="59"/>
+    </row>
+    <row r="33" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="B33" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="60"/>
+    </row>
+    <row r="34" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="90"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="123"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="122"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="123"/>
+    </row>
+    <row r="38" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="93"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="88" t="s">
+        <v>369</v>
+      </c>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="90"/>
+    </row>
+    <row r="40" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="93"/>
+    </row>
+    <row r="41" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:8" s="17" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+    </row>
+    <row r="45" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="62"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B46" s="40"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="57"/>
+    </row>
+    <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="56" t="s">
+        <v>365</v>
+      </c>
+      <c r="H47" s="57"/>
+    </row>
+    <row r="48" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="57"/>
+    </row>
+    <row r="49" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>370</v>
+      </c>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="57"/>
+    </row>
+    <row r="50" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C50" s="110" t="s">
+        <v>368</v>
+      </c>
+      <c r="D50" s="61" t="s">
+        <v>367</v>
+      </c>
+      <c r="E50" s="62"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="H50" s="57"/>
+    </row>
+    <row r="51" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C51" s="111"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="57"/>
+    </row>
+    <row r="52" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="57"/>
+    </row>
+    <row r="53" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="B53" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="103"/>
+      <c r="H53" s="58"/>
+    </row>
+    <row r="54" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="89"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="89"/>
+      <c r="G55" s="90"/>
+    </row>
+    <row r="56" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="91"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="92"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="93"/>
+    </row>
+    <row r="62" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="40"/>
+      <c r="C64" s="48"/>
+    </row>
+    <row r="65" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="2:3" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="40"/>
+    </row>
+    <row r="68" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="47" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="40"/>
+      <c r="C70" s="48"/>
+    </row>
+    <row r="71" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="47" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="40"/>
+      <c r="C73" s="48"/>
+    </row>
+    <row r="74" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="40"/>
+      <c r="C76" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" s="47" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="40"/>
+      <c r="C79" s="48"/>
+    </row>
+    <row r="80" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" s="47" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="40"/>
+      <c r="C82" s="48"/>
+    </row>
+    <row r="83" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="D84" s="47" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="48"/>
+      <c r="D85" s="48"/>
+    </row>
+    <row r="86" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C87" s="56" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="36"/>
+    </row>
+    <row r="89" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C90" s="56" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="36"/>
+    </row>
+    <row r="92" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C93" s="47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="48"/>
+    </row>
+    <row r="95" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C96" s="47" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="100"/>
+    </row>
+    <row r="98" spans="3:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="70">
+    <mergeCell ref="D50:F52"/>
+    <mergeCell ref="D30:F32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B55:G56"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G8"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="D19:F22"/>
+    <mergeCell ref="B26:G27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="H9:H15"/>
+    <mergeCell ref="H19:H33"/>
+    <mergeCell ref="H45:H53"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D45:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="D9:F10"/>
+    <mergeCell ref="B11:F12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B35:G38"/>
+    <mergeCell ref="B39:G40"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="N16:N18"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="N20:N23"/>
+    <mergeCell ref="L25:L29"/>
+    <mergeCell ref="N25:N29"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="F28:F29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="44" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3ECB2EF-8E52-3942-A2A9-853D953ABB09}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="16.5" customWidth="1"/>
     <col min="8" max="8" width="4.6640625" customWidth="1"/>
     <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -954,65 +4960,65 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="I4" s="5" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="I4" s="51" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="I5" s="6"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="I5" s="52"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="I6" s="7" t="s">
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="I6" s="54" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="I7" s="8"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="I8" s="9" t="s">
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="I8" s="119" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1020,29 +5026,29 @@
       <c r="A9" s="2">
         <v>0.75</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="13" t="s">
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="120"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="14"/>
-      <c r="I10" s="11" t="s">
+      <c r="B10" s="79"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="57"/>
+      <c r="I10" s="45" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1050,35 +5056,35 @@
       <c r="A11" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="14"/>
-      <c r="I11" s="12"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="57"/>
+      <c r="I11" s="46"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>0.8125</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="14"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="57"/>
     </row>
     <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="15"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="58"/>
     </row>
     <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1105,237 +5111,272 @@
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-    </row>
-    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="37" t="s">
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="49" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>0.4375</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="38"/>
-    </row>
-    <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="112" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="114"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="59"/>
+    </row>
+    <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="38"/>
-    </row>
-    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="40"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="59"/>
+    </row>
+    <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="38"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="59"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>0.5</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="38"/>
-    </row>
-    <row r="22" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="59"/>
+      <c r="L21" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="38"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="59"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="38"/>
-    </row>
-    <row r="24" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="59"/>
+    </row>
+    <row r="24" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.5625</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="38"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="85"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="59"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="38"/>
-    </row>
-    <row r="26" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="117" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="59"/>
+    </row>
+    <row r="26" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="38"/>
-    </row>
-    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="40"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="59"/>
+    </row>
+    <row r="27" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.625</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="38"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="59"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="38"/>
-    </row>
-    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="59"/>
+    </row>
+    <row r="29" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="38"/>
-    </row>
-    <row r="30" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="59"/>
+    </row>
+    <row r="30" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>0.6875</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="39"/>
-    </row>
-    <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="60"/>
+    </row>
+    <row r="31" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="78"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="81"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="81"/>
     </row>
     <row r="35" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="87"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="24"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="90"/>
     </row>
     <row r="37" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="27"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="93"/>
     </row>
     <row r="38" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1367,27 +5408,31 @@
       <c r="A41" s="2">
         <v>0.5</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="56" t="s">
+      <c r="B42" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="57"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="13" t="s">
+      <c r="E42" s="71"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="56" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1395,163 +5440,156 @@
       <c r="A43" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="14"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="57"/>
     </row>
     <row r="44" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>0.5625</v>
       </c>
-      <c r="D44" s="62"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="14"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="57"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="14"/>
+      <c r="B45" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="57"/>
     </row>
     <row r="46" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="14"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="57"/>
     </row>
     <row r="47" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>0.625</v>
       </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="14"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="57"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="14"/>
+      <c r="B48" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="35"/>
+      <c r="G48" s="57"/>
     </row>
     <row r="49" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="14"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="57"/>
     </row>
     <row r="50" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>0.6875</v>
       </c>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="15"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="58"/>
     </row>
     <row r="51" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="103"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="16"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="18"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="106"/>
     </row>
     <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="21"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="108"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="108"/>
+      <c r="G53" s="109"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="24"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="90"/>
     </row>
     <row r="55" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="27"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="92"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="D42:F44"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="B9:F13"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D17:F20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F45:F50"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B4:G8"/>
-    <mergeCell ref="B23:F24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F25:F30"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="G9:G13"/>
     <mergeCell ref="B52:G53"/>
     <mergeCell ref="B54:G55"/>
     <mergeCell ref="B36:G37"/>
@@ -1565,13 +5603,38 @@
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="D45:D47"/>
     <mergeCell ref="E45:E47"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="F45:F50"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B4:G8"/>
+    <mergeCell ref="B23:F24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B9:F13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="D42:F44"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D17:F20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="77" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/docs/scheduleTurtlestitch10.xlsx
+++ b/docs/scheduleTurtlestitch10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joekvanmontfort/Documents/GitHub/turtlestitch10/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5FA289-1920-6240-BE26-A48A247AC4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4060A7F7-87F2-F647-9E6D-F59F3B600813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="800" windowWidth="28240" windowHeight="16840" activeTab="1" xr2:uid="{81F1DF98-07C1-7A42-BCBC-CF2DA53DE83F}"/>
+    <workbookView xWindow="3580" yWindow="500" windowWidth="28240" windowHeight="16840" activeTab="1" xr2:uid="{81F1DF98-07C1-7A42-BCBC-CF2DA53DE83F}"/>
   </bookViews>
   <sheets>
     <sheet name="ingredients" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="first sketch" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'block schedule'!$A$1:$I$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'block schedule'!$A$1:$I$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="409">
   <si>
     <t>Friday</t>
   </si>
@@ -197,9 +197,6 @@
   <si>
     <t>Arrive early and take your chance to visit Textile Museum
 If your arrive real early you can visit Bridges conference July 14-17 Eindhoven!</t>
-  </si>
-  <si>
-    <t>Workshop Teach the teachers</t>
   </si>
   <si>
     <t>Coderdojo 9:30-11:30</t>
@@ -210,9 +207,6 @@
 Exhibition</t>
   </si>
   <si>
-    <t>Speed talks</t>
-  </si>
-  <si>
     <t>futurelab</t>
   </si>
   <si>
@@ -249,34 +243,6 @@
     <t>Coderdojo 12:30-14:30</t>
   </si>
   <si>
-    <t>talks C
-Andrea / Beth</t>
-  </si>
-  <si>
-    <t>talks B
-Margaret M / Beatrice / Jadga / Jakob</t>
-  </si>
-  <si>
-    <t>talks G
-Pauline / Mags</t>
-  </si>
-  <si>
-    <t>talks A
-Beth/ Jacob/ Jadga/ Richard/ Martine</t>
-  </si>
-  <si>
-    <t>talks D
-Mags: Blockly Games</t>
-  </si>
-  <si>
-    <t>talks F
-Stephen / Pauline</t>
-  </si>
-  <si>
-    <t>talks E
-Bhavik / Elaine</t>
-  </si>
-  <si>
     <t xml:space="preserve">Audience: children to adults. Some space / ability to cordon off small area needed for cameras. Electricity sockets x 2. Small table and chair for presenter (if low table, no chair needed if podium style). Projector / large TV for audience. Happy to run as 90 minute workshop or 180 minutes as timetable requires. </t>
   </si>
   <si>
@@ -292,9 +258,6 @@
     <t>extended</t>
   </si>
   <si>
-    <t>W12</t>
-  </si>
-  <si>
     <t>Ireland</t>
   </si>
   <si>
@@ -325,9 +288,6 @@
     <t>workshop</t>
   </si>
   <si>
-    <t>W11</t>
-  </si>
-  <si>
     <t>United Kingdom</t>
   </si>
   <si>
@@ -361,9 +321,6 @@
     <t>StichLAB meets Turtlestitch</t>
   </si>
   <si>
-    <t>W10</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
@@ -382,18 +339,12 @@
     <t xml:space="preserve">Paul-Reza Klein, Walter Lunzer </t>
   </si>
   <si>
-    <t>Title: ""TurtleStitch: Where Code Beats Pen!""RETURNTo celebrate TurtleStitch’s 10th anniversary, I’m excited to host a hands-on workshop showcasing a major upgrade to two block libraries, designed to bridge the gap between creative freedom and precision in machine embroidery.RETURNKey Features:RETURNNatural Curve Drawing: New blocks enable mouse-followed natural sketching, turning freehand gestures into smooth stitch-ready paths.RETURNSmart Area Filling: Fill bounded regions with parametric control over angle, density, and even user-defined stitch patterns.RETURNCustom Stitch &amp; Fill Methods: Users can now define and reuse their own stitch styles (e.g., square, diamond) and fill methods.RETURNRETURNWorkshop Flow:RETURNParticipants will learn these blocks through a fun demo project—designing an embroidery pattern as intuitively as drawing on paper, using keyboard and mouse. By the end, attendees will:RETURNRETURNMaster the new blocks for organic design and structured filling.RETURNCreate a personalized embroidery file to stitch physically.RETURNLeave inspired to merge analog artistry with digital precision.RETURNRETURNWhy Attend?RETURNWhether you’re a coder, artist, or educator, this upgrade empowers expressive and repeatable textile art. Let’s celebrate a decade of TurtleStitch by pushing its creative limits together!</t>
-  </si>
-  <si>
     <t>Unleash your creativity without limits—TurtleStitch turns code into embroidery art faster than a pen!</t>
   </si>
   <si>
     <t>TurtleStitch: Where Code Beats Pen!</t>
   </si>
   <si>
-    <t>W-9</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -418,9 +369,6 @@
     <t>Mixing handembroidery with machineembroidery</t>
   </si>
   <si>
-    <t>W-8b</t>
-  </si>
-  <si>
     <t>The Netherlands</t>
   </si>
   <si>
@@ -448,9 +396,6 @@
     <t>Create a Critter</t>
   </si>
   <si>
-    <t>W-8a</t>
-  </si>
-  <si>
     <t>UK</t>
   </si>
   <si>
@@ -463,9 +408,6 @@
     <t>Embroidery Machine Essentials</t>
   </si>
   <si>
-    <t>W-7</t>
-  </si>
-  <si>
     <t>Recursion is a powerful programming technique that allows complex structures to emerge from simple rules—and trees are the perfect example! Each branch divides into smaller branches, creating intricate patterns that resemble nature itself.RETURNIn this hands on workshop, you'll discover how recursion works and use it to generate tree-like patterns with TurtleStitch. We'll start by developing a simple recursive tree, breaking down its structure step by step. Then, we'll explore how to introduce variations, randomness, and creative elements to generate unique tree designs.RETURN</t>
   </si>
   <si>
@@ -475,9 +417,6 @@
     <t>Lets grow trees</t>
   </si>
   <si>
-    <t>W-6</t>
-  </si>
-  <si>
     <t>This could be very helpful for us as CoderDojo or other interested.</t>
   </si>
   <si>
@@ -487,9 +426,6 @@
     <t>Teach the teacher</t>
   </si>
   <si>
-    <t>W-5</t>
-  </si>
-  <si>
     <t>Netherlands</t>
   </si>
   <si>
@@ -511,9 +447,6 @@
     <t>Blending Code and Craft: Interactive Embroidery with Sensors and TurtleStitch</t>
   </si>
   <si>
-    <t>W-4</t>
-  </si>
-  <si>
     <t>Ghana</t>
   </si>
   <si>
@@ -538,9 +471,6 @@
     <t>Starting TurtleStitch</t>
   </si>
   <si>
-    <t>W-3</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
@@ -568,9 +498,6 @@
     <t>How do we say our code out loud?</t>
   </si>
   <si>
-    <t>W-2</t>
-  </si>
-  <si>
     <t>IE</t>
   </si>
   <si>
@@ -604,9 +531,6 @@
     <t>Get Up and Running with TurtleStitch</t>
   </si>
   <si>
-    <t>W-1</t>
-  </si>
-  <si>
     <t>Newport, Rhode Island</t>
   </si>
   <si>
@@ -634,9 +558,6 @@
     <t>Sharing random short stories in a social setting</t>
   </si>
   <si>
-    <t>TM</t>
-  </si>
-  <si>
     <t>Cavan</t>
   </si>
   <si>
@@ -667,9 +588,6 @@
     <t>medium</t>
   </si>
   <si>
-    <t>T-G</t>
-  </si>
-  <si>
     <t xml:space="preserve">I will give examples, Maybe my colleguea will help. </t>
   </si>
   <si>
@@ -694,18 +612,12 @@
     <t>Pauline Maas</t>
   </si>
   <si>
-    <t>will come</t>
-  </si>
-  <si>
     <t>Add wearables to your turtle stitch paterns</t>
   </si>
   <si>
     <t>And now wearables</t>
   </si>
   <si>
-    <t>T-F</t>
-  </si>
-  <si>
     <t>4pip</t>
   </si>
   <si>
@@ -736,9 +648,6 @@
     <t>short</t>
   </si>
   <si>
-    <t>T-E</t>
-  </si>
-  <si>
     <t>Oak Hill, VA</t>
   </si>
   <si>
@@ -802,9 +711,6 @@
     <t>Blockly Games - learn to think like a turtle</t>
   </si>
   <si>
-    <t>T-D</t>
-  </si>
-  <si>
     <t>Just a projector to show slides.</t>
   </si>
   <si>
@@ -817,9 +723,6 @@
     <t>From Seashore to TurtleStitch</t>
   </si>
   <si>
-    <t>T-C-2</t>
-  </si>
-  <si>
     <t>As TurtleStitch marks its 10th anniversary, this talk looks back at the project's journey, celebrates the community that shaped it, and shares a vision for the future of creative, open, and educational technologies. A personal summary from the project lead</t>
   </si>
   <si>
@@ -829,9 +732,6 @@
     <t>TurtleStitch at 10: Reflecting Back, Threading Forward</t>
   </si>
   <si>
-    <t>T-C-1</t>
-  </si>
-  <si>
     <t>TurtleStitch</t>
   </si>
   <si>
@@ -853,9 +753,6 @@
     <t>Expermental mixed-media Practice</t>
   </si>
   <si>
-    <t>T-B-4</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -889,9 +786,6 @@
     <t>Finding Patterns in Your Environment</t>
   </si>
   <si>
-    <t>T-B-3</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -922,9 +816,6 @@
     <t>Arachne and Téchne: the story of a turtle who wanted to become a spider</t>
   </si>
   <si>
-    <t>T-B-2</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
@@ -952,9 +843,6 @@
     <t>Computer Embroidery Partners</t>
   </si>
   <si>
-    <t>T-B-1</t>
-  </si>
-  <si>
     <t>Guangzhou</t>
   </si>
   <si>
@@ -973,15 +861,9 @@
     <t>Margaret Minsky</t>
   </si>
   <si>
-    <t>T-A-5</t>
-  </si>
-  <si>
     <t>+31 6 41 29 09 85</t>
   </si>
   <si>
-    <t>None.</t>
-  </si>
-  <si>
     <t>Great aesthetic value is gained by using a computer to generate interesting graphic forms using Turtlestitch, but usually stitches which are built in to Turtlestitch are used. This talk is to explain how we can use Turtlestitch to vary the stitches themselves, so that they may change their form according to an algorithm, random chance or some linear function of their position in a line of sewing. Such a focus on the micro level is certainly found in hand sewing and may prove a fertile area for artistic and mathematical exploration.</t>
   </si>
   <si>
@@ -991,12 +873,6 @@
     <t>Small is beautiful - focussing on the stitch</t>
   </si>
   <si>
-    <t>T-A-4</t>
-  </si>
-  <si>
-    <t>Nope, thanks :)</t>
-  </si>
-  <si>
     <t>Snap! has a lot of power user features that are also available in TurtleStitch. But as it is often with these features, they aren't really discoverable  if you don't already know that they're there. In this talk, I want to share 10 tips in 10 minutes of things that you might not yet be aware of that help me program in TurtleStitch or write curriculum. Learn how to translate custom blocks or create your own block libraries to share with a class, create script and IDE pictures without backgrounds, create blocks with images in the block titles and many more helpful features.</t>
   </si>
   <si>
@@ -1006,9 +882,6 @@
     <t>10 things you might not have known about Turtlestitch</t>
   </si>
   <si>
-    <t>T-A-3</t>
-  </si>
-  <si>
     <t>show from laptop via hdmi</t>
   </si>
   <si>
@@ -1021,15 +894,6 @@
     <t>Shared pattern library</t>
   </si>
   <si>
-    <t>T-A-2</t>
-  </si>
-  <si>
-    <t>T-A-1</t>
-  </si>
-  <si>
-    <t>Zaterdag 19 juli van 9:30 - 11:30</t>
-  </si>
-  <si>
     <t>CoderDojo Tilburg</t>
   </si>
   <si>
@@ -1039,15 +903,9 @@
     <t>CoderDojo</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>Zondag 20 juli van 12:30 - 14:30</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>We want to group the questions and ideas of the community in a organised,  open and inviting place. Too much solutions live in inboxes a small group of people. Where they are forgotten, never updated. We realise this is the start of continuous work, so extra attention should be paid on how to manage this over months and years.</t>
   </si>
   <si>
@@ -1060,9 +918,6 @@
     <t>bof</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Amsterdam</t>
   </si>
   <si>
@@ -1118,66 +973,6 @@
   </si>
   <si>
     <t>first</t>
-  </si>
-  <si>
-    <t>Teach the teacher (All)</t>
-  </si>
-  <si>
-    <t>W-1
-Get Up and Running with TurtleStitch (Beth)</t>
-  </si>
-  <si>
-    <t>W-3
-Starting TurtleStitch (Cynthia)</t>
-  </si>
-  <si>
-    <t>W-4
-Blending Code and Craft (Matthew)</t>
-  </si>
-  <si>
-    <t>W12
-Bodies as Data: From Pose Detection to Stitched Patterns (Stephen)</t>
-  </si>
-  <si>
-    <t>W-2 How … say our code out loud? (Richard)</t>
-  </si>
-  <si>
-    <t>W-7
-Embroidery Machine Essentials (Margaret Low)</t>
-  </si>
-  <si>
-    <t>W-6
-Lets grow trees (Margaret Low)</t>
-  </si>
-  <si>
-    <t>W-8a
-Mixing hand- with machineembroidery (Martine)</t>
-  </si>
-  <si>
-    <t>W-8b
-Create a Critter (Margaret Low)</t>
-  </si>
-  <si>
-    <t>W-9
-TurtleStitch: Where Code Beats Pen! (Simon)</t>
-  </si>
-  <si>
-    <t>W10
-StichLAB &amp; Turtlestitch (Paul-Reza &amp; Walter)</t>
-  </si>
-  <si>
-    <t>W11
-Loops, Twirls &amp; Swirls (Margaret Low)</t>
-  </si>
-  <si>
-    <t>BOF
-Self organised support by TS community</t>
-  </si>
-  <si>
-    <t>TeachMeet @ Hostel Roots Bar (Stationsstraat 41)</t>
-  </si>
-  <si>
-    <t>Refreshments</t>
   </si>
   <si>
     <t>LocHal workshops
@@ -1188,55 +983,326 @@
 Professionals</t>
   </si>
   <si>
-    <t>talks C
+    <t>Some tekst here would be nice</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Workshops 1-3</t>
+  </si>
+  <si>
+    <t>Small auditorium</t>
+  </si>
+  <si>
+    <t>Large auditorium</t>
+  </si>
+  <si>
+    <t>Futurelab</t>
+  </si>
+  <si>
+    <t>Hostel Roots</t>
+  </si>
+  <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>Speedtalks</t>
+  </si>
+  <si>
+    <t>All contributors will get exactly 60 seconds to introduce themselves and give sneak peak into their contribution</t>
+  </si>
+  <si>
+    <t>No slides, just one picture</t>
+  </si>
+  <si>
+    <t>Susan Ettenheim</t>
+  </si>
+  <si>
+    <t>susanettenheim@gmail.com</t>
+  </si>
+  <si>
+    <t>Instagrammable</t>
+  </si>
+  <si>
+    <t>How to Make Turtlestitch Projects Instagram Worthy! ... and what does that really mean?</t>
+  </si>
+  <si>
+    <t>We can teach computer science through the arts. RETURNWe can make the abstract of coding and programming real and touchable with Turtlestitch. RETURNThe bigger question that remains, is how do we fill that gap between the point of making a coded Turtlestitch project and the point when a student (or any human) is so excited that they want to Instagram it? And what does that even mean?RETURNRETURNWhen a project becomes personally expressive and satisfying, it is human nature to share it and isn’t that exactly what defines great learning? How do we articulate the pedagogy that creates these magic moments and why is TurtleStich a perfect companion for this mission?RETURNRETURNThis workshop proposes some concrete steps and projects to use to inspire and bridge that gap.</t>
+  </si>
+  <si>
+    <t>Doubles as a celebration of the diversity TurtleStitch embraces.</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>High School for the Fashion Inductry</t>
+  </si>
+  <si>
+    <t>New York NY</t>
+  </si>
+  <si>
+    <t>Newport RI</t>
+  </si>
+  <si>
+    <t>PeterMathijssen</t>
+  </si>
+  <si>
+    <t>susanettenheim</t>
+  </si>
+  <si>
+    <t>All turtlestitchers present</t>
+  </si>
+  <si>
+    <t>To celebrate TurtleStitch’s 10th anniversary, I’m excited to host a hands-on workshop showcasing a major upgrade to two block libraries, designed to bridge the gap between creative freedom and precision in machine embroidery.RETURNKey Features:RETURNNatural Curve Drawing: New blocks enable mouse-followed natural sketching, turning freehand gestures into smooth stitch-ready paths.RETURNSmart Area Filling: Fill bounded regions with parametric control over angle, density, and even user-defined stitch patterns.RETURNCustom Stitch &amp; Fill Methods: Users can now define and reuse their own stitch styles (e.g., square, diamond) and fill methods.RETURNRETURNWorkshop Flow:RETURNParticipants will learn these blocks through a fun demo project—designing an embroidery pattern as intuitively as drawing on paper, using keyboard and mouse. By the end, attendees will:RETURNRETURNMaster the new blocks for organic design and structured filling.RETURNCreate a personalized embroidery file to stitch physically.RETURNLeave inspired to merge analog artistry with digital precision.RETURNRETURNWhy Attend?RETURNWhether you’re a coder, artist, or educator, this upgrade empowers expressive and repeatable textile art. Let’s celebrate a decade of TurtleStitch by pushing its creative limits together!</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>LocHal Birds of Feather session</t>
+  </si>
+  <si>
+    <t>Refreshments 11:30-12:00</t>
+  </si>
+  <si>
+    <t>Lunch break 13:00-14:00</t>
+  </si>
+  <si>
+    <t>Refreshments 14:30-15:00</t>
+  </si>
+  <si>
+    <t>w1</t>
+  </si>
+  <si>
+    <t>w2</t>
+  </si>
+  <si>
+    <t>w3</t>
+  </si>
+  <si>
+    <t>w4</t>
+  </si>
+  <si>
+    <t>w5a</t>
+  </si>
+  <si>
+    <t>w5b</t>
+  </si>
+  <si>
+    <t>w6</t>
+  </si>
+  <si>
+    <t>w7</t>
+  </si>
+  <si>
+    <t>w8</t>
+  </si>
+  <si>
+    <t>w9</t>
+  </si>
+  <si>
+    <t>w10</t>
+  </si>
+  <si>
+    <t>w11</t>
+  </si>
+  <si>
+    <t>w12</t>
+  </si>
+  <si>
+    <t>o1</t>
+  </si>
+  <si>
+    <t>o2</t>
+  </si>
+  <si>
+    <t>t1a</t>
+  </si>
+  <si>
+    <t>t1b</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>t2a</t>
+  </si>
+  <si>
+    <t>t2b</t>
+  </si>
+  <si>
+    <t>t2c</t>
+  </si>
+  <si>
+    <t>t2d</t>
+  </si>
+  <si>
+    <t>t2e</t>
+  </si>
+  <si>
+    <t>t3a</t>
+  </si>
+  <si>
+    <t>t3b</t>
+  </si>
+  <si>
+    <t>t4a</t>
+  </si>
+  <si>
+    <t>t4b</t>
+  </si>
+  <si>
+    <t>t5a</t>
+  </si>
+  <si>
+    <t>t5b</t>
+  </si>
+  <si>
+    <t>t5c</t>
+  </si>
+  <si>
+    <t>t5d</t>
+  </si>
+  <si>
+    <t>tm</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t7a</t>
+  </si>
+  <si>
+    <t>t7b</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>Workshop Teach the teachers 18:00-19:00 (w1)</t>
+  </si>
+  <si>
+    <t>Andrea and friends 19:30-20:00</t>
+  </si>
+  <si>
+    <t>Speedtalks 20:00-20:30</t>
+  </si>
+  <si>
+    <t>Blending Code and Craft (Matthew)
+12:00-13:00 (Zoom session w2)</t>
+  </si>
+  <si>
+    <t>Bodies as Data: From Pose Detection to Stitched Patterns (Stephen) 14:00-15:30 (w4)</t>
+  </si>
+  <si>
+    <t>Lets grow trees (TBA)
+14:00-15:00 w5a</t>
+  </si>
+  <si>
+    <t>Create a Critter (TBA)
+14:00-15:00 (w5b)</t>
+  </si>
+  <si>
+    <t>Mixing hand- with machineembroidery (Martine)
+15:00-16:30 (w7)</t>
+  </si>
+  <si>
+    <t>Instagrammable (Susan)
+15:00-16:00 (Zoomsession w6)</t>
+  </si>
+  <si>
+    <t>TeachMeet @ Hostel Roots Bar (Stationsstraat 41)
+20:00-21:30</t>
+  </si>
+  <si>
+    <t>Dinner break
+17:00-20:00</t>
+  </si>
+  <si>
+    <t>How … say our code out loud? (Richard) (w8)</t>
+  </si>
+  <si>
+    <t>Starting TurtleStitch (Cynthia, Beth) 12:00-13:00 (w3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talks 6 12:30-13:30
+Mags: Blockly Games </t>
+  </si>
+  <si>
+    <t>Talks 4 14:00-15:00
+Bhavik / Elaine (Zoom session t4))</t>
+  </si>
+  <si>
+    <t>Talks 3 12:00-13:00
+Pauline / Mags</t>
+  </si>
+  <si>
+    <t>Talks 1 9:30-10:30
 Paul-Reza &amp; Walter / Beth</t>
   </si>
   <si>
-    <t>Andrea and friends</t>
-  </si>
-  <si>
-    <t>Some tekst here would be nice</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>Capacity</t>
-  </si>
-  <si>
-    <t>Workshops 1-3</t>
-  </si>
-  <si>
-    <t>W-4 (Zoom session)
-Blending Code and Craft (Matthew)</t>
-  </si>
-  <si>
-    <t>talks E (Zoom session)
-Bhavik / Elaine</t>
-  </si>
-  <si>
-    <t>W-6
-Lets grow trees (TBA)</t>
-  </si>
-  <si>
-    <t>W-8b
-Create a Critter (TBA)</t>
+    <t>Talks 2 10:30-11:30
+Beth/ Jacob/ Jadga/ Richard/ Martine</t>
+  </si>
+  <si>
+    <t>Talks 5 15:30-16:30
+Margaret M / Beatrice / Jadga / Jakob</t>
+  </si>
+  <si>
+    <t>Talks 7 12:30-13:30
+Stephen / Pauline</t>
+  </si>
+  <si>
+    <t>TurtleStitch: Where Code Beats Pen! (Simon)
+13:30-14:30 (w9)</t>
+  </si>
+  <si>
+    <t>Get Up and Running with TurtleStitch (Beth)
+15:00-16:00 (w10)</t>
+  </si>
+  <si>
+    <t>Loops, Twirls &amp; Swirls (Margaret Low)
+15:00-16:30 (w11)</t>
+  </si>
+  <si>
+    <t>Self organised support by TS community (Joek)
+15:00-16:00 (b1)</t>
+  </si>
+  <si>
+    <t>Friday July 18</t>
+  </si>
+  <si>
+    <t>Saturday July 19</t>
+  </si>
+  <si>
+    <t>Sunday July 20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="h:mm;@"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1258,8 +1324,29 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1316,36 +1403,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1360,6 +1417,12 @@
       <patternFill patternType="darkTrellis">
         <fgColor theme="0"/>
         <bgColor theme="4" tint="0.59996337778862885"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1584,10 +1647,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1601,20 +1665,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1627,9 +1682,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1647,303 +1699,356 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2276,1648 +2381,2252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD505F6A-EEE1-C84D-8465-DB7BD84C7DE4}">
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="82" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="82" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4:M4"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="255.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="19.5" hidden="1" customWidth="1"/>
-    <col min="8" max="14" width="19.5" customWidth="1"/>
-    <col min="15" max="15" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.6640625" style="114" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="65.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="131.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="163" customWidth="1"/>
+    <col min="19" max="19" width="37.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="F1" s="17" t="s">
+    <row r="1" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>341</v>
+      <c r="G1" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="J1" s="113" t="s">
+        <v>313</v>
+      </c>
+      <c r="K1" s="113" t="s">
+        <v>314</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C2" t="s">
-        <v>338</v>
+        <v>128</v>
       </c>
       <c r="D2">
-        <v>31641290984</v>
-      </c>
-      <c r="E2" t="s">
-        <v>337</v>
+        <v>31619440710</v>
       </c>
       <c r="F2" t="s">
-        <v>336</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H2" t="s">
-        <v>335</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>334</v>
+        <v>345</v>
+      </c>
+      <c r="I2" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="128">
+        <v>0.75</v>
+      </c>
+      <c r="K2" s="128">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="L2" s="127" t="s">
+        <v>319</v>
+      </c>
+      <c r="M2" s="127">
+        <v>40</v>
+      </c>
+      <c r="N2" s="127" t="s">
+        <v>79</v>
       </c>
       <c r="O2">
         <v>60</v>
       </c>
       <c r="P2" t="s">
-        <v>333</v>
+        <v>125</v>
       </c>
       <c r="Q2" t="s">
-        <v>332</v>
+        <v>124</v>
       </c>
       <c r="R2" t="s">
-        <v>331</v>
+        <v>123</v>
+      </c>
+      <c r="S2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B3" t="s">
-        <v>147</v>
+        <v>231</v>
+      </c>
+      <c r="B3" s="112" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" t="s">
+        <v>229</v>
       </c>
       <c r="D3">
-        <v>31619440710</v>
+        <v>4369911098878</v>
+      </c>
+      <c r="E3" t="s">
+        <v>228</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>330</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>381</v>
-      </c>
-      <c r="M3">
+        <v>358</v>
+      </c>
+      <c r="I3" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="128">
+        <v>0.8125</v>
+      </c>
+      <c r="K3" s="128">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="L3" s="127" t="s">
+        <v>319</v>
+      </c>
+      <c r="M3" s="127">
+        <v>60</v>
+      </c>
+      <c r="N3" s="127" t="s">
+        <v>322</v>
+      </c>
+      <c r="O3">
         <v>30</v>
       </c>
-      <c r="N3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O3">
-        <v>120</v>
-      </c>
       <c r="P3" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="Q3" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="R3" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="S3" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" s="112" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4">
+        <v>31641290984</v>
+      </c>
+      <c r="E4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" t="s">
+        <v>359</v>
+      </c>
+      <c r="I4" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="128">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K4" s="128">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="L4" s="127" t="s">
+        <v>319</v>
+      </c>
+      <c r="M4" s="127">
+        <v>60</v>
+      </c>
+      <c r="N4" s="127" t="s">
+        <v>322</v>
+      </c>
+      <c r="O4">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>324</v>
+      </c>
+      <c r="R4" t="s">
+        <v>331</v>
+      </c>
+      <c r="S4" t="s">
         <v>325</v>
-      </c>
-      <c r="B4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H4" t="s">
-        <v>328</v>
-      </c>
-      <c r="I4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
-        <v>381</v>
-      </c>
-      <c r="M4">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>89</v>
-      </c>
-      <c r="O4">
-        <v>120</v>
-      </c>
-      <c r="P4" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>326</v>
-      </c>
-      <c r="R4" t="s">
-        <v>325</v>
-      </c>
-      <c r="S4" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D5" t="s">
-        <v>186</v>
+        <v>94</v>
+      </c>
+      <c r="D5">
+        <v>436801162512</v>
       </c>
       <c r="E5" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" t="s">
-        <v>226</v>
+        <v>91</v>
+      </c>
+      <c r="H5" t="s">
+        <v>360</v>
+      </c>
+      <c r="I5" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="128">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K5" s="128">
+        <v>0.4375</v>
+      </c>
+      <c r="L5" s="127" t="s">
+        <v>319</v>
+      </c>
+      <c r="M5" s="127">
+        <v>60</v>
+      </c>
+      <c r="N5" s="127" t="s">
+        <v>179</v>
       </c>
       <c r="O5">
-        <v>10</v>
-      </c>
-      <c r="P5" s="29" t="s">
-        <v>182</v>
+        <v>30</v>
+      </c>
+      <c r="P5" t="s">
+        <v>90</v>
       </c>
       <c r="Q5" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="R5" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="S5" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>165</v>
       </c>
       <c r="C6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D6">
-        <v>4531768334</v>
+        <v>164</v>
+      </c>
+      <c r="D6" t="s">
+        <v>163</v>
       </c>
       <c r="E6" t="s">
-        <v>269</v>
+        <v>162</v>
       </c>
       <c r="F6" t="s">
-        <v>268</v>
+        <v>161</v>
       </c>
       <c r="G6" t="s">
-        <v>267</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" t="s">
-        <v>226</v>
+        <v>141</v>
+      </c>
+      <c r="H6" t="s">
+        <v>361</v>
+      </c>
+      <c r="I6" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="128">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K6" s="128">
+        <v>0.4375</v>
+      </c>
+      <c r="L6" s="127" t="s">
+        <v>319</v>
+      </c>
+      <c r="M6" s="127">
+        <v>60</v>
+      </c>
+      <c r="N6" s="127" t="s">
+        <v>194</v>
       </c>
       <c r="O6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="P6" t="s">
-        <v>321</v>
+        <v>224</v>
       </c>
       <c r="Q6" t="s">
-        <v>320</v>
+        <v>223</v>
       </c>
       <c r="R6" t="s">
-        <v>319</v>
+        <v>222</v>
       </c>
       <c r="S6" t="s">
-        <v>318</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7">
+        <v>31619440710</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" t="s">
+        <v>362</v>
+      </c>
+      <c r="I7" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="128">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="K7" s="128">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="L7" s="127" t="s">
+        <v>317</v>
+      </c>
+      <c r="M7" s="127">
+        <v>30</v>
+      </c>
+      <c r="N7" s="127" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7">
+        <v>120</v>
+      </c>
+      <c r="P7" t="s">
         <v>284</v>
       </c>
-      <c r="B7" t="s">
+      <c r="Q7" t="s">
         <v>283</v>
       </c>
-      <c r="C7" t="s">
+      <c r="R7" t="s">
         <v>282</v>
       </c>
-      <c r="D7">
-        <v>4915117195452</v>
-      </c>
-      <c r="E7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" t="s">
-        <v>226</v>
-      </c>
-      <c r="O7">
-        <v>10</v>
-      </c>
-      <c r="P7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>315</v>
-      </c>
-      <c r="R7" t="s">
-        <v>314</v>
-      </c>
       <c r="S7" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>175</v>
+        <v>164</v>
+      </c>
+      <c r="D8" t="s">
+        <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>312</v>
-      </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" t="s">
-        <v>226</v>
+        <v>141</v>
+      </c>
+      <c r="H8" t="s">
+        <v>363</v>
+      </c>
+      <c r="I8" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="128">
+        <v>0.4375</v>
+      </c>
+      <c r="K8" s="128">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="L8" s="127" t="s">
+        <v>318</v>
+      </c>
+      <c r="M8" s="127">
+        <v>30</v>
+      </c>
+      <c r="N8" s="127" t="s">
+        <v>199</v>
       </c>
       <c r="O8">
         <v>10</v>
       </c>
-      <c r="P8" t="s">
-        <v>311</v>
+      <c r="P8" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="Q8" t="s">
-        <v>310</v>
+        <v>159</v>
       </c>
       <c r="R8" t="s">
-        <v>309</v>
+        <v>158</v>
       </c>
       <c r="S8" t="s">
-        <v>308</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>241</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" t="s">
-        <v>307</v>
+        <v>240</v>
+      </c>
+      <c r="C9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9">
+        <v>4531768334</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>236</v>
       </c>
       <c r="G9" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" t="s">
-        <v>226</v>
+        <v>235</v>
+      </c>
+      <c r="H9" t="s">
+        <v>364</v>
+      </c>
+      <c r="I9" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="128">
+        <v>0.4375</v>
+      </c>
+      <c r="K9" s="128">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="L9" s="127" t="s">
+        <v>318</v>
+      </c>
+      <c r="M9" s="127">
+        <v>30</v>
+      </c>
+      <c r="N9" s="127" t="s">
+        <v>199</v>
       </c>
       <c r="O9">
         <v>10</v>
       </c>
-      <c r="P9" s="30" t="s">
-        <v>120</v>
+      <c r="P9" t="s">
+        <v>281</v>
       </c>
       <c r="Q9" t="s">
-        <v>375</v>
+        <v>280</v>
       </c>
       <c r="R9" t="s">
-        <v>375</v>
+        <v>279</v>
+      </c>
+      <c r="S9" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="C10" t="s">
-        <v>303</v>
-      </c>
-      <c r="D10" t="s">
-        <v>302</v>
+        <v>249</v>
+      </c>
+      <c r="D10">
+        <v>4915117195452</v>
       </c>
       <c r="E10" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="F10" t="s">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" t="s">
-        <v>226</v>
+        <v>246</v>
+      </c>
+      <c r="H10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I10" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="128">
+        <v>0.4375</v>
+      </c>
+      <c r="K10" s="128">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="L10" s="127" t="s">
+        <v>318</v>
+      </c>
+      <c r="M10" s="127">
+        <v>30</v>
+      </c>
+      <c r="N10" s="127" t="s">
+        <v>199</v>
       </c>
       <c r="O10">
         <v>10</v>
       </c>
       <c r="P10" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="Q10" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="R10" t="s">
-        <v>296</v>
+        <v>275</v>
+      </c>
+      <c r="S10" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
-        <v>294</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
-      </c>
-      <c r="D11">
-        <v>393405018258</v>
+        <v>154</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>292</v>
+        <v>152</v>
       </c>
       <c r="F11" t="s">
-        <v>291</v>
+        <v>151</v>
       </c>
       <c r="G11" t="s">
-        <v>290</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" t="s">
-        <v>226</v>
+        <v>150</v>
+      </c>
+      <c r="H11" t="s">
+        <v>366</v>
+      </c>
+      <c r="I11" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="128">
+        <v>0.4375</v>
+      </c>
+      <c r="K11" s="128">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="L11" s="127" t="s">
+        <v>318</v>
+      </c>
+      <c r="M11" s="127">
+        <v>30</v>
+      </c>
+      <c r="N11" s="127" t="s">
+        <v>199</v>
       </c>
       <c r="O11">
         <v>10</v>
       </c>
       <c r="P11" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="Q11" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="R11" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="S11" t="s">
-        <v>285</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>284</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>283</v>
-      </c>
-      <c r="C12" t="s">
-        <v>282</v>
-      </c>
-      <c r="D12">
-        <v>4915117195452</v>
+        <v>111</v>
+      </c>
+      <c r="D12" t="s">
+        <v>271</v>
       </c>
       <c r="E12" t="s">
-        <v>281</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>280</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
-        <v>279</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" t="s">
-        <v>203</v>
+        <v>107</v>
+      </c>
+      <c r="H12" t="s">
+        <v>367</v>
+      </c>
+      <c r="I12" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="128">
+        <v>0.4375</v>
+      </c>
+      <c r="K12" s="128">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="L12" s="127" t="s">
+        <v>318</v>
+      </c>
+      <c r="M12" s="127">
+        <v>30</v>
+      </c>
+      <c r="N12" s="127" t="s">
+        <v>199</v>
       </c>
       <c r="O12">
-        <v>20</v>
-      </c>
-      <c r="P12" t="s">
-        <v>277</v>
+        <v>10</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="Q12" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="R12" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="S12" t="s">
-        <v>274</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>273</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
-      </c>
-      <c r="C13" t="s">
-        <v>271</v>
-      </c>
-      <c r="D13" t="s">
-        <v>270</v>
+        <v>136</v>
+      </c>
+      <c r="D13">
+        <v>233550189144</v>
       </c>
       <c r="E13" t="s">
-        <v>269</v>
+        <v>135</v>
       </c>
       <c r="F13" t="s">
-        <v>268</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>267</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" t="s">
-        <v>203</v>
+        <v>133</v>
+      </c>
+      <c r="H13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I13" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="128">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="128">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="L13" s="127" t="s">
+        <v>320</v>
+      </c>
+      <c r="M13" s="127"/>
+      <c r="N13" s="127" t="s">
+        <v>79</v>
       </c>
       <c r="O13">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="P13" t="s">
-        <v>265</v>
+        <v>132</v>
       </c>
       <c r="Q13" t="s">
-        <v>264</v>
+        <v>131</v>
       </c>
       <c r="R13" t="s">
-        <v>263</v>
+        <v>130</v>
+      </c>
+      <c r="S13" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>262</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>186</v>
       </c>
       <c r="C14" t="s">
-        <v>260</v>
+        <v>185</v>
       </c>
       <c r="D14">
-        <v>4369911098878</v>
-      </c>
-      <c r="E14" t="s">
-        <v>259</v>
+        <v>31653334731</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" t="s">
-        <v>203</v>
+        <v>126</v>
+      </c>
+      <c r="H14" t="s">
+        <v>368</v>
+      </c>
+      <c r="I14" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="128">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="128">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="L14" s="127" t="s">
+        <v>319</v>
+      </c>
+      <c r="M14" s="127">
+        <v>60</v>
+      </c>
+      <c r="N14" s="127" t="s">
+        <v>179</v>
       </c>
       <c r="O14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P14" t="s">
-        <v>257</v>
+        <v>183</v>
       </c>
       <c r="Q14" t="s">
-        <v>256</v>
+        <v>182</v>
       </c>
       <c r="R14" t="s">
-        <v>255</v>
+        <v>181</v>
+      </c>
+      <c r="S14" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" t="s">
-        <v>186</v>
+        <v>172</v>
+      </c>
+      <c r="D15">
+        <v>353879373803</v>
       </c>
       <c r="E15" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F15" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
-        <v>162</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" t="s">
-        <v>221</v>
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>369</v>
+      </c>
+      <c r="I15" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="128">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="128">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="L15" s="127" t="s">
+        <v>319</v>
+      </c>
+      <c r="M15" s="127">
+        <v>60</v>
+      </c>
+      <c r="N15" s="127" t="s">
+        <v>179</v>
       </c>
       <c r="O15">
         <v>30</v>
       </c>
       <c r="P15" t="s">
-        <v>253</v>
+        <v>178</v>
       </c>
       <c r="Q15" t="s">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="R15" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="S15" t="s">
-        <v>250</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="D16">
-        <v>353879373803</v>
-      </c>
-      <c r="E16" t="s">
-        <v>195</v>
+        <v>31641290984</v>
       </c>
       <c r="F16" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" t="s">
-        <v>221</v>
+        <v>141</v>
+      </c>
+      <c r="H16" t="s">
+        <v>347</v>
+      </c>
+      <c r="I16" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="128">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="128">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="L16" s="127" t="s">
+        <v>317</v>
+      </c>
+      <c r="M16" s="127">
+        <v>40</v>
+      </c>
+      <c r="N16" s="127" t="s">
+        <v>79</v>
       </c>
       <c r="O16">
         <v>60</v>
       </c>
       <c r="P16" t="s">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="Q16" t="s">
-        <v>247</v>
+        <v>139</v>
       </c>
       <c r="R16" t="s">
-        <v>246</v>
+        <v>138</v>
       </c>
       <c r="S16" t="s">
-        <v>245</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="B17" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="C17" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="D17" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="E17" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="F17" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="G17" t="s">
-        <v>238</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" t="s">
-        <v>203</v>
+        <v>210</v>
+      </c>
+      <c r="H17" t="s">
+        <v>370</v>
+      </c>
+      <c r="I17" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="128">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K17" s="128">
+        <v>0.625</v>
+      </c>
+      <c r="L17" s="127" t="s">
+        <v>320</v>
+      </c>
+      <c r="M17" s="127">
+        <v>30</v>
+      </c>
+      <c r="N17" s="127" t="s">
+        <v>179</v>
       </c>
       <c r="O17">
         <v>20</v>
       </c>
       <c r="P17" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="Q17" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="R17" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="S17" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="C18" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="E18" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="F18" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="G18" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" t="s">
-        <v>226</v>
+        <v>141</v>
+      </c>
+      <c r="H18" t="s">
+        <v>371</v>
+      </c>
+      <c r="I18" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="128">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K18" s="128">
+        <v>0.625</v>
+      </c>
+      <c r="L18" s="127" t="s">
+        <v>320</v>
+      </c>
+      <c r="M18" s="127">
+        <v>30</v>
+      </c>
+      <c r="N18" s="127" t="s">
+        <v>199</v>
       </c>
       <c r="O18">
         <v>15</v>
       </c>
       <c r="P18" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="Q18" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="R18" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="S18" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D19">
         <v>353878245959</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" t="s">
-        <v>221</v>
+        <v>70</v>
+      </c>
+      <c r="H19" t="s">
+        <v>348</v>
+      </c>
+      <c r="I19" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="128">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K19" s="128">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="L19" s="127" t="s">
+        <v>318</v>
+      </c>
+      <c r="M19" s="127">
+        <v>30</v>
+      </c>
+      <c r="N19" s="127" t="s">
+        <v>69</v>
       </c>
       <c r="O19">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>220</v>
+        <v>68</v>
       </c>
       <c r="Q19" t="s">
-        <v>219</v>
+        <v>67</v>
       </c>
       <c r="R19" t="s">
-        <v>218</v>
+        <v>66</v>
+      </c>
+      <c r="S19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>212</v>
+        <v>332</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20">
-        <v>31653334731</v>
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>145</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" t="s">
-        <v>203</v>
+        <v>116</v>
+      </c>
+      <c r="H20" t="s">
+        <v>349</v>
+      </c>
+      <c r="I20" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="128">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K20" s="128">
+        <v>0.625</v>
+      </c>
+      <c r="L20" s="127" t="s">
+        <v>317</v>
+      </c>
+      <c r="M20" s="127">
+        <v>20</v>
+      </c>
+      <c r="N20" s="127" t="s">
+        <v>79</v>
       </c>
       <c r="O20">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="P20" t="s">
-        <v>215</v>
+        <v>122</v>
       </c>
       <c r="Q20" t="s">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="R20" t="s">
-        <v>213</v>
+        <v>120</v>
+      </c>
+      <c r="S20" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>332</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>210</v>
-      </c>
-      <c r="D21">
-        <v>31653334731</v>
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>145</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" t="s">
-        <v>203</v>
+        <v>116</v>
+      </c>
+      <c r="H21" t="s">
+        <v>350</v>
+      </c>
+      <c r="I21" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="128">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K21" s="128">
+        <v>0.625</v>
+      </c>
+      <c r="L21" s="127" t="s">
+        <v>317</v>
+      </c>
+      <c r="M21" s="127">
+        <v>20</v>
+      </c>
+      <c r="N21" s="127" t="s">
+        <v>79</v>
       </c>
       <c r="O21">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="P21" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c r="Q21" t="s">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c r="R21" t="s">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="S21" t="s">
-        <v>205</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>198</v>
+        <v>326</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>327</v>
       </c>
       <c r="C22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22">
-        <v>353879373803</v>
+        <v>337</v>
       </c>
       <c r="E22" t="s">
-        <v>195</v>
+        <v>333</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>334</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" t="s">
-        <v>203</v>
+        <v>141</v>
+      </c>
+      <c r="H22" t="s">
+        <v>351</v>
+      </c>
+      <c r="I22" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="128">
+        <v>0.625</v>
+      </c>
+      <c r="K22" s="128">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L22" s="127" t="s">
+        <v>320</v>
+      </c>
+      <c r="M22" s="127">
+        <v>30</v>
+      </c>
+      <c r="N22" s="127" t="s">
+        <v>79</v>
       </c>
       <c r="O22">
         <v>30</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>328</v>
       </c>
       <c r="Q22" t="s">
-        <v>201</v>
+        <v>329</v>
       </c>
       <c r="R22" t="s">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="S22" t="s">
-        <v>199</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D23">
-        <v>353879373803</v>
+        <v>111</v>
+      </c>
+      <c r="D23" t="s">
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="F23" t="s">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="H23" t="s">
-        <v>193</v>
-      </c>
-      <c r="N23" t="s">
-        <v>89</v>
+        <v>352</v>
+      </c>
+      <c r="I23" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="128">
+        <v>0.625</v>
+      </c>
+      <c r="K23" s="128">
+        <v>0.6875</v>
+      </c>
+      <c r="L23" s="127" t="s">
+        <v>317</v>
+      </c>
+      <c r="M23" s="127">
+        <v>4</v>
+      </c>
+      <c r="N23" s="127" t="s">
+        <v>79</v>
       </c>
       <c r="O23">
-        <v>120</v>
-      </c>
-      <c r="P23" t="s">
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="P23" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="Q23" t="s">
-        <v>192</v>
+        <v>311</v>
       </c>
       <c r="R23" t="s">
-        <v>191</v>
+        <v>311</v>
       </c>
       <c r="S23" t="s">
-        <v>190</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="B24" t="s">
-        <v>188</v>
+        <v>269</v>
       </c>
       <c r="C24" t="s">
-        <v>187</v>
+        <v>268</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
+        <v>267</v>
       </c>
       <c r="E24" t="s">
-        <v>185</v>
+        <v>266</v>
       </c>
       <c r="F24" t="s">
-        <v>184</v>
+        <v>265</v>
       </c>
       <c r="G24" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="H24" t="s">
-        <v>183</v>
-      </c>
-      <c r="N24" t="s">
-        <v>89</v>
+        <v>372</v>
+      </c>
+      <c r="I24" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="128">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="K24" s="128">
+        <v>0.6875</v>
+      </c>
+      <c r="L24" s="127" t="s">
+        <v>319</v>
+      </c>
+      <c r="M24" s="127">
+        <v>60</v>
+      </c>
+      <c r="N24" s="127" t="s">
+        <v>199</v>
       </c>
       <c r="O24">
-        <v>60</v>
-      </c>
-      <c r="P24" s="29" t="s">
-        <v>182</v>
+        <v>10</v>
+      </c>
+      <c r="P24" t="s">
+        <v>264</v>
       </c>
       <c r="Q24" t="s">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="R24" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="S24" t="s">
-        <v>179</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
       <c r="C25" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>175</v>
+        <v>259</v>
+      </c>
+      <c r="D25">
+        <v>393405018258</v>
       </c>
       <c r="E25" t="s">
-        <v>174</v>
+        <v>258</v>
       </c>
       <c r="F25" t="s">
-        <v>173</v>
+        <v>257</v>
       </c>
       <c r="G25" t="s">
-        <v>172</v>
+        <v>256</v>
       </c>
       <c r="H25" t="s">
-        <v>171</v>
-      </c>
-      <c r="N25" t="s">
-        <v>89</v>
+        <v>373</v>
+      </c>
+      <c r="I25" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="128">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="K25" s="128">
+        <v>0.6875</v>
+      </c>
+      <c r="L25" s="127" t="s">
+        <v>319</v>
+      </c>
+      <c r="M25" s="127">
+        <v>60</v>
+      </c>
+      <c r="N25" s="127" t="s">
+        <v>199</v>
       </c>
       <c r="O25">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P25" t="s">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c r="Q25" t="s">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="R25" t="s">
-        <v>168</v>
+        <v>253</v>
       </c>
       <c r="S25" t="s">
-        <v>167</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="D26">
-        <v>31641290984</v>
+        <v>4915117195452</v>
+      </c>
+      <c r="E26" t="s">
+        <v>248</v>
       </c>
       <c r="F26" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
       <c r="H26" t="s">
-        <v>161</v>
-      </c>
-      <c r="N26" t="s">
-        <v>89</v>
+        <v>374</v>
+      </c>
+      <c r="I26" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="128">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="K26" s="128">
+        <v>0.6875</v>
+      </c>
+      <c r="L26" s="127" t="s">
+        <v>319</v>
+      </c>
+      <c r="M26" s="127">
+        <v>60</v>
+      </c>
+      <c r="N26" s="127" t="s">
+        <v>179</v>
       </c>
       <c r="O26">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="Q26" t="s">
-        <v>159</v>
+        <v>244</v>
       </c>
       <c r="R26" t="s">
-        <v>158</v>
+        <v>243</v>
+      </c>
+      <c r="S26" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27">
-        <v>233550189144</v>
+        <v>240</v>
+      </c>
+      <c r="C27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" t="s">
+        <v>238</v>
       </c>
       <c r="E27" t="s">
-        <v>155</v>
+        <v>237</v>
       </c>
       <c r="F27" t="s">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="H27" t="s">
-        <v>152</v>
-      </c>
-      <c r="N27" t="s">
-        <v>89</v>
+        <v>375</v>
+      </c>
+      <c r="I27" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="128">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="K27" s="128">
+        <v>0.6875</v>
+      </c>
+      <c r="L27" s="127" t="s">
+        <v>319</v>
+      </c>
+      <c r="M27" s="127">
+        <v>60</v>
+      </c>
+      <c r="N27" s="127" t="s">
+        <v>179</v>
       </c>
       <c r="O27">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="P27" t="s">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="Q27" t="s">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="R27" t="s">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="S27" t="s">
-        <v>148</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>173</v>
+      </c>
+      <c r="C28" t="s">
+        <v>172</v>
       </c>
       <c r="D28">
-        <v>31619440710</v>
+        <v>353879373803</v>
+      </c>
+      <c r="E28" t="s">
+        <v>171</v>
       </c>
       <c r="F28" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="G28" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>144</v>
-      </c>
-      <c r="N28" t="s">
-        <v>89</v>
+        <v>376</v>
+      </c>
+      <c r="I28" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="128">
+        <v>0.8125</v>
+      </c>
+      <c r="K28" s="128">
+        <v>0.875</v>
+      </c>
+      <c r="L28" s="127" t="s">
+        <v>321</v>
+      </c>
+      <c r="M28" s="127">
+        <v>40</v>
+      </c>
+      <c r="N28" s="127" t="s">
+        <v>79</v>
       </c>
       <c r="O28">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="P28" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="Q28" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="R28" t="s">
-        <v>141</v>
+        <v>168</v>
+      </c>
+      <c r="S28" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" t="s">
-        <v>94</v>
+        <v>154</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="G29" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="H29" t="s">
-        <v>140</v>
-      </c>
-      <c r="N29" t="s">
-        <v>89</v>
+        <v>353</v>
+      </c>
+      <c r="I29" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="128">
+        <v>0.5</v>
+      </c>
+      <c r="K29" s="128">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="L29" s="127" t="s">
+        <v>318</v>
+      </c>
+      <c r="M29" s="127">
+        <v>30</v>
+      </c>
+      <c r="N29" s="127" t="s">
+        <v>79</v>
       </c>
       <c r="O29">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="P29" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="Q29" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="R29" t="s">
-        <v>137</v>
+        <v>147</v>
+      </c>
+      <c r="S29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" t="s">
-        <v>94</v>
+        <v>172</v>
+      </c>
+      <c r="D30">
+        <v>353879373803</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>171</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="G30" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="H30" t="s">
-        <v>136</v>
-      </c>
-      <c r="N30" t="s">
-        <v>89</v>
+        <v>377</v>
+      </c>
+      <c r="I30" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="128">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="K30" s="128">
+        <v>0.5625</v>
+      </c>
+      <c r="L30" s="127" t="s">
+        <v>320</v>
+      </c>
+      <c r="M30" s="127">
+        <v>30</v>
+      </c>
+      <c r="N30" s="127" t="s">
+        <v>194</v>
       </c>
       <c r="O30">
         <v>60</v>
       </c>
       <c r="P30" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="Q30" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="R30" t="s">
-        <v>133</v>
+        <v>218</v>
+      </c>
+      <c r="S30" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" t="s">
-        <v>94</v>
+        <v>73</v>
+      </c>
+      <c r="D31">
+        <v>353878245959</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="G31" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="H31" t="s">
-        <v>131</v>
-      </c>
-      <c r="N31" t="s">
-        <v>89</v>
+        <v>378</v>
+      </c>
+      <c r="I31" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="128">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="K31" s="128">
+        <v>0.5625</v>
+      </c>
+      <c r="L31" s="127" t="s">
+        <v>319</v>
+      </c>
+      <c r="M31" s="127">
+        <v>60</v>
+      </c>
+      <c r="N31" s="127" t="s">
+        <v>194</v>
       </c>
       <c r="O31">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="P31" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="Q31" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="R31" t="s">
-        <v>128</v>
+        <v>191</v>
+      </c>
+      <c r="S31" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32">
+        <v>31653334731</v>
+      </c>
+      <c r="F32" t="s">
+        <v>184</v>
+      </c>
+      <c r="G32" t="s">
         <v>126</v>
       </c>
-      <c r="D32" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" t="s">
-        <v>124</v>
-      </c>
-      <c r="F32" t="s">
-        <v>123</v>
-      </c>
-      <c r="G32" t="s">
-        <v>122</v>
-      </c>
       <c r="H32" t="s">
-        <v>121</v>
-      </c>
-      <c r="N32" t="s">
-        <v>89</v>
+        <v>379</v>
+      </c>
+      <c r="I32" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="128">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="K32" s="128">
+        <v>0.5625</v>
+      </c>
+      <c r="L32" s="127" t="s">
+        <v>319</v>
+      </c>
+      <c r="M32" s="127">
+        <v>60</v>
+      </c>
+      <c r="N32" s="127" t="s">
+        <v>179</v>
       </c>
       <c r="O32">
-        <v>60</v>
-      </c>
-      <c r="P32" s="30" t="s">
-        <v>120</v>
+        <v>20</v>
+      </c>
+      <c r="P32" t="s">
+        <v>189</v>
       </c>
       <c r="Q32" t="s">
-        <v>375</v>
+        <v>188</v>
       </c>
       <c r="R32" t="s">
-        <v>375</v>
+        <v>332</v>
+      </c>
+      <c r="S32" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" t="s">
-        <v>116</v>
+        <v>336</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G33" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="H33" t="s">
-        <v>112</v>
-      </c>
-      <c r="N33" t="s">
-        <v>89</v>
+        <v>380</v>
+      </c>
+      <c r="I33" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="128">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="K33" s="128">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="L33" s="127" t="s">
+        <v>317</v>
+      </c>
+      <c r="M33" s="127">
+        <v>30</v>
+      </c>
+      <c r="N33" s="127" t="s">
+        <v>79</v>
       </c>
       <c r="O33">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="P33" t="s">
-        <v>111</v>
+        <v>284</v>
       </c>
       <c r="Q33" t="s">
-        <v>110</v>
+        <v>283</v>
       </c>
       <c r="R33" t="s">
-        <v>109</v>
+        <v>282</v>
+      </c>
+      <c r="S33" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34">
-        <v>436801162512</v>
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
+        <v>102</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F34" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H34" t="s">
-        <v>102</v>
-      </c>
-      <c r="N34" t="s">
-        <v>89</v>
+        <v>354</v>
+      </c>
+      <c r="I34" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="128">
+        <v>0.5625</v>
+      </c>
+      <c r="K34" s="128">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="L34" s="127" t="s">
+        <v>320</v>
+      </c>
+      <c r="M34" s="127">
+        <v>30</v>
+      </c>
+      <c r="N34" s="127" t="s">
+        <v>79</v>
       </c>
       <c r="O34">
         <v>60</v>
       </c>
       <c r="P34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="R34" t="s">
-        <v>99</v>
+        <v>339</v>
       </c>
       <c r="S34" t="s">
-        <v>98</v>
+        <v>340</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="E35" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="F35" t="s">
-        <v>92</v>
+        <v>335</v>
       </c>
       <c r="G35" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="H35" t="s">
-        <v>90</v>
-      </c>
-      <c r="N35" t="s">
-        <v>89</v>
+        <v>355</v>
+      </c>
+      <c r="I35" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="128">
+        <v>0.625</v>
+      </c>
+      <c r="K35" s="128">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L35" s="127" t="s">
+        <v>320</v>
+      </c>
+      <c r="M35" s="127">
+        <v>30</v>
+      </c>
+      <c r="N35" s="127" t="s">
+        <v>79</v>
       </c>
       <c r="O35">
         <v>60</v>
       </c>
-      <c r="P35" t="s">
-        <v>88</v>
+      <c r="P35" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="Q35" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="R35" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="S35" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>294</v>
+      </c>
+      <c r="B36" t="s">
+        <v>293</v>
+      </c>
+      <c r="C36" t="s">
+        <v>292</v>
+      </c>
+      <c r="D36">
+        <v>31641290984</v>
+      </c>
+      <c r="E36" t="s">
+        <v>291</v>
+      </c>
+      <c r="F36" t="s">
+        <v>290</v>
+      </c>
+      <c r="G36" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" t="s">
+        <v>381</v>
+      </c>
+      <c r="I36" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="128">
+        <v>0.625</v>
+      </c>
+      <c r="K36" s="128">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L36" s="127" t="s">
+        <v>318</v>
+      </c>
+      <c r="M36" s="127">
+        <v>30</v>
+      </c>
+      <c r="N36" s="127" t="s">
+        <v>289</v>
+      </c>
+      <c r="O36">
+        <v>60</v>
+      </c>
+      <c r="P36" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>287</v>
+      </c>
+      <c r="R36" t="s">
+        <v>286</v>
+      </c>
+      <c r="S36" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
         <v>84</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D37" t="s">
         <v>83</v>
       </c>
-      <c r="D36">
-        <v>353878245959</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>82</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>81</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>80</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H37" t="s">
+        <v>356</v>
+      </c>
+      <c r="I37" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="128">
+        <v>0.625</v>
+      </c>
+      <c r="K37" s="128">
+        <v>0.6875</v>
+      </c>
+      <c r="L37" s="127" t="s">
+        <v>317</v>
+      </c>
+      <c r="M37" s="127">
+        <v>40</v>
+      </c>
+      <c r="N37" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O37">
+        <v>60</v>
+      </c>
+      <c r="P37" t="s">
         <v>78</v>
       </c>
-      <c r="O36">
-        <v>90</v>
-      </c>
-      <c r="P36" t="s">
+      <c r="Q37" t="s">
         <v>77</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R37" t="s">
         <v>76</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S37" t="s">
         <v>75</v>
       </c>
-      <c r="S36" t="s">
-        <v>74</v>
-      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>332</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" t="s">
+        <v>357</v>
+      </c>
+      <c r="I38" s="127" t="s">
+        <v>332</v>
+      </c>
+      <c r="J38" s="127" t="s">
+        <v>332</v>
+      </c>
+      <c r="K38" s="127" t="s">
+        <v>332</v>
+      </c>
+      <c r="L38" s="127" t="s">
+        <v>332</v>
+      </c>
+      <c r="M38" s="127">
+        <v>30</v>
+      </c>
+      <c r="N38" s="127" t="s">
+        <v>79</v>
+      </c>
+      <c r="O38">
+        <v>60</v>
+      </c>
+      <c r="P38" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>118</v>
+      </c>
+      <c r="R38" t="s">
+        <v>117</v>
+      </c>
+      <c r="S38" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H39" s="127"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="128"/>
+      <c r="K39" s="128"/>
+      <c r="L39" s="127"/>
+      <c r="M39" s="127"/>
+      <c r="N39" s="127"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S38">
+    <sortCondition ref="I2:I38"/>
+    <sortCondition ref="J2:J38"/>
+    <sortCondition ref="L2:L38"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{1E4F37BA-05CA-BA4F-BA59-916B1394254E}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{3AC50BAA-D00F-284E-8382-8AA7C30892D9}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3928,955 +4637,929 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O98"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="58" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:G38"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="58" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="111" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" s="17" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15" t="s">
+    <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" s="13" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="131"/>
+      <c r="B2" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="140" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="140" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="129" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="129"/>
+    </row>
+    <row r="4" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="132"/>
+      <c r="B4" s="141" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="I4" s="129"/>
+    </row>
+    <row r="5" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="132"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="I5" s="129"/>
+    </row>
+    <row r="6" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="132"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="I6" s="129"/>
+      <c r="L6" s="138"/>
+    </row>
+    <row r="7" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="132"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="I7" s="129"/>
+    </row>
+    <row r="8" spans="1:12" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="132"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="I8" s="129"/>
+    </row>
+    <row r="9" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="133">
+        <v>0.75</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="69" t="s">
+        <v>382</v>
+      </c>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="129"/>
+    </row>
+    <row r="10" spans="1:12" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="133">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="129"/>
+    </row>
+    <row r="11" spans="1:12" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="133">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="129"/>
+    </row>
+    <row r="12" spans="1:12" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="133">
+        <v>0.8125</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>383</v>
+      </c>
+      <c r="C12" s="79"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="129"/>
+    </row>
+    <row r="13" spans="1:12" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="133">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>384</v>
+      </c>
+      <c r="C13" s="79"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="129"/>
+    </row>
+    <row r="14" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="133">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="B14" s="120"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="129"/>
+    </row>
+    <row r="15" spans="1:12" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="133">
+        <v>0.875</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="129"/>
+    </row>
+    <row r="16" spans="1:12" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="122"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="124"/>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="1:9" s="13" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="131"/>
+      <c r="B17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="130" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="13" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="131" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="136" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="130"/>
+    </row>
+    <row r="19" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="133">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="130"/>
+    </row>
+    <row r="20" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="133">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="130"/>
+    </row>
+    <row r="21" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="133">
+        <v>0.4375</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="130"/>
+    </row>
+    <row r="22" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="133">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="130"/>
+    </row>
+    <row r="23" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="133">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="130"/>
+    </row>
+    <row r="24" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="133">
+        <v>0.5</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="H24" s="66"/>
+      <c r="I24" s="130"/>
+    </row>
+    <row r="25" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="133">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="130"/>
+    </row>
+    <row r="26" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="133">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>343</v>
+      </c>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="130"/>
+    </row>
+    <row r="27" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="133">
+        <v>0.5625</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="130"/>
+    </row>
+    <row r="28" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="133">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="H28" s="66"/>
+      <c r="I28" s="130"/>
+    </row>
+    <row r="29" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="133">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="130"/>
+    </row>
+    <row r="30" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="133">
+        <v>0.625</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="H30" s="66"/>
+      <c r="I30" s="130"/>
+    </row>
+    <row r="31" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="133">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="130"/>
+    </row>
+    <row r="32" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="133">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="130"/>
+    </row>
+    <row r="33" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="133">
+        <v>0.6875</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="130"/>
+    </row>
+    <row r="34" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="133">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="B34" s="126" t="s">
+        <v>392</v>
+      </c>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="46"/>
+      <c r="I34" s="130"/>
+    </row>
+    <row r="35" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="133"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="82"/>
+      <c r="I35" s="130"/>
+    </row>
+    <row r="36" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="133"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="82"/>
+      <c r="I36" s="130"/>
+    </row>
+    <row r="37" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="133"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="49"/>
+      <c r="I37" s="130"/>
+    </row>
+    <row r="38" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="133"/>
+      <c r="B38" s="126" t="s">
+        <v>391</v>
+      </c>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="46"/>
+      <c r="I38" s="130"/>
+    </row>
+    <row r="39" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="133"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="82"/>
+      <c r="I39" s="130"/>
+    </row>
+    <row r="40" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="133"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="49"/>
+      <c r="I40" s="130"/>
+    </row>
+    <row r="41" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:10" s="13" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="131"/>
+      <c r="B42" s="139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="139" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="140" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="140" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="140" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="140" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="129" t="s">
+        <v>408</v>
+      </c>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10" s="13" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="131" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="135"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="135"/>
+      <c r="G43" s="135"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="129"/>
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="133">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="I44" s="129"/>
+    </row>
+    <row r="45" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="133">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45" s="129"/>
+    </row>
+    <row r="46" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="133">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B46" s="40"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="129"/>
+    </row>
+    <row r="47" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="133">
+        <v>0.5625</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="37" t="s">
+        <v>402</v>
+      </c>
+      <c r="H47" s="63"/>
+      <c r="I47" s="129"/>
+    </row>
+    <row r="48" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="133">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="129"/>
+    </row>
+    <row r="49" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="133">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="129"/>
+    </row>
+    <row r="50" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="133">
+        <v>0.625</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="E50" s="22"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="H50" s="63"/>
+      <c r="I50" s="129"/>
+    </row>
+    <row r="51" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="133">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C51" s="51"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="129"/>
+    </row>
+    <row r="52" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="133">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="129"/>
+    </row>
+    <row r="53" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="133">
+        <v>0.6875</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="129"/>
+    </row>
+    <row r="54" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="133">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I54" s="129"/>
+    </row>
+    <row r="55" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="132"/>
+      <c r="B55" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="46"/>
+      <c r="I55" s="129"/>
+    </row>
+    <row r="56" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="132"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="49"/>
+    </row>
+    <row r="57" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="E58" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="F58" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="134" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="84"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="94"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="51"/>
+    </row>
+    <row r="66" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="40"/>
+    </row>
+    <row r="69" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C70" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B4" s="94" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-    </row>
-    <row r="8" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-    </row>
-    <row r="9" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="56" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="57"/>
-      <c r="J10" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="53" t="s">
+      <c r="E70" s="89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="38"/>
+      <c r="E71" s="90"/>
+    </row>
+    <row r="72" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C73" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="B11" s="76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="57"/>
-      <c r="J11" s="52"/>
-      <c r="L11" s="40"/>
-    </row>
-    <row r="12" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="57"/>
-      <c r="J12" s="54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="B13" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="57"/>
-      <c r="J13" s="55"/>
-      <c r="L13" s="34" t="s">
+      <c r="E73" s="89" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C74" s="68"/>
+      <c r="E74" s="91"/>
+      <c r="G74" s="13"/>
+    </row>
+    <row r="75" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="38"/>
+      <c r="E75" s="90"/>
+      <c r="G75" s="13"/>
+    </row>
+    <row r="76" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C77" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="E77" s="89" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="B14" s="82" t="s">
-        <v>374</v>
-      </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="57"/>
-      <c r="J14" s="47" t="s">
-        <v>371</v>
-      </c>
-      <c r="L14" s="36"/>
-      <c r="N14" s="33"/>
-    </row>
-    <row r="15" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="58"/>
-      <c r="J15" s="48"/>
-    </row>
-    <row r="16" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J16" s="49" t="s">
-        <v>372</v>
-      </c>
-      <c r="L16" s="34" t="s">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C78" s="68"/>
+      <c r="E78" s="91"/>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C79" s="68"/>
+      <c r="E79" s="91"/>
+    </row>
+    <row r="80" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="38"/>
+      <c r="E80" s="90"/>
+    </row>
+    <row r="81" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C82" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="N16" s="31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="17" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="50"/>
-      <c r="K17"/>
-      <c r="L17" s="35"/>
-      <c r="M17"/>
-      <c r="N17" s="32"/>
-      <c r="O17"/>
-    </row>
-    <row r="18" spans="1:15" s="17" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="98" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="J18" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18"/>
-      <c r="L18" s="36"/>
-      <c r="M18"/>
-      <c r="N18" s="33"/>
-      <c r="O18"/>
-    </row>
-    <row r="19" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>373</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="62"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="46"/>
-    </row>
-    <row r="20" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="59"/>
-      <c r="L20" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="N20" s="31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="66"/>
-      <c r="H21" s="59"/>
-      <c r="L21" s="35"/>
-      <c r="N21" s="32"/>
-    </row>
-    <row r="22" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="69"/>
-      <c r="H22" s="59"/>
-      <c r="L22" s="35"/>
-      <c r="N22" s="32"/>
-    </row>
-    <row r="23" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>370</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="59"/>
-      <c r="L23" s="36"/>
-      <c r="N23" s="33"/>
-    </row>
-    <row r="24" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="61" t="s">
-        <v>357</v>
-      </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="56" t="s">
-        <v>382</v>
-      </c>
-      <c r="H24" s="59"/>
-    </row>
-    <row r="25" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="59"/>
-      <c r="L25" s="34" t="s">
+      <c r="E82" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="N25" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B26" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="59"/>
-      <c r="L26" s="35"/>
-      <c r="N26" s="32"/>
-    </row>
-    <row r="27" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="B27" s="85"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="59"/>
-      <c r="L27" s="35"/>
-      <c r="N27" s="32"/>
-    </row>
-    <row r="28" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="47" t="s">
-        <v>359</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>384</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="47" t="s">
-        <v>385</v>
-      </c>
-      <c r="G28" s="39" t="s">
-        <v>383</v>
-      </c>
-      <c r="H28" s="59"/>
-      <c r="L28" s="35"/>
-      <c r="N28" s="32"/>
-    </row>
-    <row r="29" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="59"/>
-      <c r="L29" s="36"/>
-      <c r="N29" s="33"/>
-    </row>
-    <row r="30" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="61" t="s">
-        <v>363</v>
-      </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="59"/>
-    </row>
-    <row r="31" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="H31" s="59"/>
-    </row>
-    <row r="32" spans="1:15" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="B32" s="125"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="59"/>
-    </row>
-    <row r="33" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="B33" s="84" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="60"/>
-    </row>
-    <row r="34" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="90"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="121"/>
-      <c r="C36" s="122"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="123"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="121"/>
-      <c r="C37" s="122"/>
-      <c r="D37" s="122"/>
-      <c r="E37" s="122"/>
-      <c r="F37" s="122"/>
-      <c r="G37" s="123"/>
-    </row>
-    <row r="38" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="93"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="88" t="s">
-        <v>369</v>
-      </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="90"/>
-    </row>
-    <row r="40" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="93"/>
-    </row>
-    <row r="41" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:8" s="17" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-    </row>
-    <row r="45" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="62"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="H45" s="56" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B46" s="40"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="57"/>
-    </row>
-    <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="56" t="s">
-        <v>365</v>
-      </c>
-      <c r="H47" s="57"/>
-    </row>
-    <row r="48" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="57"/>
-    </row>
-    <row r="49" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="B49" s="42" t="s">
-        <v>370</v>
-      </c>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="57"/>
-    </row>
-    <row r="50" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="C50" s="110" t="s">
-        <v>368</v>
-      </c>
-      <c r="D50" s="61" t="s">
-        <v>367</v>
-      </c>
-      <c r="E50" s="62"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="47" t="s">
-        <v>356</v>
-      </c>
-      <c r="H50" s="57"/>
-    </row>
-    <row r="51" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="C51" s="111"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="57"/>
-    </row>
-    <row r="52" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="B52" s="19"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="57"/>
-    </row>
-    <row r="53" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="B53" s="101" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="102"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="102"/>
-      <c r="G53" s="103"/>
-      <c r="H53" s="58"/>
-    </row>
-    <row r="54" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="88" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="89"/>
-      <c r="G55" s="90"/>
-    </row>
-    <row r="56" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="91"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="92"/>
-      <c r="F56" s="92"/>
-      <c r="G56" s="93"/>
-    </row>
-    <row r="62" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" s="47" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="40"/>
-      <c r="C64" s="48"/>
-    </row>
-    <row r="65" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="2:3" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="40"/>
-    </row>
-    <row r="68" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" s="47" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="40"/>
-      <c r="C70" s="48"/>
-    </row>
-    <row r="71" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" s="47" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="40"/>
-      <c r="C73" s="48"/>
-    </row>
-    <row r="74" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B75" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="40"/>
-      <c r="C76" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="2:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C78" s="47" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="40"/>
-      <c r="C79" s="48"/>
-    </row>
-    <row r="80" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81" s="47" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="40"/>
-      <c r="C82" s="48"/>
-    </row>
-    <row r="83" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="47" t="s">
-        <v>363</v>
-      </c>
-      <c r="D84" s="47" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="48"/>
-      <c r="D85" s="48"/>
-    </row>
-    <row r="86" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C87" s="56" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="36"/>
-    </row>
-    <row r="89" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C90" s="56" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="36"/>
-    </row>
-    <row r="92" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C93" s="47" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="48"/>
-    </row>
-    <row r="95" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C96" s="47" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C97" s="100"/>
-    </row>
-    <row r="98" spans="3:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="48"/>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C83" s="68"/>
+      <c r="E83" s="91"/>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C84" s="68"/>
+      <c r="E84" s="91"/>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C85" s="68"/>
+      <c r="E85" s="91"/>
+    </row>
+    <row r="86" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="38"/>
+      <c r="E86" s="90"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="D50:F52"/>
-    <mergeCell ref="D30:F32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B55:G56"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G8"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="D19:F22"/>
-    <mergeCell ref="B26:G27"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:F25"/>
+  <mergeCells count="56">
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B38:G40"/>
+    <mergeCell ref="B34:G37"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="I17:I40"/>
+    <mergeCell ref="I42:I55"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="E70:E71"/>
     <mergeCell ref="H9:H15"/>
     <mergeCell ref="H19:H33"/>
     <mergeCell ref="H45:H53"/>
@@ -4884,35 +5567,30 @@
     <mergeCell ref="D45:F48"/>
     <mergeCell ref="G47:G48"/>
     <mergeCell ref="D9:F10"/>
-    <mergeCell ref="B11:F12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B35:G38"/>
-    <mergeCell ref="B39:G40"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="G24:G25"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="N16:N18"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="N20:N23"/>
-    <mergeCell ref="L25:L29"/>
-    <mergeCell ref="N25:N29"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="I2:I15"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:G8"/>
+    <mergeCell ref="D19:F22"/>
+    <mergeCell ref="B26:G27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B55:G56"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:F52"/>
+    <mergeCell ref="D30:F32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="39" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4960,65 +5638,65 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="I4" s="51" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="I4" s="83" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="I5" s="52"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="I5" s="84"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="I6" s="54" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="I6" s="86" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="I7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="I7" s="87"/>
     </row>
     <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="I8" s="119" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="I8" s="96" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5026,29 +5704,29 @@
       <c r="A9" s="2">
         <v>0.75</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="56" t="s">
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="120"/>
+      <c r="I9" s="97"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="57"/>
-      <c r="I10" s="45" t="s">
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="63"/>
+      <c r="I10" s="92" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5056,35 +5734,35 @@
       <c r="A11" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="57"/>
-      <c r="I11" s="46"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="63"/>
+      <c r="I11" s="93"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>0.8125</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="57"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="63"/>
     </row>
     <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="58"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="64"/>
     </row>
     <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5111,25 +5789,25 @@
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="49" t="s">
+      <c r="E17" s="70"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="65" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5137,59 +5815,59 @@
       <c r="A18" s="2">
         <v>0.4375</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="112" t="s">
+      <c r="C18" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="59"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="66"/>
     </row>
     <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.45833333333333331</v>
       </c>
       <c r="B19" s="40"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="59"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="66"/>
     </row>
     <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="59"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="66"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>0.5</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="59"/>
+      <c r="G21" s="66"/>
       <c r="L21" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5198,94 +5876,94 @@
       </c>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="59"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="66"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="59"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="66"/>
     </row>
     <row r="24" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.5625</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="59"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="66"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="117" t="s">
+      <c r="C25" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="59"/>
+      <c r="G25" s="66"/>
     </row>
     <row r="26" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.60416666666666663</v>
       </c>
       <c r="B26" s="40"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="59"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="66"/>
     </row>
     <row r="27" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.625</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="59"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="66"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="59"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="66"/>
     </row>
     <row r="29" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -5293,90 +5971,90 @@
       </c>
       <c r="B29" s="40"/>
       <c r="C29" s="40"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="59"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="66"/>
     </row>
     <row r="30" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>0.6875</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="60"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="67"/>
     </row>
     <row r="31" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B31" s="84" t="s">
+      <c r="B31" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="78"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="81"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="77"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="81"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="77"/>
     </row>
     <row r="35" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="87"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="62"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="88" t="s">
+      <c r="B36" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="90"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="46"/>
     </row>
     <row r="37" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="93"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5408,31 +6086,31 @@
       <c r="A41" s="2">
         <v>0.5</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="70" t="s">
+      <c r="D42" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="71"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="56" t="s">
+      <c r="E42" s="70"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="37" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5442,40 +6120,40 @@
       </c>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
-      <c r="D43" s="114"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="57"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="63"/>
     </row>
     <row r="44" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>0.5625</v>
       </c>
-      <c r="D44" s="73"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="57"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="63"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="F45" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="G45" s="57"/>
+      <c r="G45" s="63"/>
     </row>
     <row r="46" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
@@ -5483,38 +6161,38 @@
       </c>
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="57"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="63"/>
     </row>
     <row r="47" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>0.625</v>
       </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="57"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="63"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="57"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="63"/>
     </row>
     <row r="49" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
@@ -5522,74 +6200,96 @@
       </c>
       <c r="B49" s="40"/>
       <c r="C49" s="40"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="57"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="63"/>
     </row>
     <row r="50" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>0.6875</v>
       </c>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="58"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="64"/>
     </row>
     <row r="51" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B51" s="101" t="s">
+      <c r="B51" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="102"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="103"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="43"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="104"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="106"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="99"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="100"/>
     </row>
     <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="107"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="108"/>
-      <c r="G53" s="109"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="103"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="88" t="s">
+      <c r="B54" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="89"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="89"/>
-      <c r="G54" s="90"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="46"/>
     </row>
     <row r="55" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="91"/>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="92"/>
-      <c r="G55" s="93"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D17:F20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="D42:F44"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B4:G8"/>
+    <mergeCell ref="B23:F24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B9:F13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="B52:G53"/>
     <mergeCell ref="B54:G55"/>
     <mergeCell ref="B36:G37"/>
@@ -5606,33 +6306,11 @@
     <mergeCell ref="F45:F50"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B4:G8"/>
-    <mergeCell ref="B23:F24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F25:F30"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B9:F13"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="D42:F44"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D17:F20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="G9:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/docs/scheduleTurtlestitch10.xlsx
+++ b/docs/scheduleTurtlestitch10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joekvanmontfort/Documents/GitHub/turtlestitch10/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8200A633-F88D-384E-88DA-839EFE9C7759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F621F627-0C12-7E41-AE9C-CB5BEE0B7E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10420" yWindow="500" windowWidth="23320" windowHeight="17500" activeTab="3" xr2:uid="{81F1DF98-07C1-7A42-BCBC-CF2DA53DE83F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{81F1DF98-07C1-7A42-BCBC-CF2DA53DE83F}"/>
   </bookViews>
   <sheets>
     <sheet name="ingredients" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="466">
   <si>
     <t>Friday</t>
   </si>
@@ -1350,6 +1350,9 @@
 14:00-15:00 w5</t>
   </si>
   <si>
+    <t>Receptie</t>
+  </si>
+  <si>
     <t>Workshopruimte BG</t>
   </si>
   <si>
@@ -1362,6 +1365,9 @@
     <t>Kennismakerij</t>
   </si>
   <si>
+    <t>Reception</t>
+  </si>
+  <si>
     <t>Workshoprooms 1-3</t>
   </si>
   <si>
@@ -1369,40 +1375,130 @@
   </si>
   <si>
     <t>Large Auditorium</t>
+  </si>
+  <si>
+    <t>Talks 3 12:00-13:00
+Turtle Stitch with our visual impaired students - Pauline Maas (Netherlands)
+Chicken &amp; Chips - Mags Amond (Ireland)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talks 1 9:30-10:30
+StichLAB meets Turtlestitch - Paul-Reza Klein, Walter Lunzer  (Austria)
+From Seashore to TurtleStitch - Beth Lloyd (USA)
+</t>
+  </si>
+  <si>
+    <t>Talks 7
+Beyond the Mouse &amp; Keyboard: The Joy of Body-Responsive Coding - Stephen Howell (Ireland)</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Workshop 4 14:00-15:30
+Bodies as Data: From Pose Detection to Stitched Patterns - Stephen Howell (Ireland)</t>
+  </si>
+  <si>
+    <t>Talks 4 14:00-15:00
+Face Stitching - Bhavik Dodda (India)
+The Beauty of Coding:  Koch Snowflake - Elaine Wolfe (USA)</t>
+  </si>
+  <si>
+    <t>Workshop 6 15:00-16:00
+Instagrammable - Susan Ettenheim (USA)</t>
+  </si>
+  <si>
+    <t>Workshop 8 12:00-12-30
+How do we say our code out loud? - Richard Millwood (Ireland)</t>
+  </si>
+  <si>
+    <t>Talks 6 12:30-13:30
+Blockly Games - learn to think like a turtle - Mags Amond (Ireland)</t>
+  </si>
+  <si>
+    <t>Birds of feather session 15:00-16:00
+Self organised support by TurtleStitch community - Joek van Montfort (The Netherlands)</t>
+  </si>
+  <si>
+    <t>Workshop 2 12:00-13:00
+Blending Code and Craft: Interactive Embroidery with Sensors and TurtleStitch - Matthew koomson (Ghana)</t>
+  </si>
+  <si>
+    <t>Worksshop 9 13:30-14:30
+TurtleStitch: Where Code Beats Pen! - Simon Mong (China)</t>
+  </si>
+  <si>
+    <t>Workshop 10 15:00-16:00
+Get Up and Running with TurtleStitch - Beth Lloyd (USA)</t>
+  </si>
+  <si>
+    <t>CoderDojo 9:30-11:30
+CoderDojo Tilburg (Netherlands)</t>
+  </si>
+  <si>
+    <t>Workshop 3 12:00-13:00
+Starting TurtleStitch - Cynthia Solomon (USA)</t>
+  </si>
+  <si>
+    <t>Workshop 5 14:00-15:00
+Surprise workshop / Ask us anything</t>
+  </si>
+  <si>
+    <t>Workshop 7 15:00-16:30
+From Sketch to Stitch: Your Own Badge - Martine van 't Hul (The Netherlands)</t>
+  </si>
+  <si>
+    <t>CoderDojo 12:30-14:30
+CoderDojo Tilburg (Netherlands)</t>
+  </si>
+  <si>
+    <t>Workshop 11
+Loops, Twirls &amp; Swirls - Margaret Low (United Kingdom)</t>
+  </si>
+  <si>
+    <t>Refreshments</t>
+  </si>
+  <si>
+    <t>Dinner Break (self organized)</t>
+  </si>
+  <si>
+    <t>Teachmeet @Hostel Roots Bar, Stationstraat41</t>
+  </si>
+  <si>
+    <t>Registration
+Getting Started Workshop
+Exposition</t>
+  </si>
+  <si>
+    <t>Workshop 0 18:00-19:30
+Teach the teachers</t>
+  </si>
+  <si>
+    <t>Talks 2 10:30-11:30
+Get Up and Running with TurtleStitch - Beth Lloyd (USA)
+Shared pattern library - Jacob Tekiela (Denmark)</t>
+  </si>
+  <si>
+    <t>Cleanup</t>
+  </si>
+  <si>
+    <t>Closure 16:00-16:45
+Wrap up, thank you and goodbye</t>
+  </si>
+  <si>
+    <t>Keynote - TurtleStitch at 10:
+Reflecting Back, Threading Forward
+Andrea Mayr-Stalder (Austria)</t>
+  </si>
+  <si>
+    <t>Speedtalks - All presenters present present themselves in 60 seconds</t>
   </si>
   <si>
     <t>Talks 5 15:30-16:30
 Computer Embroidery Partners - Margaret Minsky (China)
-Arachne and Téchne: the story of a turtle who wanted to become a spider - Maria Beatrice Rapaccini (Italy)
+Arachne and Téchne - Maria Beatrice Rapaccini (Italy)
 Finding Patterns in Your Environment - Jadga Hügle (Germany)
 Expermental mixed-media Practice - Jacob Tekiela (Denmark)</t>
-  </si>
-  <si>
-    <t>Reception / other</t>
-  </si>
-  <si>
-    <t>Receptie / andere locaties</t>
-  </si>
-  <si>
-    <t>Talks 4
-Face Stitching - Bhavik Dodda (India)
-The Beauty of Coding:  Koch Snowflake - Elaine Wolfe (USA)</t>
-  </si>
-  <si>
-    <t>Workshop 2
-Blending Code and Craft: Interactive Embroidery with Sensors and TurtleStitch - Matthew koomson (Ghana)</t>
-  </si>
-  <si>
-    <t>Workshop 6
-Instagrammable - Susan Ettenheim (USA)</t>
-  </si>
-  <si>
-    <t>Talks 6
-Blockly Games - learn to think like a turtle - Mags Amond (Ireland)</t>
-  </si>
-  <si>
-    <t>Worksshop 9
-TurtleStitch: Where Code Beats Pen! - Simon Mong (China)</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1508,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1453,6 +1549,40 @@
       <sz val="48"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1537,13 +1667,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1773,7 +1903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2167,102 +2297,309 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4079,7 +4416,7 @@
       <c r="Q25" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="R25" s="141" t="s">
+      <c r="R25" s="142" t="s">
         <v>404</v>
       </c>
       <c r="S25" s="38" t="s">
@@ -4136,7 +4473,7 @@
       <c r="Q26" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="R26" s="141" t="s">
+      <c r="R26" s="142" t="s">
         <v>404</v>
       </c>
       <c r="S26" s="38" t="s">
@@ -5051,7 +5388,7 @@
       <c r="A33" t="s">
         <v>417</v>
       </c>
-      <c r="B33" s="142">
+      <c r="B33" s="143">
         <v>0.75</v>
       </c>
     </row>
@@ -5059,7 +5396,7 @@
       <c r="A34" t="s">
         <v>416</v>
       </c>
-      <c r="B34" s="142">
+      <c r="B34" s="143">
         <v>0.79166666666666663</v>
       </c>
     </row>
@@ -5179,7 +5516,7 @@
       <c r="A50" t="s">
         <v>423</v>
       </c>
-      <c r="B50" s="143">
+      <c r="B50" s="144">
         <v>4369910000000</v>
       </c>
     </row>
@@ -5227,7 +5564,7 @@
       <c r="A56" t="s">
         <v>417</v>
       </c>
-      <c r="B56" s="142">
+      <c r="B56" s="143">
         <v>0.8125</v>
       </c>
     </row>
@@ -5235,7 +5572,7 @@
       <c r="A57" t="s">
         <v>416</v>
       </c>
-      <c r="B57" s="142">
+      <c r="B57" s="143">
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -5403,7 +5740,7 @@
       <c r="A79" t="s">
         <v>417</v>
       </c>
-      <c r="B79" s="142">
+      <c r="B79" s="143">
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -5411,7 +5748,7 @@
       <c r="A80" t="s">
         <v>416</v>
       </c>
-      <c r="B80" s="142">
+      <c r="B80" s="143">
         <v>0.85416666666666663</v>
       </c>
     </row>
@@ -5531,7 +5868,7 @@
       <c r="A96" t="s">
         <v>423</v>
       </c>
-      <c r="B96" s="143">
+      <c r="B96" s="144">
         <v>436801000000</v>
       </c>
     </row>
@@ -5579,7 +5916,7 @@
       <c r="A102" t="s">
         <v>417</v>
       </c>
-      <c r="B102" s="142">
+      <c r="B102" s="143">
         <v>0.39583333333333331</v>
       </c>
     </row>
@@ -5587,7 +5924,7 @@
       <c r="A103" t="s">
         <v>416</v>
       </c>
-      <c r="B103" s="142">
+      <c r="B103" s="143">
         <v>0.4375</v>
       </c>
     </row>
@@ -5755,7 +6092,7 @@
       <c r="A125" t="s">
         <v>417</v>
       </c>
-      <c r="B125" s="142">
+      <c r="B125" s="143">
         <v>0.39583333333333331</v>
       </c>
     </row>
@@ -5763,7 +6100,7 @@
       <c r="A126" t="s">
         <v>416</v>
       </c>
-      <c r="B126" s="142">
+      <c r="B126" s="143">
         <v>0.4375</v>
       </c>
     </row>
@@ -5925,7 +6262,7 @@
       <c r="A148" t="s">
         <v>417</v>
       </c>
-      <c r="B148" s="142">
+      <c r="B148" s="143">
         <v>0.39583333333333331</v>
       </c>
     </row>
@@ -5933,7 +6270,7 @@
       <c r="A149" t="s">
         <v>416</v>
       </c>
-      <c r="B149" s="142">
+      <c r="B149" s="143">
         <v>0.47916666666666669</v>
       </c>
     </row>
@@ -6101,7 +6438,7 @@
       <c r="A171" t="s">
         <v>417</v>
       </c>
-      <c r="B171" s="142">
+      <c r="B171" s="143">
         <v>0.4375</v>
       </c>
     </row>
@@ -6109,7 +6446,7 @@
       <c r="A172" t="s">
         <v>416</v>
       </c>
-      <c r="B172" s="142">
+      <c r="B172" s="143">
         <v>0.47916666666666669</v>
       </c>
     </row>
@@ -6277,7 +6614,7 @@
       <c r="A194" t="s">
         <v>417</v>
       </c>
-      <c r="B194" s="142">
+      <c r="B194" s="143">
         <v>0.4375</v>
       </c>
     </row>
@@ -6285,7 +6622,7 @@
       <c r="A195" t="s">
         <v>416</v>
       </c>
-      <c r="B195" s="142">
+      <c r="B195" s="143">
         <v>0.47916666666666669</v>
       </c>
     </row>
@@ -6405,7 +6742,7 @@
       <c r="A211" t="s">
         <v>423</v>
       </c>
-      <c r="B211" s="143">
+      <c r="B211" s="144">
         <v>4915120000000</v>
       </c>
     </row>
@@ -6453,7 +6790,7 @@
       <c r="A217" t="s">
         <v>417</v>
       </c>
-      <c r="B217" s="142">
+      <c r="B217" s="143">
         <v>0.4375</v>
       </c>
     </row>
@@ -6461,7 +6798,7 @@
       <c r="A218" t="s">
         <v>416</v>
       </c>
-      <c r="B218" s="142">
+      <c r="B218" s="143">
         <v>0.47916666666666669</v>
       </c>
     </row>
@@ -6629,7 +6966,7 @@
       <c r="A240" t="s">
         <v>417</v>
       </c>
-      <c r="B240" s="142">
+      <c r="B240" s="143">
         <v>0.4375</v>
       </c>
     </row>
@@ -6637,7 +6974,7 @@
       <c r="A241" t="s">
         <v>416</v>
       </c>
-      <c r="B241" s="142">
+      <c r="B241" s="143">
         <v>0.47916666666666669</v>
       </c>
     </row>
@@ -6802,7 +7139,7 @@
       <c r="A263" t="s">
         <v>417</v>
       </c>
-      <c r="B263" s="142">
+      <c r="B263" s="143">
         <v>0.4375</v>
       </c>
     </row>
@@ -6810,7 +7147,7 @@
       <c r="A264" t="s">
         <v>416</v>
       </c>
-      <c r="B264" s="142">
+      <c r="B264" s="143">
         <v>0.47916666666666669</v>
       </c>
     </row>
@@ -6927,7 +7264,7 @@
       <c r="A280" t="s">
         <v>423</v>
       </c>
-      <c r="B280" s="143">
+      <c r="B280" s="144">
         <v>233550000000</v>
       </c>
     </row>
@@ -6975,7 +7312,7 @@
       <c r="A286" t="s">
         <v>417</v>
       </c>
-      <c r="B286" s="142">
+      <c r="B286" s="143">
         <v>0.5</v>
       </c>
     </row>
@@ -6983,7 +7320,7 @@
       <c r="A287" t="s">
         <v>416</v>
       </c>
-      <c r="B287" s="142">
+      <c r="B287" s="143">
         <v>0.54166666666666663</v>
       </c>
     </row>
@@ -7145,7 +7482,7 @@
       <c r="A309" t="s">
         <v>417</v>
       </c>
-      <c r="B309" s="142">
+      <c r="B309" s="143">
         <v>0.5</v>
       </c>
     </row>
@@ -7153,7 +7490,7 @@
       <c r="A310" t="s">
         <v>416</v>
       </c>
-      <c r="B310" s="142">
+      <c r="B310" s="143">
         <v>0.54166666666666663</v>
       </c>
     </row>
@@ -7273,7 +7610,7 @@
       <c r="A326" t="s">
         <v>423</v>
       </c>
-      <c r="B326" s="143">
+      <c r="B326" s="144">
         <v>353879000000</v>
       </c>
     </row>
@@ -7321,7 +7658,7 @@
       <c r="A332" t="s">
         <v>417</v>
       </c>
-      <c r="B332" s="142">
+      <c r="B332" s="143">
         <v>0.5</v>
       </c>
     </row>
@@ -7329,7 +7666,7 @@
       <c r="A333" t="s">
         <v>416</v>
       </c>
-      <c r="B333" s="142">
+      <c r="B333" s="143">
         <v>0.54166666666666663</v>
       </c>
     </row>
@@ -7494,7 +7831,7 @@
       <c r="A355" t="s">
         <v>417</v>
       </c>
-      <c r="B355" s="142">
+      <c r="B355" s="143">
         <v>0.5</v>
       </c>
     </row>
@@ -7502,7 +7839,7 @@
       <c r="A356" t="s">
         <v>416</v>
       </c>
-      <c r="B356" s="142">
+      <c r="B356" s="143">
         <v>0.54166666666666663</v>
       </c>
     </row>
@@ -7670,7 +8007,7 @@
       <c r="A378" t="s">
         <v>417</v>
       </c>
-      <c r="B378" s="142">
+      <c r="B378" s="143">
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -7678,7 +8015,7 @@
       <c r="A379" t="s">
         <v>416</v>
       </c>
-      <c r="B379" s="142">
+      <c r="B379" s="143">
         <v>0.625</v>
       </c>
     </row>
@@ -7846,7 +8183,7 @@
       <c r="A401" t="s">
         <v>417</v>
       </c>
-      <c r="B401" s="142">
+      <c r="B401" s="143">
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -7854,7 +8191,7 @@
       <c r="A402" t="s">
         <v>416</v>
       </c>
-      <c r="B402" s="142">
+      <c r="B402" s="143">
         <v>0.625</v>
       </c>
     </row>
@@ -7971,7 +8308,7 @@
       <c r="A418" t="s">
         <v>423</v>
       </c>
-      <c r="B418" s="143">
+      <c r="B418" s="144">
         <v>353878000000</v>
       </c>
     </row>
@@ -8019,7 +8356,7 @@
       <c r="A424" t="s">
         <v>417</v>
       </c>
-      <c r="B424" s="142">
+      <c r="B424" s="143">
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -8027,7 +8364,7 @@
       <c r="A425" t="s">
         <v>416</v>
       </c>
-      <c r="B425" s="142">
+      <c r="B425" s="143">
         <v>0.64583333333333337</v>
       </c>
     </row>
@@ -8195,7 +8532,7 @@
       <c r="A447" t="s">
         <v>417</v>
       </c>
-      <c r="B447" s="142">
+      <c r="B447" s="143">
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -8203,7 +8540,7 @@
       <c r="A448" t="s">
         <v>416</v>
       </c>
-      <c r="B448" s="142">
+      <c r="B448" s="143">
         <v>0.625</v>
       </c>
     </row>
@@ -8368,7 +8705,7 @@
       <c r="A470" t="s">
         <v>417</v>
       </c>
-      <c r="B470" s="142">
+      <c r="B470" s="143">
         <v>0.625</v>
       </c>
     </row>
@@ -8376,7 +8713,7 @@
       <c r="A471" t="s">
         <v>416</v>
       </c>
-      <c r="B471" s="142">
+      <c r="B471" s="143">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -8541,7 +8878,7 @@
       <c r="A493" t="s">
         <v>417</v>
       </c>
-      <c r="B493" s="142">
+      <c r="B493" s="143">
         <v>0.625</v>
       </c>
     </row>
@@ -8549,7 +8886,7 @@
       <c r="A494" t="s">
         <v>416</v>
       </c>
-      <c r="B494" s="142">
+      <c r="B494" s="143">
         <v>0.6875</v>
       </c>
     </row>
@@ -8717,7 +9054,7 @@
       <c r="A516" t="s">
         <v>417</v>
       </c>
-      <c r="B516" s="142">
+      <c r="B516" s="143">
         <v>0.64583333333333337</v>
       </c>
     </row>
@@ -8725,7 +9062,7 @@
       <c r="A517" t="s">
         <v>416</v>
       </c>
-      <c r="B517" s="142">
+      <c r="B517" s="143">
         <v>0.6875</v>
       </c>
     </row>
@@ -8845,7 +9182,7 @@
       <c r="A533" t="s">
         <v>423</v>
       </c>
-      <c r="B533" s="143">
+      <c r="B533" s="144">
         <v>393405000000</v>
       </c>
     </row>
@@ -8893,7 +9230,7 @@
       <c r="A539" t="s">
         <v>417</v>
       </c>
-      <c r="B539" s="142">
+      <c r="B539" s="143">
         <v>0.64583333333333337</v>
       </c>
     </row>
@@ -8901,7 +9238,7 @@
       <c r="A540" t="s">
         <v>416</v>
       </c>
-      <c r="B540" s="142">
+      <c r="B540" s="143">
         <v>0.6875</v>
       </c>
     </row>
@@ -9021,7 +9358,7 @@
       <c r="A556" t="s">
         <v>423</v>
       </c>
-      <c r="B556" s="143">
+      <c r="B556" s="144">
         <v>4915120000000</v>
       </c>
     </row>
@@ -9069,7 +9406,7 @@
       <c r="A562" t="s">
         <v>417</v>
       </c>
-      <c r="B562" s="142">
+      <c r="B562" s="143">
         <v>0.64583333333333337</v>
       </c>
     </row>
@@ -9077,7 +9414,7 @@
       <c r="A563" t="s">
         <v>416</v>
       </c>
-      <c r="B563" s="142">
+      <c r="B563" s="143">
         <v>0.6875</v>
       </c>
     </row>
@@ -9245,7 +9582,7 @@
       <c r="A585" t="s">
         <v>417</v>
       </c>
-      <c r="B585" s="142">
+      <c r="B585" s="143">
         <v>0.64583333333333337</v>
       </c>
     </row>
@@ -9253,7 +9590,7 @@
       <c r="A586" t="s">
         <v>416</v>
       </c>
-      <c r="B586" s="142">
+      <c r="B586" s="143">
         <v>0.6875</v>
       </c>
     </row>
@@ -9373,7 +9710,7 @@
       <c r="A602" t="s">
         <v>423</v>
       </c>
-      <c r="B602" s="143">
+      <c r="B602" s="144">
         <v>353879000000</v>
       </c>
     </row>
@@ -9421,7 +9758,7 @@
       <c r="A608" t="s">
         <v>417</v>
       </c>
-      <c r="B608" s="142">
+      <c r="B608" s="143">
         <v>0.8125</v>
       </c>
     </row>
@@ -9429,7 +9766,7 @@
       <c r="A609" t="s">
         <v>416</v>
       </c>
-      <c r="B609" s="142">
+      <c r="B609" s="143">
         <v>0.875</v>
       </c>
     </row>
@@ -9597,7 +9934,7 @@
       <c r="A631" t="s">
         <v>417</v>
       </c>
-      <c r="B631" s="142">
+      <c r="B631" s="143">
         <v>0.5</v>
       </c>
     </row>
@@ -9605,7 +9942,7 @@
       <c r="A632" t="s">
         <v>416</v>
       </c>
-      <c r="B632" s="142">
+      <c r="B632" s="143">
         <v>0.52083333333333337</v>
       </c>
     </row>
@@ -9725,7 +10062,7 @@
       <c r="A648" t="s">
         <v>423</v>
       </c>
-      <c r="B648" s="143">
+      <c r="B648" s="144">
         <v>353879000000</v>
       </c>
     </row>
@@ -9773,7 +10110,7 @@
       <c r="A654" t="s">
         <v>417</v>
       </c>
-      <c r="B654" s="142">
+      <c r="B654" s="143">
         <v>0.52083333333333337</v>
       </c>
     </row>
@@ -9781,7 +10118,7 @@
       <c r="A655" t="s">
         <v>416</v>
       </c>
-      <c r="B655" s="142">
+      <c r="B655" s="143">
         <v>0.5625</v>
       </c>
     </row>
@@ -9898,7 +10235,7 @@
       <c r="A671" t="s">
         <v>423</v>
       </c>
-      <c r="B671" s="143">
+      <c r="B671" s="144">
         <v>353878000000</v>
       </c>
     </row>
@@ -9946,7 +10283,7 @@
       <c r="A677" t="s">
         <v>417</v>
       </c>
-      <c r="B677" s="142">
+      <c r="B677" s="143">
         <v>0.52083333333333337</v>
       </c>
     </row>
@@ -9954,7 +10291,7 @@
       <c r="A678" t="s">
         <v>416</v>
       </c>
-      <c r="B678" s="142">
+      <c r="B678" s="143">
         <v>0.5625</v>
       </c>
     </row>
@@ -10119,7 +10456,7 @@
       <c r="A700" t="s">
         <v>417</v>
       </c>
-      <c r="B700" s="142">
+      <c r="B700" s="143">
         <v>0.52083333333333337</v>
       </c>
     </row>
@@ -10127,7 +10464,7 @@
       <c r="A701" t="s">
         <v>416</v>
       </c>
-      <c r="B701" s="142">
+      <c r="B701" s="143">
         <v>0.5625</v>
       </c>
     </row>
@@ -10292,7 +10629,7 @@
       <c r="A723" t="s">
         <v>417</v>
       </c>
-      <c r="B723" s="142">
+      <c r="B723" s="143">
         <v>0.52083333333333337</v>
       </c>
     </row>
@@ -10300,7 +10637,7 @@
       <c r="A724" t="s">
         <v>416</v>
       </c>
-      <c r="B724" s="142">
+      <c r="B724" s="143">
         <v>0.60416666666666663</v>
       </c>
     </row>
@@ -10468,7 +10805,7 @@
       <c r="A746" t="s">
         <v>417</v>
       </c>
-      <c r="B746" s="142">
+      <c r="B746" s="143">
         <v>0.5625</v>
       </c>
     </row>
@@ -10476,7 +10813,7 @@
       <c r="A747" t="s">
         <v>416</v>
       </c>
-      <c r="B747" s="142">
+      <c r="B747" s="143">
         <v>0.60416666666666663</v>
       </c>
     </row>
@@ -10644,7 +10981,7 @@
       <c r="A769" t="s">
         <v>417</v>
       </c>
-      <c r="B769" s="142">
+      <c r="B769" s="143">
         <v>0.625</v>
       </c>
     </row>
@@ -10652,7 +10989,7 @@
       <c r="A770" t="s">
         <v>416</v>
       </c>
-      <c r="B770" s="142">
+      <c r="B770" s="143">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -10820,7 +11157,7 @@
       <c r="A792" t="s">
         <v>417</v>
       </c>
-      <c r="B792" s="142">
+      <c r="B792" s="143">
         <v>0.625</v>
       </c>
     </row>
@@ -10828,7 +11165,7 @@
       <c r="A793" t="s">
         <v>416</v>
       </c>
-      <c r="B793" s="142">
+      <c r="B793" s="143">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -10996,7 +11333,7 @@
       <c r="A815" t="s">
         <v>417</v>
       </c>
-      <c r="B815" s="142">
+      <c r="B815" s="143">
         <v>0.625</v>
       </c>
     </row>
@@ -11004,7 +11341,7 @@
       <c r="A816" t="s">
         <v>416</v>
       </c>
-      <c r="B816" s="142">
+      <c r="B816" s="143">
         <v>0.6875</v>
       </c>
     </row>
@@ -12065,1102 +12402,1763 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:F158"/>
+  <dimension ref="A3:F166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="83" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B72" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D113" sqref="D113:D118"/>
+      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="144" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" style="149" customWidth="1"/>
-    <col min="3" max="6" width="38" style="149" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="155" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" style="145" customWidth="1"/>
+    <col min="3" max="5" width="38" style="145" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" style="231" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="141"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="149" t="s">
+    <row r="3" spans="1:6" s="235" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A3" s="232"/>
+      <c r="B3" s="233" t="s">
+        <v>435</v>
+      </c>
+      <c r="C3" s="233" t="s">
+        <v>434</v>
+      </c>
+      <c r="D3" s="233" t="s">
+        <v>429</v>
+      </c>
+      <c r="E3" s="233" t="s">
         <v>433</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="F3" s="234" t="s">
         <v>432</v>
       </c>
-      <c r="D3" s="149" t="s">
+    </row>
+    <row r="4" spans="1:6" s="235" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A4" s="232"/>
+      <c r="B4" s="236" t="s">
+        <v>431</v>
+      </c>
+      <c r="C4" s="236" t="s">
+        <v>430</v>
+      </c>
+      <c r="D4" s="236" t="s">
+        <v>429</v>
+      </c>
+      <c r="E4" s="236" t="s">
         <v>428</v>
       </c>
-      <c r="E3" s="149" t="s">
+      <c r="F4" s="237" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="235" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="238" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="238"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="157">
+        <v>0.75</v>
+      </c>
+      <c r="B6" s="149"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="153" t="s">
+        <v>459</v>
+      </c>
+      <c r="F6" s="158" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="157">
+        <v>0.75694444444444442</v>
+      </c>
+      <c r="B7" s="149"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="160"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="157">
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="B8" s="149"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="160"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="157">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="B9" s="149"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="160"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="157">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="160"/>
+    </row>
+    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="157">
+        <v>0.78472222222222199</v>
+      </c>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="160"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="157">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B12" s="161"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="160"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="157">
+        <v>0.79861111111111105</v>
+      </c>
+      <c r="B13" s="162"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="160"/>
+    </row>
+    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="157">
+        <v>0.80555555555555503</v>
+      </c>
+      <c r="B14" s="163"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="160"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="157">
+        <v>0.8125</v>
+      </c>
+      <c r="B15" s="147" t="s">
+        <v>463</v>
+      </c>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="160"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="157">
+        <v>0.81944444444444398</v>
+      </c>
+      <c r="B16" s="165"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="160"/>
+    </row>
+    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="157">
+        <v>0.82638888888888895</v>
+      </c>
+      <c r="B17" s="166"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="160"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="157">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B18" s="147" t="s">
+        <v>464</v>
+      </c>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="160"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="157">
+        <v>0.84027777777777701</v>
+      </c>
+      <c r="B19" s="165"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="160"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="157">
+        <v>0.84722222222222199</v>
+      </c>
+      <c r="B20" s="166"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="160"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="157">
+        <v>0.85416666666666596</v>
+      </c>
+      <c r="B21" s="161"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="160"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="157">
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="B22" s="162"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="160"/>
+    </row>
+    <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="157">
+        <v>0.86805555555555503</v>
+      </c>
+      <c r="B23" s="163"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="167"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="157">
+        <v>0.875</v>
+      </c>
+      <c r="B24" s="149"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="229"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="149"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="229"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="149"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="229"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="149"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="229"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="229"/>
+    </row>
+    <row r="29" spans="1:6" s="235" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A29" s="232"/>
+      <c r="B29" s="233" t="s">
+        <v>435</v>
+      </c>
+      <c r="C29" s="233" t="s">
+        <v>434</v>
+      </c>
+      <c r="D29" s="233" t="s">
+        <v>429</v>
+      </c>
+      <c r="E29" s="233" t="s">
+        <v>433</v>
+      </c>
+      <c r="F29" s="234" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="235" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A30" s="232"/>
+      <c r="B30" s="236" t="s">
         <v>431</v>
       </c>
-      <c r="F3" s="149" t="s">
+      <c r="C30" s="236" t="s">
+        <v>430</v>
+      </c>
+      <c r="D30" s="236" t="s">
+        <v>429</v>
+      </c>
+      <c r="E30" s="236" t="s">
+        <v>428</v>
+      </c>
+      <c r="F30" s="237" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="235" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="238" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="238"/>
+      <c r="C31" s="238"/>
+      <c r="D31" s="238"/>
+      <c r="E31" s="238"/>
+      <c r="F31" s="238"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="157">
+        <v>0.375</v>
+      </c>
+      <c r="B32" s="149"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="154" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="157">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="B33" s="149"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="230"/>
+    </row>
+    <row r="34" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="157">
+        <v>0.38888888888888901</v>
+      </c>
+      <c r="B34" s="149"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="230"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="157">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="B35" s="147" t="s">
+        <v>437</v>
+      </c>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="148" t="s">
+        <v>449</v>
+      </c>
+      <c r="F35" s="230"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="157">
+        <v>0.40277777777777801</v>
+      </c>
+      <c r="B36" s="165"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="230"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="157">
+        <v>0.40972222222222199</v>
+      </c>
+      <c r="B37" s="165"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="230"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="157">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B38" s="165"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="168"/>
+      <c r="F38" s="230"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="157">
+        <v>0.42361111111111099</v>
+      </c>
+      <c r="B39" s="165"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="168"/>
+      <c r="F39" s="230"/>
+    </row>
+    <row r="40" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="157">
+        <v>0.43055555555555503</v>
+      </c>
+      <c r="B40" s="166"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="168"/>
+      <c r="F40" s="230"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="157">
+        <v>0.4375</v>
+      </c>
+      <c r="B41" s="149"/>
+      <c r="C41" s="147" t="s">
+        <v>460</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="168"/>
+      <c r="F41" s="230"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="157">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="B42" s="149"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="149"/>
+      <c r="E42" s="168"/>
+      <c r="F42" s="230"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="157">
+        <v>0.45138888888888901</v>
+      </c>
+      <c r="B43" s="149"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="168"/>
+      <c r="F43" s="230"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="157">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B44" s="149"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="149"/>
+      <c r="E44" s="168"/>
+      <c r="F44" s="230"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="157">
+        <v>0.46527777777777801</v>
+      </c>
+      <c r="B45" s="149"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="149"/>
+      <c r="E45" s="168"/>
+      <c r="F45" s="230"/>
+    </row>
+    <row r="46" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="157">
+        <v>0.47222222222222199</v>
+      </c>
+      <c r="B46" s="149"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="149"/>
+      <c r="E46" s="169"/>
+      <c r="F46" s="230"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="157">
+        <v>0.47916666666666602</v>
+      </c>
+      <c r="B47" s="198" t="s">
+        <v>455</v>
+      </c>
+      <c r="C47" s="199"/>
+      <c r="D47" s="199"/>
+      <c r="E47" s="199"/>
+      <c r="F47" s="230"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="157">
+        <v>0.48611111111111099</v>
+      </c>
+      <c r="B48" s="200"/>
+      <c r="C48" s="201"/>
+      <c r="D48" s="201"/>
+      <c r="E48" s="201"/>
+      <c r="F48" s="230"/>
+    </row>
+    <row r="49" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="157">
+        <v>0.49305555555555503</v>
+      </c>
+      <c r="B49" s="202"/>
+      <c r="C49" s="203"/>
+      <c r="D49" s="203"/>
+      <c r="E49" s="203"/>
+      <c r="F49" s="230"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="157">
+        <v>0.5</v>
+      </c>
+      <c r="B50" s="147" t="s">
+        <v>436</v>
+      </c>
+      <c r="C50" s="149"/>
+      <c r="D50" s="146" t="s">
+        <v>446</v>
+      </c>
+      <c r="E50" s="148" t="s">
+        <v>450</v>
+      </c>
+      <c r="F50" s="230"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="157">
+        <v>0.50694444444444398</v>
+      </c>
+      <c r="B51" s="165"/>
+      <c r="C51" s="149"/>
+      <c r="D51" s="176"/>
+      <c r="E51" s="168"/>
+      <c r="F51" s="230"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="157">
+        <v>0.51388888888888795</v>
+      </c>
+      <c r="B52" s="165"/>
+      <c r="C52" s="149"/>
+      <c r="D52" s="176"/>
+      <c r="E52" s="168"/>
+      <c r="F52" s="230"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="157">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="B53" s="165"/>
+      <c r="C53" s="149"/>
+      <c r="D53" s="176"/>
+      <c r="E53" s="168"/>
+      <c r="F53" s="230"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="157">
+        <v>0.52777777777777701</v>
+      </c>
+      <c r="B54" s="165"/>
+      <c r="C54" s="149"/>
+      <c r="D54" s="176"/>
+      <c r="E54" s="168"/>
+      <c r="F54" s="230"/>
+    </row>
+    <row r="55" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="157">
+        <v>0.53472222222222199</v>
+      </c>
+      <c r="B55" s="166"/>
+      <c r="C55" s="149"/>
+      <c r="D55" s="177"/>
+      <c r="E55" s="169"/>
+      <c r="F55" s="230"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="157">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B56" s="199" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="199"/>
+      <c r="D56" s="199"/>
+      <c r="E56" s="204"/>
+      <c r="F56" s="230"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="157">
+        <v>0.54861111111111005</v>
+      </c>
+      <c r="B57" s="201"/>
+      <c r="C57" s="201"/>
+      <c r="D57" s="201"/>
+      <c r="E57" s="205"/>
+      <c r="F57" s="230"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="157">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="B58" s="201"/>
+      <c r="C58" s="201"/>
+      <c r="D58" s="201"/>
+      <c r="E58" s="205"/>
+      <c r="F58" s="230"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="157">
+        <v>0.562499999999999</v>
+      </c>
+      <c r="B59" s="201"/>
+      <c r="C59" s="201"/>
+      <c r="D59" s="201"/>
+      <c r="E59" s="205"/>
+      <c r="F59" s="230"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="157">
+        <v>0.56944444444444398</v>
+      </c>
+      <c r="B60" s="201"/>
+      <c r="C60" s="201"/>
+      <c r="D60" s="201"/>
+      <c r="E60" s="205"/>
+      <c r="F60" s="230"/>
+    </row>
+    <row r="61" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="157">
+        <v>0.57638888888888795</v>
+      </c>
+      <c r="B61" s="201"/>
+      <c r="C61" s="201"/>
+      <c r="D61" s="201"/>
+      <c r="E61" s="205"/>
+      <c r="F61" s="230"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="157">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B62" s="149"/>
+      <c r="C62" s="150" t="s">
+        <v>440</v>
+      </c>
+      <c r="D62" s="147" t="s">
+        <v>441</v>
+      </c>
+      <c r="E62" s="148" t="s">
+        <v>451</v>
+      </c>
+      <c r="F62" s="230"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="157">
+        <v>0.59027777777777701</v>
+      </c>
+      <c r="B63" s="149"/>
+      <c r="C63" s="152"/>
+      <c r="D63" s="165"/>
+      <c r="E63" s="168"/>
+      <c r="F63" s="230"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="157">
+        <v>0.59722222222222099</v>
+      </c>
+      <c r="B64" s="149"/>
+      <c r="C64" s="152"/>
+      <c r="D64" s="165"/>
+      <c r="E64" s="168"/>
+      <c r="F64" s="230"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="157">
+        <v>0.60416666666666596</v>
+      </c>
+      <c r="B65" s="149"/>
+      <c r="C65" s="152"/>
+      <c r="D65" s="165"/>
+      <c r="E65" s="168"/>
+      <c r="F65" s="230"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="157">
+        <v>0.61111111111111005</v>
+      </c>
+      <c r="B66" s="149"/>
+      <c r="C66" s="152"/>
+      <c r="D66" s="165"/>
+      <c r="E66" s="168"/>
+      <c r="F66" s="230"/>
+    </row>
+    <row r="67" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="157">
+        <v>0.61805555555555503</v>
+      </c>
+      <c r="B67" s="149"/>
+      <c r="C67" s="152"/>
+      <c r="D67" s="166"/>
+      <c r="E67" s="169"/>
+      <c r="F67" s="230"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="157">
+        <v>0.624999999999999</v>
+      </c>
+      <c r="B68" s="149"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="150" t="s">
+        <v>442</v>
+      </c>
+      <c r="E68" s="148" t="s">
+        <v>452</v>
+      </c>
+      <c r="F68" s="230"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="157">
+        <v>0.63194444444444398</v>
+      </c>
+      <c r="B69" s="149"/>
+      <c r="C69" s="168"/>
+      <c r="D69" s="152"/>
+      <c r="E69" s="168"/>
+      <c r="F69" s="230"/>
+    </row>
+    <row r="70" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="157">
+        <v>0.63888888888888795</v>
+      </c>
+      <c r="B70" s="149"/>
+      <c r="C70" s="169"/>
+      <c r="D70" s="152"/>
+      <c r="E70" s="168"/>
+      <c r="F70" s="230"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="157">
+        <v>0.64583333333333204</v>
+      </c>
+      <c r="B71" s="242" t="s">
+        <v>465</v>
+      </c>
+      <c r="C71" s="149"/>
+      <c r="D71" s="152"/>
+      <c r="E71" s="168"/>
+      <c r="F71" s="230"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="157">
+        <v>0.65277777777777701</v>
+      </c>
+      <c r="B72" s="243"/>
+      <c r="C72" s="149"/>
+      <c r="D72" s="152"/>
+      <c r="E72" s="168"/>
+      <c r="F72" s="230"/>
+    </row>
+    <row r="73" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="157">
+        <v>0.65972222222222099</v>
+      </c>
+      <c r="B73" s="243"/>
+      <c r="C73" s="149"/>
+      <c r="D73" s="178"/>
+      <c r="E73" s="168"/>
+      <c r="F73" s="230"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="157">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B74" s="243"/>
+      <c r="C74" s="149"/>
+      <c r="D74" s="149"/>
+      <c r="E74" s="168"/>
+      <c r="F74" s="230"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="157">
+        <v>0.67361111111111005</v>
+      </c>
+      <c r="B75" s="243"/>
+      <c r="C75" s="149"/>
+      <c r="D75" s="149"/>
+      <c r="E75" s="168"/>
+      <c r="F75" s="230"/>
+    </row>
+    <row r="76" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="157">
+        <v>0.68055555555555403</v>
+      </c>
+      <c r="B76" s="243"/>
+      <c r="C76" s="149"/>
+      <c r="D76" s="149"/>
+      <c r="E76" s="168"/>
+      <c r="F76" s="230"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="157">
+        <v>0.687499999999999</v>
+      </c>
+      <c r="B77" s="179" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="180"/>
+      <c r="D77" s="180"/>
+      <c r="E77" s="180"/>
+      <c r="F77" s="181"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="157">
+        <v>0.69444444444444298</v>
+      </c>
+      <c r="B78" s="182"/>
+      <c r="C78" s="183"/>
+      <c r="D78" s="183"/>
+      <c r="E78" s="183"/>
+      <c r="F78" s="184"/>
+    </row>
+    <row r="79" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="157">
+        <v>0.70138888888888795</v>
+      </c>
+      <c r="B79" s="185"/>
+      <c r="C79" s="186"/>
+      <c r="D79" s="186"/>
+      <c r="E79" s="186"/>
+      <c r="F79" s="187"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="157">
+        <v>0.70833333333333204</v>
+      </c>
+      <c r="B80" s="206" t="s">
+        <v>456</v>
+      </c>
+      <c r="C80" s="207"/>
+      <c r="D80" s="207"/>
+      <c r="E80" s="207"/>
+      <c r="F80" s="208"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="157">
+        <v>0.71527777777777701</v>
+      </c>
+      <c r="B81" s="209"/>
+      <c r="C81" s="210"/>
+      <c r="D81" s="210"/>
+      <c r="E81" s="210"/>
+      <c r="F81" s="211"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="157">
+        <v>0.72222222222222099</v>
+      </c>
+      <c r="B82" s="209"/>
+      <c r="C82" s="210"/>
+      <c r="D82" s="210"/>
+      <c r="E82" s="210"/>
+      <c r="F82" s="211"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="157">
+        <v>0.72916666666666496</v>
+      </c>
+      <c r="B83" s="209"/>
+      <c r="C83" s="210"/>
+      <c r="D83" s="210"/>
+      <c r="E83" s="210"/>
+      <c r="F83" s="211"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="157">
+        <v>0.73611111111111005</v>
+      </c>
+      <c r="B84" s="209"/>
+      <c r="C84" s="210"/>
+      <c r="D84" s="210"/>
+      <c r="E84" s="210"/>
+      <c r="F84" s="211"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="157">
+        <v>0.74305555555555403</v>
+      </c>
+      <c r="B85" s="209"/>
+      <c r="C85" s="210"/>
+      <c r="D85" s="210"/>
+      <c r="E85" s="210"/>
+      <c r="F85" s="211"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="157">
+        <v>0.749999999999999</v>
+      </c>
+      <c r="B86" s="209"/>
+      <c r="C86" s="210"/>
+      <c r="D86" s="210"/>
+      <c r="E86" s="210"/>
+      <c r="F86" s="211"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="157">
+        <v>0.75694444444444298</v>
+      </c>
+      <c r="B87" s="209"/>
+      <c r="C87" s="210"/>
+      <c r="D87" s="210"/>
+      <c r="E87" s="210"/>
+      <c r="F87" s="211"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="157">
+        <v>0.76388888888888795</v>
+      </c>
+      <c r="B88" s="209"/>
+      <c r="C88" s="210"/>
+      <c r="D88" s="210"/>
+      <c r="E88" s="210"/>
+      <c r="F88" s="211"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="157">
+        <v>0.77083333333333204</v>
+      </c>
+      <c r="B89" s="209"/>
+      <c r="C89" s="210"/>
+      <c r="D89" s="210"/>
+      <c r="E89" s="210"/>
+      <c r="F89" s="211"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="157">
+        <v>0.77777777777777601</v>
+      </c>
+      <c r="B90" s="209"/>
+      <c r="C90" s="210"/>
+      <c r="D90" s="210"/>
+      <c r="E90" s="210"/>
+      <c r="F90" s="211"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="157">
+        <v>0.78472222222222099</v>
+      </c>
+      <c r="B91" s="209"/>
+      <c r="C91" s="210"/>
+      <c r="D91" s="210"/>
+      <c r="E91" s="210"/>
+      <c r="F91" s="211"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="157">
+        <v>0.79166666666666496</v>
+      </c>
+      <c r="B92" s="209"/>
+      <c r="C92" s="210"/>
+      <c r="D92" s="210"/>
+      <c r="E92" s="210"/>
+      <c r="F92" s="211"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="157">
+        <v>0.79861111111111005</v>
+      </c>
+      <c r="B93" s="209"/>
+      <c r="C93" s="210"/>
+      <c r="D93" s="210"/>
+      <c r="E93" s="210"/>
+      <c r="F93" s="211"/>
+    </row>
+    <row r="94" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="157">
+        <v>0.80555555555555403</v>
+      </c>
+      <c r="B94" s="212"/>
+      <c r="C94" s="213"/>
+      <c r="D94" s="213"/>
+      <c r="E94" s="213"/>
+      <c r="F94" s="214"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="157">
+        <v>0.812499999999998</v>
+      </c>
+      <c r="B95" s="215" t="s">
+        <v>457</v>
+      </c>
+      <c r="C95" s="216"/>
+      <c r="D95" s="216"/>
+      <c r="E95" s="216"/>
+      <c r="F95" s="217"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="157">
+        <v>0.81944444444444298</v>
+      </c>
+      <c r="B96" s="218"/>
+      <c r="C96" s="219"/>
+      <c r="D96" s="219"/>
+      <c r="E96" s="219"/>
+      <c r="F96" s="220"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="157">
+        <v>0.82638888888888695</v>
+      </c>
+      <c r="B97" s="218"/>
+      <c r="C97" s="219"/>
+      <c r="D97" s="219"/>
+      <c r="E97" s="219"/>
+      <c r="F97" s="220"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="157">
+        <v>0.83333333333333204</v>
+      </c>
+      <c r="B98" s="218"/>
+      <c r="C98" s="219"/>
+      <c r="D98" s="219"/>
+      <c r="E98" s="219"/>
+      <c r="F98" s="220"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="157">
+        <v>0.84027777777777601</v>
+      </c>
+      <c r="B99" s="218"/>
+      <c r="C99" s="219"/>
+      <c r="D99" s="219"/>
+      <c r="E99" s="219"/>
+      <c r="F99" s="220"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="157">
+        <v>0.84722222222222099</v>
+      </c>
+      <c r="B100" s="218"/>
+      <c r="C100" s="219"/>
+      <c r="D100" s="219"/>
+      <c r="E100" s="219"/>
+      <c r="F100" s="220"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="157">
+        <v>0.85416666666666496</v>
+      </c>
+      <c r="B101" s="218"/>
+      <c r="C101" s="219"/>
+      <c r="D101" s="219"/>
+      <c r="E101" s="219"/>
+      <c r="F101" s="220"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="157">
+        <v>0.86111111111110905</v>
+      </c>
+      <c r="B102" s="218"/>
+      <c r="C102" s="219"/>
+      <c r="D102" s="219"/>
+      <c r="E102" s="219"/>
+      <c r="F102" s="220"/>
+    </row>
+    <row r="103" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="157">
+        <v>0.86805555555555403</v>
+      </c>
+      <c r="B103" s="221"/>
+      <c r="C103" s="222"/>
+      <c r="D103" s="222"/>
+      <c r="E103" s="222"/>
+      <c r="F103" s="223"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="157">
+        <v>0.874999999999998</v>
+      </c>
+      <c r="B104" s="149"/>
+      <c r="C104" s="149"/>
+      <c r="D104" s="149"/>
+      <c r="E104" s="149"/>
+      <c r="F104" s="229"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="157"/>
+      <c r="B105" s="149"/>
+      <c r="C105" s="149"/>
+      <c r="D105" s="149"/>
+      <c r="E105" s="149"/>
+      <c r="F105" s="229"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="157"/>
+      <c r="B106" s="149"/>
+      <c r="C106" s="149"/>
+      <c r="D106" s="149"/>
+      <c r="E106" s="149"/>
+      <c r="F106" s="229"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="157"/>
+      <c r="B107" s="149"/>
+      <c r="C107" s="149"/>
+      <c r="D107" s="149"/>
+      <c r="E107" s="149"/>
+      <c r="F107" s="229"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="157"/>
+      <c r="B108" s="149"/>
+      <c r="C108" s="149"/>
+      <c r="D108" s="149"/>
+      <c r="E108" s="149"/>
+      <c r="F108" s="229"/>
+    </row>
+    <row r="109" spans="1:6" s="239" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="224"/>
+      <c r="B109" s="225" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="150" t="s">
+      <c r="C109" s="225" t="s">
+        <v>434</v>
+      </c>
+      <c r="D109" s="225" t="s">
+        <v>429</v>
+      </c>
+      <c r="E109" s="225" t="s">
+        <v>433</v>
+      </c>
+      <c r="F109" s="227" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="239" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="224"/>
+      <c r="B110" s="226" t="s">
+        <v>431</v>
+      </c>
+      <c r="C110" s="226" t="s">
         <v>430</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="D110" s="226" t="s">
         <v>429</v>
       </c>
-      <c r="D4" s="150" t="s">
+      <c r="E110" s="226" t="s">
         <v>428</v>
       </c>
-      <c r="E4" s="150" t="s">
+      <c r="F110" s="228" t="s">
         <v>427</v>
       </c>
-      <c r="F4" s="150" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="144" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="145">
-        <v>0.75</v>
-      </c>
-      <c r="E6" s="151"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="145">
-        <v>0.75694444444444442</v>
-      </c>
-      <c r="E7" s="152"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="145">
-        <v>0.76388888888888895</v>
-      </c>
-      <c r="E8" s="152"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="145">
-        <v>0.77083333333333304</v>
-      </c>
-      <c r="E9" s="152"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="145">
-        <v>0.77777777777777801</v>
-      </c>
-      <c r="E10" s="152"/>
-    </row>
-    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="145">
-        <v>0.78472222222222199</v>
-      </c>
-      <c r="E11" s="152"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="145">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="B12" s="153"/>
-      <c r="E12" s="152"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="145">
-        <v>0.79861111111111105</v>
-      </c>
-      <c r="B13" s="154"/>
-      <c r="E13" s="152"/>
-    </row>
-    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="145">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="B14" s="155"/>
-      <c r="E14" s="156"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="145">
-        <v>0.8125</v>
-      </c>
-      <c r="B15" s="157"/>
-      <c r="C15" s="151"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="145">
-        <v>0.81944444444444398</v>
-      </c>
-      <c r="B16" s="147"/>
-      <c r="C16" s="152"/>
-    </row>
-    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="145">
-        <v>0.82638888888888895</v>
-      </c>
-      <c r="B17" s="148"/>
-      <c r="C17" s="152"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="145">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="B18" s="157"/>
-      <c r="C18" s="152"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="145">
-        <v>0.84027777777777701</v>
-      </c>
-      <c r="B19" s="147"/>
-      <c r="C19" s="152"/>
-    </row>
-    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="145">
-        <v>0.84722222222222199</v>
-      </c>
-      <c r="B20" s="148"/>
-      <c r="C20" s="152"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="145">
-        <v>0.85416666666666596</v>
-      </c>
-      <c r="B21" s="153"/>
-      <c r="C21" s="152"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="145">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="B22" s="154"/>
-      <c r="C22" s="152"/>
-    </row>
-    <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="145">
-        <v>0.86805555555555503</v>
-      </c>
-      <c r="B23" s="155"/>
-      <c r="C23" s="156"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="145">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="144" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="145">
-        <v>0.375</v>
-      </c>
-      <c r="F28" s="158"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="145">
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="F29" s="159"/>
-    </row>
-    <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="145">
-        <v>0.38888888888888901</v>
-      </c>
-      <c r="F30" s="159"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="145">
-        <v>0.39583333333333298</v>
-      </c>
-      <c r="B31" s="157"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="159"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="145">
-        <v>0.40277777777777801</v>
-      </c>
-      <c r="B32" s="147"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="159"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="145">
-        <v>0.40972222222222199</v>
-      </c>
-      <c r="B33" s="147"/>
-      <c r="E33" s="161"/>
-      <c r="F33" s="159"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="145">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="B34" s="147"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="159"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="145">
-        <v>0.42361111111111099</v>
-      </c>
-      <c r="B35" s="147"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="159"/>
-    </row>
-    <row r="36" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="145">
-        <v>0.43055555555555503</v>
-      </c>
-      <c r="B36" s="148"/>
-      <c r="E36" s="161"/>
-      <c r="F36" s="159"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="145">
-        <v>0.4375</v>
-      </c>
-      <c r="C37" s="157"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="159"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="145">
-        <v>0.44444444444444398</v>
-      </c>
-      <c r="C38" s="147"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="159"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="145">
-        <v>0.45138888888888901</v>
-      </c>
-      <c r="C39" s="147"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="159"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="145">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="C40" s="147"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="159"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="145">
-        <v>0.46527777777777801</v>
-      </c>
-      <c r="C41" s="147"/>
-      <c r="E41" s="161"/>
-      <c r="F41" s="159"/>
-    </row>
-    <row r="42" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="145">
-        <v>0.47222222222222199</v>
-      </c>
-      <c r="C42" s="148"/>
-      <c r="E42" s="162"/>
-      <c r="F42" s="159"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="145">
-        <v>0.47916666666666602</v>
-      </c>
-      <c r="F43" s="159"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="145">
-        <v>0.48611111111111099</v>
-      </c>
-      <c r="F44" s="159"/>
-    </row>
-    <row r="45" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="145">
-        <v>0.49305555555555503</v>
-      </c>
-      <c r="F45" s="159"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="145">
+    </row>
+    <row r="111" spans="1:6" s="239" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="156" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="156"/>
+      <c r="C111" s="156"/>
+      <c r="D111" s="156"/>
+      <c r="E111" s="156"/>
+      <c r="F111" s="156"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="157">
         <v>0.5</v>
       </c>
-      <c r="B46" s="157"/>
-      <c r="D46" s="163" t="s">
+      <c r="B112" s="149"/>
+      <c r="C112" s="146" t="s">
+        <v>443</v>
+      </c>
+      <c r="D112" s="149"/>
+      <c r="E112" s="149"/>
+      <c r="F112" s="229"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="157">
+        <v>0.50694444444444398</v>
+      </c>
+      <c r="B113" s="149"/>
+      <c r="C113" s="176"/>
+      <c r="D113" s="149"/>
+      <c r="E113" s="149"/>
+      <c r="F113" s="229"/>
+    </row>
+    <row r="114" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="157">
+        <v>0.51388888888888795</v>
+      </c>
+      <c r="B114" s="149"/>
+      <c r="C114" s="177"/>
+      <c r="D114" s="149"/>
+      <c r="E114" s="149"/>
+      <c r="F114" s="229"/>
+    </row>
+    <row r="115" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="157">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="B115" s="147" t="s">
         <v>438</v>
       </c>
-      <c r="E46" s="160"/>
-      <c r="F46" s="159"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="145">
-        <v>0.50694444444444398</v>
-      </c>
-      <c r="B47" s="147"/>
-      <c r="D47" s="152"/>
-      <c r="E47" s="161"/>
-      <c r="F47" s="159"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="145">
-        <v>0.51388888888888795</v>
-      </c>
-      <c r="B48" s="147"/>
-      <c r="D48" s="152"/>
-      <c r="E48" s="161"/>
-      <c r="F48" s="159"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="145">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="B49" s="147"/>
-      <c r="D49" s="152"/>
-      <c r="E49" s="161"/>
-      <c r="F49" s="159"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="145">
+      <c r="C115" s="149"/>
+      <c r="D115" s="147" t="s">
+        <v>444</v>
+      </c>
+      <c r="E115" s="148" t="s">
+        <v>453</v>
+      </c>
+      <c r="F115" s="154" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="157">
         <v>0.52777777777777701</v>
       </c>
-      <c r="B50" s="147"/>
-      <c r="D50" s="152"/>
-      <c r="E50" s="161"/>
-      <c r="F50" s="159"/>
-    </row>
-    <row r="51" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="145">
+      <c r="B116" s="165"/>
+      <c r="C116" s="149"/>
+      <c r="D116" s="165"/>
+      <c r="E116" s="168"/>
+      <c r="F116" s="230"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="157">
         <v>0.53472222222222199</v>
       </c>
-      <c r="B51" s="148"/>
-      <c r="D51" s="156"/>
-      <c r="E51" s="162"/>
-      <c r="F51" s="159"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="145">
+      <c r="B117" s="165"/>
+      <c r="C117" s="149"/>
+      <c r="D117" s="165"/>
+      <c r="E117" s="168"/>
+      <c r="F117" s="230"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="157">
         <v>0.54166666666666596</v>
       </c>
-      <c r="F52" s="159"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="145">
+      <c r="B118" s="165"/>
+      <c r="C118" s="149"/>
+      <c r="D118" s="165"/>
+      <c r="E118" s="168"/>
+      <c r="F118" s="230"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="157">
         <v>0.54861111111111005</v>
       </c>
-      <c r="F53" s="159"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="145">
+      <c r="B119" s="165"/>
+      <c r="C119" s="149"/>
+      <c r="D119" s="165"/>
+      <c r="E119" s="168"/>
+      <c r="F119" s="230"/>
+    </row>
+    <row r="120" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="157">
         <v>0.55555555555555503</v>
       </c>
-      <c r="F54" s="159"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="145">
+      <c r="B120" s="166"/>
+      <c r="C120" s="149"/>
+      <c r="D120" s="166"/>
+      <c r="E120" s="168"/>
+      <c r="F120" s="230"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="157">
         <v>0.562499999999999</v>
       </c>
-      <c r="F55" s="159"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="145">
+      <c r="B121" s="149"/>
+      <c r="C121" s="149"/>
+      <c r="D121" s="146" t="s">
+        <v>447</v>
+      </c>
+      <c r="E121" s="168"/>
+      <c r="F121" s="230"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="157">
         <v>0.56944444444444398</v>
       </c>
-      <c r="F56" s="159"/>
-    </row>
-    <row r="57" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="145">
+      <c r="B122" s="149"/>
+      <c r="C122" s="149"/>
+      <c r="D122" s="176"/>
+      <c r="E122" s="168"/>
+      <c r="F122" s="230"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="157">
         <v>0.57638888888888795</v>
       </c>
-      <c r="F57" s="159"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="145">
+      <c r="B123" s="149"/>
+      <c r="C123" s="149"/>
+      <c r="D123" s="176"/>
+      <c r="E123" s="168"/>
+      <c r="F123" s="230"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="157">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C58" s="158"/>
-      <c r="D58" s="146" t="s">
-        <v>437</v>
-      </c>
-      <c r="E58" s="160"/>
-      <c r="F58" s="159"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="145">
+      <c r="B124" s="149"/>
+      <c r="C124" s="149"/>
+      <c r="D124" s="176"/>
+      <c r="E124" s="168"/>
+      <c r="F124" s="230"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="157">
         <v>0.59027777777777701</v>
       </c>
-      <c r="C59" s="159"/>
-      <c r="D59" s="147"/>
-      <c r="E59" s="161"/>
-      <c r="F59" s="159"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="145">
+      <c r="B125" s="149"/>
+      <c r="C125" s="149"/>
+      <c r="D125" s="176"/>
+      <c r="E125" s="168"/>
+      <c r="F125" s="230"/>
+    </row>
+    <row r="126" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="157">
         <v>0.59722222222222099</v>
       </c>
-      <c r="C60" s="159"/>
-      <c r="D60" s="147"/>
-      <c r="E60" s="161"/>
-      <c r="F60" s="159"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="145">
+      <c r="B126" s="149"/>
+      <c r="C126" s="149"/>
+      <c r="D126" s="176"/>
+      <c r="E126" s="168"/>
+      <c r="F126" s="230"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="157">
         <v>0.60416666666666596</v>
       </c>
-      <c r="C61" s="159"/>
-      <c r="D61" s="147"/>
-      <c r="E61" s="161"/>
-      <c r="F61" s="159"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="145">
+      <c r="B127" s="170" t="s">
+        <v>455</v>
+      </c>
+      <c r="C127" s="171"/>
+      <c r="D127" s="171"/>
+      <c r="E127" s="171"/>
+      <c r="F127" s="230"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="157">
         <v>0.61111111111111005</v>
       </c>
-      <c r="C62" s="159"/>
-      <c r="D62" s="147"/>
-      <c r="E62" s="161"/>
-      <c r="F62" s="159"/>
-    </row>
-    <row r="63" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="145">
+      <c r="B128" s="172"/>
+      <c r="C128" s="173"/>
+      <c r="D128" s="173"/>
+      <c r="E128" s="173"/>
+      <c r="F128" s="230"/>
+    </row>
+    <row r="129" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="157">
         <v>0.61805555555555503</v>
       </c>
-      <c r="C63" s="159"/>
-      <c r="D63" s="148"/>
-      <c r="E63" s="162"/>
-      <c r="F63" s="159"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="145">
+      <c r="B129" s="174"/>
+      <c r="C129" s="175"/>
+      <c r="D129" s="175"/>
+      <c r="E129" s="175"/>
+      <c r="F129" s="240"/>
+    </row>
+    <row r="130" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="157">
         <v>0.624999999999999</v>
       </c>
-      <c r="C64" s="161"/>
-      <c r="D64" s="174" t="s">
-        <v>439</v>
-      </c>
-      <c r="E64" s="160"/>
-      <c r="F64" s="159"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="145">
+      <c r="B130" s="149"/>
+      <c r="C130" s="151" t="s">
+        <v>445</v>
+      </c>
+      <c r="D130" s="150" t="s">
+        <v>448</v>
+      </c>
+      <c r="E130" s="152" t="s">
+        <v>454</v>
+      </c>
+      <c r="F130" s="229"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="157">
         <v>0.63194444444444398</v>
       </c>
-      <c r="C65" s="161"/>
-      <c r="D65" s="159"/>
-      <c r="E65" s="161"/>
-      <c r="F65" s="159"/>
-    </row>
-    <row r="66" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="145">
+      <c r="B131" s="149"/>
+      <c r="C131" s="151"/>
+      <c r="D131" s="152"/>
+      <c r="E131" s="152"/>
+      <c r="F131" s="229"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="157">
         <v>0.63888888888888795</v>
       </c>
-      <c r="C66" s="162"/>
-      <c r="D66" s="159"/>
-      <c r="E66" s="161"/>
-      <c r="F66" s="159"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="145">
+      <c r="B132" s="149"/>
+      <c r="C132" s="151"/>
+      <c r="D132" s="152"/>
+      <c r="E132" s="152"/>
+      <c r="F132" s="229"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="157">
         <v>0.64583333333333204</v>
       </c>
-      <c r="B67" s="146" t="s">
-        <v>434</v>
-      </c>
-      <c r="D67" s="159"/>
-      <c r="E67" s="161"/>
-      <c r="F67" s="159"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="145">
+      <c r="B133" s="149"/>
+      <c r="C133" s="151"/>
+      <c r="D133" s="152"/>
+      <c r="E133" s="152"/>
+      <c r="F133" s="229"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="157">
         <v>0.65277777777777701</v>
       </c>
-      <c r="B68" s="147"/>
-      <c r="D68" s="159"/>
-      <c r="E68" s="161"/>
-      <c r="F68" s="159"/>
-    </row>
-    <row r="69" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="145">
+      <c r="B134" s="149"/>
+      <c r="C134" s="151"/>
+      <c r="D134" s="152"/>
+      <c r="E134" s="152"/>
+      <c r="F134" s="229"/>
+    </row>
+    <row r="135" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="157">
         <v>0.65972222222222099</v>
       </c>
-      <c r="B69" s="147"/>
-      <c r="D69" s="164"/>
-      <c r="E69" s="161"/>
-      <c r="F69" s="159"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="145">
+      <c r="B135" s="149"/>
+      <c r="C135" s="188"/>
+      <c r="D135" s="178"/>
+      <c r="E135" s="152"/>
+      <c r="F135" s="229"/>
+    </row>
+    <row r="136" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="157">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B70" s="147"/>
-      <c r="E70" s="161"/>
-      <c r="F70" s="159"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="145">
+      <c r="B136" s="147" t="s">
+        <v>462</v>
+      </c>
+      <c r="C136" s="149"/>
+      <c r="D136" s="149"/>
+      <c r="E136" s="152"/>
+      <c r="F136" s="229"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="157">
         <v>0.67361111111111005</v>
       </c>
-      <c r="B71" s="147"/>
-      <c r="E71" s="161"/>
-      <c r="F71" s="159"/>
-    </row>
-    <row r="72" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="145">
+      <c r="B137" s="165"/>
+      <c r="C137" s="149"/>
+      <c r="D137" s="149"/>
+      <c r="E137" s="152"/>
+      <c r="F137" s="229"/>
+    </row>
+    <row r="138" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="157">
         <v>0.68055555555555403</v>
       </c>
-      <c r="B72" s="148"/>
-      <c r="E72" s="162"/>
-      <c r="F72" s="164"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="145">
+      <c r="B138" s="165"/>
+      <c r="C138" s="149"/>
+      <c r="D138" s="149"/>
+      <c r="E138" s="178"/>
+      <c r="F138" s="229"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="157">
         <v>0.687499999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="145">
+      <c r="B139" s="165"/>
+      <c r="C139" s="189" t="s">
+        <v>461</v>
+      </c>
+      <c r="D139" s="190"/>
+      <c r="E139" s="190"/>
+      <c r="F139" s="191"/>
+    </row>
+    <row r="140" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="157">
         <v>0.69444444444444298</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="145">
+      <c r="B140" s="165"/>
+      <c r="C140" s="192"/>
+      <c r="D140" s="193"/>
+      <c r="E140" s="193"/>
+      <c r="F140" s="194"/>
+    </row>
+    <row r="141" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="157">
         <v>0.70138888888888795</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="145">
+      <c r="B141" s="241"/>
+      <c r="C141" s="195"/>
+      <c r="D141" s="196"/>
+      <c r="E141" s="196"/>
+      <c r="F141" s="197"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="157">
         <v>0.70833333333333204</v>
       </c>
-      <c r="F76" s="153"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="145">
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="157">
         <v>0.71527777777777701</v>
       </c>
-      <c r="F77" s="154"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="145">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="157">
         <v>0.72222222222222099</v>
       </c>
-      <c r="F78" s="154"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="145">
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="157">
         <v>0.72916666666666496</v>
       </c>
-      <c r="F79" s="154"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="145">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="157">
         <v>0.73611111111111005</v>
       </c>
-      <c r="F80" s="154"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="145">
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="157">
         <v>0.74305555555555403</v>
       </c>
-      <c r="F81" s="154"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="145">
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="157">
         <v>0.749999999999999</v>
       </c>
-      <c r="F82" s="154"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="145">
+      <c r="B148" s="141"/>
+      <c r="C148" s="141"/>
+      <c r="D148" s="141"/>
+      <c r="E148" s="141"/>
+      <c r="F148" s="141"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="157">
         <v>0.75694444444444298</v>
       </c>
-      <c r="F83" s="154"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="145">
+      <c r="B149" s="141"/>
+      <c r="C149" s="141"/>
+      <c r="D149" s="141"/>
+      <c r="E149" s="141"/>
+      <c r="F149" s="141"/>
+    </row>
+    <row r="150" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="157">
         <v>0.76388888888888795</v>
       </c>
-      <c r="F84" s="154"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="145">
+      <c r="B150" s="141"/>
+      <c r="C150" s="141"/>
+      <c r="D150" s="141"/>
+      <c r="E150" s="141"/>
+      <c r="F150" s="141"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="157">
         <v>0.77083333333333204</v>
       </c>
-      <c r="F85" s="154"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="145">
+      <c r="B151" s="206" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="207"/>
+      <c r="D151" s="207"/>
+      <c r="E151" s="207"/>
+      <c r="F151" s="208"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="157">
         <v>0.77777777777777601</v>
       </c>
-      <c r="F86" s="154"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="145">
+      <c r="B152" s="209"/>
+      <c r="C152" s="210"/>
+      <c r="D152" s="210"/>
+      <c r="E152" s="210"/>
+      <c r="F152" s="211"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="157">
         <v>0.78472222222222099</v>
       </c>
-      <c r="F87" s="154"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="145">
+      <c r="B153" s="209"/>
+      <c r="C153" s="210"/>
+      <c r="D153" s="210"/>
+      <c r="E153" s="210"/>
+      <c r="F153" s="211"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="157">
         <v>0.79166666666666496</v>
       </c>
-      <c r="F88" s="154"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="145">
+      <c r="B154" s="209"/>
+      <c r="C154" s="210"/>
+      <c r="D154" s="210"/>
+      <c r="E154" s="210"/>
+      <c r="F154" s="211"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="157">
         <v>0.79861111111111005</v>
       </c>
-      <c r="F89" s="154"/>
-    </row>
-    <row r="90" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="145">
+      <c r="B155" s="209"/>
+      <c r="C155" s="210"/>
+      <c r="D155" s="210"/>
+      <c r="E155" s="210"/>
+      <c r="F155" s="211"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="157">
         <v>0.80555555555555403</v>
       </c>
-      <c r="F90" s="155"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="145">
+      <c r="B156" s="209"/>
+      <c r="C156" s="210"/>
+      <c r="D156" s="210"/>
+      <c r="E156" s="210"/>
+      <c r="F156" s="211"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="157">
         <v>0.812499999999998</v>
       </c>
-      <c r="F91" s="165"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="145">
+      <c r="B157" s="209"/>
+      <c r="C157" s="210"/>
+      <c r="D157" s="210"/>
+      <c r="E157" s="210"/>
+      <c r="F157" s="211"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="157">
         <v>0.81944444444444298</v>
       </c>
-      <c r="F92" s="166"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="145">
+      <c r="B158" s="209"/>
+      <c r="C158" s="210"/>
+      <c r="D158" s="210"/>
+      <c r="E158" s="210"/>
+      <c r="F158" s="211"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="157">
         <v>0.82638888888888695</v>
       </c>
-      <c r="F93" s="166"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="145">
+      <c r="B159" s="209"/>
+      <c r="C159" s="210"/>
+      <c r="D159" s="210"/>
+      <c r="E159" s="210"/>
+      <c r="F159" s="211"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="157">
         <v>0.83333333333333204</v>
       </c>
-      <c r="F94" s="166"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="145">
+      <c r="B160" s="209"/>
+      <c r="C160" s="210"/>
+      <c r="D160" s="210"/>
+      <c r="E160" s="210"/>
+      <c r="F160" s="211"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="157">
         <v>0.84027777777777601</v>
       </c>
-      <c r="F95" s="166"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="145">
+      <c r="B161" s="209"/>
+      <c r="C161" s="210"/>
+      <c r="D161" s="210"/>
+      <c r="E161" s="210"/>
+      <c r="F161" s="211"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="157">
         <v>0.84722222222222099</v>
       </c>
-      <c r="F96" s="166"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="145">
+      <c r="B162" s="209"/>
+      <c r="C162" s="210"/>
+      <c r="D162" s="210"/>
+      <c r="E162" s="210"/>
+      <c r="F162" s="211"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="157">
         <v>0.85416666666666496</v>
       </c>
-      <c r="F97" s="166"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="145">
+      <c r="B163" s="209"/>
+      <c r="C163" s="210"/>
+      <c r="D163" s="210"/>
+      <c r="E163" s="210"/>
+      <c r="F163" s="211"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="157">
         <v>0.86111111111110905</v>
       </c>
-      <c r="F98" s="166"/>
-    </row>
-    <row r="99" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="145">
+      <c r="B164" s="209"/>
+      <c r="C164" s="210"/>
+      <c r="D164" s="210"/>
+      <c r="E164" s="210"/>
+      <c r="F164" s="211"/>
+    </row>
+    <row r="165" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="157">
         <v>0.86805555555555403</v>
       </c>
-      <c r="F99" s="167"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="145">
+      <c r="B165" s="212"/>
+      <c r="C165" s="213"/>
+      <c r="D165" s="213"/>
+      <c r="E165" s="213"/>
+      <c r="F165" s="214"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="157">
         <v>0.874999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="144" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="145">
-        <v>0.5</v>
-      </c>
-      <c r="C104" s="151"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="145">
-        <v>0.50694444444444398</v>
-      </c>
-      <c r="C105" s="152"/>
-    </row>
-    <row r="106" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="145">
-        <v>0.51388888888888795</v>
-      </c>
-      <c r="C106" s="156"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="145">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="B107" s="157"/>
-      <c r="D107" s="146" t="s">
-        <v>440</v>
-      </c>
-      <c r="E107" s="158"/>
-      <c r="F107" s="158"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="145">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="B108" s="147"/>
-      <c r="D108" s="147"/>
-      <c r="E108" s="159"/>
-      <c r="F108" s="159"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="145">
-        <v>0.53472222222222199</v>
-      </c>
-      <c r="B109" s="147"/>
-      <c r="D109" s="147"/>
-      <c r="E109" s="159"/>
-      <c r="F109" s="159"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="145">
-        <v>0.54166666666666596</v>
-      </c>
-      <c r="B110" s="147"/>
-      <c r="D110" s="147"/>
-      <c r="E110" s="159"/>
-      <c r="F110" s="159"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="145">
-        <v>0.54861111111111005</v>
-      </c>
-      <c r="B111" s="147"/>
-      <c r="D111" s="147"/>
-      <c r="E111" s="159"/>
-      <c r="F111" s="159"/>
-    </row>
-    <row r="112" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="145">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="B112" s="148"/>
-      <c r="D112" s="148"/>
-      <c r="E112" s="159"/>
-      <c r="F112" s="159"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="145">
-        <v>0.562499999999999</v>
-      </c>
-      <c r="D113" s="163" t="s">
-        <v>441</v>
-      </c>
-      <c r="E113" s="159"/>
-      <c r="F113" s="159"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="145">
-        <v>0.56944444444444398</v>
-      </c>
-      <c r="D114" s="152"/>
-      <c r="E114" s="159"/>
-      <c r="F114" s="159"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="145">
-        <v>0.57638888888888795</v>
-      </c>
-      <c r="D115" s="152"/>
-      <c r="E115" s="159"/>
-      <c r="F115" s="159"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="145">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="D116" s="152"/>
-      <c r="E116" s="159"/>
-      <c r="F116" s="159"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="145">
-        <v>0.59027777777777701</v>
-      </c>
-      <c r="D117" s="152"/>
-      <c r="E117" s="159"/>
-      <c r="F117" s="159"/>
-    </row>
-    <row r="118" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="145">
-        <v>0.59722222222222099</v>
-      </c>
-      <c r="D118" s="156"/>
-      <c r="E118" s="164"/>
-      <c r="F118" s="164"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="145">
-        <v>0.60416666666666596</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="145">
-        <v>0.61111111111111005</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="145">
-        <v>0.61805555555555503</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="145">
-        <v>0.624999999999999</v>
-      </c>
-      <c r="C122" s="168"/>
-      <c r="D122" s="169"/>
-      <c r="E122" s="158"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="145">
-        <v>0.63194444444444398</v>
-      </c>
-      <c r="C123" s="170"/>
-      <c r="D123" s="171"/>
-      <c r="E123" s="159"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="145">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="C124" s="170"/>
-      <c r="D124" s="171"/>
-      <c r="E124" s="159"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="145">
-        <v>0.64583333333333204</v>
-      </c>
-      <c r="C125" s="170"/>
-      <c r="D125" s="171"/>
-      <c r="E125" s="159"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="145">
-        <v>0.65277777777777701</v>
-      </c>
-      <c r="C126" s="170"/>
-      <c r="D126" s="171"/>
-      <c r="E126" s="159"/>
-    </row>
-    <row r="127" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="145">
-        <v>0.65972222222222099</v>
-      </c>
-      <c r="C127" s="172"/>
-      <c r="D127" s="173"/>
-      <c r="E127" s="159"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="145">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="E128" s="159"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="145">
-        <v>0.67361111111111005</v>
-      </c>
-      <c r="E129" s="159"/>
-    </row>
-    <row r="130" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="145">
-        <v>0.68055555555555403</v>
-      </c>
-      <c r="E130" s="164"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="145">
-        <v>0.687499999999999</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="145">
-        <v>0.69444444444444298</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="145">
-        <v>0.70138888888888795</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="145">
-        <v>0.70833333333333204</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="145">
-        <v>0.71527777777777701</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="145">
-        <v>0.72222222222222099</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="145">
-        <v>0.72916666666666496</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="145">
-        <v>0.73611111111111005</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="145">
-        <v>0.74305555555555403</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="145">
-        <v>0.749999999999999</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="145">
-        <v>0.75694444444444298</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="145">
-        <v>0.76388888888888795</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="145">
-        <v>0.77083333333333204</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="145">
-        <v>0.77777777777777601</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="145">
-        <v>0.78472222222222099</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="145">
-        <v>0.79166666666666496</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="145">
-        <v>0.79861111111111005</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="145">
-        <v>0.80555555555555403</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="145">
-        <v>0.812499999999998</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="145">
-        <v>0.81944444444444298</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="145">
-        <v>0.82638888888888695</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="145">
-        <v>0.83333333333333204</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="145">
-        <v>0.84027777777777601</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="145">
-        <v>0.84722222222222099</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="145">
-        <v>0.85416666666666496</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="145">
-        <v>0.86111111111110905</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="145">
-        <v>0.86805555555555403</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="145">
-        <v>0.874999999999998</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="F107:F118"/>
+  <mergeCells count="40">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="C139:F141"/>
+    <mergeCell ref="B151:F165"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="F115:F129"/>
+    <mergeCell ref="B127:E129"/>
     <mergeCell ref="E6:E14"/>
+    <mergeCell ref="B80:F94"/>
+    <mergeCell ref="B95:F103"/>
+    <mergeCell ref="F6:F23"/>
+    <mergeCell ref="B77:F79"/>
+    <mergeCell ref="B47:E49"/>
+    <mergeCell ref="B56:E61"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C15:C23"/>
-    <mergeCell ref="F28:F72"/>
-    <mergeCell ref="C122:C127"/>
-    <mergeCell ref="E31:E42"/>
-    <mergeCell ref="E107:E118"/>
-    <mergeCell ref="E46:E51"/>
-    <mergeCell ref="E58:E63"/>
-    <mergeCell ref="E64:E72"/>
-    <mergeCell ref="E122:E130"/>
-    <mergeCell ref="D122:D127"/>
-    <mergeCell ref="F91:F99"/>
-    <mergeCell ref="F76:F90"/>
+    <mergeCell ref="F32:F76"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="C130:C135"/>
+    <mergeCell ref="E35:E46"/>
+    <mergeCell ref="E115:E126"/>
+    <mergeCell ref="E50:E55"/>
+    <mergeCell ref="E62:E67"/>
+    <mergeCell ref="E68:E76"/>
+    <mergeCell ref="E130:E138"/>
+    <mergeCell ref="D130:D135"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B107:B112"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="D58:D63"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="D107:D112"/>
-    <mergeCell ref="D113:D118"/>
-    <mergeCell ref="C58:C66"/>
-    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B115:B120"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="D62:D67"/>
+    <mergeCell ref="D68:D73"/>
+    <mergeCell ref="D115:D120"/>
+    <mergeCell ref="D121:D126"/>
+    <mergeCell ref="C62:C70"/>
+    <mergeCell ref="C112:C114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="30" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="46" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/docs/scheduleTurtlestitch10.xlsx
+++ b/docs/scheduleTurtlestitch10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joekvanmontfort/Documents/GitHub/turtlestitch10/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F621F627-0C12-7E41-AE9C-CB5BEE0B7E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD998FD-C4FD-D045-BC19-049EE09602A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{81F1DF98-07C1-7A42-BCBC-CF2DA53DE83F}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="472">
   <si>
     <t>Friday</t>
   </si>
@@ -1399,31 +1399,14 @@
 Bodies as Data: From Pose Detection to Stitched Patterns - Stephen Howell (Ireland)</t>
   </si>
   <si>
-    <t>Talks 4 14:00-15:00
-Face Stitching - Bhavik Dodda (India)
-The Beauty of Coding:  Koch Snowflake - Elaine Wolfe (USA)</t>
-  </si>
-  <si>
-    <t>Workshop 6 15:00-16:00
-Instagrammable - Susan Ettenheim (USA)</t>
-  </si>
-  <si>
     <t>Workshop 8 12:00-12-30
 How do we say our code out loud? - Richard Millwood (Ireland)</t>
   </si>
   <si>
-    <t>Talks 6 12:30-13:30
-Blockly Games - learn to think like a turtle - Mags Amond (Ireland)</t>
-  </si>
-  <si>
     <t>Birds of feather session 15:00-16:00
 Self organised support by TurtleStitch community - Joek van Montfort (The Netherlands)</t>
   </si>
   <si>
-    <t>Workshop 2 12:00-13:00
-Blending Code and Craft: Interactive Embroidery with Sensors and TurtleStitch - Matthew koomson (Ghana)</t>
-  </si>
-  <si>
     <t>Worksshop 9 13:30-14:30
 TurtleStitch: Where Code Beats Pen! - Simon Mong (China)</t>
   </si>
@@ -1457,9 +1440,6 @@
   </si>
   <si>
     <t>Refreshments</t>
-  </si>
-  <si>
-    <t>Dinner Break (self organized)</t>
   </si>
   <si>
     <t>Teachmeet @Hostel Roots Bar, Stationstraat41</t>
@@ -1499,6 +1479,45 @@
 Arachne and Téchne - Maria Beatrice Rapaccini (Italy)
 Finding Patterns in Your Environment - Jadga Hügle (Germany)
 Expermental mixed-media Practice - Jacob Tekiela (Denmark)</t>
+  </si>
+  <si>
+    <t>Dinner Break (conference dinner, registrated users join for free)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relax! It's less then ten minutes walking to Hostel Roots, you have time to visit your base. If you record your walk you can stitch your traces on Sunday … </t>
+  </si>
+  <si>
+    <t>Talks 6 12:30-13:30
+Blockly Games - learn to think like a turtle - Mags Amond (Ireland)
+Galaxy × CS × TurtleStitch - Rehana Al-Soltane (UK)</t>
+  </si>
+  <si>
+    <t>Workshop 6 15:00-16:00 (via Zoom)
+Instagrammable - Susan Ettenheim (USA)</t>
+  </si>
+  <si>
+    <t>Talks 4 14:00-15:00 (via Zoom)
+Face Stitching - Bhavik Dodda (India)
+The Beauty of Coding:  Koch Snowflake - Elaine Wolfe (USA)</t>
+  </si>
+  <si>
+    <t>Birds of feather session 12:00-12:00 (via Zoom)
+Beyond remixing - Ursula Wolz (USA)</t>
+  </si>
+  <si>
+    <t>Some time to relax and get your stuff organized …</t>
+  </si>
+  <si>
+    <t>July 18</t>
+  </si>
+  <si>
+    <t>July 19</t>
+  </si>
+  <si>
+    <t>July 20</t>
+  </si>
+  <si>
+    <t>Colorcodes / Kleurcodes</t>
   </si>
 </sst>
 </file>
@@ -1508,7 +1527,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1585,8 +1604,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1673,7 +1704,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1903,7 +1958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2000,9 +2055,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2068,9 +2120,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2323,9 +2372,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2434,34 +2480,31 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2601,6 +2644,63 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="11" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4416,7 +4516,7 @@
       <c r="Q25" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="R25" s="142" t="s">
+      <c r="R25" s="140" t="s">
         <v>404</v>
       </c>
       <c r="S25" s="38" t="s">
@@ -4473,7 +4573,7 @@
       <c r="Q26" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="R26" s="142" t="s">
+      <c r="R26" s="140" t="s">
         <v>404</v>
       </c>
       <c r="S26" s="38" t="s">
@@ -5388,7 +5488,7 @@
       <c r="A33" t="s">
         <v>417</v>
       </c>
-      <c r="B33" s="143">
+      <c r="B33" s="141">
         <v>0.75</v>
       </c>
     </row>
@@ -5396,7 +5496,7 @@
       <c r="A34" t="s">
         <v>416</v>
       </c>
-      <c r="B34" s="143">
+      <c r="B34" s="141">
         <v>0.79166666666666663</v>
       </c>
     </row>
@@ -5516,7 +5616,7 @@
       <c r="A50" t="s">
         <v>423</v>
       </c>
-      <c r="B50" s="144">
+      <c r="B50" s="142">
         <v>4369910000000</v>
       </c>
     </row>
@@ -5564,7 +5664,7 @@
       <c r="A56" t="s">
         <v>417</v>
       </c>
-      <c r="B56" s="143">
+      <c r="B56" s="141">
         <v>0.8125</v>
       </c>
     </row>
@@ -5572,7 +5672,7 @@
       <c r="A57" t="s">
         <v>416</v>
       </c>
-      <c r="B57" s="143">
+      <c r="B57" s="141">
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -5740,7 +5840,7 @@
       <c r="A79" t="s">
         <v>417</v>
       </c>
-      <c r="B79" s="143">
+      <c r="B79" s="141">
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -5748,7 +5848,7 @@
       <c r="A80" t="s">
         <v>416</v>
       </c>
-      <c r="B80" s="143">
+      <c r="B80" s="141">
         <v>0.85416666666666663</v>
       </c>
     </row>
@@ -5868,7 +5968,7 @@
       <c r="A96" t="s">
         <v>423</v>
       </c>
-      <c r="B96" s="144">
+      <c r="B96" s="142">
         <v>436801000000</v>
       </c>
     </row>
@@ -5916,7 +6016,7 @@
       <c r="A102" t="s">
         <v>417</v>
       </c>
-      <c r="B102" s="143">
+      <c r="B102" s="141">
         <v>0.39583333333333331</v>
       </c>
     </row>
@@ -5924,7 +6024,7 @@
       <c r="A103" t="s">
         <v>416</v>
       </c>
-      <c r="B103" s="143">
+      <c r="B103" s="141">
         <v>0.4375</v>
       </c>
     </row>
@@ -6092,7 +6192,7 @@
       <c r="A125" t="s">
         <v>417</v>
       </c>
-      <c r="B125" s="143">
+      <c r="B125" s="141">
         <v>0.39583333333333331</v>
       </c>
     </row>
@@ -6100,7 +6200,7 @@
       <c r="A126" t="s">
         <v>416</v>
       </c>
-      <c r="B126" s="143">
+      <c r="B126" s="141">
         <v>0.4375</v>
       </c>
     </row>
@@ -6262,7 +6362,7 @@
       <c r="A148" t="s">
         <v>417</v>
       </c>
-      <c r="B148" s="143">
+      <c r="B148" s="141">
         <v>0.39583333333333331</v>
       </c>
     </row>
@@ -6270,7 +6370,7 @@
       <c r="A149" t="s">
         <v>416</v>
       </c>
-      <c r="B149" s="143">
+      <c r="B149" s="141">
         <v>0.47916666666666669</v>
       </c>
     </row>
@@ -6438,7 +6538,7 @@
       <c r="A171" t="s">
         <v>417</v>
       </c>
-      <c r="B171" s="143">
+      <c r="B171" s="141">
         <v>0.4375</v>
       </c>
     </row>
@@ -6446,7 +6546,7 @@
       <c r="A172" t="s">
         <v>416</v>
       </c>
-      <c r="B172" s="143">
+      <c r="B172" s="141">
         <v>0.47916666666666669</v>
       </c>
     </row>
@@ -6614,7 +6714,7 @@
       <c r="A194" t="s">
         <v>417</v>
       </c>
-      <c r="B194" s="143">
+      <c r="B194" s="141">
         <v>0.4375</v>
       </c>
     </row>
@@ -6622,7 +6722,7 @@
       <c r="A195" t="s">
         <v>416</v>
       </c>
-      <c r="B195" s="143">
+      <c r="B195" s="141">
         <v>0.47916666666666669</v>
       </c>
     </row>
@@ -6742,7 +6842,7 @@
       <c r="A211" t="s">
         <v>423</v>
       </c>
-      <c r="B211" s="144">
+      <c r="B211" s="142">
         <v>4915120000000</v>
       </c>
     </row>
@@ -6790,7 +6890,7 @@
       <c r="A217" t="s">
         <v>417</v>
       </c>
-      <c r="B217" s="143">
+      <c r="B217" s="141">
         <v>0.4375</v>
       </c>
     </row>
@@ -6798,7 +6898,7 @@
       <c r="A218" t="s">
         <v>416</v>
       </c>
-      <c r="B218" s="143">
+      <c r="B218" s="141">
         <v>0.47916666666666669</v>
       </c>
     </row>
@@ -6966,7 +7066,7 @@
       <c r="A240" t="s">
         <v>417</v>
       </c>
-      <c r="B240" s="143">
+      <c r="B240" s="141">
         <v>0.4375</v>
       </c>
     </row>
@@ -6974,7 +7074,7 @@
       <c r="A241" t="s">
         <v>416</v>
       </c>
-      <c r="B241" s="143">
+      <c r="B241" s="141">
         <v>0.47916666666666669</v>
       </c>
     </row>
@@ -7139,7 +7239,7 @@
       <c r="A263" t="s">
         <v>417</v>
       </c>
-      <c r="B263" s="143">
+      <c r="B263" s="141">
         <v>0.4375</v>
       </c>
     </row>
@@ -7147,7 +7247,7 @@
       <c r="A264" t="s">
         <v>416</v>
       </c>
-      <c r="B264" s="143">
+      <c r="B264" s="141">
         <v>0.47916666666666669</v>
       </c>
     </row>
@@ -7264,7 +7364,7 @@
       <c r="A280" t="s">
         <v>423</v>
       </c>
-      <c r="B280" s="144">
+      <c r="B280" s="142">
         <v>233550000000</v>
       </c>
     </row>
@@ -7312,7 +7412,7 @@
       <c r="A286" t="s">
         <v>417</v>
       </c>
-      <c r="B286" s="143">
+      <c r="B286" s="141">
         <v>0.5</v>
       </c>
     </row>
@@ -7320,7 +7420,7 @@
       <c r="A287" t="s">
         <v>416</v>
       </c>
-      <c r="B287" s="143">
+      <c r="B287" s="141">
         <v>0.54166666666666663</v>
       </c>
     </row>
@@ -7482,7 +7582,7 @@
       <c r="A309" t="s">
         <v>417</v>
       </c>
-      <c r="B309" s="143">
+      <c r="B309" s="141">
         <v>0.5</v>
       </c>
     </row>
@@ -7490,7 +7590,7 @@
       <c r="A310" t="s">
         <v>416</v>
       </c>
-      <c r="B310" s="143">
+      <c r="B310" s="141">
         <v>0.54166666666666663</v>
       </c>
     </row>
@@ -7610,7 +7710,7 @@
       <c r="A326" t="s">
         <v>423</v>
       </c>
-      <c r="B326" s="144">
+      <c r="B326" s="142">
         <v>353879000000</v>
       </c>
     </row>
@@ -7658,7 +7758,7 @@
       <c r="A332" t="s">
         <v>417</v>
       </c>
-      <c r="B332" s="143">
+      <c r="B332" s="141">
         <v>0.5</v>
       </c>
     </row>
@@ -7666,7 +7766,7 @@
       <c r="A333" t="s">
         <v>416</v>
       </c>
-      <c r="B333" s="143">
+      <c r="B333" s="141">
         <v>0.54166666666666663</v>
       </c>
     </row>
@@ -7831,7 +7931,7 @@
       <c r="A355" t="s">
         <v>417</v>
       </c>
-      <c r="B355" s="143">
+      <c r="B355" s="141">
         <v>0.5</v>
       </c>
     </row>
@@ -7839,7 +7939,7 @@
       <c r="A356" t="s">
         <v>416</v>
       </c>
-      <c r="B356" s="143">
+      <c r="B356" s="141">
         <v>0.54166666666666663</v>
       </c>
     </row>
@@ -8007,7 +8107,7 @@
       <c r="A378" t="s">
         <v>417</v>
       </c>
-      <c r="B378" s="143">
+      <c r="B378" s="141">
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -8015,7 +8115,7 @@
       <c r="A379" t="s">
         <v>416</v>
       </c>
-      <c r="B379" s="143">
+      <c r="B379" s="141">
         <v>0.625</v>
       </c>
     </row>
@@ -8183,7 +8283,7 @@
       <c r="A401" t="s">
         <v>417</v>
       </c>
-      <c r="B401" s="143">
+      <c r="B401" s="141">
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -8191,7 +8291,7 @@
       <c r="A402" t="s">
         <v>416</v>
       </c>
-      <c r="B402" s="143">
+      <c r="B402" s="141">
         <v>0.625</v>
       </c>
     </row>
@@ -8308,7 +8408,7 @@
       <c r="A418" t="s">
         <v>423</v>
       </c>
-      <c r="B418" s="144">
+      <c r="B418" s="142">
         <v>353878000000</v>
       </c>
     </row>
@@ -8356,7 +8456,7 @@
       <c r="A424" t="s">
         <v>417</v>
       </c>
-      <c r="B424" s="143">
+      <c r="B424" s="141">
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -8364,7 +8464,7 @@
       <c r="A425" t="s">
         <v>416</v>
       </c>
-      <c r="B425" s="143">
+      <c r="B425" s="141">
         <v>0.64583333333333337</v>
       </c>
     </row>
@@ -8532,7 +8632,7 @@
       <c r="A447" t="s">
         <v>417</v>
       </c>
-      <c r="B447" s="143">
+      <c r="B447" s="141">
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -8540,7 +8640,7 @@
       <c r="A448" t="s">
         <v>416</v>
       </c>
-      <c r="B448" s="143">
+      <c r="B448" s="141">
         <v>0.625</v>
       </c>
     </row>
@@ -8705,7 +8805,7 @@
       <c r="A470" t="s">
         <v>417</v>
       </c>
-      <c r="B470" s="143">
+      <c r="B470" s="141">
         <v>0.625</v>
       </c>
     </row>
@@ -8713,7 +8813,7 @@
       <c r="A471" t="s">
         <v>416</v>
       </c>
-      <c r="B471" s="143">
+      <c r="B471" s="141">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -8878,7 +8978,7 @@
       <c r="A493" t="s">
         <v>417</v>
       </c>
-      <c r="B493" s="143">
+      <c r="B493" s="141">
         <v>0.625</v>
       </c>
     </row>
@@ -8886,7 +8986,7 @@
       <c r="A494" t="s">
         <v>416</v>
       </c>
-      <c r="B494" s="143">
+      <c r="B494" s="141">
         <v>0.6875</v>
       </c>
     </row>
@@ -9054,7 +9154,7 @@
       <c r="A516" t="s">
         <v>417</v>
       </c>
-      <c r="B516" s="143">
+      <c r="B516" s="141">
         <v>0.64583333333333337</v>
       </c>
     </row>
@@ -9062,7 +9162,7 @@
       <c r="A517" t="s">
         <v>416</v>
       </c>
-      <c r="B517" s="143">
+      <c r="B517" s="141">
         <v>0.6875</v>
       </c>
     </row>
@@ -9182,7 +9282,7 @@
       <c r="A533" t="s">
         <v>423</v>
       </c>
-      <c r="B533" s="144">
+      <c r="B533" s="142">
         <v>393405000000</v>
       </c>
     </row>
@@ -9230,7 +9330,7 @@
       <c r="A539" t="s">
         <v>417</v>
       </c>
-      <c r="B539" s="143">
+      <c r="B539" s="141">
         <v>0.64583333333333337</v>
       </c>
     </row>
@@ -9238,7 +9338,7 @@
       <c r="A540" t="s">
         <v>416</v>
       </c>
-      <c r="B540" s="143">
+      <c r="B540" s="141">
         <v>0.6875</v>
       </c>
     </row>
@@ -9358,7 +9458,7 @@
       <c r="A556" t="s">
         <v>423</v>
       </c>
-      <c r="B556" s="144">
+      <c r="B556" s="142">
         <v>4915120000000</v>
       </c>
     </row>
@@ -9406,7 +9506,7 @@
       <c r="A562" t="s">
         <v>417</v>
       </c>
-      <c r="B562" s="143">
+      <c r="B562" s="141">
         <v>0.64583333333333337</v>
       </c>
     </row>
@@ -9414,7 +9514,7 @@
       <c r="A563" t="s">
         <v>416</v>
       </c>
-      <c r="B563" s="143">
+      <c r="B563" s="141">
         <v>0.6875</v>
       </c>
     </row>
@@ -9582,7 +9682,7 @@
       <c r="A585" t="s">
         <v>417</v>
       </c>
-      <c r="B585" s="143">
+      <c r="B585" s="141">
         <v>0.64583333333333337</v>
       </c>
     </row>
@@ -9590,7 +9690,7 @@
       <c r="A586" t="s">
         <v>416</v>
       </c>
-      <c r="B586" s="143">
+      <c r="B586" s="141">
         <v>0.6875</v>
       </c>
     </row>
@@ -9710,7 +9810,7 @@
       <c r="A602" t="s">
         <v>423</v>
       </c>
-      <c r="B602" s="144">
+      <c r="B602" s="142">
         <v>353879000000</v>
       </c>
     </row>
@@ -9758,7 +9858,7 @@
       <c r="A608" t="s">
         <v>417</v>
       </c>
-      <c r="B608" s="143">
+      <c r="B608" s="141">
         <v>0.8125</v>
       </c>
     </row>
@@ -9766,7 +9866,7 @@
       <c r="A609" t="s">
         <v>416</v>
       </c>
-      <c r="B609" s="143">
+      <c r="B609" s="141">
         <v>0.875</v>
       </c>
     </row>
@@ -9934,7 +10034,7 @@
       <c r="A631" t="s">
         <v>417</v>
       </c>
-      <c r="B631" s="143">
+      <c r="B631" s="141">
         <v>0.5</v>
       </c>
     </row>
@@ -9942,7 +10042,7 @@
       <c r="A632" t="s">
         <v>416</v>
       </c>
-      <c r="B632" s="143">
+      <c r="B632" s="141">
         <v>0.52083333333333337</v>
       </c>
     </row>
@@ -10062,7 +10162,7 @@
       <c r="A648" t="s">
         <v>423</v>
       </c>
-      <c r="B648" s="144">
+      <c r="B648" s="142">
         <v>353879000000</v>
       </c>
     </row>
@@ -10110,7 +10210,7 @@
       <c r="A654" t="s">
         <v>417</v>
       </c>
-      <c r="B654" s="143">
+      <c r="B654" s="141">
         <v>0.52083333333333337</v>
       </c>
     </row>
@@ -10118,7 +10218,7 @@
       <c r="A655" t="s">
         <v>416</v>
       </c>
-      <c r="B655" s="143">
+      <c r="B655" s="141">
         <v>0.5625</v>
       </c>
     </row>
@@ -10235,7 +10335,7 @@
       <c r="A671" t="s">
         <v>423</v>
       </c>
-      <c r="B671" s="144">
+      <c r="B671" s="142">
         <v>353878000000</v>
       </c>
     </row>
@@ -10283,7 +10383,7 @@
       <c r="A677" t="s">
         <v>417</v>
       </c>
-      <c r="B677" s="143">
+      <c r="B677" s="141">
         <v>0.52083333333333337</v>
       </c>
     </row>
@@ -10291,7 +10391,7 @@
       <c r="A678" t="s">
         <v>416</v>
       </c>
-      <c r="B678" s="143">
+      <c r="B678" s="141">
         <v>0.5625</v>
       </c>
     </row>
@@ -10456,7 +10556,7 @@
       <c r="A700" t="s">
         <v>417</v>
       </c>
-      <c r="B700" s="143">
+      <c r="B700" s="141">
         <v>0.52083333333333337</v>
       </c>
     </row>
@@ -10464,7 +10564,7 @@
       <c r="A701" t="s">
         <v>416</v>
       </c>
-      <c r="B701" s="143">
+      <c r="B701" s="141">
         <v>0.5625</v>
       </c>
     </row>
@@ -10629,7 +10729,7 @@
       <c r="A723" t="s">
         <v>417</v>
       </c>
-      <c r="B723" s="143">
+      <c r="B723" s="141">
         <v>0.52083333333333337</v>
       </c>
     </row>
@@ -10637,7 +10737,7 @@
       <c r="A724" t="s">
         <v>416</v>
       </c>
-      <c r="B724" s="143">
+      <c r="B724" s="141">
         <v>0.60416666666666663</v>
       </c>
     </row>
@@ -10805,7 +10905,7 @@
       <c r="A746" t="s">
         <v>417</v>
       </c>
-      <c r="B746" s="143">
+      <c r="B746" s="141">
         <v>0.5625</v>
       </c>
     </row>
@@ -10813,7 +10913,7 @@
       <c r="A747" t="s">
         <v>416</v>
       </c>
-      <c r="B747" s="143">
+      <c r="B747" s="141">
         <v>0.60416666666666663</v>
       </c>
     </row>
@@ -10981,7 +11081,7 @@
       <c r="A769" t="s">
         <v>417</v>
       </c>
-      <c r="B769" s="143">
+      <c r="B769" s="141">
         <v>0.625</v>
       </c>
     </row>
@@ -10989,7 +11089,7 @@
       <c r="A770" t="s">
         <v>416</v>
       </c>
-      <c r="B770" s="143">
+      <c r="B770" s="141">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -11157,7 +11257,7 @@
       <c r="A792" t="s">
         <v>417</v>
       </c>
-      <c r="B792" s="143">
+      <c r="B792" s="141">
         <v>0.625</v>
       </c>
     </row>
@@ -11165,7 +11265,7 @@
       <c r="A793" t="s">
         <v>416</v>
       </c>
-      <c r="B793" s="143">
+      <c r="B793" s="141">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -11333,7 +11433,7 @@
       <c r="A815" t="s">
         <v>417</v>
       </c>
-      <c r="B815" s="143">
+      <c r="B815" s="141">
         <v>0.625</v>
       </c>
     </row>
@@ -11341,7 +11441,7 @@
       <c r="A816" t="s">
         <v>416</v>
       </c>
-      <c r="B816" s="143">
+      <c r="B816" s="141">
         <v>0.6875</v>
       </c>
     </row>
@@ -11446,8 +11546,8 @@
   </sheetPr>
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView topLeftCell="D17" zoomScale="75" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45:H53"/>
+    <sheetView topLeftCell="A39" zoomScale="75" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11481,7 +11581,7 @@
       <c r="H2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="81" t="s">
         <v>393</v>
       </c>
     </row>
@@ -11489,68 +11589,68 @@
       <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="83"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="I4" s="83"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="I4" s="81"/>
     </row>
     <row r="5" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="I5" s="83"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="I5" s="81"/>
     </row>
     <row r="6" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="I6" s="83"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="I6" s="81"/>
     </row>
     <row r="7" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="I7" s="83"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="I7" s="81"/>
     </row>
     <row r="8" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="I8" s="83"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="I8" s="81"/>
     </row>
     <row r="9" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35">
@@ -11558,16 +11658,16 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="95" t="s">
         <v>371</v>
       </c>
-      <c r="E9" s="98"/>
-      <c r="F9" s="99"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="97"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="80" t="s">
+      <c r="H9" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="83"/>
+      <c r="I9" s="81"/>
     </row>
     <row r="10" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
@@ -11575,12 +11675,12 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="102"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="81"/>
     </row>
     <row r="11" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
@@ -11592,40 +11692,40 @@
       <c r="E11" s="25"/>
       <c r="F11" s="26"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="81"/>
     </row>
     <row r="12" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <v>0.8125</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="43" t="s">
         <v>372</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="7"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="81"/>
     </row>
     <row r="13" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="27"/>
       <c r="E13" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="81"/>
     </row>
     <row r="14" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35">
@@ -11637,8 +11737,8 @@
       <c r="E14" s="27"/>
       <c r="F14" s="7"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="81"/>
     </row>
     <row r="15" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
@@ -11650,8 +11750,8 @@
       <c r="E15" s="9"/>
       <c r="F15" s="10"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="83"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="81"/>
     </row>
     <row r="16" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="30"/>
@@ -11684,7 +11784,7 @@
       <c r="H17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="82" t="s">
+      <c r="I17" s="80" t="s">
         <v>394</v>
       </c>
     </row>
@@ -11692,317 +11792,317 @@
       <c r="A18" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="82"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="80"/>
     </row>
     <row r="19" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="72" t="s">
         <v>385</v>
       </c>
       <c r="C19" s="15"/>
-      <c r="D19" s="88" t="s">
+      <c r="D19" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="90"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="88"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="64" t="s">
+      <c r="H19" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="82"/>
+      <c r="I19" s="80"/>
     </row>
     <row r="20" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B20" s="75"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="93"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="82"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="80"/>
     </row>
     <row r="21" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35">
         <v>0.4375</v>
       </c>
       <c r="B21" s="15"/>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="72" t="s">
         <v>386</v>
       </c>
-      <c r="D21" s="91"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="93"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="82"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="91"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="80"/>
     </row>
     <row r="22" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35">
         <v>0.45833333333333331</v>
       </c>
       <c r="B22" s="15"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="96"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="82"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="94"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="80"/>
     </row>
     <row r="23" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="75" t="s">
         <v>332</v>
       </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="82"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="80"/>
     </row>
     <row r="24" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35">
         <v>0.5</v>
       </c>
       <c r="B24" s="15"/>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="72" t="s">
         <v>384</v>
       </c>
-      <c r="D24" s="88" t="s">
+      <c r="D24" s="86" t="s">
         <v>381</v>
       </c>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="80" t="s">
+      <c r="E24" s="87"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="78" t="s">
         <v>374</v>
       </c>
-      <c r="H24" s="86"/>
-      <c r="I24" s="82"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="80"/>
     </row>
     <row r="25" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>0.52083333333333337</v>
       </c>
       <c r="B25" s="15"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="82"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="80"/>
     </row>
     <row r="26" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B26" s="107" t="s">
+      <c r="B26" s="105" t="s">
         <v>333</v>
       </c>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="82"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="80"/>
     </row>
     <row r="27" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <v>0.5625</v>
       </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="82"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="80"/>
     </row>
     <row r="28" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="35">
         <v>0.58333333333333337</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="61" t="s">
         <v>375</v>
       </c>
-      <c r="D28" s="88" t="s">
+      <c r="D28" s="86" t="s">
         <v>426</v>
       </c>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="74" t="s">
+      <c r="E28" s="87"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="72" t="s">
         <v>383</v>
       </c>
-      <c r="H28" s="86"/>
-      <c r="I28" s="82"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="80"/>
     </row>
     <row r="29" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
         <v>0.60416666666666663</v>
       </c>
       <c r="B29" s="15"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="94"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="82"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="80"/>
     </row>
     <row r="30" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35">
         <v>0.625</v>
       </c>
       <c r="B30" s="15"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="88" t="s">
+      <c r="C30" s="62"/>
+      <c r="D30" s="86" t="s">
         <v>376</v>
       </c>
-      <c r="E30" s="89"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="80" t="s">
+      <c r="E30" s="87"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="78" t="s">
         <v>377</v>
       </c>
-      <c r="H30" s="86"/>
-      <c r="I30" s="82"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="80"/>
     </row>
     <row r="31" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="72" t="s">
         <v>387</v>
       </c>
       <c r="C31" s="15"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="82"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="80"/>
     </row>
     <row r="32" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B32" s="119"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="96"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="94"/>
       <c r="G32" s="15"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="82"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="80"/>
     </row>
     <row r="33" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35">
         <v>0.6875</v>
       </c>
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="82"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="80"/>
     </row>
     <row r="34" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="35">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="45" t="s">
         <v>379</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="48"/>
-      <c r="I34" s="82"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="47"/>
+      <c r="I34" s="80"/>
     </row>
     <row r="35" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="51"/>
-      <c r="I35" s="82"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="50"/>
+      <c r="I35" s="80"/>
     </row>
     <row r="36" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="35"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="51"/>
-      <c r="I36" s="82"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="50"/>
+      <c r="I36" s="80"/>
     </row>
     <row r="37" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="54"/>
-      <c r="I37" s="82"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53"/>
+      <c r="I37" s="80"/>
     </row>
     <row r="38" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="35"/>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="45" t="s">
         <v>378</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="48"/>
-      <c r="I38" s="82"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="47"/>
+      <c r="I38" s="80"/>
     </row>
     <row r="39" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="35"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="51"/>
-      <c r="I39" s="82"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="50"/>
+      <c r="I39" s="80"/>
     </row>
     <row r="40" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="54"/>
-      <c r="I40" s="82"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="53"/>
+      <c r="I40" s="80"/>
     </row>
     <row r="41" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:10" s="13" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -12028,7 +12128,7 @@
       <c r="H42" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="83" t="s">
+      <c r="I42" s="81" t="s">
         <v>395</v>
       </c>
       <c r="J42"/>
@@ -12037,16 +12137,16 @@
       <c r="A43" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="83"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="81"/>
       <c r="J43"/>
     </row>
     <row r="44" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12056,197 +12156,206 @@
       <c r="C44" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="I44" s="83"/>
+      <c r="I44" s="81"/>
     </row>
     <row r="45" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="35">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="72" t="s">
         <v>388</v>
       </c>
-      <c r="D45" s="88" t="s">
+      <c r="D45" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="89"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="74" t="s">
+      <c r="E45" s="87"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="72" t="s">
         <v>382</v>
       </c>
-      <c r="H45" s="80" t="s">
+      <c r="H45" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="I45" s="83"/>
+      <c r="I45" s="81"/>
     </row>
     <row r="46" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="35">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B46" s="75"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="83"/>
+      <c r="B46" s="73"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="81"/>
     </row>
     <row r="47" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="35">
         <v>0.5625</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="80" t="s">
+      <c r="D47" s="89"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="91"/>
+      <c r="G47" s="78" t="s">
         <v>389</v>
       </c>
-      <c r="H47" s="85"/>
-      <c r="I47" s="83"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="81"/>
     </row>
     <row r="48" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="35">
         <v>0.58333333333333337</v>
       </c>
       <c r="C48" s="15"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="83"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="81"/>
     </row>
     <row r="49" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B49" s="77" t="s">
+      <c r="B49" s="75" t="s">
         <v>334</v>
       </c>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="83"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="81"/>
     </row>
     <row r="50" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="35">
         <v>0.625</v>
       </c>
-      <c r="C50" s="118" t="s">
+      <c r="C50" s="116" t="s">
         <v>392</v>
       </c>
-      <c r="D50" s="88" t="s">
+      <c r="D50" s="86" t="s">
         <v>391</v>
       </c>
-      <c r="E50" s="89"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="62" t="s">
+      <c r="E50" s="87"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="H50" s="85"/>
-      <c r="I50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="81"/>
     </row>
     <row r="51" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C51" s="43"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="83"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="81"/>
     </row>
     <row r="52" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="35">
         <v>0.66666666666666663</v>
       </c>
       <c r="B52" s="15"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="96"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="94"/>
       <c r="G52" s="15"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="81"/>
     </row>
     <row r="53" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="35">
         <v>0.6875</v>
       </c>
-      <c r="B53" s="114" t="s">
+      <c r="B53" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="116"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="83"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="113"/>
+      <c r="G53" s="114"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="81"/>
     </row>
     <row r="54" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="35">
         <v>0.70833333333333337</v>
       </c>
-      <c r="I54" s="83"/>
+      <c r="I54" s="81"/>
     </row>
     <row r="55" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="34"/>
-      <c r="B55" s="117" t="s">
+      <c r="B55" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="48"/>
-      <c r="I55" s="83"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="47"/>
+      <c r="I55" s="81"/>
     </row>
     <row r="56" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="34"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="54"/>
-    </row>
-    <row r="57" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="53"/>
+    </row>
+    <row r="57" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="254" t="s">
+        <v>471</v>
+      </c>
+      <c r="C57" s="254"/>
+      <c r="D57" s="254"/>
+      <c r="E57" s="254"/>
+      <c r="F57" s="254"/>
+      <c r="G57" s="254"/>
+    </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="60" t="s">
+      <c r="C58" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="62" t="s">
+      <c r="D58" s="248" t="s">
         <v>301</v>
       </c>
-      <c r="E58" s="64" t="s">
+      <c r="E58" s="246" t="s">
         <v>302</v>
       </c>
-      <c r="F58" s="66" t="s">
+      <c r="F58" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="42" t="s">
+      <c r="G58" s="252" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="59"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="43"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="249"/>
+      <c r="E59" s="247"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="253"/>
     </row>
     <row r="66" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="84" t="s">
+      <c r="C67" s="82" t="s">
         <v>54</v>
       </c>
       <c r="E67" s="14" t="s">
@@ -12254,88 +12363,88 @@
       </c>
     </row>
     <row r="68" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="75"/>
+      <c r="C68" s="73"/>
     </row>
     <row r="69" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C70" s="71" t="s">
+      <c r="C70" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="E70" s="68" t="s">
+      <c r="E70" s="66" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="73"/>
-      <c r="E71" s="70"/>
+      <c r="C71" s="71"/>
+      <c r="E71" s="68"/>
     </row>
     <row r="72" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C73" s="71" t="s">
+      <c r="C73" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="E73" s="68" t="s">
+      <c r="E73" s="66" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C74" s="72"/>
-      <c r="E74" s="69"/>
+      <c r="C74" s="70"/>
+      <c r="E74" s="67"/>
       <c r="G74" s="13"/>
     </row>
     <row r="75" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="73"/>
-      <c r="E75" s="70"/>
+      <c r="C75" s="71"/>
+      <c r="E75" s="68"/>
       <c r="G75" s="13"/>
     </row>
     <row r="76" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C77" s="71" t="s">
+      <c r="C77" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="68" t="s">
+      <c r="E77" s="66" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C78" s="72"/>
-      <c r="E78" s="69"/>
+      <c r="C78" s="70"/>
+      <c r="E78" s="67"/>
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C79" s="72"/>
-      <c r="E79" s="69"/>
+      <c r="C79" s="70"/>
+      <c r="E79" s="67"/>
     </row>
     <row r="80" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="73"/>
-      <c r="E80" s="70"/>
+      <c r="C80" s="71"/>
+      <c r="E80" s="68"/>
     </row>
     <row r="81" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C82" s="71" t="s">
+      <c r="C82" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="E82" s="68" t="s">
+      <c r="E82" s="66" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C83" s="72"/>
-      <c r="E83" s="69"/>
+      <c r="C83" s="70"/>
+      <c r="E83" s="67"/>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C84" s="72"/>
-      <c r="E84" s="69"/>
+      <c r="C84" s="70"/>
+      <c r="E84" s="67"/>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C85" s="72"/>
-      <c r="E85" s="69"/>
+      <c r="C85" s="70"/>
+      <c r="E85" s="67"/>
     </row>
     <row r="86" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="73"/>
-      <c r="E86" s="70"/>
+      <c r="C86" s="71"/>
+      <c r="E86" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="56">
     <mergeCell ref="I2:I15"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:G8"/>
@@ -12371,6 +12480,7 @@
     <mergeCell ref="B49:G49"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="D28:F29"/>
+    <mergeCell ref="B57:G57"/>
     <mergeCell ref="E77:E80"/>
     <mergeCell ref="C82:C86"/>
     <mergeCell ref="E82:E86"/>
@@ -12402,1763 +12512,2343 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:F166"/>
+  <dimension ref="A3:H185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomRight" activeCell="A184" sqref="A184:H185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="155" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" style="145" customWidth="1"/>
-    <col min="3" max="5" width="38" style="145" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" style="231" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="141"/>
+    <col min="1" max="1" width="9" style="139" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="152" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" style="143" customWidth="1"/>
+    <col min="4" max="6" width="38" style="143" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="227" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="139" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="139"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" s="235" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="232"/>
-      <c r="B3" s="233" t="s">
+    <row r="3" spans="1:8" s="231" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A3" s="243" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="228"/>
+      <c r="C3" s="229" t="s">
         <v>435</v>
       </c>
-      <c r="C3" s="233" t="s">
+      <c r="D3" s="229" t="s">
         <v>434</v>
       </c>
-      <c r="D3" s="233" t="s">
+      <c r="E3" s="229" t="s">
         <v>429</v>
       </c>
-      <c r="E3" s="233" t="s">
+      <c r="F3" s="229" t="s">
         <v>433</v>
       </c>
-      <c r="F3" s="234" t="s">
+      <c r="G3" s="230" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="235" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="232"/>
-      <c r="B4" s="236" t="s">
+      <c r="H3" s="245" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="231" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A4" s="243"/>
+      <c r="B4" s="228"/>
+      <c r="C4" s="232" t="s">
         <v>431</v>
       </c>
-      <c r="C4" s="236" t="s">
+      <c r="D4" s="232" t="s">
         <v>430</v>
       </c>
-      <c r="D4" s="236" t="s">
+      <c r="E4" s="232" t="s">
         <v>429</v>
       </c>
-      <c r="E4" s="236" t="s">
+      <c r="F4" s="232" t="s">
         <v>428</v>
       </c>
-      <c r="F4" s="237" t="s">
+      <c r="G4" s="233" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="235" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="238" t="s">
+      <c r="H4" s="244"/>
+    </row>
+    <row r="5" spans="1:8" s="231" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="243"/>
+      <c r="B5" s="234" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="238"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="157">
+      <c r="C5" s="234"/>
+      <c r="D5" s="234"/>
+      <c r="E5" s="234"/>
+      <c r="F5" s="234"/>
+      <c r="G5" s="234"/>
+      <c r="H5" s="244"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="243"/>
+      <c r="B6" s="154">
         <v>0.75</v>
       </c>
-      <c r="B6" s="149"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="153" t="s">
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="150" t="s">
+        <v>454</v>
+      </c>
+      <c r="G6" s="155" t="s">
+        <v>439</v>
+      </c>
+      <c r="H6" s="244"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="243"/>
+      <c r="B7" s="154">
+        <v>0.75694444444444442</v>
+      </c>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="244"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="243"/>
+      <c r="B8" s="154">
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="244"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="243"/>
+      <c r="B9" s="154">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="244"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="243"/>
+      <c r="B10" s="154">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="244"/>
+    </row>
+    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="243"/>
+      <c r="B11" s="154">
+        <v>0.78472222222222199</v>
+      </c>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="244"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="243"/>
+      <c r="B12" s="154">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C12" s="158"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="157"/>
+      <c r="H12" s="244"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="243"/>
+      <c r="B13" s="154">
+        <v>0.79861111111111105</v>
+      </c>
+      <c r="C13" s="159"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="244"/>
+    </row>
+    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="243"/>
+      <c r="B14" s="154">
+        <v>0.80555555555555503</v>
+      </c>
+      <c r="C14" s="160"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="244"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="243"/>
+      <c r="B15" s="154">
+        <v>0.8125</v>
+      </c>
+      <c r="C15" s="145" t="s">
+        <v>458</v>
+      </c>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="244"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="243"/>
+      <c r="B16" s="154">
+        <v>0.81944444444444398</v>
+      </c>
+      <c r="C16" s="162"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="244"/>
+    </row>
+    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="243"/>
+      <c r="B17" s="154">
+        <v>0.82638888888888895</v>
+      </c>
+      <c r="C17" s="163"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="244"/>
+    </row>
+    <row r="18" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="243"/>
+      <c r="B18" s="154">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C18" s="145" t="s">
         <v>459</v>
       </c>
-      <c r="F6" s="158" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="157">
-        <v>0.75694444444444442</v>
-      </c>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="160"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="157">
-        <v>0.76388888888888895</v>
-      </c>
-      <c r="B8" s="149"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="160"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="157">
-        <v>0.77083333333333304</v>
-      </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="160"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="157">
-        <v>0.77777777777777801</v>
-      </c>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="160"/>
-    </row>
-    <row r="11" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="157">
-        <v>0.78472222222222199</v>
-      </c>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="160"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="157">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="B12" s="161"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="160"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="157">
-        <v>0.79861111111111105</v>
-      </c>
-      <c r="B13" s="162"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="160"/>
-    </row>
-    <row r="14" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="157">
-        <v>0.80555555555555503</v>
-      </c>
-      <c r="B14" s="163"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="160"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="157">
-        <v>0.8125</v>
-      </c>
-      <c r="B15" s="147" t="s">
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="244"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="243"/>
+      <c r="B19" s="154">
+        <v>0.84027777777777701</v>
+      </c>
+      <c r="C19" s="162"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="244"/>
+    </row>
+    <row r="20" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="243"/>
+      <c r="B20" s="154">
+        <v>0.84722222222222199</v>
+      </c>
+      <c r="C20" s="163"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="244"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="243"/>
+      <c r="B21" s="154">
+        <v>0.85416666666666596</v>
+      </c>
+      <c r="C21" s="158"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="244"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="243"/>
+      <c r="B22" s="154">
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="C22" s="159"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="244"/>
+    </row>
+    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="243"/>
+      <c r="B23" s="154">
+        <v>0.86805555555555503</v>
+      </c>
+      <c r="C23" s="160"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="244"/>
+    </row>
+    <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="243"/>
+      <c r="B24" s="154">
+        <v>0.875</v>
+      </c>
+      <c r="C24" s="147"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="225"/>
+      <c r="H24" s="244"/>
+    </row>
+    <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="258"/>
+      <c r="B25" s="258"/>
+      <c r="C25" s="258"/>
+      <c r="D25" s="258"/>
+      <c r="E25" s="258"/>
+      <c r="F25" s="258"/>
+      <c r="G25" s="258"/>
+      <c r="H25" s="258"/>
+    </row>
+    <row r="26" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="258"/>
+      <c r="B26" s="258"/>
+      <c r="C26" s="258"/>
+      <c r="D26" s="258"/>
+      <c r="E26" s="258"/>
+      <c r="F26" s="258"/>
+      <c r="G26" s="258"/>
+      <c r="H26" s="258"/>
+    </row>
+    <row r="27" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="154"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="225"/>
+    </row>
+    <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="154"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="225"/>
+    </row>
+    <row r="29" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="225"/>
+    </row>
+    <row r="30" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="255" t="s">
+        <v>471</v>
+      </c>
+      <c r="C30" s="256"/>
+      <c r="D30" s="256"/>
+      <c r="E30" s="256"/>
+      <c r="F30" s="256"/>
+      <c r="G30" s="257"/>
+    </row>
+    <row r="31" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="248" t="s">
+        <v>301</v>
+      </c>
+      <c r="E31" s="246" t="s">
+        <v>302</v>
+      </c>
+      <c r="F31" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="252" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="58"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="249"/>
+      <c r="E32" s="247"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="253"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C37" s="147"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="147"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="225"/>
+    </row>
+    <row r="38" spans="1:8" s="231" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="243" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="228"/>
+      <c r="C38" s="229" t="s">
+        <v>435</v>
+      </c>
+      <c r="D38" s="229" t="s">
+        <v>434</v>
+      </c>
+      <c r="E38" s="229" t="s">
+        <v>429</v>
+      </c>
+      <c r="F38" s="229" t="s">
+        <v>433</v>
+      </c>
+      <c r="G38" s="230" t="s">
+        <v>432</v>
+      </c>
+      <c r="H38" s="245" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="231" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A39" s="243"/>
+      <c r="B39" s="228"/>
+      <c r="C39" s="232" t="s">
+        <v>431</v>
+      </c>
+      <c r="D39" s="232" t="s">
+        <v>430</v>
+      </c>
+      <c r="E39" s="232" t="s">
+        <v>429</v>
+      </c>
+      <c r="F39" s="232" t="s">
+        <v>428</v>
+      </c>
+      <c r="G39" s="233" t="s">
+        <v>427</v>
+      </c>
+      <c r="H39" s="245"/>
+    </row>
+    <row r="40" spans="1:8" s="231" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="243"/>
+      <c r="B40" s="234" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="234"/>
+      <c r="D40" s="234"/>
+      <c r="E40" s="234"/>
+      <c r="F40" s="234"/>
+      <c r="G40" s="234"/>
+      <c r="H40" s="245"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="243"/>
+      <c r="B41" s="154">
+        <v>0.375</v>
+      </c>
+      <c r="C41" s="147"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="151" t="s">
+        <v>453</v>
+      </c>
+      <c r="H41" s="245"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="243"/>
+      <c r="B42" s="154">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C42" s="147"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="226"/>
+      <c r="H42" s="245"/>
+    </row>
+    <row r="43" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="243"/>
+      <c r="B43" s="154">
+        <v>0.38888888888888901</v>
+      </c>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="226"/>
+      <c r="H43" s="245"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="243"/>
+      <c r="B44" s="154">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C44" s="145" t="s">
+        <v>437</v>
+      </c>
+      <c r="D44" s="147"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="146" t="s">
+        <v>445</v>
+      </c>
+      <c r="G44" s="226"/>
+      <c r="H44" s="245"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="243"/>
+      <c r="B45" s="154">
+        <v>0.40277777777777801</v>
+      </c>
+      <c r="C45" s="162"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="165"/>
+      <c r="G45" s="226"/>
+      <c r="H45" s="245"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="243"/>
+      <c r="B46" s="154">
+        <v>0.40972222222222199</v>
+      </c>
+      <c r="C46" s="162"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="165"/>
+      <c r="G46" s="226"/>
+      <c r="H46" s="245"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="243"/>
+      <c r="B47" s="154">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C47" s="162"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="165"/>
+      <c r="G47" s="226"/>
+      <c r="H47" s="245"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="243"/>
+      <c r="B48" s="154">
+        <v>0.42361111111111099</v>
+      </c>
+      <c r="C48" s="162"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="147"/>
+      <c r="F48" s="165"/>
+      <c r="G48" s="226"/>
+      <c r="H48" s="245"/>
+    </row>
+    <row r="49" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="243"/>
+      <c r="B49" s="154">
+        <v>0.43055555555555503</v>
+      </c>
+      <c r="C49" s="163"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="147"/>
+      <c r="F49" s="165"/>
+      <c r="G49" s="226"/>
+      <c r="H49" s="245"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="243"/>
+      <c r="B50" s="154">
+        <v>0.4375</v>
+      </c>
+      <c r="C50" s="147"/>
+      <c r="D50" s="145" t="s">
+        <v>455</v>
+      </c>
+      <c r="E50" s="147"/>
+      <c r="F50" s="165"/>
+      <c r="G50" s="226"/>
+      <c r="H50" s="245"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="243"/>
+      <c r="B51" s="154">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="C51" s="147"/>
+      <c r="D51" s="162"/>
+      <c r="E51" s="147"/>
+      <c r="F51" s="165"/>
+      <c r="G51" s="226"/>
+      <c r="H51" s="245"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="243"/>
+      <c r="B52" s="154">
+        <v>0.45138888888888901</v>
+      </c>
+      <c r="C52" s="147"/>
+      <c r="D52" s="162"/>
+      <c r="E52" s="147"/>
+      <c r="F52" s="165"/>
+      <c r="G52" s="226"/>
+      <c r="H52" s="245"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="243"/>
+      <c r="B53" s="154">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C53" s="147"/>
+      <c r="D53" s="162"/>
+      <c r="E53" s="147"/>
+      <c r="F53" s="165"/>
+      <c r="G53" s="226"/>
+      <c r="H53" s="245"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="243"/>
+      <c r="B54" s="154">
+        <v>0.46527777777777801</v>
+      </c>
+      <c r="C54" s="147"/>
+      <c r="D54" s="162"/>
+      <c r="E54" s="147"/>
+      <c r="F54" s="165"/>
+      <c r="G54" s="226"/>
+      <c r="H54" s="245"/>
+    </row>
+    <row r="55" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="243"/>
+      <c r="B55" s="154">
+        <v>0.47222222222222199</v>
+      </c>
+      <c r="C55" s="147"/>
+      <c r="D55" s="163"/>
+      <c r="E55" s="147"/>
+      <c r="F55" s="166"/>
+      <c r="G55" s="226"/>
+      <c r="H55" s="245"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="243"/>
+      <c r="B56" s="154">
+        <v>0.47916666666666602</v>
+      </c>
+      <c r="C56" s="194" t="s">
+        <v>451</v>
+      </c>
+      <c r="D56" s="195"/>
+      <c r="E56" s="195"/>
+      <c r="F56" s="195"/>
+      <c r="G56" s="226"/>
+      <c r="H56" s="245"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="243"/>
+      <c r="B57" s="154">
+        <v>0.48611111111111099</v>
+      </c>
+      <c r="C57" s="196"/>
+      <c r="D57" s="197"/>
+      <c r="E57" s="197"/>
+      <c r="F57" s="197"/>
+      <c r="G57" s="226"/>
+      <c r="H57" s="245"/>
+    </row>
+    <row r="58" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="243"/>
+      <c r="B58" s="154">
+        <v>0.49305555555555503</v>
+      </c>
+      <c r="C58" s="198"/>
+      <c r="D58" s="199"/>
+      <c r="E58" s="199"/>
+      <c r="F58" s="199"/>
+      <c r="G58" s="226"/>
+      <c r="H58" s="245"/>
+    </row>
+    <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="243"/>
+      <c r="B59" s="154">
+        <v>0.5</v>
+      </c>
+      <c r="C59" s="145" t="s">
+        <v>436</v>
+      </c>
+      <c r="D59" s="147"/>
+      <c r="E59" s="250" t="s">
+        <v>466</v>
+      </c>
+      <c r="F59" s="146" t="s">
+        <v>446</v>
+      </c>
+      <c r="G59" s="226"/>
+      <c r="H59" s="245"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="243"/>
+      <c r="B60" s="154">
+        <v>0.50694444444444398</v>
+      </c>
+      <c r="C60" s="162"/>
+      <c r="D60" s="147"/>
+      <c r="E60" s="250"/>
+      <c r="F60" s="165"/>
+      <c r="G60" s="226"/>
+      <c r="H60" s="245"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="243"/>
+      <c r="B61" s="154">
+        <v>0.51388888888888795</v>
+      </c>
+      <c r="C61" s="162"/>
+      <c r="D61" s="147"/>
+      <c r="E61" s="250"/>
+      <c r="F61" s="165"/>
+      <c r="G61" s="226"/>
+      <c r="H61" s="245"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="243"/>
+      <c r="B62" s="154">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="C62" s="162"/>
+      <c r="D62" s="147"/>
+      <c r="E62" s="250"/>
+      <c r="F62" s="165"/>
+      <c r="G62" s="226"/>
+      <c r="H62" s="245"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="243"/>
+      <c r="B63" s="154">
+        <v>0.52777777777777701</v>
+      </c>
+      <c r="C63" s="162"/>
+      <c r="D63" s="147"/>
+      <c r="E63" s="250"/>
+      <c r="F63" s="165"/>
+      <c r="G63" s="226"/>
+      <c r="H63" s="245"/>
+    </row>
+    <row r="64" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="243"/>
+      <c r="B64" s="154">
+        <v>0.53472222222222199</v>
+      </c>
+      <c r="C64" s="163"/>
+      <c r="D64" s="147"/>
+      <c r="E64" s="251"/>
+      <c r="F64" s="166"/>
+      <c r="G64" s="226"/>
+      <c r="H64" s="245"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="243"/>
+      <c r="B65" s="154">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="C65" s="195" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="195"/>
+      <c r="E65" s="195"/>
+      <c r="F65" s="200"/>
+      <c r="G65" s="226"/>
+      <c r="H65" s="245"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="243"/>
+      <c r="B66" s="154">
+        <v>0.54861111111111005</v>
+      </c>
+      <c r="C66" s="197"/>
+      <c r="D66" s="197"/>
+      <c r="E66" s="197"/>
+      <c r="F66" s="201"/>
+      <c r="G66" s="226"/>
+      <c r="H66" s="245"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="243"/>
+      <c r="B67" s="154">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="C67" s="197"/>
+      <c r="D67" s="197"/>
+      <c r="E67" s="197"/>
+      <c r="F67" s="201"/>
+      <c r="G67" s="226"/>
+      <c r="H67" s="245"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="243"/>
+      <c r="B68" s="154">
+        <v>0.562499999999999</v>
+      </c>
+      <c r="C68" s="197"/>
+      <c r="D68" s="197"/>
+      <c r="E68" s="197"/>
+      <c r="F68" s="201"/>
+      <c r="G68" s="226"/>
+      <c r="H68" s="245"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="243"/>
+      <c r="B69" s="154">
+        <v>0.56944444444444398</v>
+      </c>
+      <c r="C69" s="197"/>
+      <c r="D69" s="197"/>
+      <c r="E69" s="197"/>
+      <c r="F69" s="201"/>
+      <c r="G69" s="226"/>
+      <c r="H69" s="245"/>
+    </row>
+    <row r="70" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="243"/>
+      <c r="B70" s="154">
+        <v>0.57638888888888795</v>
+      </c>
+      <c r="C70" s="197"/>
+      <c r="D70" s="197"/>
+      <c r="E70" s="197"/>
+      <c r="F70" s="201"/>
+      <c r="G70" s="226"/>
+      <c r="H70" s="245"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="243"/>
+      <c r="B71" s="154">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C71" s="147"/>
+      <c r="D71" s="148" t="s">
+        <v>440</v>
+      </c>
+      <c r="E71" s="145" t="s">
+        <v>465</v>
+      </c>
+      <c r="F71" s="146" t="s">
+        <v>447</v>
+      </c>
+      <c r="G71" s="226"/>
+      <c r="H71" s="245"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="243"/>
+      <c r="B72" s="154">
+        <v>0.59027777777777701</v>
+      </c>
+      <c r="C72" s="147"/>
+      <c r="D72" s="149"/>
+      <c r="E72" s="162"/>
+      <c r="F72" s="165"/>
+      <c r="G72" s="226"/>
+      <c r="H72" s="245"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="243"/>
+      <c r="B73" s="154">
+        <v>0.59722222222222099</v>
+      </c>
+      <c r="C73" s="147"/>
+      <c r="D73" s="149"/>
+      <c r="E73" s="162"/>
+      <c r="F73" s="165"/>
+      <c r="G73" s="226"/>
+      <c r="H73" s="245"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="243"/>
+      <c r="B74" s="154">
+        <v>0.60416666666666596</v>
+      </c>
+      <c r="C74" s="147"/>
+      <c r="D74" s="149"/>
+      <c r="E74" s="162"/>
+      <c r="F74" s="165"/>
+      <c r="G74" s="226"/>
+      <c r="H74" s="245"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="243"/>
+      <c r="B75" s="154">
+        <v>0.61111111111111005</v>
+      </c>
+      <c r="C75" s="147"/>
+      <c r="D75" s="149"/>
+      <c r="E75" s="162"/>
+      <c r="F75" s="165"/>
+      <c r="G75" s="226"/>
+      <c r="H75" s="245"/>
+    </row>
+    <row r="76" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="243"/>
+      <c r="B76" s="154">
+        <v>0.61805555555555503</v>
+      </c>
+      <c r="C76" s="147"/>
+      <c r="D76" s="149"/>
+      <c r="E76" s="163"/>
+      <c r="F76" s="166"/>
+      <c r="G76" s="226"/>
+      <c r="H76" s="245"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="243"/>
+      <c r="B77" s="154">
+        <v>0.624999999999999</v>
+      </c>
+      <c r="C77" s="147"/>
+      <c r="D77" s="165"/>
+      <c r="E77" s="148" t="s">
+        <v>464</v>
+      </c>
+      <c r="F77" s="146" t="s">
+        <v>448</v>
+      </c>
+      <c r="G77" s="226"/>
+      <c r="H77" s="245"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="243"/>
+      <c r="B78" s="154">
+        <v>0.63194444444444398</v>
+      </c>
+      <c r="C78" s="147"/>
+      <c r="D78" s="165"/>
+      <c r="E78" s="149"/>
+      <c r="F78" s="165"/>
+      <c r="G78" s="226"/>
+      <c r="H78" s="245"/>
+    </row>
+    <row r="79" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="243"/>
+      <c r="B79" s="154">
+        <v>0.63888888888888795</v>
+      </c>
+      <c r="C79" s="147"/>
+      <c r="D79" s="166"/>
+      <c r="E79" s="149"/>
+      <c r="F79" s="165"/>
+      <c r="G79" s="226"/>
+      <c r="H79" s="245"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="243"/>
+      <c r="B80" s="154">
+        <v>0.64583333333333204</v>
+      </c>
+      <c r="C80" s="238" t="s">
+        <v>460</v>
+      </c>
+      <c r="D80" s="147"/>
+      <c r="E80" s="149"/>
+      <c r="F80" s="165"/>
+      <c r="G80" s="226"/>
+      <c r="H80" s="245"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="243"/>
+      <c r="B81" s="154">
+        <v>0.65277777777777701</v>
+      </c>
+      <c r="C81" s="239"/>
+      <c r="D81" s="147"/>
+      <c r="E81" s="149"/>
+      <c r="F81" s="165"/>
+      <c r="G81" s="226"/>
+      <c r="H81" s="245"/>
+    </row>
+    <row r="82" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="243"/>
+      <c r="B82" s="154">
+        <v>0.65972222222222099</v>
+      </c>
+      <c r="C82" s="239"/>
+      <c r="D82" s="147"/>
+      <c r="E82" s="175"/>
+      <c r="F82" s="165"/>
+      <c r="G82" s="226"/>
+      <c r="H82" s="245"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="243"/>
+      <c r="B83" s="154">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C83" s="239"/>
+      <c r="D83" s="147"/>
+      <c r="E83" s="147"/>
+      <c r="F83" s="165"/>
+      <c r="G83" s="226"/>
+      <c r="H83" s="245"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="243"/>
+      <c r="B84" s="154">
+        <v>0.67361111111111005</v>
+      </c>
+      <c r="C84" s="239"/>
+      <c r="D84" s="147"/>
+      <c r="E84" s="147"/>
+      <c r="F84" s="165"/>
+      <c r="G84" s="226"/>
+      <c r="H84" s="245"/>
+    </row>
+    <row r="85" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="243"/>
+      <c r="B85" s="154">
+        <v>0.68055555555555403</v>
+      </c>
+      <c r="C85" s="239"/>
+      <c r="D85" s="147"/>
+      <c r="E85" s="147"/>
+      <c r="F85" s="165"/>
+      <c r="G85" s="226"/>
+      <c r="H85" s="245"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="243"/>
+      <c r="B86" s="154">
+        <v>0.687499999999999</v>
+      </c>
+      <c r="C86" s="176" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="177"/>
+      <c r="E86" s="177"/>
+      <c r="F86" s="177"/>
+      <c r="G86" s="178"/>
+      <c r="H86" s="245"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="243"/>
+      <c r="B87" s="154">
+        <v>0.69444444444444298</v>
+      </c>
+      <c r="C87" s="179"/>
+      <c r="D87" s="180"/>
+      <c r="E87" s="180"/>
+      <c r="F87" s="180"/>
+      <c r="G87" s="181"/>
+      <c r="H87" s="245"/>
+    </row>
+    <row r="88" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="243"/>
+      <c r="B88" s="154">
+        <v>0.70138888888888795</v>
+      </c>
+      <c r="C88" s="182"/>
+      <c r="D88" s="183"/>
+      <c r="E88" s="183"/>
+      <c r="F88" s="183"/>
+      <c r="G88" s="184"/>
+      <c r="H88" s="245"/>
+    </row>
+    <row r="89" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="243"/>
+      <c r="B89" s="154">
+        <v>0.70833333333333204</v>
+      </c>
+      <c r="C89" s="202" t="s">
+        <v>462</v>
+      </c>
+      <c r="D89" s="203"/>
+      <c r="E89" s="203"/>
+      <c r="F89" s="203"/>
+      <c r="G89" s="204"/>
+      <c r="H89" s="245"/>
+    </row>
+    <row r="90" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="243"/>
+      <c r="B90" s="154">
+        <v>0.71527777777777701</v>
+      </c>
+      <c r="C90" s="205"/>
+      <c r="D90" s="206"/>
+      <c r="E90" s="206"/>
+      <c r="F90" s="206"/>
+      <c r="G90" s="207"/>
+      <c r="H90" s="245"/>
+    </row>
+    <row r="91" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="243"/>
+      <c r="B91" s="154">
+        <v>0.72222222222222099</v>
+      </c>
+      <c r="C91" s="205"/>
+      <c r="D91" s="206"/>
+      <c r="E91" s="206"/>
+      <c r="F91" s="206"/>
+      <c r="G91" s="207"/>
+      <c r="H91" s="245"/>
+    </row>
+    <row r="92" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="243"/>
+      <c r="B92" s="154">
+        <v>0.72916666666666496</v>
+      </c>
+      <c r="C92" s="205"/>
+      <c r="D92" s="206"/>
+      <c r="E92" s="206"/>
+      <c r="F92" s="206"/>
+      <c r="G92" s="207"/>
+      <c r="H92" s="245"/>
+    </row>
+    <row r="93" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="243"/>
+      <c r="B93" s="154">
+        <v>0.73611111111111005</v>
+      </c>
+      <c r="C93" s="205"/>
+      <c r="D93" s="206"/>
+      <c r="E93" s="206"/>
+      <c r="F93" s="206"/>
+      <c r="G93" s="207"/>
+      <c r="H93" s="245"/>
+    </row>
+    <row r="94" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="243"/>
+      <c r="B94" s="154">
+        <v>0.74305555555555403</v>
+      </c>
+      <c r="C94" s="208"/>
+      <c r="D94" s="209"/>
+      <c r="E94" s="209"/>
+      <c r="F94" s="209"/>
+      <c r="G94" s="210"/>
+      <c r="H94" s="245"/>
+    </row>
+    <row r="95" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="243"/>
+      <c r="B95" s="154">
+        <v>0.749999999999999</v>
+      </c>
+      <c r="C95" s="211" t="s">
+        <v>452</v>
+      </c>
+      <c r="D95" s="212"/>
+      <c r="E95" s="212"/>
+      <c r="F95" s="212"/>
+      <c r="G95" s="213"/>
+      <c r="H95" s="245"/>
+    </row>
+    <row r="96" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="243"/>
+      <c r="B96" s="154">
+        <v>0.75694444444444298</v>
+      </c>
+      <c r="C96" s="214"/>
+      <c r="D96" s="215"/>
+      <c r="E96" s="215"/>
+      <c r="F96" s="215"/>
+      <c r="G96" s="216"/>
+      <c r="H96" s="245"/>
+    </row>
+    <row r="97" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="243"/>
+      <c r="B97" s="154">
+        <v>0.76388888888888795</v>
+      </c>
+      <c r="C97" s="214"/>
+      <c r="D97" s="215"/>
+      <c r="E97" s="215"/>
+      <c r="F97" s="215"/>
+      <c r="G97" s="216"/>
+      <c r="H97" s="245"/>
+    </row>
+    <row r="98" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="243"/>
+      <c r="B98" s="154">
+        <v>0.77083333333333204</v>
+      </c>
+      <c r="C98" s="214"/>
+      <c r="D98" s="215"/>
+      <c r="E98" s="215"/>
+      <c r="F98" s="215"/>
+      <c r="G98" s="216"/>
+      <c r="H98" s="245"/>
+    </row>
+    <row r="99" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="243"/>
+      <c r="B99" s="154">
+        <v>0.77777777777777601</v>
+      </c>
+      <c r="C99" s="214"/>
+      <c r="D99" s="215"/>
+      <c r="E99" s="215"/>
+      <c r="F99" s="215"/>
+      <c r="G99" s="216"/>
+      <c r="H99" s="245"/>
+    </row>
+    <row r="100" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="243"/>
+      <c r="B100" s="154">
+        <v>0.78472222222222099</v>
+      </c>
+      <c r="C100" s="214"/>
+      <c r="D100" s="215"/>
+      <c r="E100" s="215"/>
+      <c r="F100" s="215"/>
+      <c r="G100" s="216"/>
+      <c r="H100" s="245"/>
+    </row>
+    <row r="101" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="243"/>
+      <c r="B101" s="154">
+        <v>0.79166666666666496</v>
+      </c>
+      <c r="C101" s="214"/>
+      <c r="D101" s="215"/>
+      <c r="E101" s="215"/>
+      <c r="F101" s="215"/>
+      <c r="G101" s="216"/>
+      <c r="H101" s="245"/>
+    </row>
+    <row r="102" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="243"/>
+      <c r="B102" s="154">
+        <v>0.79861111111111005</v>
+      </c>
+      <c r="C102" s="214"/>
+      <c r="D102" s="215"/>
+      <c r="E102" s="215"/>
+      <c r="F102" s="215"/>
+      <c r="G102" s="216"/>
+      <c r="H102" s="245"/>
+    </row>
+    <row r="103" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="243"/>
+      <c r="B103" s="154">
+        <v>0.80555555555555403</v>
+      </c>
+      <c r="C103" s="217"/>
+      <c r="D103" s="218"/>
+      <c r="E103" s="218"/>
+      <c r="F103" s="218"/>
+      <c r="G103" s="219"/>
+      <c r="H103" s="245"/>
+    </row>
+    <row r="104" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="243"/>
+      <c r="B104" s="154">
+        <v>0.812499999999998</v>
+      </c>
+      <c r="C104" s="202" t="s">
+        <v>461</v>
+      </c>
+      <c r="D104" s="203"/>
+      <c r="E104" s="203"/>
+      <c r="F104" s="203"/>
+      <c r="G104" s="204"/>
+      <c r="H104" s="245"/>
+    </row>
+    <row r="105" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="243"/>
+      <c r="B105" s="154">
+        <v>0.81944444444444298</v>
+      </c>
+      <c r="C105" s="205"/>
+      <c r="D105" s="206"/>
+      <c r="E105" s="206"/>
+      <c r="F105" s="206"/>
+      <c r="G105" s="207"/>
+      <c r="H105" s="245"/>
+    </row>
+    <row r="106" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="243"/>
+      <c r="B106" s="154">
+        <v>0.82638888888888695</v>
+      </c>
+      <c r="C106" s="205"/>
+      <c r="D106" s="206"/>
+      <c r="E106" s="206"/>
+      <c r="F106" s="206"/>
+      <c r="G106" s="207"/>
+      <c r="H106" s="245"/>
+    </row>
+    <row r="107" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="243"/>
+      <c r="B107" s="154">
+        <v>0.83333333333333204</v>
+      </c>
+      <c r="C107" s="205"/>
+      <c r="D107" s="206"/>
+      <c r="E107" s="206"/>
+      <c r="F107" s="206"/>
+      <c r="G107" s="207"/>
+      <c r="H107" s="245"/>
+    </row>
+    <row r="108" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="243"/>
+      <c r="B108" s="154">
+        <v>0.84027777777777601</v>
+      </c>
+      <c r="C108" s="205"/>
+      <c r="D108" s="206"/>
+      <c r="E108" s="206"/>
+      <c r="F108" s="206"/>
+      <c r="G108" s="207"/>
+      <c r="H108" s="245"/>
+    </row>
+    <row r="109" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="243"/>
+      <c r="B109" s="154">
+        <v>0.84722222222222099</v>
+      </c>
+      <c r="C109" s="205"/>
+      <c r="D109" s="206"/>
+      <c r="E109" s="206"/>
+      <c r="F109" s="206"/>
+      <c r="G109" s="207"/>
+      <c r="H109" s="245"/>
+    </row>
+    <row r="110" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="243"/>
+      <c r="B110" s="154">
+        <v>0.85416666666666496</v>
+      </c>
+      <c r="C110" s="205"/>
+      <c r="D110" s="206"/>
+      <c r="E110" s="206"/>
+      <c r="F110" s="206"/>
+      <c r="G110" s="207"/>
+      <c r="H110" s="245"/>
+    </row>
+    <row r="111" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="243"/>
+      <c r="B111" s="154">
+        <v>0.86111111111110905</v>
+      </c>
+      <c r="C111" s="205"/>
+      <c r="D111" s="206"/>
+      <c r="E111" s="206"/>
+      <c r="F111" s="206"/>
+      <c r="G111" s="207"/>
+      <c r="H111" s="245"/>
+    </row>
+    <row r="112" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="243"/>
+      <c r="B112" s="154">
+        <v>0.86805555555555403</v>
+      </c>
+      <c r="C112" s="205"/>
+      <c r="D112" s="206"/>
+      <c r="E112" s="206"/>
+      <c r="F112" s="206"/>
+      <c r="G112" s="207"/>
+      <c r="H112" s="245"/>
+    </row>
+    <row r="113" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="243"/>
+      <c r="B113" s="154">
+        <v>0.874999999999998</v>
+      </c>
+      <c r="C113" s="208"/>
+      <c r="D113" s="209"/>
+      <c r="E113" s="209"/>
+      <c r="F113" s="209"/>
+      <c r="G113" s="210"/>
+      <c r="H113" s="245"/>
+    </row>
+    <row r="114" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="258"/>
+      <c r="B114" s="258"/>
+      <c r="C114" s="258"/>
+      <c r="D114" s="258"/>
+      <c r="E114" s="258"/>
+      <c r="F114" s="258"/>
+      <c r="G114" s="258"/>
+      <c r="H114" s="258"/>
+    </row>
+    <row r="115" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="258"/>
+      <c r="B115" s="258"/>
+      <c r="C115" s="258"/>
+      <c r="D115" s="258"/>
+      <c r="E115" s="258"/>
+      <c r="F115" s="258"/>
+      <c r="G115" s="258"/>
+      <c r="H115" s="258"/>
+    </row>
+    <row r="116" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="154"/>
+      <c r="C116" s="147"/>
+      <c r="D116" s="147"/>
+      <c r="E116" s="147"/>
+      <c r="F116" s="147"/>
+      <c r="G116" s="225"/>
+    </row>
+    <row r="117" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="154"/>
+      <c r="C117" s="147"/>
+      <c r="D117" s="147"/>
+      <c r="E117" s="147"/>
+      <c r="F117" s="147"/>
+      <c r="G117" s="225"/>
+    </row>
+    <row r="118" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="154"/>
+      <c r="C118" s="147"/>
+      <c r="D118" s="147"/>
+      <c r="E118" s="147"/>
+      <c r="F118" s="147"/>
+      <c r="G118" s="225"/>
+    </row>
+    <row r="119" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="255" t="s">
+        <v>471</v>
+      </c>
+      <c r="C119" s="256"/>
+      <c r="D119" s="256"/>
+      <c r="E119" s="256"/>
+      <c r="F119" s="256"/>
+      <c r="G119" s="257"/>
+    </row>
+    <row r="120" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" s="248" t="s">
+        <v>301</v>
+      </c>
+      <c r="E120" s="246" t="s">
+        <v>302</v>
+      </c>
+      <c r="F120" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="G120" s="252" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="58"/>
+      <c r="C121" s="60"/>
+      <c r="D121" s="249"/>
+      <c r="E121" s="247"/>
+      <c r="F121" s="65"/>
+      <c r="G121" s="253"/>
+    </row>
+    <row r="122" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="154"/>
+      <c r="C122" s="147"/>
+      <c r="D122" s="147"/>
+      <c r="E122" s="147"/>
+      <c r="F122" s="147"/>
+      <c r="G122" s="225"/>
+    </row>
+    <row r="123" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="154"/>
+      <c r="C123" s="147"/>
+      <c r="D123" s="147"/>
+      <c r="E123" s="147"/>
+      <c r="F123" s="147"/>
+      <c r="G123" s="225"/>
+    </row>
+    <row r="124" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="154"/>
+      <c r="C124" s="147"/>
+      <c r="D124" s="147"/>
+      <c r="E124" s="147"/>
+      <c r="F124" s="147"/>
+      <c r="G124" s="225"/>
+    </row>
+    <row r="125" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="154"/>
+      <c r="C125" s="147"/>
+      <c r="D125" s="147"/>
+      <c r="E125" s="147"/>
+      <c r="F125" s="147"/>
+      <c r="G125" s="225"/>
+    </row>
+    <row r="126" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="154"/>
+      <c r="C126" s="147"/>
+      <c r="D126" s="147"/>
+      <c r="E126" s="147"/>
+      <c r="F126" s="147"/>
+      <c r="G126" s="225"/>
+    </row>
+    <row r="127" spans="1:8" s="235" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="243" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="220"/>
+      <c r="C127" s="221" t="s">
+        <v>435</v>
+      </c>
+      <c r="D127" s="221" t="s">
+        <v>434</v>
+      </c>
+      <c r="E127" s="221" t="s">
+        <v>429</v>
+      </c>
+      <c r="F127" s="221" t="s">
+        <v>433</v>
+      </c>
+      <c r="G127" s="223" t="s">
+        <v>432</v>
+      </c>
+      <c r="H127" s="245" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="235" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="243"/>
+      <c r="B128" s="220"/>
+      <c r="C128" s="222" t="s">
+        <v>431</v>
+      </c>
+      <c r="D128" s="222" t="s">
+        <v>430</v>
+      </c>
+      <c r="E128" s="222" t="s">
+        <v>429</v>
+      </c>
+      <c r="F128" s="222" t="s">
+        <v>428</v>
+      </c>
+      <c r="G128" s="224" t="s">
+        <v>427</v>
+      </c>
+      <c r="H128" s="245"/>
+    </row>
+    <row r="129" spans="1:8" s="235" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="243"/>
+      <c r="B129" s="153" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="153"/>
+      <c r="D129" s="153"/>
+      <c r="E129" s="153"/>
+      <c r="F129" s="153"/>
+      <c r="G129" s="153"/>
+      <c r="H129" s="245"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="243"/>
+      <c r="B130" s="154">
+        <v>0.5</v>
+      </c>
+      <c r="C130" s="147"/>
+      <c r="D130" s="144" t="s">
+        <v>441</v>
+      </c>
+      <c r="E130" s="147"/>
+      <c r="F130" s="147"/>
+      <c r="G130" s="225"/>
+      <c r="H130" s="245"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="243"/>
+      <c r="B131" s="154">
+        <v>0.50694444444444398</v>
+      </c>
+      <c r="C131" s="147"/>
+      <c r="D131" s="173"/>
+      <c r="E131" s="147"/>
+      <c r="F131" s="147"/>
+      <c r="G131" s="225"/>
+      <c r="H131" s="245"/>
+    </row>
+    <row r="132" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="243"/>
+      <c r="B132" s="154">
+        <v>0.51388888888888795</v>
+      </c>
+      <c r="C132" s="147"/>
+      <c r="D132" s="174"/>
+      <c r="E132" s="147"/>
+      <c r="F132" s="147"/>
+      <c r="G132" s="225"/>
+      <c r="H132" s="245"/>
+    </row>
+    <row r="133" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="243"/>
+      <c r="B133" s="154">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="C133" s="145" t="s">
+        <v>438</v>
+      </c>
+      <c r="D133" s="147"/>
+      <c r="E133" s="145" t="s">
         <v>463</v>
       </c>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="160"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="157">
-        <v>0.81944444444444398</v>
-      </c>
-      <c r="B16" s="165"/>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="160"/>
-    </row>
-    <row r="17" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="157">
-        <v>0.82638888888888895</v>
-      </c>
-      <c r="B17" s="166"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="160"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="157">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="B18" s="147" t="s">
-        <v>464</v>
-      </c>
-      <c r="D18" s="149"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="160"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="157">
-        <v>0.84027777777777701</v>
-      </c>
-      <c r="B19" s="165"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="160"/>
-    </row>
-    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="157">
-        <v>0.84722222222222199</v>
-      </c>
-      <c r="B20" s="166"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="160"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="157">
-        <v>0.85416666666666596</v>
-      </c>
-      <c r="B21" s="161"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="160"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="157">
-        <v>0.86111111111111105</v>
-      </c>
-      <c r="B22" s="162"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="160"/>
-    </row>
-    <row r="23" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="157">
-        <v>0.86805555555555503</v>
-      </c>
-      <c r="B23" s="163"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="167"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="157">
-        <v>0.875</v>
-      </c>
-      <c r="B24" s="149"/>
-      <c r="C24" s="149"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="229"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="149"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="149"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="229"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="149"/>
-      <c r="C26" s="149"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="229"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="149"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="229"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="149"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="229"/>
-    </row>
-    <row r="29" spans="1:6" s="235" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A29" s="232"/>
-      <c r="B29" s="233" t="s">
-        <v>435</v>
-      </c>
-      <c r="C29" s="233" t="s">
-        <v>434</v>
-      </c>
-      <c r="D29" s="233" t="s">
-        <v>429</v>
-      </c>
-      <c r="E29" s="233" t="s">
-        <v>433</v>
-      </c>
-      <c r="F29" s="234" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="235" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A30" s="232"/>
-      <c r="B30" s="236" t="s">
-        <v>431</v>
-      </c>
-      <c r="C30" s="236" t="s">
-        <v>430</v>
-      </c>
-      <c r="D30" s="236" t="s">
-        <v>429</v>
-      </c>
-      <c r="E30" s="236" t="s">
-        <v>428</v>
-      </c>
-      <c r="F30" s="237" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="235" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="238" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="238"/>
-      <c r="C31" s="238"/>
-      <c r="D31" s="238"/>
-      <c r="E31" s="238"/>
-      <c r="F31" s="238"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="157">
-        <v>0.375</v>
-      </c>
-      <c r="B32" s="149"/>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="154" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="157">
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="B33" s="149"/>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="230"/>
-    </row>
-    <row r="34" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="157">
-        <v>0.38888888888888901</v>
-      </c>
-      <c r="B34" s="149"/>
-      <c r="C34" s="149"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="230"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="157">
-        <v>0.39583333333333298</v>
-      </c>
-      <c r="B35" s="147" t="s">
-        <v>437</v>
-      </c>
-      <c r="C35" s="149"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="148" t="s">
+      <c r="F133" s="146" t="s">
         <v>449</v>
       </c>
-      <c r="F35" s="230"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="157">
-        <v>0.40277777777777801</v>
-      </c>
-      <c r="B36" s="165"/>
-      <c r="C36" s="149"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="230"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="157">
-        <v>0.40972222222222199</v>
-      </c>
-      <c r="B37" s="165"/>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="168"/>
-      <c r="F37" s="230"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="157">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="B38" s="165"/>
-      <c r="C38" s="149"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="168"/>
-      <c r="F38" s="230"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="157">
-        <v>0.42361111111111099</v>
-      </c>
-      <c r="B39" s="165"/>
-      <c r="C39" s="149"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="168"/>
-      <c r="F39" s="230"/>
-    </row>
-    <row r="40" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="157">
-        <v>0.43055555555555503</v>
-      </c>
-      <c r="B40" s="166"/>
-      <c r="C40" s="149"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="168"/>
-      <c r="F40" s="230"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="157">
-        <v>0.4375</v>
-      </c>
-      <c r="B41" s="149"/>
-      <c r="C41" s="147" t="s">
-        <v>460</v>
-      </c>
-      <c r="D41" s="149"/>
-      <c r="E41" s="168"/>
-      <c r="F41" s="230"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="157">
-        <v>0.44444444444444398</v>
-      </c>
-      <c r="B42" s="149"/>
-      <c r="C42" s="165"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="168"/>
-      <c r="F42" s="230"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="157">
-        <v>0.45138888888888901</v>
-      </c>
-      <c r="B43" s="149"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="168"/>
-      <c r="F43" s="230"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="157">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="B44" s="149"/>
-      <c r="C44" s="165"/>
-      <c r="D44" s="149"/>
-      <c r="E44" s="168"/>
-      <c r="F44" s="230"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="157">
-        <v>0.46527777777777801</v>
-      </c>
-      <c r="B45" s="149"/>
-      <c r="C45" s="165"/>
-      <c r="D45" s="149"/>
-      <c r="E45" s="168"/>
-      <c r="F45" s="230"/>
-    </row>
-    <row r="46" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="157">
-        <v>0.47222222222222199</v>
-      </c>
-      <c r="B46" s="149"/>
-      <c r="C46" s="166"/>
-      <c r="D46" s="149"/>
-      <c r="E46" s="169"/>
-      <c r="F46" s="230"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="157">
-        <v>0.47916666666666602</v>
-      </c>
-      <c r="B47" s="198" t="s">
-        <v>455</v>
-      </c>
-      <c r="C47" s="199"/>
-      <c r="D47" s="199"/>
-      <c r="E47" s="199"/>
-      <c r="F47" s="230"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="157">
-        <v>0.48611111111111099</v>
-      </c>
-      <c r="B48" s="200"/>
-      <c r="C48" s="201"/>
-      <c r="D48" s="201"/>
-      <c r="E48" s="201"/>
-      <c r="F48" s="230"/>
-    </row>
-    <row r="49" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="157">
-        <v>0.49305555555555503</v>
-      </c>
-      <c r="B49" s="202"/>
-      <c r="C49" s="203"/>
-      <c r="D49" s="203"/>
-      <c r="E49" s="203"/>
-      <c r="F49" s="230"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="157">
-        <v>0.5</v>
-      </c>
-      <c r="B50" s="147" t="s">
-        <v>436</v>
-      </c>
-      <c r="C50" s="149"/>
-      <c r="D50" s="146" t="s">
-        <v>446</v>
-      </c>
-      <c r="E50" s="148" t="s">
+      <c r="G133" s="151" t="s">
+        <v>453</v>
+      </c>
+      <c r="H133" s="245"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="243"/>
+      <c r="B134" s="154">
+        <v>0.52777777777777701</v>
+      </c>
+      <c r="C134" s="162"/>
+      <c r="D134" s="147"/>
+      <c r="E134" s="162"/>
+      <c r="F134" s="165"/>
+      <c r="G134" s="226"/>
+      <c r="H134" s="245"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="243"/>
+      <c r="B135" s="154">
+        <v>0.53472222222222199</v>
+      </c>
+      <c r="C135" s="162"/>
+      <c r="D135" s="147"/>
+      <c r="E135" s="162"/>
+      <c r="F135" s="165"/>
+      <c r="G135" s="226"/>
+      <c r="H135" s="245"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="243"/>
+      <c r="B136" s="154">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="C136" s="162"/>
+      <c r="D136" s="147"/>
+      <c r="E136" s="162"/>
+      <c r="F136" s="165"/>
+      <c r="G136" s="226"/>
+      <c r="H136" s="245"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="243"/>
+      <c r="B137" s="154">
+        <v>0.54861111111111005</v>
+      </c>
+      <c r="C137" s="162"/>
+      <c r="D137" s="147"/>
+      <c r="E137" s="162"/>
+      <c r="F137" s="165"/>
+      <c r="G137" s="226"/>
+      <c r="H137" s="245"/>
+    </row>
+    <row r="138" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="243"/>
+      <c r="B138" s="154">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="C138" s="163"/>
+      <c r="D138" s="147"/>
+      <c r="E138" s="163"/>
+      <c r="F138" s="165"/>
+      <c r="G138" s="226"/>
+      <c r="H138" s="245"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="243"/>
+      <c r="B139" s="154">
+        <v>0.562499999999999</v>
+      </c>
+      <c r="C139" s="147"/>
+      <c r="D139" s="147"/>
+      <c r="E139" s="144" t="s">
+        <v>443</v>
+      </c>
+      <c r="F139" s="165"/>
+      <c r="G139" s="226"/>
+      <c r="H139" s="245"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="243"/>
+      <c r="B140" s="154">
+        <v>0.56944444444444398</v>
+      </c>
+      <c r="C140" s="147"/>
+      <c r="D140" s="147"/>
+      <c r="E140" s="173"/>
+      <c r="F140" s="165"/>
+      <c r="G140" s="226"/>
+      <c r="H140" s="245"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="243"/>
+      <c r="B141" s="154">
+        <v>0.57638888888888795</v>
+      </c>
+      <c r="C141" s="147"/>
+      <c r="D141" s="147"/>
+      <c r="E141" s="173"/>
+      <c r="F141" s="165"/>
+      <c r="G141" s="226"/>
+      <c r="H141" s="245"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="243"/>
+      <c r="B142" s="154">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C142" s="147"/>
+      <c r="D142" s="147"/>
+      <c r="E142" s="173"/>
+      <c r="F142" s="165"/>
+      <c r="G142" s="226"/>
+      <c r="H142" s="245"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="243"/>
+      <c r="B143" s="154">
+        <v>0.59027777777777701</v>
+      </c>
+      <c r="C143" s="147"/>
+      <c r="D143" s="147"/>
+      <c r="E143" s="173"/>
+      <c r="F143" s="165"/>
+      <c r="G143" s="226"/>
+      <c r="H143" s="245"/>
+    </row>
+    <row r="144" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="243"/>
+      <c r="B144" s="154">
+        <v>0.59722222222222099</v>
+      </c>
+      <c r="C144" s="147"/>
+      <c r="D144" s="147"/>
+      <c r="E144" s="173"/>
+      <c r="F144" s="165"/>
+      <c r="G144" s="226"/>
+      <c r="H144" s="245"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="243"/>
+      <c r="B145" s="154">
+        <v>0.60416666666666596</v>
+      </c>
+      <c r="C145" s="167" t="s">
+        <v>451</v>
+      </c>
+      <c r="D145" s="168"/>
+      <c r="E145" s="168"/>
+      <c r="F145" s="168"/>
+      <c r="G145" s="226"/>
+      <c r="H145" s="245"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="243"/>
+      <c r="B146" s="154">
+        <v>0.61111111111111005</v>
+      </c>
+      <c r="C146" s="169"/>
+      <c r="D146" s="170"/>
+      <c r="E146" s="170"/>
+      <c r="F146" s="170"/>
+      <c r="G146" s="226"/>
+      <c r="H146" s="245"/>
+    </row>
+    <row r="147" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="243"/>
+      <c r="B147" s="154">
+        <v>0.61805555555555503</v>
+      </c>
+      <c r="C147" s="171"/>
+      <c r="D147" s="172"/>
+      <c r="E147" s="172"/>
+      <c r="F147" s="172"/>
+      <c r="G147" s="236"/>
+      <c r="H147" s="245"/>
+    </row>
+    <row r="148" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="243"/>
+      <c r="B148" s="154">
+        <v>0.624999999999999</v>
+      </c>
+      <c r="C148" s="147"/>
+      <c r="D148" s="250" t="s">
+        <v>442</v>
+      </c>
+      <c r="E148" s="148" t="s">
+        <v>444</v>
+      </c>
+      <c r="F148" s="149" t="s">
         <v>450</v>
       </c>
-      <c r="F50" s="230"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="157">
-        <v>0.50694444444444398</v>
-      </c>
-      <c r="B51" s="165"/>
-      <c r="C51" s="149"/>
-      <c r="D51" s="176"/>
-      <c r="E51" s="168"/>
-      <c r="F51" s="230"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="157">
-        <v>0.51388888888888795</v>
-      </c>
-      <c r="B52" s="165"/>
-      <c r="C52" s="149"/>
-      <c r="D52" s="176"/>
-      <c r="E52" s="168"/>
-      <c r="F52" s="230"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="157">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="B53" s="165"/>
-      <c r="C53" s="149"/>
-      <c r="D53" s="176"/>
-      <c r="E53" s="168"/>
-      <c r="F53" s="230"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="157">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="B54" s="165"/>
-      <c r="C54" s="149"/>
-      <c r="D54" s="176"/>
-      <c r="E54" s="168"/>
-      <c r="F54" s="230"/>
-    </row>
-    <row r="55" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="157">
-        <v>0.53472222222222199</v>
-      </c>
-      <c r="B55" s="166"/>
-      <c r="C55" s="149"/>
-      <c r="D55" s="177"/>
-      <c r="E55" s="169"/>
-      <c r="F55" s="230"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="157">
-        <v>0.54166666666666596</v>
-      </c>
-      <c r="B56" s="199" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="199"/>
-      <c r="D56" s="199"/>
-      <c r="E56" s="204"/>
-      <c r="F56" s="230"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="157">
-        <v>0.54861111111111005</v>
-      </c>
-      <c r="B57" s="201"/>
-      <c r="C57" s="201"/>
-      <c r="D57" s="201"/>
-      <c r="E57" s="205"/>
-      <c r="F57" s="230"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="157">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="B58" s="201"/>
-      <c r="C58" s="201"/>
-      <c r="D58" s="201"/>
-      <c r="E58" s="205"/>
-      <c r="F58" s="230"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="157">
-        <v>0.562499999999999</v>
-      </c>
-      <c r="B59" s="201"/>
-      <c r="C59" s="201"/>
-      <c r="D59" s="201"/>
-      <c r="E59" s="205"/>
-      <c r="F59" s="230"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="157">
-        <v>0.56944444444444398</v>
-      </c>
-      <c r="B60" s="201"/>
-      <c r="C60" s="201"/>
-      <c r="D60" s="201"/>
-      <c r="E60" s="205"/>
-      <c r="F60" s="230"/>
-    </row>
-    <row r="61" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="157">
-        <v>0.57638888888888795</v>
-      </c>
-      <c r="B61" s="201"/>
-      <c r="C61" s="201"/>
-      <c r="D61" s="201"/>
-      <c r="E61" s="205"/>
-      <c r="F61" s="230"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="157">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="B62" s="149"/>
-      <c r="C62" s="150" t="s">
-        <v>440</v>
-      </c>
-      <c r="D62" s="147" t="s">
-        <v>441</v>
-      </c>
-      <c r="E62" s="148" t="s">
-        <v>451</v>
-      </c>
-      <c r="F62" s="230"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="157">
-        <v>0.59027777777777701</v>
-      </c>
-      <c r="B63" s="149"/>
-      <c r="C63" s="152"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="168"/>
-      <c r="F63" s="230"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="157">
-        <v>0.59722222222222099</v>
-      </c>
-      <c r="B64" s="149"/>
-      <c r="C64" s="152"/>
-      <c r="D64" s="165"/>
-      <c r="E64" s="168"/>
-      <c r="F64" s="230"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="157">
-        <v>0.60416666666666596</v>
-      </c>
-      <c r="B65" s="149"/>
-      <c r="C65" s="152"/>
-      <c r="D65" s="165"/>
-      <c r="E65" s="168"/>
-      <c r="F65" s="230"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="157">
-        <v>0.61111111111111005</v>
-      </c>
-      <c r="B66" s="149"/>
-      <c r="C66" s="152"/>
-      <c r="D66" s="165"/>
-      <c r="E66" s="168"/>
-      <c r="F66" s="230"/>
-    </row>
-    <row r="67" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="157">
-        <v>0.61805555555555503</v>
-      </c>
-      <c r="B67" s="149"/>
-      <c r="C67" s="152"/>
-      <c r="D67" s="166"/>
-      <c r="E67" s="169"/>
-      <c r="F67" s="230"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="157">
-        <v>0.624999999999999</v>
-      </c>
-      <c r="B68" s="149"/>
-      <c r="C68" s="168"/>
-      <c r="D68" s="150" t="s">
-        <v>442</v>
-      </c>
-      <c r="E68" s="148" t="s">
-        <v>452</v>
-      </c>
-      <c r="F68" s="230"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="157">
+      <c r="G148" s="225"/>
+      <c r="H148" s="245"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="243"/>
+      <c r="B149" s="154">
         <v>0.63194444444444398</v>
       </c>
-      <c r="B69" s="149"/>
-      <c r="C69" s="168"/>
-      <c r="D69" s="152"/>
-      <c r="E69" s="168"/>
-      <c r="F69" s="230"/>
-    </row>
-    <row r="70" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="157">
+      <c r="C149" s="147"/>
+      <c r="D149" s="250"/>
+      <c r="E149" s="149"/>
+      <c r="F149" s="149"/>
+      <c r="G149" s="225"/>
+      <c r="H149" s="245"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="243"/>
+      <c r="B150" s="154">
         <v>0.63888888888888795</v>
       </c>
-      <c r="B70" s="149"/>
-      <c r="C70" s="169"/>
-      <c r="D70" s="152"/>
-      <c r="E70" s="168"/>
-      <c r="F70" s="230"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="157">
+      <c r="C150" s="147"/>
+      <c r="D150" s="250"/>
+      <c r="E150" s="149"/>
+      <c r="F150" s="149"/>
+      <c r="G150" s="225"/>
+      <c r="H150" s="245"/>
+    </row>
+    <row r="151" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="243"/>
+      <c r="B151" s="154">
         <v>0.64583333333333204</v>
       </c>
-      <c r="B71" s="242" t="s">
-        <v>465</v>
-      </c>
-      <c r="C71" s="149"/>
-      <c r="D71" s="152"/>
-      <c r="E71" s="168"/>
-      <c r="F71" s="230"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="157">
+      <c r="C151" s="147"/>
+      <c r="D151" s="250"/>
+      <c r="E151" s="149"/>
+      <c r="F151" s="149"/>
+      <c r="G151" s="225"/>
+      <c r="H151" s="245"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="243"/>
+      <c r="B152" s="154">
         <v>0.65277777777777701</v>
       </c>
-      <c r="B72" s="243"/>
-      <c r="C72" s="149"/>
-      <c r="D72" s="152"/>
-      <c r="E72" s="168"/>
-      <c r="F72" s="230"/>
-    </row>
-    <row r="73" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="157">
+      <c r="C152" s="147"/>
+      <c r="D152" s="250"/>
+      <c r="E152" s="149"/>
+      <c r="F152" s="149"/>
+      <c r="G152" s="225"/>
+      <c r="H152" s="245"/>
+    </row>
+    <row r="153" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="243"/>
+      <c r="B153" s="154">
         <v>0.65972222222222099</v>
       </c>
-      <c r="B73" s="243"/>
-      <c r="C73" s="149"/>
-      <c r="D73" s="178"/>
-      <c r="E73" s="168"/>
-      <c r="F73" s="230"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="157">
+      <c r="C153" s="147"/>
+      <c r="D153" s="251"/>
+      <c r="E153" s="175"/>
+      <c r="F153" s="149"/>
+      <c r="G153" s="225"/>
+      <c r="H153" s="245"/>
+    </row>
+    <row r="154" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="243"/>
+      <c r="B154" s="154">
         <v>0.66666666666666596</v>
       </c>
-      <c r="B74" s="243"/>
-      <c r="C74" s="149"/>
-      <c r="D74" s="149"/>
-      <c r="E74" s="168"/>
-      <c r="F74" s="230"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="157">
+      <c r="C154" s="145" t="s">
+        <v>457</v>
+      </c>
+      <c r="D154" s="147"/>
+      <c r="E154" s="147"/>
+      <c r="F154" s="149"/>
+      <c r="G154" s="225"/>
+      <c r="H154" s="245"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="243"/>
+      <c r="B155" s="154">
         <v>0.67361111111111005</v>
       </c>
-      <c r="B75" s="243"/>
-      <c r="C75" s="149"/>
-      <c r="D75" s="149"/>
-      <c r="E75" s="168"/>
-      <c r="F75" s="230"/>
-    </row>
-    <row r="76" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="157">
+      <c r="C155" s="162"/>
+      <c r="D155" s="147"/>
+      <c r="E155" s="147"/>
+      <c r="F155" s="149"/>
+      <c r="G155" s="225"/>
+      <c r="H155" s="245"/>
+    </row>
+    <row r="156" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="243"/>
+      <c r="B156" s="154">
         <v>0.68055555555555403</v>
       </c>
-      <c r="B76" s="243"/>
-      <c r="C76" s="149"/>
-      <c r="D76" s="149"/>
-      <c r="E76" s="168"/>
-      <c r="F76" s="230"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="157">
+      <c r="C156" s="162"/>
+      <c r="D156" s="147"/>
+      <c r="E156" s="147"/>
+      <c r="F156" s="175"/>
+      <c r="G156" s="225"/>
+      <c r="H156" s="245"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="243"/>
+      <c r="B157" s="154">
         <v>0.687499999999999</v>
       </c>
-      <c r="B77" s="179" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="180"/>
-      <c r="D77" s="180"/>
-      <c r="E77" s="180"/>
-      <c r="F77" s="181"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="157">
+      <c r="C157" s="162"/>
+      <c r="D157" s="185" t="s">
+        <v>456</v>
+      </c>
+      <c r="E157" s="186"/>
+      <c r="F157" s="186"/>
+      <c r="G157" s="187"/>
+      <c r="H157" s="245"/>
+    </row>
+    <row r="158" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="243"/>
+      <c r="B158" s="154">
         <v>0.69444444444444298</v>
       </c>
-      <c r="B78" s="182"/>
-      <c r="C78" s="183"/>
-      <c r="D78" s="183"/>
-      <c r="E78" s="183"/>
-      <c r="F78" s="184"/>
-    </row>
-    <row r="79" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="157">
+      <c r="C158" s="162"/>
+      <c r="D158" s="188"/>
+      <c r="E158" s="189"/>
+      <c r="F158" s="189"/>
+      <c r="G158" s="190"/>
+      <c r="H158" s="245"/>
+    </row>
+    <row r="159" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="243"/>
+      <c r="B159" s="154">
         <v>0.70138888888888795</v>
       </c>
-      <c r="B79" s="185"/>
-      <c r="C79" s="186"/>
-      <c r="D79" s="186"/>
-      <c r="E79" s="186"/>
-      <c r="F79" s="187"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="157">
+      <c r="C159" s="237"/>
+      <c r="D159" s="191"/>
+      <c r="E159" s="192"/>
+      <c r="F159" s="192"/>
+      <c r="G159" s="193"/>
+      <c r="H159" s="245"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="243"/>
+      <c r="B160" s="154">
         <v>0.70833333333333204</v>
       </c>
-      <c r="B80" s="206" t="s">
-        <v>456</v>
-      </c>
-      <c r="C80" s="207"/>
-      <c r="D80" s="207"/>
-      <c r="E80" s="207"/>
-      <c r="F80" s="208"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="157">
+      <c r="C160" s="241" t="s">
+        <v>467</v>
+      </c>
+      <c r="D160" s="241"/>
+      <c r="E160" s="241"/>
+      <c r="F160" s="241"/>
+      <c r="G160" s="241"/>
+      <c r="H160" s="245"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="243"/>
+      <c r="B161" s="154">
         <v>0.71527777777777701</v>
       </c>
-      <c r="B81" s="209"/>
-      <c r="C81" s="210"/>
-      <c r="D81" s="210"/>
-      <c r="E81" s="210"/>
-      <c r="F81" s="211"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="157">
+      <c r="C161" s="240"/>
+      <c r="D161" s="240"/>
+      <c r="E161" s="240"/>
+      <c r="F161" s="240"/>
+      <c r="G161" s="240"/>
+      <c r="H161" s="245"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="243"/>
+      <c r="B162" s="154">
         <v>0.72222222222222099</v>
       </c>
-      <c r="B82" s="209"/>
-      <c r="C82" s="210"/>
-      <c r="D82" s="210"/>
-      <c r="E82" s="210"/>
-      <c r="F82" s="211"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="157">
+      <c r="C162" s="240"/>
+      <c r="D162" s="240"/>
+      <c r="E162" s="240"/>
+      <c r="F162" s="240"/>
+      <c r="G162" s="240"/>
+      <c r="H162" s="245"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="243"/>
+      <c r="B163" s="154">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B83" s="209"/>
-      <c r="C83" s="210"/>
-      <c r="D83" s="210"/>
-      <c r="E83" s="210"/>
-      <c r="F83" s="211"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="157">
+      <c r="C163" s="240"/>
+      <c r="D163" s="240"/>
+      <c r="E163" s="240"/>
+      <c r="F163" s="240"/>
+      <c r="G163" s="240"/>
+      <c r="H163" s="245"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="243"/>
+      <c r="B164" s="154">
         <v>0.73611111111111005</v>
       </c>
-      <c r="B84" s="209"/>
-      <c r="C84" s="210"/>
-      <c r="D84" s="210"/>
-      <c r="E84" s="210"/>
-      <c r="F84" s="211"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="157">
+      <c r="C164" s="240"/>
+      <c r="D164" s="240"/>
+      <c r="E164" s="240"/>
+      <c r="F164" s="240"/>
+      <c r="G164" s="240"/>
+      <c r="H164" s="245"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="243"/>
+      <c r="B165" s="154">
         <v>0.74305555555555403</v>
       </c>
-      <c r="B85" s="209"/>
-      <c r="C85" s="210"/>
-      <c r="D85" s="210"/>
-      <c r="E85" s="210"/>
-      <c r="F85" s="211"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="157">
+      <c r="C165" s="240"/>
+      <c r="D165" s="240"/>
+      <c r="E165" s="240"/>
+      <c r="F165" s="240"/>
+      <c r="G165" s="240"/>
+      <c r="H165" s="245"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="243"/>
+      <c r="B166" s="154">
         <v>0.749999999999999</v>
       </c>
-      <c r="B86" s="209"/>
-      <c r="C86" s="210"/>
-      <c r="D86" s="210"/>
-      <c r="E86" s="210"/>
-      <c r="F86" s="211"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="157">
+      <c r="C166" s="240"/>
+      <c r="D166" s="240"/>
+      <c r="E166" s="240"/>
+      <c r="F166" s="240"/>
+      <c r="G166" s="240"/>
+      <c r="H166" s="245"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="243"/>
+      <c r="B167" s="154">
         <v>0.75694444444444298</v>
       </c>
-      <c r="B87" s="209"/>
-      <c r="C87" s="210"/>
-      <c r="D87" s="210"/>
-      <c r="E87" s="210"/>
-      <c r="F87" s="211"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="157">
+      <c r="C167" s="240"/>
+      <c r="D167" s="240"/>
+      <c r="E167" s="240"/>
+      <c r="F167" s="240"/>
+      <c r="G167" s="240"/>
+      <c r="H167" s="245"/>
+    </row>
+    <row r="168" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="243"/>
+      <c r="B168" s="154">
         <v>0.76388888888888795</v>
       </c>
-      <c r="B88" s="209"/>
-      <c r="C88" s="210"/>
-      <c r="D88" s="210"/>
-      <c r="E88" s="210"/>
-      <c r="F88" s="211"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="157">
+      <c r="C168" s="242"/>
+      <c r="D168" s="242"/>
+      <c r="E168" s="242"/>
+      <c r="F168" s="242"/>
+      <c r="G168" s="242"/>
+      <c r="H168" s="245"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="243"/>
+      <c r="B169" s="154">
         <v>0.77083333333333204</v>
       </c>
-      <c r="B89" s="209"/>
-      <c r="C89" s="210"/>
-      <c r="D89" s="210"/>
-      <c r="E89" s="210"/>
-      <c r="F89" s="211"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="157">
+      <c r="C169" s="202" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="203"/>
+      <c r="E169" s="203"/>
+      <c r="F169" s="203"/>
+      <c r="G169" s="204"/>
+      <c r="H169" s="245"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="243"/>
+      <c r="B170" s="154">
         <v>0.77777777777777601</v>
       </c>
-      <c r="B90" s="209"/>
-      <c r="C90" s="210"/>
-      <c r="D90" s="210"/>
-      <c r="E90" s="210"/>
-      <c r="F90" s="211"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="157">
+      <c r="C170" s="205"/>
+      <c r="D170" s="206"/>
+      <c r="E170" s="206"/>
+      <c r="F170" s="206"/>
+      <c r="G170" s="207"/>
+      <c r="H170" s="245"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="243"/>
+      <c r="B171" s="154">
         <v>0.78472222222222099</v>
       </c>
-      <c r="B91" s="209"/>
-      <c r="C91" s="210"/>
-      <c r="D91" s="210"/>
-      <c r="E91" s="210"/>
-      <c r="F91" s="211"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="157">
+      <c r="C171" s="205"/>
+      <c r="D171" s="206"/>
+      <c r="E171" s="206"/>
+      <c r="F171" s="206"/>
+      <c r="G171" s="207"/>
+      <c r="H171" s="245"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="243"/>
+      <c r="B172" s="154">
         <v>0.79166666666666496</v>
       </c>
-      <c r="B92" s="209"/>
-      <c r="C92" s="210"/>
-      <c r="D92" s="210"/>
-      <c r="E92" s="210"/>
-      <c r="F92" s="211"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="157">
+      <c r="C172" s="205"/>
+      <c r="D172" s="206"/>
+      <c r="E172" s="206"/>
+      <c r="F172" s="206"/>
+      <c r="G172" s="207"/>
+      <c r="H172" s="245"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="243"/>
+      <c r="B173" s="154">
         <v>0.79861111111111005</v>
       </c>
-      <c r="B93" s="209"/>
-      <c r="C93" s="210"/>
-      <c r="D93" s="210"/>
-      <c r="E93" s="210"/>
-      <c r="F93" s="211"/>
-    </row>
-    <row r="94" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="157">
+      <c r="C173" s="205"/>
+      <c r="D173" s="206"/>
+      <c r="E173" s="206"/>
+      <c r="F173" s="206"/>
+      <c r="G173" s="207"/>
+      <c r="H173" s="245"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="243"/>
+      <c r="B174" s="154">
         <v>0.80555555555555403</v>
       </c>
-      <c r="B94" s="212"/>
-      <c r="C94" s="213"/>
-      <c r="D94" s="213"/>
-      <c r="E94" s="213"/>
-      <c r="F94" s="214"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="157">
+      <c r="C174" s="205"/>
+      <c r="D174" s="206"/>
+      <c r="E174" s="206"/>
+      <c r="F174" s="206"/>
+      <c r="G174" s="207"/>
+      <c r="H174" s="245"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="243"/>
+      <c r="B175" s="154">
         <v>0.812499999999998</v>
       </c>
-      <c r="B95" s="215" t="s">
-        <v>457</v>
-      </c>
-      <c r="C95" s="216"/>
-      <c r="D95" s="216"/>
-      <c r="E95" s="216"/>
-      <c r="F95" s="217"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="157">
+      <c r="C175" s="205"/>
+      <c r="D175" s="206"/>
+      <c r="E175" s="206"/>
+      <c r="F175" s="206"/>
+      <c r="G175" s="207"/>
+      <c r="H175" s="245"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="243"/>
+      <c r="B176" s="154">
         <v>0.81944444444444298</v>
       </c>
-      <c r="B96" s="218"/>
-      <c r="C96" s="219"/>
-      <c r="D96" s="219"/>
-      <c r="E96" s="219"/>
-      <c r="F96" s="220"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="157">
+      <c r="C176" s="205"/>
+      <c r="D176" s="206"/>
+      <c r="E176" s="206"/>
+      <c r="F176" s="206"/>
+      <c r="G176" s="207"/>
+      <c r="H176" s="245"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="243"/>
+      <c r="B177" s="154">
         <v>0.82638888888888695</v>
       </c>
-      <c r="B97" s="218"/>
-      <c r="C97" s="219"/>
-      <c r="D97" s="219"/>
-      <c r="E97" s="219"/>
-      <c r="F97" s="220"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="157">
+      <c r="C177" s="205"/>
+      <c r="D177" s="206"/>
+      <c r="E177" s="206"/>
+      <c r="F177" s="206"/>
+      <c r="G177" s="207"/>
+      <c r="H177" s="245"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="243"/>
+      <c r="B178" s="154">
         <v>0.83333333333333204</v>
       </c>
-      <c r="B98" s="218"/>
-      <c r="C98" s="219"/>
-      <c r="D98" s="219"/>
-      <c r="E98" s="219"/>
-      <c r="F98" s="220"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="157">
+      <c r="C178" s="205"/>
+      <c r="D178" s="206"/>
+      <c r="E178" s="206"/>
+      <c r="F178" s="206"/>
+      <c r="G178" s="207"/>
+      <c r="H178" s="245"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="243"/>
+      <c r="B179" s="154">
         <v>0.84027777777777601</v>
       </c>
-      <c r="B99" s="218"/>
-      <c r="C99" s="219"/>
-      <c r="D99" s="219"/>
-      <c r="E99" s="219"/>
-      <c r="F99" s="220"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="157">
+      <c r="C179" s="205"/>
+      <c r="D179" s="206"/>
+      <c r="E179" s="206"/>
+      <c r="F179" s="206"/>
+      <c r="G179" s="207"/>
+      <c r="H179" s="245"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="243"/>
+      <c r="B180" s="154">
         <v>0.84722222222222099</v>
       </c>
-      <c r="B100" s="218"/>
-      <c r="C100" s="219"/>
-      <c r="D100" s="219"/>
-      <c r="E100" s="219"/>
-      <c r="F100" s="220"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="157">
+      <c r="C180" s="205"/>
+      <c r="D180" s="206"/>
+      <c r="E180" s="206"/>
+      <c r="F180" s="206"/>
+      <c r="G180" s="207"/>
+      <c r="H180" s="245"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="243"/>
+      <c r="B181" s="154">
         <v>0.85416666666666496</v>
       </c>
-      <c r="B101" s="218"/>
-      <c r="C101" s="219"/>
-      <c r="D101" s="219"/>
-      <c r="E101" s="219"/>
-      <c r="F101" s="220"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="157">
+      <c r="C181" s="205"/>
+      <c r="D181" s="206"/>
+      <c r="E181" s="206"/>
+      <c r="F181" s="206"/>
+      <c r="G181" s="207"/>
+      <c r="H181" s="245"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="243"/>
+      <c r="B182" s="154">
         <v>0.86111111111110905</v>
       </c>
-      <c r="B102" s="218"/>
-      <c r="C102" s="219"/>
-      <c r="D102" s="219"/>
-      <c r="E102" s="219"/>
-      <c r="F102" s="220"/>
-    </row>
-    <row r="103" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="157">
+      <c r="C182" s="205"/>
+      <c r="D182" s="206"/>
+      <c r="E182" s="206"/>
+      <c r="F182" s="206"/>
+      <c r="G182" s="207"/>
+      <c r="H182" s="245"/>
+    </row>
+    <row r="183" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="243"/>
+      <c r="B183" s="154">
         <v>0.86805555555555403</v>
       </c>
-      <c r="B103" s="221"/>
-      <c r="C103" s="222"/>
-      <c r="D103" s="222"/>
-      <c r="E103" s="222"/>
-      <c r="F103" s="223"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="157">
-        <v>0.874999999999998</v>
-      </c>
-      <c r="B104" s="149"/>
-      <c r="C104" s="149"/>
-      <c r="D104" s="149"/>
-      <c r="E104" s="149"/>
-      <c r="F104" s="229"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="157"/>
-      <c r="B105" s="149"/>
-      <c r="C105" s="149"/>
-      <c r="D105" s="149"/>
-      <c r="E105" s="149"/>
-      <c r="F105" s="229"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="157"/>
-      <c r="B106" s="149"/>
-      <c r="C106" s="149"/>
-      <c r="D106" s="149"/>
-      <c r="E106" s="149"/>
-      <c r="F106" s="229"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="157"/>
-      <c r="B107" s="149"/>
-      <c r="C107" s="149"/>
-      <c r="D107" s="149"/>
-      <c r="E107" s="149"/>
-      <c r="F107" s="229"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="157"/>
-      <c r="B108" s="149"/>
-      <c r="C108" s="149"/>
-      <c r="D108" s="149"/>
-      <c r="E108" s="149"/>
-      <c r="F108" s="229"/>
-    </row>
-    <row r="109" spans="1:6" s="239" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="224"/>
-      <c r="B109" s="225" t="s">
-        <v>435</v>
-      </c>
-      <c r="C109" s="225" t="s">
-        <v>434</v>
-      </c>
-      <c r="D109" s="225" t="s">
-        <v>429</v>
-      </c>
-      <c r="E109" s="225" t="s">
-        <v>433</v>
-      </c>
-      <c r="F109" s="227" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" s="239" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="224"/>
-      <c r="B110" s="226" t="s">
-        <v>431</v>
-      </c>
-      <c r="C110" s="226" t="s">
-        <v>430</v>
-      </c>
-      <c r="D110" s="226" t="s">
-        <v>429</v>
-      </c>
-      <c r="E110" s="226" t="s">
-        <v>428</v>
-      </c>
-      <c r="F110" s="228" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" s="239" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="156" t="s">
-        <v>2</v>
-      </c>
-      <c r="B111" s="156"/>
-      <c r="C111" s="156"/>
-      <c r="D111" s="156"/>
-      <c r="E111" s="156"/>
-      <c r="F111" s="156"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="157">
-        <v>0.5</v>
-      </c>
-      <c r="B112" s="149"/>
-      <c r="C112" s="146" t="s">
-        <v>443</v>
-      </c>
-      <c r="D112" s="149"/>
-      <c r="E112" s="149"/>
-      <c r="F112" s="229"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="157">
-        <v>0.50694444444444398</v>
-      </c>
-      <c r="B113" s="149"/>
-      <c r="C113" s="176"/>
-      <c r="D113" s="149"/>
-      <c r="E113" s="149"/>
-      <c r="F113" s="229"/>
-    </row>
-    <row r="114" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="157">
-        <v>0.51388888888888795</v>
-      </c>
-      <c r="B114" s="149"/>
-      <c r="C114" s="177"/>
-      <c r="D114" s="149"/>
-      <c r="E114" s="149"/>
-      <c r="F114" s="229"/>
-    </row>
-    <row r="115" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="157">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="B115" s="147" t="s">
-        <v>438</v>
-      </c>
-      <c r="C115" s="149"/>
-      <c r="D115" s="147" t="s">
-        <v>444</v>
-      </c>
-      <c r="E115" s="148" t="s">
-        <v>453</v>
-      </c>
-      <c r="F115" s="154" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="157">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="B116" s="165"/>
-      <c r="C116" s="149"/>
-      <c r="D116" s="165"/>
-      <c r="E116" s="168"/>
-      <c r="F116" s="230"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="157">
-        <v>0.53472222222222199</v>
-      </c>
-      <c r="B117" s="165"/>
-      <c r="C117" s="149"/>
-      <c r="D117" s="165"/>
-      <c r="E117" s="168"/>
-      <c r="F117" s="230"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="157">
-        <v>0.54166666666666596</v>
-      </c>
-      <c r="B118" s="165"/>
-      <c r="C118" s="149"/>
-      <c r="D118" s="165"/>
-      <c r="E118" s="168"/>
-      <c r="F118" s="230"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="157">
-        <v>0.54861111111111005</v>
-      </c>
-      <c r="B119" s="165"/>
-      <c r="C119" s="149"/>
-      <c r="D119" s="165"/>
-      <c r="E119" s="168"/>
-      <c r="F119" s="230"/>
-    </row>
-    <row r="120" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="157">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="B120" s="166"/>
-      <c r="C120" s="149"/>
-      <c r="D120" s="166"/>
-      <c r="E120" s="168"/>
-      <c r="F120" s="230"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="157">
-        <v>0.562499999999999</v>
-      </c>
-      <c r="B121" s="149"/>
-      <c r="C121" s="149"/>
-      <c r="D121" s="146" t="s">
-        <v>447</v>
-      </c>
-      <c r="E121" s="168"/>
-      <c r="F121" s="230"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="157">
-        <v>0.56944444444444398</v>
-      </c>
-      <c r="B122" s="149"/>
-      <c r="C122" s="149"/>
-      <c r="D122" s="176"/>
-      <c r="E122" s="168"/>
-      <c r="F122" s="230"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="157">
-        <v>0.57638888888888795</v>
-      </c>
-      <c r="B123" s="149"/>
-      <c r="C123" s="149"/>
-      <c r="D123" s="176"/>
-      <c r="E123" s="168"/>
-      <c r="F123" s="230"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="157">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="B124" s="149"/>
-      <c r="C124" s="149"/>
-      <c r="D124" s="176"/>
-      <c r="E124" s="168"/>
-      <c r="F124" s="230"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="157">
-        <v>0.59027777777777701</v>
-      </c>
-      <c r="B125" s="149"/>
-      <c r="C125" s="149"/>
-      <c r="D125" s="176"/>
-      <c r="E125" s="168"/>
-      <c r="F125" s="230"/>
-    </row>
-    <row r="126" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="157">
-        <v>0.59722222222222099</v>
-      </c>
-      <c r="B126" s="149"/>
-      <c r="C126" s="149"/>
-      <c r="D126" s="176"/>
-      <c r="E126" s="168"/>
-      <c r="F126" s="230"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="157">
-        <v>0.60416666666666596</v>
-      </c>
-      <c r="B127" s="170" t="s">
-        <v>455</v>
-      </c>
-      <c r="C127" s="171"/>
-      <c r="D127" s="171"/>
-      <c r="E127" s="171"/>
-      <c r="F127" s="230"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="157">
-        <v>0.61111111111111005</v>
-      </c>
-      <c r="B128" s="172"/>
-      <c r="C128" s="173"/>
-      <c r="D128" s="173"/>
-      <c r="E128" s="173"/>
-      <c r="F128" s="230"/>
-    </row>
-    <row r="129" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="157">
-        <v>0.61805555555555503</v>
-      </c>
-      <c r="B129" s="174"/>
-      <c r="C129" s="175"/>
-      <c r="D129" s="175"/>
-      <c r="E129" s="175"/>
-      <c r="F129" s="240"/>
-    </row>
-    <row r="130" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="157">
-        <v>0.624999999999999</v>
-      </c>
-      <c r="B130" s="149"/>
-      <c r="C130" s="151" t="s">
-        <v>445</v>
-      </c>
-      <c r="D130" s="150" t="s">
-        <v>448</v>
-      </c>
-      <c r="E130" s="152" t="s">
-        <v>454</v>
-      </c>
-      <c r="F130" s="229"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="157">
-        <v>0.63194444444444398</v>
-      </c>
-      <c r="B131" s="149"/>
-      <c r="C131" s="151"/>
-      <c r="D131" s="152"/>
-      <c r="E131" s="152"/>
-      <c r="F131" s="229"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="157">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="B132" s="149"/>
-      <c r="C132" s="151"/>
-      <c r="D132" s="152"/>
-      <c r="E132" s="152"/>
-      <c r="F132" s="229"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="157">
-        <v>0.64583333333333204</v>
-      </c>
-      <c r="B133" s="149"/>
-      <c r="C133" s="151"/>
-      <c r="D133" s="152"/>
-      <c r="E133" s="152"/>
-      <c r="F133" s="229"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="157">
-        <v>0.65277777777777701</v>
-      </c>
-      <c r="B134" s="149"/>
-      <c r="C134" s="151"/>
-      <c r="D134" s="152"/>
-      <c r="E134" s="152"/>
-      <c r="F134" s="229"/>
-    </row>
-    <row r="135" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="157">
-        <v>0.65972222222222099</v>
-      </c>
-      <c r="B135" s="149"/>
-      <c r="C135" s="188"/>
-      <c r="D135" s="178"/>
-      <c r="E135" s="152"/>
-      <c r="F135" s="229"/>
-    </row>
-    <row r="136" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="157">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="B136" s="147" t="s">
-        <v>462</v>
-      </c>
-      <c r="C136" s="149"/>
-      <c r="D136" s="149"/>
-      <c r="E136" s="152"/>
-      <c r="F136" s="229"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="157">
-        <v>0.67361111111111005</v>
-      </c>
-      <c r="B137" s="165"/>
-      <c r="C137" s="149"/>
-      <c r="D137" s="149"/>
-      <c r="E137" s="152"/>
-      <c r="F137" s="229"/>
-    </row>
-    <row r="138" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="157">
-        <v>0.68055555555555403</v>
-      </c>
-      <c r="B138" s="165"/>
-      <c r="C138" s="149"/>
-      <c r="D138" s="149"/>
-      <c r="E138" s="178"/>
-      <c r="F138" s="229"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="157">
-        <v>0.687499999999999</v>
-      </c>
-      <c r="B139" s="165"/>
-      <c r="C139" s="189" t="s">
-        <v>461</v>
-      </c>
-      <c r="D139" s="190"/>
-      <c r="E139" s="190"/>
-      <c r="F139" s="191"/>
-    </row>
-    <row r="140" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="157">
-        <v>0.69444444444444298</v>
-      </c>
-      <c r="B140" s="165"/>
-      <c r="C140" s="192"/>
-      <c r="D140" s="193"/>
-      <c r="E140" s="193"/>
-      <c r="F140" s="194"/>
-    </row>
-    <row r="141" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="157">
-        <v>0.70138888888888795</v>
-      </c>
-      <c r="B141" s="241"/>
-      <c r="C141" s="195"/>
-      <c r="D141" s="196"/>
-      <c r="E141" s="196"/>
-      <c r="F141" s="197"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="157">
-        <v>0.70833333333333204</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="157">
-        <v>0.71527777777777701</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="157">
-        <v>0.72222222222222099</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="157">
-        <v>0.72916666666666496</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="157">
-        <v>0.73611111111111005</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="157">
-        <v>0.74305555555555403</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="157">
-        <v>0.749999999999999</v>
-      </c>
-      <c r="B148" s="141"/>
-      <c r="C148" s="141"/>
-      <c r="D148" s="141"/>
-      <c r="E148" s="141"/>
-      <c r="F148" s="141"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="157">
-        <v>0.75694444444444298</v>
-      </c>
-      <c r="B149" s="141"/>
-      <c r="C149" s="141"/>
-      <c r="D149" s="141"/>
-      <c r="E149" s="141"/>
-      <c r="F149" s="141"/>
-    </row>
-    <row r="150" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="157">
-        <v>0.76388888888888795</v>
-      </c>
-      <c r="B150" s="141"/>
-      <c r="C150" s="141"/>
-      <c r="D150" s="141"/>
-      <c r="E150" s="141"/>
-      <c r="F150" s="141"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="157">
-        <v>0.77083333333333204</v>
-      </c>
-      <c r="B151" s="206" t="s">
-        <v>11</v>
-      </c>
-      <c r="C151" s="207"/>
-      <c r="D151" s="207"/>
-      <c r="E151" s="207"/>
-      <c r="F151" s="208"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="157">
-        <v>0.77777777777777601</v>
-      </c>
-      <c r="B152" s="209"/>
-      <c r="C152" s="210"/>
-      <c r="D152" s="210"/>
-      <c r="E152" s="210"/>
-      <c r="F152" s="211"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="157">
-        <v>0.78472222222222099</v>
-      </c>
-      <c r="B153" s="209"/>
-      <c r="C153" s="210"/>
-      <c r="D153" s="210"/>
-      <c r="E153" s="210"/>
-      <c r="F153" s="211"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="157">
-        <v>0.79166666666666496</v>
-      </c>
-      <c r="B154" s="209"/>
-      <c r="C154" s="210"/>
-      <c r="D154" s="210"/>
-      <c r="E154" s="210"/>
-      <c r="F154" s="211"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="157">
-        <v>0.79861111111111005</v>
-      </c>
-      <c r="B155" s="209"/>
-      <c r="C155" s="210"/>
-      <c r="D155" s="210"/>
-      <c r="E155" s="210"/>
-      <c r="F155" s="211"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="157">
-        <v>0.80555555555555403</v>
-      </c>
-      <c r="B156" s="209"/>
-      <c r="C156" s="210"/>
-      <c r="D156" s="210"/>
-      <c r="E156" s="210"/>
-      <c r="F156" s="211"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="157">
-        <v>0.812499999999998</v>
-      </c>
-      <c r="B157" s="209"/>
-      <c r="C157" s="210"/>
-      <c r="D157" s="210"/>
-      <c r="E157" s="210"/>
-      <c r="F157" s="211"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="157">
-        <v>0.81944444444444298</v>
-      </c>
-      <c r="B158" s="209"/>
-      <c r="C158" s="210"/>
-      <c r="D158" s="210"/>
-      <c r="E158" s="210"/>
-      <c r="F158" s="211"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="157">
-        <v>0.82638888888888695</v>
-      </c>
-      <c r="B159" s="209"/>
-      <c r="C159" s="210"/>
-      <c r="D159" s="210"/>
-      <c r="E159" s="210"/>
-      <c r="F159" s="211"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="157">
-        <v>0.83333333333333204</v>
-      </c>
-      <c r="B160" s="209"/>
-      <c r="C160" s="210"/>
-      <c r="D160" s="210"/>
-      <c r="E160" s="210"/>
-      <c r="F160" s="211"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="157">
-        <v>0.84027777777777601</v>
-      </c>
-      <c r="B161" s="209"/>
-      <c r="C161" s="210"/>
-      <c r="D161" s="210"/>
-      <c r="E161" s="210"/>
-      <c r="F161" s="211"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="157">
-        <v>0.84722222222222099</v>
-      </c>
-      <c r="B162" s="209"/>
-      <c r="C162" s="210"/>
-      <c r="D162" s="210"/>
-      <c r="E162" s="210"/>
-      <c r="F162" s="211"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="157">
-        <v>0.85416666666666496</v>
-      </c>
-      <c r="B163" s="209"/>
-      <c r="C163" s="210"/>
-      <c r="D163" s="210"/>
-      <c r="E163" s="210"/>
-      <c r="F163" s="211"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="157">
-        <v>0.86111111111110905</v>
-      </c>
-      <c r="B164" s="209"/>
-      <c r="C164" s="210"/>
-      <c r="D164" s="210"/>
-      <c r="E164" s="210"/>
-      <c r="F164" s="211"/>
-    </row>
-    <row r="165" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="157">
-        <v>0.86805555555555403</v>
-      </c>
-      <c r="B165" s="212"/>
-      <c r="C165" s="213"/>
-      <c r="D165" s="213"/>
-      <c r="E165" s="213"/>
-      <c r="F165" s="214"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="157">
-        <v>0.874999999999998</v>
-      </c>
+      <c r="C183" s="208"/>
+      <c r="D183" s="209"/>
+      <c r="E183" s="209"/>
+      <c r="F183" s="209"/>
+      <c r="G183" s="210"/>
+      <c r="H183" s="245"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="258"/>
+      <c r="B184" s="258"/>
+      <c r="C184" s="258"/>
+      <c r="D184" s="258"/>
+      <c r="E184" s="258"/>
+      <c r="F184" s="258"/>
+      <c r="G184" s="258"/>
+      <c r="H184" s="258"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="258"/>
+      <c r="B185" s="258"/>
+      <c r="C185" s="258"/>
+      <c r="D185" s="258"/>
+      <c r="E185" s="258"/>
+      <c r="F185" s="258"/>
+      <c r="G185" s="258"/>
+      <c r="H185" s="258"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="C139:F141"/>
-    <mergeCell ref="B151:F165"/>
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="F115:F129"/>
-    <mergeCell ref="B127:E129"/>
-    <mergeCell ref="E6:E14"/>
-    <mergeCell ref="B80:F94"/>
-    <mergeCell ref="B95:F103"/>
-    <mergeCell ref="F6:F23"/>
-    <mergeCell ref="B77:F79"/>
-    <mergeCell ref="B47:E49"/>
-    <mergeCell ref="B56:E61"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="F32:F76"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="C130:C135"/>
-    <mergeCell ref="E35:E46"/>
-    <mergeCell ref="E115:E126"/>
-    <mergeCell ref="E50:E55"/>
-    <mergeCell ref="E62:E67"/>
-    <mergeCell ref="E68:E76"/>
-    <mergeCell ref="E130:E138"/>
-    <mergeCell ref="D130:D135"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B50:B55"/>
-    <mergeCell ref="B115:B120"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="B71:B76"/>
+  <mergeCells count="65">
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="A25:H26"/>
+    <mergeCell ref="A114:H115"/>
+    <mergeCell ref="A184:H185"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A3:A24"/>
+    <mergeCell ref="H3:H24"/>
+    <mergeCell ref="H127:H183"/>
+    <mergeCell ref="A127:A183"/>
+    <mergeCell ref="H38:H113"/>
+    <mergeCell ref="A38:A113"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="D157:G159"/>
+    <mergeCell ref="C89:G94"/>
+    <mergeCell ref="C104:G113"/>
+    <mergeCell ref="C169:G183"/>
+    <mergeCell ref="C154:C158"/>
+    <mergeCell ref="G133:G147"/>
+    <mergeCell ref="C145:F147"/>
+    <mergeCell ref="C160:G168"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="F6:F14"/>
+    <mergeCell ref="C95:G103"/>
+    <mergeCell ref="G6:G23"/>
+    <mergeCell ref="C86:G88"/>
+    <mergeCell ref="C56:F58"/>
+    <mergeCell ref="C65:F70"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="G41:G85"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="D148:D153"/>
+    <mergeCell ref="F44:F55"/>
+    <mergeCell ref="F133:F144"/>
+    <mergeCell ref="F59:F64"/>
+    <mergeCell ref="F71:F76"/>
+    <mergeCell ref="F77:F85"/>
+    <mergeCell ref="F148:F156"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E148:E153"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="C133:C138"/>
     <mergeCell ref="D50:D55"/>
-    <mergeCell ref="D62:D67"/>
-    <mergeCell ref="D68:D73"/>
-    <mergeCell ref="D115:D120"/>
-    <mergeCell ref="D121:D126"/>
-    <mergeCell ref="C62:C70"/>
-    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="C80:C85"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="E77:E82"/>
+    <mergeCell ref="E133:E138"/>
+    <mergeCell ref="E139:E144"/>
+    <mergeCell ref="D71:D79"/>
+    <mergeCell ref="D130:D132"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.45" right="0.45" top="0.25" bottom="0.25" header="0.05" footer="0.05"/>
+  <pageSetup paperSize="9" scale="45" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -14206,65 +14896,65 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="I4" s="58" t="s">
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="I4" s="57" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="I5" s="59"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="I5" s="58"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="I6" s="60" t="s">
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="I6" s="59" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="I7" s="61"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="I7" s="60"/>
     </row>
     <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="I8" s="139" t="s">
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="I8" s="137" t="s">
         <v>20</v>
       </c>
     </row>
@@ -14272,29 +14962,29 @@
       <c r="A9" s="2">
         <v>0.75</v>
       </c>
-      <c r="B9" s="107" t="s">
+      <c r="B9" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="80" t="s">
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="140"/>
+      <c r="I9" s="138"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B10" s="130"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="85"/>
-      <c r="I10" s="66" t="s">
+      <c r="B10" s="128"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="83"/>
+      <c r="I10" s="64" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14302,35 +14992,35 @@
       <c r="A11" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B11" s="130"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="85"/>
-      <c r="I11" s="67"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="83"/>
+      <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>0.8125</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="85"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="83"/>
     </row>
     <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="81"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="79"/>
     </row>
     <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -14357,25 +15047,25 @@
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
     </row>
     <row r="17" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="64" t="s">
+      <c r="E17" s="96"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -14383,57 +15073,57 @@
       <c r="A18" s="2">
         <v>0.4375</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="86"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="84"/>
     </row>
     <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="86"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="84"/>
     </row>
     <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="86"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="84"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>0.5</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="86"/>
+      <c r="G21" s="84"/>
       <c r="L21" t="s">
         <v>300</v>
       </c>
@@ -14442,187 +15132,187 @@
       <c r="A22" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="86"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="84"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B23" s="107" t="s">
+      <c r="B23" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="86"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="84"/>
     </row>
     <row r="24" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.5625</v>
       </c>
-      <c r="B24" s="110"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="86"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="84"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="128" t="s">
+      <c r="C25" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="71" t="s">
+      <c r="F25" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="86"/>
+      <c r="G25" s="84"/>
     </row>
     <row r="26" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="86"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="84"/>
     </row>
     <row r="27" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.625</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="86"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="84"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="72" t="s">
+      <c r="D28" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="72" t="s">
+      <c r="E28" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="86"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="84"/>
     </row>
     <row r="29" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="86"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="84"/>
     </row>
     <row r="30" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>0.6875</v>
       </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="87"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="85"/>
     </row>
     <row r="31" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B31" s="103" t="s">
+      <c r="B31" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="107" t="s">
+      <c r="B32" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="109"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="107"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="130"/>
-      <c r="C33" s="131"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="131"/>
-      <c r="G33" s="132"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="130"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="130"/>
-      <c r="C34" s="131"/>
-      <c r="D34" s="131"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="131"/>
-      <c r="G34" s="132"/>
+      <c r="B34" s="128"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="130"/>
     </row>
     <row r="35" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="110"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="112"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="110"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="117" t="s">
+      <c r="B36" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="48"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47"/>
     </row>
     <row r="37" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="54"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53"/>
     </row>
     <row r="38" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -14654,31 +15344,31 @@
       <c r="A41" s="2">
         <v>0.5</v>
       </c>
-      <c r="B41" s="125" t="s">
+      <c r="B41" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="126"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
+      <c r="G41" s="124"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B42" s="84" t="s">
+      <c r="B42" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="84" t="s">
+      <c r="C42" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="97" t="s">
+      <c r="D42" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="98"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="80" t="s">
+      <c r="E42" s="96"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="78" t="s">
         <v>17</v>
       </c>
     </row>
@@ -14686,148 +15376,148 @@
       <c r="A43" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="122"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="124"/>
-      <c r="G43" s="85"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="83"/>
     </row>
     <row r="44" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>0.5625</v>
       </c>
-      <c r="D44" s="100"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="85"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="83"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B45" s="84" t="s">
+      <c r="B45" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="84" t="s">
+      <c r="C45" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="71" t="s">
+      <c r="D45" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="E45" s="71" t="s">
+      <c r="E45" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="71" t="s">
+      <c r="F45" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="G45" s="85"/>
+      <c r="G45" s="83"/>
     </row>
     <row r="46" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B46" s="75"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="85"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="83"/>
     </row>
     <row r="47" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>0.625</v>
       </c>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="85"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="83"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B48" s="74" t="s">
+      <c r="B48" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="84" t="s">
+      <c r="C48" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="71" t="s">
+      <c r="D48" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="71" t="s">
+      <c r="E48" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="F48" s="72"/>
-      <c r="G48" s="85"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="83"/>
     </row>
     <row r="49" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B49" s="75"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="85"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="83"/>
     </row>
     <row r="50" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>0.6875</v>
       </c>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="81"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="79"/>
     </row>
     <row r="51" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B51" s="114" t="s">
+      <c r="B51" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="116"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="113"/>
+      <c r="G51" s="114"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="133"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="134"/>
-      <c r="E52" s="134"/>
-      <c r="F52" s="134"/>
-      <c r="G52" s="135"/>
+      <c r="B52" s="131"/>
+      <c r="C52" s="132"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="132"/>
+      <c r="G52" s="133"/>
     </row>
     <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="136"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="137"/>
-      <c r="E53" s="137"/>
-      <c r="F53" s="137"/>
-      <c r="G53" s="138"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="135"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="135"/>
+      <c r="F53" s="135"/>
+      <c r="G53" s="136"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="117" t="s">
+      <c r="B54" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="48"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="47"/>
     </row>
     <row r="55" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="52"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="54"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="48">

--- a/docs/scheduleTurtlestitch10.xlsx
+++ b/docs/scheduleTurtlestitch10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joekvanmontfort/Documents/GitHub/turtlestitch10/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD998FD-C4FD-D045-BC19-049EE09602A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2998BBFA-DE10-DF43-872B-654A688EF089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{81F1DF98-07C1-7A42-BCBC-CF2DA53DE83F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{81F1DF98-07C1-7A42-BCBC-CF2DA53DE83F}"/>
   </bookViews>
   <sheets>
     <sheet name="ingredients" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="472">
   <si>
     <t>Friday</t>
   </si>
@@ -1448,10 +1448,6 @@
     <t>Registration
 Getting Started Workshop
 Exposition</t>
-  </si>
-  <si>
-    <t>Workshop 0 18:00-19:30
-Teach the teachers</t>
   </si>
   <si>
     <t>Talks 2 10:30-11:30
@@ -1518,6 +1514,10 @@
   </si>
   <si>
     <t>Colorcodes / Kleurcodes</t>
+  </si>
+  <si>
+    <t>Workshop 18:00-19:30
+Teach the teachers</t>
   </si>
 </sst>
 </file>
@@ -1958,7 +1958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2055,297 +2055,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2357,350 +2066,638 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="11" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="11" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4516,7 +4513,7 @@
       <c r="Q25" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="R25" s="140" t="s">
+      <c r="R25" s="43" t="s">
         <v>404</v>
       </c>
       <c r="S25" s="38" t="s">
@@ -4573,7 +4570,7 @@
       <c r="Q26" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="R26" s="140" t="s">
+      <c r="R26" s="43" t="s">
         <v>404</v>
       </c>
       <c r="S26" s="38" t="s">
@@ -5488,7 +5485,7 @@
       <c r="A33" t="s">
         <v>417</v>
       </c>
-      <c r="B33" s="141">
+      <c r="B33" s="44">
         <v>0.75</v>
       </c>
     </row>
@@ -5496,7 +5493,7 @@
       <c r="A34" t="s">
         <v>416</v>
       </c>
-      <c r="B34" s="141">
+      <c r="B34" s="44">
         <v>0.79166666666666663</v>
       </c>
     </row>
@@ -5616,7 +5613,7 @@
       <c r="A50" t="s">
         <v>423</v>
       </c>
-      <c r="B50" s="142">
+      <c r="B50" s="45">
         <v>4369910000000</v>
       </c>
     </row>
@@ -5664,7 +5661,7 @@
       <c r="A56" t="s">
         <v>417</v>
       </c>
-      <c r="B56" s="141">
+      <c r="B56" s="44">
         <v>0.8125</v>
       </c>
     </row>
@@ -5672,7 +5669,7 @@
       <c r="A57" t="s">
         <v>416</v>
       </c>
-      <c r="B57" s="141">
+      <c r="B57" s="44">
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -5840,7 +5837,7 @@
       <c r="A79" t="s">
         <v>417</v>
       </c>
-      <c r="B79" s="141">
+      <c r="B79" s="44">
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -5848,7 +5845,7 @@
       <c r="A80" t="s">
         <v>416</v>
       </c>
-      <c r="B80" s="141">
+      <c r="B80" s="44">
         <v>0.85416666666666663</v>
       </c>
     </row>
@@ -5968,7 +5965,7 @@
       <c r="A96" t="s">
         <v>423</v>
       </c>
-      <c r="B96" s="142">
+      <c r="B96" s="45">
         <v>436801000000</v>
       </c>
     </row>
@@ -6016,7 +6013,7 @@
       <c r="A102" t="s">
         <v>417</v>
       </c>
-      <c r="B102" s="141">
+      <c r="B102" s="44">
         <v>0.39583333333333331</v>
       </c>
     </row>
@@ -6024,7 +6021,7 @@
       <c r="A103" t="s">
         <v>416</v>
       </c>
-      <c r="B103" s="141">
+      <c r="B103" s="44">
         <v>0.4375</v>
       </c>
     </row>
@@ -6192,7 +6189,7 @@
       <c r="A125" t="s">
         <v>417</v>
       </c>
-      <c r="B125" s="141">
+      <c r="B125" s="44">
         <v>0.39583333333333331</v>
       </c>
     </row>
@@ -6200,7 +6197,7 @@
       <c r="A126" t="s">
         <v>416</v>
       </c>
-      <c r="B126" s="141">
+      <c r="B126" s="44">
         <v>0.4375</v>
       </c>
     </row>
@@ -6362,7 +6359,7 @@
       <c r="A148" t="s">
         <v>417</v>
       </c>
-      <c r="B148" s="141">
+      <c r="B148" s="44">
         <v>0.39583333333333331</v>
       </c>
     </row>
@@ -6370,7 +6367,7 @@
       <c r="A149" t="s">
         <v>416</v>
       </c>
-      <c r="B149" s="141">
+      <c r="B149" s="44">
         <v>0.47916666666666669</v>
       </c>
     </row>
@@ -6538,7 +6535,7 @@
       <c r="A171" t="s">
         <v>417</v>
       </c>
-      <c r="B171" s="141">
+      <c r="B171" s="44">
         <v>0.4375</v>
       </c>
     </row>
@@ -6546,7 +6543,7 @@
       <c r="A172" t="s">
         <v>416</v>
       </c>
-      <c r="B172" s="141">
+      <c r="B172" s="44">
         <v>0.47916666666666669</v>
       </c>
     </row>
@@ -6714,7 +6711,7 @@
       <c r="A194" t="s">
         <v>417</v>
       </c>
-      <c r="B194" s="141">
+      <c r="B194" s="44">
         <v>0.4375</v>
       </c>
     </row>
@@ -6722,7 +6719,7 @@
       <c r="A195" t="s">
         <v>416</v>
       </c>
-      <c r="B195" s="141">
+      <c r="B195" s="44">
         <v>0.47916666666666669</v>
       </c>
     </row>
@@ -6842,7 +6839,7 @@
       <c r="A211" t="s">
         <v>423</v>
       </c>
-      <c r="B211" s="142">
+      <c r="B211" s="45">
         <v>4915120000000</v>
       </c>
     </row>
@@ -6890,7 +6887,7 @@
       <c r="A217" t="s">
         <v>417</v>
       </c>
-      <c r="B217" s="141">
+      <c r="B217" s="44">
         <v>0.4375</v>
       </c>
     </row>
@@ -6898,7 +6895,7 @@
       <c r="A218" t="s">
         <v>416</v>
       </c>
-      <c r="B218" s="141">
+      <c r="B218" s="44">
         <v>0.47916666666666669</v>
       </c>
     </row>
@@ -7066,7 +7063,7 @@
       <c r="A240" t="s">
         <v>417</v>
       </c>
-      <c r="B240" s="141">
+      <c r="B240" s="44">
         <v>0.4375</v>
       </c>
     </row>
@@ -7074,7 +7071,7 @@
       <c r="A241" t="s">
         <v>416</v>
       </c>
-      <c r="B241" s="141">
+      <c r="B241" s="44">
         <v>0.47916666666666669</v>
       </c>
     </row>
@@ -7239,7 +7236,7 @@
       <c r="A263" t="s">
         <v>417</v>
       </c>
-      <c r="B263" s="141">
+      <c r="B263" s="44">
         <v>0.4375</v>
       </c>
     </row>
@@ -7247,7 +7244,7 @@
       <c r="A264" t="s">
         <v>416</v>
       </c>
-      <c r="B264" s="141">
+      <c r="B264" s="44">
         <v>0.47916666666666669</v>
       </c>
     </row>
@@ -7364,7 +7361,7 @@
       <c r="A280" t="s">
         <v>423</v>
       </c>
-      <c r="B280" s="142">
+      <c r="B280" s="45">
         <v>233550000000</v>
       </c>
     </row>
@@ -7412,7 +7409,7 @@
       <c r="A286" t="s">
         <v>417</v>
       </c>
-      <c r="B286" s="141">
+      <c r="B286" s="44">
         <v>0.5</v>
       </c>
     </row>
@@ -7420,7 +7417,7 @@
       <c r="A287" t="s">
         <v>416</v>
       </c>
-      <c r="B287" s="141">
+      <c r="B287" s="44">
         <v>0.54166666666666663</v>
       </c>
     </row>
@@ -7582,7 +7579,7 @@
       <c r="A309" t="s">
         <v>417</v>
       </c>
-      <c r="B309" s="141">
+      <c r="B309" s="44">
         <v>0.5</v>
       </c>
     </row>
@@ -7590,7 +7587,7 @@
       <c r="A310" t="s">
         <v>416</v>
       </c>
-      <c r="B310" s="141">
+      <c r="B310" s="44">
         <v>0.54166666666666663</v>
       </c>
     </row>
@@ -7710,7 +7707,7 @@
       <c r="A326" t="s">
         <v>423</v>
       </c>
-      <c r="B326" s="142">
+      <c r="B326" s="45">
         <v>353879000000</v>
       </c>
     </row>
@@ -7758,7 +7755,7 @@
       <c r="A332" t="s">
         <v>417</v>
       </c>
-      <c r="B332" s="141">
+      <c r="B332" s="44">
         <v>0.5</v>
       </c>
     </row>
@@ -7766,7 +7763,7 @@
       <c r="A333" t="s">
         <v>416</v>
       </c>
-      <c r="B333" s="141">
+      <c r="B333" s="44">
         <v>0.54166666666666663</v>
       </c>
     </row>
@@ -7931,7 +7928,7 @@
       <c r="A355" t="s">
         <v>417</v>
       </c>
-      <c r="B355" s="141">
+      <c r="B355" s="44">
         <v>0.5</v>
       </c>
     </row>
@@ -7939,7 +7936,7 @@
       <c r="A356" t="s">
         <v>416</v>
       </c>
-      <c r="B356" s="141">
+      <c r="B356" s="44">
         <v>0.54166666666666663</v>
       </c>
     </row>
@@ -8107,7 +8104,7 @@
       <c r="A378" t="s">
         <v>417</v>
       </c>
-      <c r="B378" s="141">
+      <c r="B378" s="44">
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -8115,7 +8112,7 @@
       <c r="A379" t="s">
         <v>416</v>
       </c>
-      <c r="B379" s="141">
+      <c r="B379" s="44">
         <v>0.625</v>
       </c>
     </row>
@@ -8283,7 +8280,7 @@
       <c r="A401" t="s">
         <v>417</v>
       </c>
-      <c r="B401" s="141">
+      <c r="B401" s="44">
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -8291,7 +8288,7 @@
       <c r="A402" t="s">
         <v>416</v>
       </c>
-      <c r="B402" s="141">
+      <c r="B402" s="44">
         <v>0.625</v>
       </c>
     </row>
@@ -8408,7 +8405,7 @@
       <c r="A418" t="s">
         <v>423</v>
       </c>
-      <c r="B418" s="142">
+      <c r="B418" s="45">
         <v>353878000000</v>
       </c>
     </row>
@@ -8456,7 +8453,7 @@
       <c r="A424" t="s">
         <v>417</v>
       </c>
-      <c r="B424" s="141">
+      <c r="B424" s="44">
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -8464,7 +8461,7 @@
       <c r="A425" t="s">
         <v>416</v>
       </c>
-      <c r="B425" s="141">
+      <c r="B425" s="44">
         <v>0.64583333333333337</v>
       </c>
     </row>
@@ -8632,7 +8629,7 @@
       <c r="A447" t="s">
         <v>417</v>
       </c>
-      <c r="B447" s="141">
+      <c r="B447" s="44">
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -8640,7 +8637,7 @@
       <c r="A448" t="s">
         <v>416</v>
       </c>
-      <c r="B448" s="141">
+      <c r="B448" s="44">
         <v>0.625</v>
       </c>
     </row>
@@ -8805,7 +8802,7 @@
       <c r="A470" t="s">
         <v>417</v>
       </c>
-      <c r="B470" s="141">
+      <c r="B470" s="44">
         <v>0.625</v>
       </c>
     </row>
@@ -8813,7 +8810,7 @@
       <c r="A471" t="s">
         <v>416</v>
       </c>
-      <c r="B471" s="141">
+      <c r="B471" s="44">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -8978,7 +8975,7 @@
       <c r="A493" t="s">
         <v>417</v>
       </c>
-      <c r="B493" s="141">
+      <c r="B493" s="44">
         <v>0.625</v>
       </c>
     </row>
@@ -8986,7 +8983,7 @@
       <c r="A494" t="s">
         <v>416</v>
       </c>
-      <c r="B494" s="141">
+      <c r="B494" s="44">
         <v>0.6875</v>
       </c>
     </row>
@@ -9154,7 +9151,7 @@
       <c r="A516" t="s">
         <v>417</v>
       </c>
-      <c r="B516" s="141">
+      <c r="B516" s="44">
         <v>0.64583333333333337</v>
       </c>
     </row>
@@ -9162,7 +9159,7 @@
       <c r="A517" t="s">
         <v>416</v>
       </c>
-      <c r="B517" s="141">
+      <c r="B517" s="44">
         <v>0.6875</v>
       </c>
     </row>
@@ -9282,7 +9279,7 @@
       <c r="A533" t="s">
         <v>423</v>
       </c>
-      <c r="B533" s="142">
+      <c r="B533" s="45">
         <v>393405000000</v>
       </c>
     </row>
@@ -9330,7 +9327,7 @@
       <c r="A539" t="s">
         <v>417</v>
       </c>
-      <c r="B539" s="141">
+      <c r="B539" s="44">
         <v>0.64583333333333337</v>
       </c>
     </row>
@@ -9338,7 +9335,7 @@
       <c r="A540" t="s">
         <v>416</v>
       </c>
-      <c r="B540" s="141">
+      <c r="B540" s="44">
         <v>0.6875</v>
       </c>
     </row>
@@ -9458,7 +9455,7 @@
       <c r="A556" t="s">
         <v>423</v>
       </c>
-      <c r="B556" s="142">
+      <c r="B556" s="45">
         <v>4915120000000</v>
       </c>
     </row>
@@ -9506,7 +9503,7 @@
       <c r="A562" t="s">
         <v>417</v>
       </c>
-      <c r="B562" s="141">
+      <c r="B562" s="44">
         <v>0.64583333333333337</v>
       </c>
     </row>
@@ -9514,7 +9511,7 @@
       <c r="A563" t="s">
         <v>416</v>
       </c>
-      <c r="B563" s="141">
+      <c r="B563" s="44">
         <v>0.6875</v>
       </c>
     </row>
@@ -9682,7 +9679,7 @@
       <c r="A585" t="s">
         <v>417</v>
       </c>
-      <c r="B585" s="141">
+      <c r="B585" s="44">
         <v>0.64583333333333337</v>
       </c>
     </row>
@@ -9690,7 +9687,7 @@
       <c r="A586" t="s">
         <v>416</v>
       </c>
-      <c r="B586" s="141">
+      <c r="B586" s="44">
         <v>0.6875</v>
       </c>
     </row>
@@ -9810,7 +9807,7 @@
       <c r="A602" t="s">
         <v>423</v>
       </c>
-      <c r="B602" s="142">
+      <c r="B602" s="45">
         <v>353879000000</v>
       </c>
     </row>
@@ -9858,7 +9855,7 @@
       <c r="A608" t="s">
         <v>417</v>
       </c>
-      <c r="B608" s="141">
+      <c r="B608" s="44">
         <v>0.8125</v>
       </c>
     </row>
@@ -9866,7 +9863,7 @@
       <c r="A609" t="s">
         <v>416</v>
       </c>
-      <c r="B609" s="141">
+      <c r="B609" s="44">
         <v>0.875</v>
       </c>
     </row>
@@ -10034,7 +10031,7 @@
       <c r="A631" t="s">
         <v>417</v>
       </c>
-      <c r="B631" s="141">
+      <c r="B631" s="44">
         <v>0.5</v>
       </c>
     </row>
@@ -10042,7 +10039,7 @@
       <c r="A632" t="s">
         <v>416</v>
       </c>
-      <c r="B632" s="141">
+      <c r="B632" s="44">
         <v>0.52083333333333337</v>
       </c>
     </row>
@@ -10162,7 +10159,7 @@
       <c r="A648" t="s">
         <v>423</v>
       </c>
-      <c r="B648" s="142">
+      <c r="B648" s="45">
         <v>353879000000</v>
       </c>
     </row>
@@ -10210,7 +10207,7 @@
       <c r="A654" t="s">
         <v>417</v>
       </c>
-      <c r="B654" s="141">
+      <c r="B654" s="44">
         <v>0.52083333333333337</v>
       </c>
     </row>
@@ -10218,7 +10215,7 @@
       <c r="A655" t="s">
         <v>416</v>
       </c>
-      <c r="B655" s="141">
+      <c r="B655" s="44">
         <v>0.5625</v>
       </c>
     </row>
@@ -10335,7 +10332,7 @@
       <c r="A671" t="s">
         <v>423</v>
       </c>
-      <c r="B671" s="142">
+      <c r="B671" s="45">
         <v>353878000000</v>
       </c>
     </row>
@@ -10383,7 +10380,7 @@
       <c r="A677" t="s">
         <v>417</v>
       </c>
-      <c r="B677" s="141">
+      <c r="B677" s="44">
         <v>0.52083333333333337</v>
       </c>
     </row>
@@ -10391,7 +10388,7 @@
       <c r="A678" t="s">
         <v>416</v>
       </c>
-      <c r="B678" s="141">
+      <c r="B678" s="44">
         <v>0.5625</v>
       </c>
     </row>
@@ -10556,7 +10553,7 @@
       <c r="A700" t="s">
         <v>417</v>
       </c>
-      <c r="B700" s="141">
+      <c r="B700" s="44">
         <v>0.52083333333333337</v>
       </c>
     </row>
@@ -10564,7 +10561,7 @@
       <c r="A701" t="s">
         <v>416</v>
       </c>
-      <c r="B701" s="141">
+      <c r="B701" s="44">
         <v>0.5625</v>
       </c>
     </row>
@@ -10729,7 +10726,7 @@
       <c r="A723" t="s">
         <v>417</v>
       </c>
-      <c r="B723" s="141">
+      <c r="B723" s="44">
         <v>0.52083333333333337</v>
       </c>
     </row>
@@ -10737,7 +10734,7 @@
       <c r="A724" t="s">
         <v>416</v>
       </c>
-      <c r="B724" s="141">
+      <c r="B724" s="44">
         <v>0.60416666666666663</v>
       </c>
     </row>
@@ -10905,7 +10902,7 @@
       <c r="A746" t="s">
         <v>417</v>
       </c>
-      <c r="B746" s="141">
+      <c r="B746" s="44">
         <v>0.5625</v>
       </c>
     </row>
@@ -10913,7 +10910,7 @@
       <c r="A747" t="s">
         <v>416</v>
       </c>
-      <c r="B747" s="141">
+      <c r="B747" s="44">
         <v>0.60416666666666663</v>
       </c>
     </row>
@@ -11081,7 +11078,7 @@
       <c r="A769" t="s">
         <v>417</v>
       </c>
-      <c r="B769" s="141">
+      <c r="B769" s="44">
         <v>0.625</v>
       </c>
     </row>
@@ -11089,7 +11086,7 @@
       <c r="A770" t="s">
         <v>416</v>
       </c>
-      <c r="B770" s="141">
+      <c r="B770" s="44">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -11257,7 +11254,7 @@
       <c r="A792" t="s">
         <v>417</v>
       </c>
-      <c r="B792" s="141">
+      <c r="B792" s="44">
         <v>0.625</v>
       </c>
     </row>
@@ -11265,7 +11262,7 @@
       <c r="A793" t="s">
         <v>416</v>
       </c>
-      <c r="B793" s="141">
+      <c r="B793" s="44">
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -11433,7 +11430,7 @@
       <c r="A815" t="s">
         <v>417</v>
       </c>
-      <c r="B815" s="141">
+      <c r="B815" s="44">
         <v>0.625</v>
       </c>
     </row>
@@ -11441,7 +11438,7 @@
       <c r="A816" t="s">
         <v>416</v>
       </c>
-      <c r="B816" s="141">
+      <c r="B816" s="44">
         <v>0.6875</v>
       </c>
     </row>
@@ -11581,7 +11578,7 @@
       <c r="H2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="64" t="s">
         <v>393</v>
       </c>
     </row>
@@ -11589,68 +11586,68 @@
       <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="81"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="64"/>
     </row>
     <row r="4" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="I4" s="81"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="I4" s="64"/>
     </row>
     <row r="5" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="I5" s="81"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="I5" s="64"/>
     </row>
     <row r="6" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="I6" s="81"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="I7" s="81"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="I7" s="64"/>
     </row>
     <row r="8" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="I8" s="81"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="I8" s="64"/>
     </row>
     <row r="9" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35">
@@ -11658,16 +11655,16 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="93" t="s">
         <v>371</v>
       </c>
-      <c r="E9" s="96"/>
-      <c r="F9" s="97"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="95"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="78" t="s">
+      <c r="H9" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="81"/>
+      <c r="I9" s="64"/>
     </row>
     <row r="10" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35">
@@ -11675,12 +11672,12 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="81"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="64"/>
     </row>
     <row r="11" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35">
@@ -11692,40 +11689,40 @@
       <c r="E11" s="25"/>
       <c r="F11" s="26"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="81"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="64"/>
     </row>
     <row r="12" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35">
         <v>0.8125</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="128" t="s">
         <v>372</v>
       </c>
-      <c r="C12" s="44"/>
+      <c r="C12" s="129"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="7"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="81"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="64"/>
     </row>
     <row r="13" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="128" t="s">
         <v>373</v>
       </c>
-      <c r="C13" s="44"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="27"/>
       <c r="E13" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="81"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="64"/>
     </row>
     <row r="14" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35">
@@ -11737,8 +11734,8 @@
       <c r="E14" s="27"/>
       <c r="F14" s="7"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="81"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="64"/>
     </row>
     <row r="15" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="35">
@@ -11750,8 +11747,8 @@
       <c r="E15" s="9"/>
       <c r="F15" s="10"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="81"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="64"/>
     </row>
     <row r="16" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="30"/>
@@ -11784,7 +11781,7 @@
       <c r="H17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="80" t="s">
+      <c r="I17" s="108" t="s">
         <v>394</v>
       </c>
     </row>
@@ -11792,317 +11789,317 @@
       <c r="A18" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="80"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="108"/>
     </row>
     <row r="19" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="84" t="s">
         <v>385</v>
       </c>
       <c r="C19" s="15"/>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="71"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="63" t="s">
+      <c r="H19" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="80"/>
+      <c r="I19" s="108"/>
     </row>
     <row r="20" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B20" s="73"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="91"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="80"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="108"/>
     </row>
     <row r="21" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35">
         <v>0.4375</v>
       </c>
       <c r="B21" s="15"/>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="84" t="s">
         <v>386</v>
       </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="91"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="80"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="108"/>
     </row>
     <row r="22" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35">
         <v>0.45833333333333331</v>
       </c>
       <c r="B22" s="15"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="94"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="80"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="108"/>
     </row>
     <row r="23" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="122" t="s">
         <v>332</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="80"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="108"/>
     </row>
     <row r="24" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35">
         <v>0.5</v>
       </c>
       <c r="B24" s="15"/>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="84" t="s">
         <v>384</v>
       </c>
-      <c r="D24" s="86" t="s">
+      <c r="D24" s="69" t="s">
         <v>381</v>
       </c>
-      <c r="E24" s="87"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="78" t="s">
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="86" t="s">
         <v>374</v>
       </c>
-      <c r="H24" s="84"/>
-      <c r="I24" s="80"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="108"/>
     </row>
     <row r="25" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <v>0.52083333333333337</v>
       </c>
       <c r="B25" s="15"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="80"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="108"/>
     </row>
     <row r="26" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="78" t="s">
         <v>333</v>
       </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="80"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="108"/>
     </row>
     <row r="27" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <v>0.5625</v>
       </c>
-      <c r="B27" s="108"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="80"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="108"/>
     </row>
     <row r="28" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="35">
         <v>0.58333333333333337</v>
       </c>
       <c r="B28" s="15"/>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="100" t="s">
         <v>375</v>
       </c>
-      <c r="D28" s="86" t="s">
+      <c r="D28" s="69" t="s">
         <v>426</v>
       </c>
-      <c r="E28" s="87"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="72" t="s">
+      <c r="E28" s="70"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="84" t="s">
         <v>383</v>
       </c>
-      <c r="H28" s="84"/>
-      <c r="I28" s="80"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="108"/>
     </row>
     <row r="29" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
         <v>0.60416666666666663</v>
       </c>
       <c r="B29" s="15"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="80"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="108"/>
     </row>
     <row r="30" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35">
         <v>0.625</v>
       </c>
       <c r="B30" s="15"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="86" t="s">
+      <c r="C30" s="101"/>
+      <c r="D30" s="69" t="s">
         <v>376</v>
       </c>
-      <c r="E30" s="87"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="78" t="s">
+      <c r="E30" s="70"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="86" t="s">
         <v>377</v>
       </c>
-      <c r="H30" s="84"/>
-      <c r="I30" s="80"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="108"/>
     </row>
     <row r="31" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="84" t="s">
         <v>387</v>
       </c>
       <c r="C31" s="15"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="80"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="108"/>
     </row>
     <row r="32" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B32" s="117"/>
+      <c r="B32" s="121"/>
       <c r="C32" s="15"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="94"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="77"/>
       <c r="G32" s="15"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="80"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="108"/>
     </row>
     <row r="33" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35">
         <v>0.6875</v>
       </c>
-      <c r="B33" s="101" t="s">
+      <c r="B33" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="80"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="108"/>
     </row>
     <row r="34" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="35">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="130" t="s">
         <v>379</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="47"/>
-      <c r="I34" s="80"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="117"/>
+      <c r="I34" s="108"/>
     </row>
     <row r="35" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="35"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="50"/>
-      <c r="I35" s="80"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="133"/>
+      <c r="I35" s="108"/>
     </row>
     <row r="36" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="35"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="50"/>
-      <c r="I36" s="80"/>
+      <c r="B36" s="131"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="133"/>
+      <c r="I36" s="108"/>
     </row>
     <row r="37" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53"/>
-      <c r="I37" s="80"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="120"/>
+      <c r="I37" s="108"/>
     </row>
     <row r="38" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="35"/>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="130" t="s">
         <v>378</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="47"/>
-      <c r="I38" s="80"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="117"/>
+      <c r="I38" s="108"/>
     </row>
     <row r="39" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="35"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="50"/>
-      <c r="I39" s="80"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="133"/>
+      <c r="I39" s="108"/>
     </row>
     <row r="40" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="53"/>
-      <c r="I40" s="80"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="120"/>
+      <c r="I40" s="108"/>
     </row>
     <row r="41" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:10" s="13" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -12128,7 +12125,7 @@
       <c r="H42" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="81" t="s">
+      <c r="I42" s="64" t="s">
         <v>395</v>
       </c>
       <c r="J42"/>
@@ -12137,16 +12134,16 @@
       <c r="A43" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="81"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="64"/>
       <c r="J43"/>
     </row>
     <row r="44" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -12156,206 +12153,206 @@
       <c r="C44" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="I44" s="81"/>
+      <c r="I44" s="64"/>
     </row>
     <row r="45" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="35">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="84" t="s">
         <v>388</v>
       </c>
-      <c r="D45" s="86" t="s">
+      <c r="D45" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="E45" s="87"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="72" t="s">
+      <c r="E45" s="70"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="84" t="s">
         <v>382</v>
       </c>
-      <c r="H45" s="78" t="s">
+      <c r="H45" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="I45" s="81"/>
+      <c r="I45" s="64"/>
     </row>
     <row r="46" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="35">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B46" s="73"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="81"/>
+      <c r="B46" s="85"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="64"/>
     </row>
     <row r="47" spans="1:10" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="35">
         <v>0.5625</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="78" t="s">
+      <c r="D47" s="72"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="86" t="s">
         <v>389</v>
       </c>
-      <c r="H47" s="83"/>
-      <c r="I47" s="81"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="64"/>
     </row>
     <row r="48" spans="1:10" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="35">
         <v>0.58333333333333337</v>
       </c>
       <c r="C48" s="15"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="70"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="81"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="64"/>
     </row>
     <row r="49" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B49" s="75" t="s">
+      <c r="B49" s="122" t="s">
         <v>334</v>
       </c>
-      <c r="C49" s="76"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="81"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="123"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="64"/>
     </row>
     <row r="50" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="35">
         <v>0.625</v>
       </c>
-      <c r="C50" s="116" t="s">
+      <c r="C50" s="106" t="s">
         <v>392</v>
       </c>
-      <c r="D50" s="86" t="s">
+      <c r="D50" s="69" t="s">
         <v>391</v>
       </c>
-      <c r="E50" s="87"/>
-      <c r="F50" s="88"/>
-      <c r="G50" s="61" t="s">
+      <c r="E50" s="70"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="100" t="s">
         <v>390</v>
       </c>
-      <c r="H50" s="83"/>
-      <c r="I50" s="81"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="64"/>
     </row>
     <row r="51" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C51" s="42"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="91"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="81"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="64"/>
     </row>
     <row r="52" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="35">
         <v>0.66666666666666663</v>
       </c>
       <c r="B52" s="15"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="94"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="77"/>
       <c r="G52" s="15"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="81"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="64"/>
     </row>
     <row r="53" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="35">
         <v>0.6875</v>
       </c>
-      <c r="B53" s="112" t="s">
+      <c r="B53" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="113"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="113"/>
-      <c r="F53" s="113"/>
-      <c r="G53" s="114"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="81"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="64"/>
     </row>
     <row r="54" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="35">
         <v>0.70833333333333337</v>
       </c>
-      <c r="I54" s="81"/>
+      <c r="I54" s="64"/>
     </row>
     <row r="55" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="34"/>
       <c r="B55" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="47"/>
-      <c r="I55" s="81"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="116"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="117"/>
+      <c r="I55" s="64"/>
     </row>
     <row r="56" spans="1:9" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="34"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
+      <c r="B56" s="118"/>
+      <c r="C56" s="119"/>
+      <c r="D56" s="119"/>
+      <c r="E56" s="119"/>
+      <c r="F56" s="119"/>
+      <c r="G56" s="120"/>
     </row>
     <row r="57" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="254" t="s">
-        <v>471</v>
-      </c>
-      <c r="C57" s="254"/>
-      <c r="D57" s="254"/>
-      <c r="E57" s="254"/>
-      <c r="F57" s="254"/>
-      <c r="G57" s="254"/>
+      <c r="B57" s="125" t="s">
+        <v>470</v>
+      </c>
+      <c r="C57" s="125"/>
+      <c r="D57" s="125"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="125"/>
+      <c r="G57" s="125"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="59" t="s">
+      <c r="C58" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="248" t="s">
+      <c r="D58" s="140" t="s">
         <v>301</v>
       </c>
-      <c r="E58" s="246" t="s">
+      <c r="E58" s="142" t="s">
         <v>302</v>
       </c>
-      <c r="F58" s="64" t="s">
+      <c r="F58" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="252" t="s">
+      <c r="G58" s="126" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="58"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="249"/>
-      <c r="E59" s="247"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="253"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="139"/>
+      <c r="D59" s="141"/>
+      <c r="E59" s="143"/>
+      <c r="F59" s="145"/>
+      <c r="G59" s="127"/>
     </row>
     <row r="66" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="82" t="s">
+      <c r="C67" s="114" t="s">
         <v>54</v>
       </c>
       <c r="E67" s="14" t="s">
@@ -12363,97 +12360,112 @@
       </c>
     </row>
     <row r="68" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="73"/>
+      <c r="C68" s="85"/>
     </row>
     <row r="69" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C70" s="69" t="s">
+      <c r="C70" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="E70" s="66" t="s">
+      <c r="E70" s="111" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="71"/>
-      <c r="E71" s="68"/>
+      <c r="C71" s="110"/>
+      <c r="E71" s="113"/>
     </row>
     <row r="72" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="73" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C73" s="69" t="s">
+      <c r="C73" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="E73" s="66" t="s">
+      <c r="E73" s="111" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C74" s="70"/>
-      <c r="E74" s="67"/>
+      <c r="C74" s="92"/>
+      <c r="E74" s="112"/>
       <c r="G74" s="13"/>
     </row>
     <row r="75" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="71"/>
-      <c r="E75" s="68"/>
+      <c r="C75" s="110"/>
+      <c r="E75" s="113"/>
       <c r="G75" s="13"/>
     </row>
     <row r="76" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C77" s="69" t="s">
+      <c r="C77" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="E77" s="66" t="s">
+      <c r="E77" s="111" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C78" s="70"/>
-      <c r="E78" s="67"/>
+      <c r="C78" s="92"/>
+      <c r="E78" s="112"/>
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C79" s="70"/>
-      <c r="E79" s="67"/>
+      <c r="C79" s="92"/>
+      <c r="E79" s="112"/>
     </row>
     <row r="80" spans="3:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="71"/>
-      <c r="E80" s="68"/>
+      <c r="C80" s="110"/>
+      <c r="E80" s="113"/>
     </row>
     <row r="81" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C82" s="69" t="s">
+      <c r="C82" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="E82" s="66" t="s">
+      <c r="E82" s="111" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C83" s="70"/>
-      <c r="E83" s="67"/>
+      <c r="C83" s="92"/>
+      <c r="E83" s="112"/>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C84" s="70"/>
-      <c r="E84" s="67"/>
+      <c r="C84" s="92"/>
+      <c r="E84" s="112"/>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C85" s="70"/>
-      <c r="E85" s="67"/>
+      <c r="C85" s="92"/>
+      <c r="E85" s="112"/>
     </row>
     <row r="86" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="71"/>
-      <c r="E86" s="68"/>
+      <c r="C86" s="110"/>
+      <c r="E86" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="I2:I15"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:G8"/>
-    <mergeCell ref="D19:F22"/>
-    <mergeCell ref="B26:G27"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:F25"/>
-    <mergeCell ref="H9:H15"/>
-    <mergeCell ref="H19:H33"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="I42:I55"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="B55:G56"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B43:H43"/>
+    <mergeCell ref="B58:B59"/>
     <mergeCell ref="H45:H53"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="D45:F48"/>
@@ -12468,39 +12480,24 @@
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="D50:F52"/>
     <mergeCell ref="D30:F32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D28:F29"/>
+    <mergeCell ref="I2:I15"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:G8"/>
+    <mergeCell ref="D19:F22"/>
+    <mergeCell ref="B26:G27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:F25"/>
+    <mergeCell ref="H9:H15"/>
+    <mergeCell ref="H19:H33"/>
     <mergeCell ref="I17:I40"/>
-    <mergeCell ref="I42:I55"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="B55:G56"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D28:F29"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="E77:E80"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="G58:G59"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B38:G40"/>
     <mergeCell ref="B34:G37"/>
-    <mergeCell ref="B43:H43"/>
     <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="G30:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -12514,387 +12511,385 @@
   </sheetPr>
   <dimension ref="A3:H185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C173" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="164" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A184" sqref="A184:H185"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="139" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="152" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" style="143" customWidth="1"/>
-    <col min="4" max="6" width="38" style="143" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" style="227" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="139" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="139"/>
+    <col min="1" max="1" width="9" style="42" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" style="46" customWidth="1"/>
+    <col min="4" max="6" width="38" style="46" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="42" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="42"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" s="231" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="243" t="s">
+    <row r="3" spans="1:8" s="60" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A3" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="228"/>
-      <c r="C3" s="229" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="58" t="s">
         <v>435</v>
       </c>
-      <c r="D3" s="229" t="s">
+      <c r="D3" s="58" t="s">
         <v>434</v>
       </c>
-      <c r="E3" s="229" t="s">
+      <c r="E3" s="58" t="s">
         <v>429</v>
       </c>
-      <c r="F3" s="229" t="s">
+      <c r="F3" s="58" t="s">
         <v>433</v>
       </c>
-      <c r="G3" s="230" t="s">
+      <c r="G3" s="59" t="s">
         <v>432</v>
       </c>
-      <c r="H3" s="245" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="231" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="243"/>
-      <c r="B4" s="228"/>
-      <c r="C4" s="232" t="s">
+      <c r="H3" s="152" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="60" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A4" s="151"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="61" t="s">
         <v>431</v>
       </c>
-      <c r="D4" s="232" t="s">
+      <c r="D4" s="61" t="s">
         <v>430</v>
       </c>
-      <c r="E4" s="232" t="s">
+      <c r="E4" s="61" t="s">
         <v>429</v>
       </c>
-      <c r="F4" s="232" t="s">
+      <c r="F4" s="61" t="s">
         <v>428</v>
       </c>
-      <c r="G4" s="233" t="s">
+      <c r="G4" s="62" t="s">
         <v>427</v>
       </c>
-      <c r="H4" s="244"/>
-    </row>
-    <row r="5" spans="1:8" s="231" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="243"/>
-      <c r="B5" s="234" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234"/>
-      <c r="F5" s="234"/>
-      <c r="G5" s="234"/>
-      <c r="H5" s="244"/>
+      <c r="H4" s="153"/>
+    </row>
+    <row r="5" spans="1:8" s="60" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="151"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="153"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="243"/>
-      <c r="B6" s="154">
+      <c r="A6" s="151"/>
+      <c r="B6" s="49">
         <v>0.75</v>
       </c>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="150" t="s">
-        <v>454</v>
-      </c>
-      <c r="G6" s="155" t="s">
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="188" t="s">
+        <v>471</v>
+      </c>
+      <c r="G6" s="200" t="s">
         <v>439</v>
       </c>
-      <c r="H6" s="244"/>
+      <c r="H6" s="153"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="243"/>
-      <c r="B7" s="154">
+      <c r="A7" s="151"/>
+      <c r="B7" s="49">
         <v>0.75694444444444442</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="244"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="153"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="243"/>
-      <c r="B8" s="154">
+      <c r="A8" s="151"/>
+      <c r="B8" s="49">
         <v>0.76388888888888895</v>
       </c>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="244"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="201"/>
+      <c r="H8" s="153"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="243"/>
-      <c r="B9" s="154">
+      <c r="A9" s="151"/>
+      <c r="B9" s="49">
         <v>0.77083333333333304</v>
       </c>
-      <c r="C9" s="147"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="244"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="201"/>
+      <c r="H9" s="153"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="243"/>
-      <c r="B10" s="154">
+      <c r="A10" s="151"/>
+      <c r="B10" s="49">
         <v>0.77777777777777801</v>
       </c>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="244"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="153"/>
     </row>
     <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="243"/>
-      <c r="B11" s="154">
+      <c r="A11" s="151"/>
+      <c r="B11" s="49">
         <v>0.78472222222222199</v>
       </c>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="244"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="153"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="243"/>
-      <c r="B12" s="154">
+      <c r="A12" s="151"/>
+      <c r="B12" s="49">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C12" s="158"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="244"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="201"/>
+      <c r="H12" s="153"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="243"/>
-      <c r="B13" s="154">
+      <c r="A13" s="151"/>
+      <c r="B13" s="49">
         <v>0.79861111111111105</v>
       </c>
-      <c r="C13" s="159"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="244"/>
+      <c r="C13" s="221"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="201"/>
+      <c r="H13" s="153"/>
     </row>
     <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="243"/>
-      <c r="B14" s="154">
+      <c r="A14" s="151"/>
+      <c r="B14" s="49">
         <v>0.80555555555555503</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="244"/>
+      <c r="C14" s="222"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="201"/>
+      <c r="H14" s="153"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="243"/>
-      <c r="B15" s="154">
+      <c r="A15" s="151"/>
+      <c r="B15" s="49">
         <v>0.8125</v>
       </c>
-      <c r="C15" s="145" t="s">
+      <c r="C15" s="174" t="s">
+        <v>457</v>
+      </c>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="201"/>
+      <c r="H15" s="153"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="151"/>
+      <c r="B16" s="49">
+        <v>0.81944444444444398</v>
+      </c>
+      <c r="C16" s="175"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="201"/>
+      <c r="H16" s="153"/>
+    </row>
+    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="151"/>
+      <c r="B17" s="49">
+        <v>0.82638888888888895</v>
+      </c>
+      <c r="C17" s="231"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="201"/>
+      <c r="H17" s="153"/>
+    </row>
+    <row r="18" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="151"/>
+      <c r="B18" s="49">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C18" s="174" t="s">
         <v>458</v>
       </c>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="244"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="243"/>
-      <c r="B16" s="154">
-        <v>0.81944444444444398</v>
-      </c>
-      <c r="C16" s="162"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="244"/>
-    </row>
-    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="243"/>
-      <c r="B17" s="154">
-        <v>0.82638888888888895</v>
-      </c>
-      <c r="C17" s="163"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="244"/>
-    </row>
-    <row r="18" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="243"/>
-      <c r="B18" s="154">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="C18" s="145" t="s">
-        <v>459</v>
-      </c>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="244"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="153"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="243"/>
-      <c r="B19" s="154">
+      <c r="A19" s="151"/>
+      <c r="B19" s="49">
         <v>0.84027777777777701</v>
       </c>
-      <c r="C19" s="162"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="244"/>
+      <c r="C19" s="175"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="201"/>
+      <c r="H19" s="153"/>
     </row>
     <row r="20" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="243"/>
-      <c r="B20" s="154">
+      <c r="A20" s="151"/>
+      <c r="B20" s="49">
         <v>0.84722222222222199</v>
       </c>
-      <c r="C20" s="163"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="244"/>
+      <c r="C20" s="231"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="153"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="243"/>
-      <c r="B21" s="154">
+      <c r="A21" s="151"/>
+      <c r="B21" s="49">
         <v>0.85416666666666596</v>
       </c>
-      <c r="C21" s="158"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="244"/>
+      <c r="C21" s="220"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="201"/>
+      <c r="H21" s="153"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="243"/>
-      <c r="B22" s="154">
+      <c r="A22" s="151"/>
+      <c r="B22" s="49">
         <v>0.86111111111111105</v>
       </c>
-      <c r="C22" s="159"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="244"/>
+      <c r="C22" s="221"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="201"/>
+      <c r="H22" s="153"/>
     </row>
     <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="243"/>
-      <c r="B23" s="154">
+      <c r="A23" s="151"/>
+      <c r="B23" s="49">
         <v>0.86805555555555503</v>
       </c>
-      <c r="C23" s="160"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="244"/>
+      <c r="C23" s="222"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="202"/>
+      <c r="H23" s="153"/>
     </row>
     <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="243"/>
-      <c r="B24" s="154">
+      <c r="A24" s="151"/>
+      <c r="B24" s="49">
         <v>0.875</v>
       </c>
-      <c r="C24" s="147"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="225"/>
-      <c r="H24" s="244"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="153"/>
     </row>
     <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="258"/>
-      <c r="B25" s="258"/>
-      <c r="C25" s="258"/>
-      <c r="D25" s="258"/>
-      <c r="E25" s="258"/>
-      <c r="F25" s="258"/>
-      <c r="G25" s="258"/>
-      <c r="H25" s="258"/>
+      <c r="A25" s="147"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
     </row>
     <row r="26" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="258"/>
-      <c r="B26" s="258"/>
-      <c r="C26" s="258"/>
-      <c r="D26" s="258"/>
-      <c r="E26" s="258"/>
-      <c r="F26" s="258"/>
-      <c r="G26" s="258"/>
-      <c r="H26" s="258"/>
+      <c r="A26" s="147"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
     </row>
     <row r="27" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="154"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="225"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="55"/>
     </row>
     <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="154"/>
-      <c r="C28" s="147"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="225"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="55"/>
     </row>
     <row r="29" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="225"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="55"/>
     </row>
     <row r="30" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="255" t="s">
-        <v>471</v>
-      </c>
-      <c r="C30" s="256"/>
-      <c r="D30" s="256"/>
-      <c r="E30" s="256"/>
-      <c r="F30" s="256"/>
-      <c r="G30" s="257"/>
+      <c r="B30" s="148" t="s">
+        <v>470</v>
+      </c>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="150"/>
     </row>
     <row r="31" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="248" t="s">
+      <c r="D31" s="140" t="s">
         <v>301</v>
       </c>
-      <c r="E31" s="246" t="s">
+      <c r="E31" s="142" t="s">
         <v>302</v>
       </c>
-      <c r="F31" s="64" t="s">
+      <c r="F31" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="G31" s="252" t="s">
+      <c r="G31" s="126" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="58"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="249"/>
-      <c r="E32" s="247"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="253"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="127"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33"/>
@@ -12929,1871 +12924,1880 @@
       <c r="G36"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C37" s="147"/>
-      <c r="D37" s="147"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="225"/>
-    </row>
-    <row r="38" spans="1:8" s="231" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="243" t="s">
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="55"/>
+    </row>
+    <row r="38" spans="1:8" s="60" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="228"/>
-      <c r="C38" s="229" t="s">
+      <c r="B38" s="57"/>
+      <c r="C38" s="58" t="s">
         <v>435</v>
       </c>
-      <c r="D38" s="229" t="s">
+      <c r="D38" s="58" t="s">
         <v>434</v>
       </c>
-      <c r="E38" s="229" t="s">
+      <c r="E38" s="58" t="s">
         <v>429</v>
       </c>
-      <c r="F38" s="229" t="s">
+      <c r="F38" s="58" t="s">
         <v>433</v>
       </c>
-      <c r="G38" s="230" t="s">
+      <c r="G38" s="59" t="s">
         <v>432</v>
       </c>
-      <c r="H38" s="245" t="s">
+      <c r="H38" s="152" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="60" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A39" s="151"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="61" t="s">
+        <v>431</v>
+      </c>
+      <c r="D39" s="61" t="s">
+        <v>430</v>
+      </c>
+      <c r="E39" s="61" t="s">
+        <v>429</v>
+      </c>
+      <c r="F39" s="61" t="s">
+        <v>428</v>
+      </c>
+      <c r="G39" s="62" t="s">
+        <v>427</v>
+      </c>
+      <c r="H39" s="152"/>
+    </row>
+    <row r="40" spans="1:8" s="60" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="151"/>
+      <c r="B40" s="154"/>
+      <c r="C40" s="154"/>
+      <c r="D40" s="154"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="152"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="151"/>
+      <c r="B41" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="176" t="s">
+        <v>453</v>
+      </c>
+      <c r="H41" s="152"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="151"/>
+      <c r="B42" s="49">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="177"/>
+      <c r="H42" s="152"/>
+    </row>
+    <row r="43" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="151"/>
+      <c r="B43" s="49">
+        <v>0.38888888888888901</v>
+      </c>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="177"/>
+      <c r="H43" s="152"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="151"/>
+      <c r="B44" s="49">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C44" s="174" t="s">
+        <v>437</v>
+      </c>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="225" t="s">
+        <v>445</v>
+      </c>
+      <c r="G44" s="177"/>
+      <c r="H44" s="152"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="151"/>
+      <c r="B45" s="49">
+        <v>0.40277777777777801</v>
+      </c>
+      <c r="C45" s="175"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="226"/>
+      <c r="G45" s="177"/>
+      <c r="H45" s="152"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="151"/>
+      <c r="B46" s="49">
+        <v>0.40972222222222199</v>
+      </c>
+      <c r="C46" s="175"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="226"/>
+      <c r="G46" s="177"/>
+      <c r="H46" s="152"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="151"/>
+      <c r="B47" s="49">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C47" s="175"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="226"/>
+      <c r="G47" s="177"/>
+      <c r="H47" s="152"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="151"/>
+      <c r="B48" s="49">
+        <v>0.42361111111111099</v>
+      </c>
+      <c r="C48" s="175"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="226"/>
+      <c r="G48" s="177"/>
+      <c r="H48" s="152"/>
+    </row>
+    <row r="49" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="151"/>
+      <c r="B49" s="49">
+        <v>0.43055555555555503</v>
+      </c>
+      <c r="C49" s="231"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="226"/>
+      <c r="G49" s="177"/>
+      <c r="H49" s="152"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="151"/>
+      <c r="B50" s="49">
+        <v>0.4375</v>
+      </c>
+      <c r="C50" s="47"/>
+      <c r="D50" s="174" t="s">
+        <v>454</v>
+      </c>
+      <c r="E50" s="47"/>
+      <c r="F50" s="226"/>
+      <c r="G50" s="177"/>
+      <c r="H50" s="152"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="151"/>
+      <c r="B51" s="49">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="C51" s="47"/>
+      <c r="D51" s="175"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="226"/>
+      <c r="G51" s="177"/>
+      <c r="H51" s="152"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="151"/>
+      <c r="B52" s="49">
+        <v>0.45138888888888901</v>
+      </c>
+      <c r="C52" s="47"/>
+      <c r="D52" s="175"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="226"/>
+      <c r="G52" s="177"/>
+      <c r="H52" s="152"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="151"/>
+      <c r="B53" s="49">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C53" s="47"/>
+      <c r="D53" s="175"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="226"/>
+      <c r="G53" s="177"/>
+      <c r="H53" s="152"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="151"/>
+      <c r="B54" s="49">
+        <v>0.46527777777777801</v>
+      </c>
+      <c r="C54" s="47"/>
+      <c r="D54" s="175"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="226"/>
+      <c r="G54" s="177"/>
+      <c r="H54" s="152"/>
+    </row>
+    <row r="55" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="151"/>
+      <c r="B55" s="49">
+        <v>0.47222222222222199</v>
+      </c>
+      <c r="C55" s="47"/>
+      <c r="D55" s="231"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="227"/>
+      <c r="G55" s="177"/>
+      <c r="H55" s="152"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="151"/>
+      <c r="B56" s="49">
+        <v>0.47916666666666602</v>
+      </c>
+      <c r="C56" s="212" t="s">
+        <v>451</v>
+      </c>
+      <c r="D56" s="213"/>
+      <c r="E56" s="213"/>
+      <c r="F56" s="213"/>
+      <c r="G56" s="177"/>
+      <c r="H56" s="152"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="151"/>
+      <c r="B57" s="49">
+        <v>0.48611111111111099</v>
+      </c>
+      <c r="C57" s="214"/>
+      <c r="D57" s="215"/>
+      <c r="E57" s="215"/>
+      <c r="F57" s="215"/>
+      <c r="G57" s="177"/>
+      <c r="H57" s="152"/>
+    </row>
+    <row r="58" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="151"/>
+      <c r="B58" s="49">
+        <v>0.49305555555555503</v>
+      </c>
+      <c r="C58" s="216"/>
+      <c r="D58" s="217"/>
+      <c r="E58" s="217"/>
+      <c r="F58" s="217"/>
+      <c r="G58" s="177"/>
+      <c r="H58" s="152"/>
+    </row>
+    <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="151"/>
+      <c r="B59" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="C59" s="174" t="s">
+        <v>436</v>
+      </c>
+      <c r="D59" s="47"/>
+      <c r="E59" s="223" t="s">
+        <v>465</v>
+      </c>
+      <c r="F59" s="225" t="s">
+        <v>446</v>
+      </c>
+      <c r="G59" s="177"/>
+      <c r="H59" s="152"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="151"/>
+      <c r="B60" s="49">
+        <v>0.50694444444444398</v>
+      </c>
+      <c r="C60" s="175"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="223"/>
+      <c r="F60" s="226"/>
+      <c r="G60" s="177"/>
+      <c r="H60" s="152"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="151"/>
+      <c r="B61" s="49">
+        <v>0.51388888888888795</v>
+      </c>
+      <c r="C61" s="175"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="223"/>
+      <c r="F61" s="226"/>
+      <c r="G61" s="177"/>
+      <c r="H61" s="152"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="151"/>
+      <c r="B62" s="49">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="C62" s="175"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="223"/>
+      <c r="F62" s="226"/>
+      <c r="G62" s="177"/>
+      <c r="H62" s="152"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="151"/>
+      <c r="B63" s="49">
+        <v>0.52777777777777701</v>
+      </c>
+      <c r="C63" s="175"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="223"/>
+      <c r="F63" s="226"/>
+      <c r="G63" s="177"/>
+      <c r="H63" s="152"/>
+    </row>
+    <row r="64" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="151"/>
+      <c r="B64" s="49">
+        <v>0.53472222222222199</v>
+      </c>
+      <c r="C64" s="231"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="224"/>
+      <c r="F64" s="227"/>
+      <c r="G64" s="177"/>
+      <c r="H64" s="152"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="151"/>
+      <c r="B65" s="49">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="C65" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="213"/>
+      <c r="E65" s="213"/>
+      <c r="F65" s="218"/>
+      <c r="G65" s="177"/>
+      <c r="H65" s="152"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="151"/>
+      <c r="B66" s="49">
+        <v>0.54861111111111005</v>
+      </c>
+      <c r="C66" s="215"/>
+      <c r="D66" s="215"/>
+      <c r="E66" s="215"/>
+      <c r="F66" s="219"/>
+      <c r="G66" s="177"/>
+      <c r="H66" s="152"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="151"/>
+      <c r="B67" s="49">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="C67" s="215"/>
+      <c r="D67" s="215"/>
+      <c r="E67" s="215"/>
+      <c r="F67" s="219"/>
+      <c r="G67" s="177"/>
+      <c r="H67" s="152"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="151"/>
+      <c r="B68" s="49">
+        <v>0.562499999999999</v>
+      </c>
+      <c r="C68" s="215"/>
+      <c r="D68" s="215"/>
+      <c r="E68" s="215"/>
+      <c r="F68" s="219"/>
+      <c r="G68" s="177"/>
+      <c r="H68" s="152"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="151"/>
+      <c r="B69" s="49">
+        <v>0.56944444444444398</v>
+      </c>
+      <c r="C69" s="215"/>
+      <c r="D69" s="215"/>
+      <c r="E69" s="215"/>
+      <c r="F69" s="219"/>
+      <c r="G69" s="177"/>
+      <c r="H69" s="152"/>
+    </row>
+    <row r="70" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="151"/>
+      <c r="B70" s="49">
+        <v>0.57638888888888795</v>
+      </c>
+      <c r="C70" s="215"/>
+      <c r="D70" s="215"/>
+      <c r="E70" s="215"/>
+      <c r="F70" s="219"/>
+      <c r="G70" s="177"/>
+      <c r="H70" s="152"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="151"/>
+      <c r="B71" s="49">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C71" s="47"/>
+      <c r="D71" s="230" t="s">
+        <v>440</v>
+      </c>
+      <c r="E71" s="174" t="s">
+        <v>464</v>
+      </c>
+      <c r="F71" s="225" t="s">
+        <v>447</v>
+      </c>
+      <c r="G71" s="177"/>
+      <c r="H71" s="152"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="151"/>
+      <c r="B72" s="49">
+        <v>0.59027777777777701</v>
+      </c>
+      <c r="C72" s="47"/>
+      <c r="D72" s="228"/>
+      <c r="E72" s="175"/>
+      <c r="F72" s="226"/>
+      <c r="G72" s="177"/>
+      <c r="H72" s="152"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="151"/>
+      <c r="B73" s="49">
+        <v>0.59722222222222099</v>
+      </c>
+      <c r="C73" s="47"/>
+      <c r="D73" s="228"/>
+      <c r="E73" s="175"/>
+      <c r="F73" s="226"/>
+      <c r="G73" s="177"/>
+      <c r="H73" s="152"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="151"/>
+      <c r="B74" s="49">
+        <v>0.60416666666666596</v>
+      </c>
+      <c r="C74" s="47"/>
+      <c r="D74" s="228"/>
+      <c r="E74" s="175"/>
+      <c r="F74" s="226"/>
+      <c r="G74" s="177"/>
+      <c r="H74" s="152"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="151"/>
+      <c r="B75" s="49">
+        <v>0.61111111111111005</v>
+      </c>
+      <c r="C75" s="47"/>
+      <c r="D75" s="228"/>
+      <c r="E75" s="175"/>
+      <c r="F75" s="226"/>
+      <c r="G75" s="177"/>
+      <c r="H75" s="152"/>
+    </row>
+    <row r="76" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="151"/>
+      <c r="B76" s="49">
+        <v>0.61805555555555503</v>
+      </c>
+      <c r="C76" s="47"/>
+      <c r="D76" s="228"/>
+      <c r="E76" s="231"/>
+      <c r="F76" s="227"/>
+      <c r="G76" s="177"/>
+      <c r="H76" s="152"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="151"/>
+      <c r="B77" s="49">
+        <v>0.624999999999999</v>
+      </c>
+      <c r="C77" s="47"/>
+      <c r="D77" s="226"/>
+      <c r="E77" s="230" t="s">
+        <v>463</v>
+      </c>
+      <c r="F77" s="225" t="s">
+        <v>448</v>
+      </c>
+      <c r="G77" s="177"/>
+      <c r="H77" s="152"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="151"/>
+      <c r="B78" s="49">
+        <v>0.63194444444444398</v>
+      </c>
+      <c r="C78" s="47"/>
+      <c r="D78" s="226"/>
+      <c r="E78" s="228"/>
+      <c r="F78" s="226"/>
+      <c r="G78" s="177"/>
+      <c r="H78" s="152"/>
+    </row>
+    <row r="79" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="151"/>
+      <c r="B79" s="49">
+        <v>0.63888888888888795</v>
+      </c>
+      <c r="C79" s="47"/>
+      <c r="D79" s="227"/>
+      <c r="E79" s="228"/>
+      <c r="F79" s="226"/>
+      <c r="G79" s="177"/>
+      <c r="H79" s="152"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="151"/>
+      <c r="B80" s="49">
+        <v>0.64583333333333204</v>
+      </c>
+      <c r="C80" s="232" t="s">
+        <v>459</v>
+      </c>
+      <c r="D80" s="47"/>
+      <c r="E80" s="228"/>
+      <c r="F80" s="226"/>
+      <c r="G80" s="177"/>
+      <c r="H80" s="152"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="151"/>
+      <c r="B81" s="49">
+        <v>0.65277777777777701</v>
+      </c>
+      <c r="C81" s="233"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="228"/>
+      <c r="F81" s="226"/>
+      <c r="G81" s="177"/>
+      <c r="H81" s="152"/>
+    </row>
+    <row r="82" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="151"/>
+      <c r="B82" s="49">
+        <v>0.65972222222222099</v>
+      </c>
+      <c r="C82" s="233"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="229"/>
+      <c r="F82" s="226"/>
+      <c r="G82" s="177"/>
+      <c r="H82" s="152"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="151"/>
+      <c r="B83" s="49">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C83" s="233"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="226"/>
+      <c r="G83" s="177"/>
+      <c r="H83" s="152"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="151"/>
+      <c r="B84" s="49">
+        <v>0.67361111111111005</v>
+      </c>
+      <c r="C84" s="233"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="226"/>
+      <c r="G84" s="177"/>
+      <c r="H84" s="152"/>
+    </row>
+    <row r="85" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="151"/>
+      <c r="B85" s="49">
+        <v>0.68055555555555403</v>
+      </c>
+      <c r="C85" s="233"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="226"/>
+      <c r="G85" s="177"/>
+      <c r="H85" s="152"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="151"/>
+      <c r="B86" s="49">
+        <v>0.687499999999999</v>
+      </c>
+      <c r="C86" s="203" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="204"/>
+      <c r="E86" s="204"/>
+      <c r="F86" s="204"/>
+      <c r="G86" s="205"/>
+      <c r="H86" s="152"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="151"/>
+      <c r="B87" s="49">
+        <v>0.69444444444444298</v>
+      </c>
+      <c r="C87" s="206"/>
+      <c r="D87" s="207"/>
+      <c r="E87" s="207"/>
+      <c r="F87" s="207"/>
+      <c r="G87" s="208"/>
+      <c r="H87" s="152"/>
+    </row>
+    <row r="88" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="151"/>
+      <c r="B88" s="49">
+        <v>0.70138888888888795</v>
+      </c>
+      <c r="C88" s="209"/>
+      <c r="D88" s="210"/>
+      <c r="E88" s="210"/>
+      <c r="F88" s="210"/>
+      <c r="G88" s="211"/>
+      <c r="H88" s="152"/>
+    </row>
+    <row r="89" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="151"/>
+      <c r="B89" s="49">
+        <v>0.70833333333333204</v>
+      </c>
+      <c r="C89" s="165" t="s">
+        <v>461</v>
+      </c>
+      <c r="D89" s="166"/>
+      <c r="E89" s="166"/>
+      <c r="F89" s="166"/>
+      <c r="G89" s="167"/>
+      <c r="H89" s="152"/>
+    </row>
+    <row r="90" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="151"/>
+      <c r="B90" s="49">
+        <v>0.71527777777777701</v>
+      </c>
+      <c r="C90" s="168"/>
+      <c r="D90" s="169"/>
+      <c r="E90" s="169"/>
+      <c r="F90" s="169"/>
+      <c r="G90" s="170"/>
+      <c r="H90" s="152"/>
+    </row>
+    <row r="91" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="151"/>
+      <c r="B91" s="49">
+        <v>0.72222222222222099</v>
+      </c>
+      <c r="C91" s="168"/>
+      <c r="D91" s="169"/>
+      <c r="E91" s="169"/>
+      <c r="F91" s="169"/>
+      <c r="G91" s="170"/>
+      <c r="H91" s="152"/>
+    </row>
+    <row r="92" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="151"/>
+      <c r="B92" s="49">
+        <v>0.72916666666666496</v>
+      </c>
+      <c r="C92" s="168"/>
+      <c r="D92" s="169"/>
+      <c r="E92" s="169"/>
+      <c r="F92" s="169"/>
+      <c r="G92" s="170"/>
+      <c r="H92" s="152"/>
+    </row>
+    <row r="93" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="151"/>
+      <c r="B93" s="49">
+        <v>0.73611111111111005</v>
+      </c>
+      <c r="C93" s="168"/>
+      <c r="D93" s="169"/>
+      <c r="E93" s="169"/>
+      <c r="F93" s="169"/>
+      <c r="G93" s="170"/>
+      <c r="H93" s="152"/>
+    </row>
+    <row r="94" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="151"/>
+      <c r="B94" s="49">
+        <v>0.74305555555555403</v>
+      </c>
+      <c r="C94" s="171"/>
+      <c r="D94" s="172"/>
+      <c r="E94" s="172"/>
+      <c r="F94" s="172"/>
+      <c r="G94" s="173"/>
+      <c r="H94" s="152"/>
+    </row>
+    <row r="95" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="151"/>
+      <c r="B95" s="49">
+        <v>0.749999999999999</v>
+      </c>
+      <c r="C95" s="191" t="s">
+        <v>452</v>
+      </c>
+      <c r="D95" s="192"/>
+      <c r="E95" s="192"/>
+      <c r="F95" s="192"/>
+      <c r="G95" s="193"/>
+      <c r="H95" s="152"/>
+    </row>
+    <row r="96" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="151"/>
+      <c r="B96" s="49">
+        <v>0.75694444444444298</v>
+      </c>
+      <c r="C96" s="194"/>
+      <c r="D96" s="195"/>
+      <c r="E96" s="195"/>
+      <c r="F96" s="195"/>
+      <c r="G96" s="196"/>
+      <c r="H96" s="152"/>
+    </row>
+    <row r="97" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="151"/>
+      <c r="B97" s="49">
+        <v>0.76388888888888795</v>
+      </c>
+      <c r="C97" s="194"/>
+      <c r="D97" s="195"/>
+      <c r="E97" s="195"/>
+      <c r="F97" s="195"/>
+      <c r="G97" s="196"/>
+      <c r="H97" s="152"/>
+    </row>
+    <row r="98" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="151"/>
+      <c r="B98" s="49">
+        <v>0.77083333333333204</v>
+      </c>
+      <c r="C98" s="194"/>
+      <c r="D98" s="195"/>
+      <c r="E98" s="195"/>
+      <c r="F98" s="195"/>
+      <c r="G98" s="196"/>
+      <c r="H98" s="152"/>
+    </row>
+    <row r="99" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="151"/>
+      <c r="B99" s="49">
+        <v>0.77777777777777601</v>
+      </c>
+      <c r="C99" s="194"/>
+      <c r="D99" s="195"/>
+      <c r="E99" s="195"/>
+      <c r="F99" s="195"/>
+      <c r="G99" s="196"/>
+      <c r="H99" s="152"/>
+    </row>
+    <row r="100" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="151"/>
+      <c r="B100" s="49">
+        <v>0.78472222222222099</v>
+      </c>
+      <c r="C100" s="194"/>
+      <c r="D100" s="195"/>
+      <c r="E100" s="195"/>
+      <c r="F100" s="195"/>
+      <c r="G100" s="196"/>
+      <c r="H100" s="152"/>
+    </row>
+    <row r="101" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="151"/>
+      <c r="B101" s="49">
+        <v>0.79166666666666496</v>
+      </c>
+      <c r="C101" s="194"/>
+      <c r="D101" s="195"/>
+      <c r="E101" s="195"/>
+      <c r="F101" s="195"/>
+      <c r="G101" s="196"/>
+      <c r="H101" s="152"/>
+    </row>
+    <row r="102" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="151"/>
+      <c r="B102" s="49">
+        <v>0.79861111111111005</v>
+      </c>
+      <c r="C102" s="194"/>
+      <c r="D102" s="195"/>
+      <c r="E102" s="195"/>
+      <c r="F102" s="195"/>
+      <c r="G102" s="196"/>
+      <c r="H102" s="152"/>
+    </row>
+    <row r="103" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="151"/>
+      <c r="B103" s="49">
+        <v>0.80555555555555403</v>
+      </c>
+      <c r="C103" s="197"/>
+      <c r="D103" s="198"/>
+      <c r="E103" s="198"/>
+      <c r="F103" s="198"/>
+      <c r="G103" s="199"/>
+      <c r="H103" s="152"/>
+    </row>
+    <row r="104" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="151"/>
+      <c r="B104" s="49">
+        <v>0.812499999999998</v>
+      </c>
+      <c r="C104" s="165" t="s">
+        <v>460</v>
+      </c>
+      <c r="D104" s="166"/>
+      <c r="E104" s="166"/>
+      <c r="F104" s="166"/>
+      <c r="G104" s="167"/>
+      <c r="H104" s="152"/>
+    </row>
+    <row r="105" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="151"/>
+      <c r="B105" s="49">
+        <v>0.81944444444444298</v>
+      </c>
+      <c r="C105" s="168"/>
+      <c r="D105" s="169"/>
+      <c r="E105" s="169"/>
+      <c r="F105" s="169"/>
+      <c r="G105" s="170"/>
+      <c r="H105" s="152"/>
+    </row>
+    <row r="106" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="151"/>
+      <c r="B106" s="49">
+        <v>0.82638888888888695</v>
+      </c>
+      <c r="C106" s="168"/>
+      <c r="D106" s="169"/>
+      <c r="E106" s="169"/>
+      <c r="F106" s="169"/>
+      <c r="G106" s="170"/>
+      <c r="H106" s="152"/>
+    </row>
+    <row r="107" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="151"/>
+      <c r="B107" s="49">
+        <v>0.83333333333333204</v>
+      </c>
+      <c r="C107" s="168"/>
+      <c r="D107" s="169"/>
+      <c r="E107" s="169"/>
+      <c r="F107" s="169"/>
+      <c r="G107" s="170"/>
+      <c r="H107" s="152"/>
+    </row>
+    <row r="108" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="151"/>
+      <c r="B108" s="49">
+        <v>0.84027777777777601</v>
+      </c>
+      <c r="C108" s="168"/>
+      <c r="D108" s="169"/>
+      <c r="E108" s="169"/>
+      <c r="F108" s="169"/>
+      <c r="G108" s="170"/>
+      <c r="H108" s="152"/>
+    </row>
+    <row r="109" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="151"/>
+      <c r="B109" s="49">
+        <v>0.84722222222222099</v>
+      </c>
+      <c r="C109" s="168"/>
+      <c r="D109" s="169"/>
+      <c r="E109" s="169"/>
+      <c r="F109" s="169"/>
+      <c r="G109" s="170"/>
+      <c r="H109" s="152"/>
+    </row>
+    <row r="110" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="151"/>
+      <c r="B110" s="49">
+        <v>0.85416666666666496</v>
+      </c>
+      <c r="C110" s="168"/>
+      <c r="D110" s="169"/>
+      <c r="E110" s="169"/>
+      <c r="F110" s="169"/>
+      <c r="G110" s="170"/>
+      <c r="H110" s="152"/>
+    </row>
+    <row r="111" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="151"/>
+      <c r="B111" s="49">
+        <v>0.86111111111110905</v>
+      </c>
+      <c r="C111" s="168"/>
+      <c r="D111" s="169"/>
+      <c r="E111" s="169"/>
+      <c r="F111" s="169"/>
+      <c r="G111" s="170"/>
+      <c r="H111" s="152"/>
+    </row>
+    <row r="112" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="151"/>
+      <c r="B112" s="49">
+        <v>0.86805555555555403</v>
+      </c>
+      <c r="C112" s="168"/>
+      <c r="D112" s="169"/>
+      <c r="E112" s="169"/>
+      <c r="F112" s="169"/>
+      <c r="G112" s="170"/>
+      <c r="H112" s="152"/>
+    </row>
+    <row r="113" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="151"/>
+      <c r="B113" s="49">
+        <v>0.874999999999998</v>
+      </c>
+      <c r="C113" s="171"/>
+      <c r="D113" s="172"/>
+      <c r="E113" s="172"/>
+      <c r="F113" s="172"/>
+      <c r="G113" s="173"/>
+      <c r="H113" s="152"/>
+    </row>
+    <row r="114" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="147"/>
+      <c r="B114" s="147"/>
+      <c r="C114" s="147"/>
+      <c r="D114" s="147"/>
+      <c r="E114" s="147"/>
+      <c r="F114" s="147"/>
+      <c r="G114" s="147"/>
+      <c r="H114" s="147"/>
+    </row>
+    <row r="115" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="147"/>
+      <c r="B115" s="147"/>
+      <c r="C115" s="147"/>
+      <c r="D115" s="147"/>
+      <c r="E115" s="147"/>
+      <c r="F115" s="147"/>
+      <c r="G115" s="147"/>
+      <c r="H115" s="147"/>
+    </row>
+    <row r="116" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="49"/>
+      <c r="C116" s="47"/>
+      <c r="D116" s="47"/>
+      <c r="E116" s="47"/>
+      <c r="F116" s="47"/>
+      <c r="G116" s="55"/>
+    </row>
+    <row r="117" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="49"/>
+      <c r="C117" s="47"/>
+      <c r="D117" s="47"/>
+      <c r="E117" s="47"/>
+      <c r="F117" s="47"/>
+      <c r="G117" s="55"/>
+    </row>
+    <row r="118" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="49"/>
+      <c r="C118" s="47"/>
+      <c r="D118" s="47"/>
+      <c r="E118" s="47"/>
+      <c r="F118" s="47"/>
+      <c r="G118" s="55"/>
+    </row>
+    <row r="119" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="148" t="s">
+        <v>470</v>
+      </c>
+      <c r="C119" s="149"/>
+      <c r="D119" s="149"/>
+      <c r="E119" s="149"/>
+      <c r="F119" s="149"/>
+      <c r="G119" s="150"/>
+    </row>
+    <row r="120" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="136" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" s="138" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" s="140" t="s">
+        <v>301</v>
+      </c>
+      <c r="E120" s="142" t="s">
+        <v>302</v>
+      </c>
+      <c r="F120" s="144" t="s">
+        <v>21</v>
+      </c>
+      <c r="G120" s="126" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="137"/>
+      <c r="C121" s="139"/>
+      <c r="D121" s="141"/>
+      <c r="E121" s="143"/>
+      <c r="F121" s="145"/>
+      <c r="G121" s="127"/>
+    </row>
+    <row r="122" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="49"/>
+      <c r="C122" s="47"/>
+      <c r="D122" s="47"/>
+      <c r="E122" s="47"/>
+      <c r="F122" s="47"/>
+      <c r="G122" s="55"/>
+    </row>
+    <row r="123" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="49"/>
+      <c r="C123" s="47"/>
+      <c r="D123" s="47"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="47"/>
+      <c r="G123" s="55"/>
+    </row>
+    <row r="124" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="49"/>
+      <c r="C124" s="47"/>
+      <c r="D124" s="47"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="47"/>
+      <c r="G124" s="55"/>
+    </row>
+    <row r="125" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="49"/>
+      <c r="C125" s="47"/>
+      <c r="D125" s="47"/>
+      <c r="E125" s="47"/>
+      <c r="F125" s="47"/>
+      <c r="G125" s="55"/>
+    </row>
+    <row r="126" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="49"/>
+      <c r="C126" s="47"/>
+      <c r="D126" s="47"/>
+      <c r="E126" s="47"/>
+      <c r="F126" s="47"/>
+      <c r="G126" s="55"/>
+    </row>
+    <row r="127" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="151" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="50"/>
+      <c r="C127" s="51" t="s">
+        <v>435</v>
+      </c>
+      <c r="D127" s="51" t="s">
+        <v>434</v>
+      </c>
+      <c r="E127" s="51" t="s">
+        <v>429</v>
+      </c>
+      <c r="F127" s="51" t="s">
+        <v>433</v>
+      </c>
+      <c r="G127" s="53" t="s">
+        <v>432</v>
+      </c>
+      <c r="H127" s="152" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="231" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A39" s="243"/>
-      <c r="B39" s="228"/>
-      <c r="C39" s="232" t="s">
+    <row r="128" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="151"/>
+      <c r="B128" s="50"/>
+      <c r="C128" s="52" t="s">
         <v>431</v>
       </c>
-      <c r="D39" s="232" t="s">
+      <c r="D128" s="52" t="s">
         <v>430</v>
       </c>
-      <c r="E39" s="232" t="s">
+      <c r="E128" s="52" t="s">
         <v>429</v>
       </c>
-      <c r="F39" s="232" t="s">
+      <c r="F128" s="52" t="s">
         <v>428</v>
       </c>
-      <c r="G39" s="233" t="s">
+      <c r="G128" s="54" t="s">
         <v>427</v>
       </c>
-      <c r="H39" s="245"/>
-    </row>
-    <row r="40" spans="1:8" s="231" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="243"/>
-      <c r="B40" s="234" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="234"/>
-      <c r="D40" s="234"/>
-      <c r="E40" s="234"/>
-      <c r="F40" s="234"/>
-      <c r="G40" s="234"/>
-      <c r="H40" s="245"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="243"/>
-      <c r="B41" s="154">
-        <v>0.375</v>
-      </c>
-      <c r="C41" s="147"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="151" t="s">
+      <c r="H128" s="152"/>
+    </row>
+    <row r="129" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="151"/>
+      <c r="B129" s="155"/>
+      <c r="C129" s="155"/>
+      <c r="D129" s="155"/>
+      <c r="E129" s="155"/>
+      <c r="F129" s="155"/>
+      <c r="G129" s="155"/>
+      <c r="H129" s="152"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="151"/>
+      <c r="B130" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="C130" s="47"/>
+      <c r="D130" s="234" t="s">
+        <v>441</v>
+      </c>
+      <c r="E130" s="47"/>
+      <c r="F130" s="47"/>
+      <c r="G130" s="55"/>
+      <c r="H130" s="152"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="151"/>
+      <c r="B131" s="49">
+        <v>0.50694444444444398</v>
+      </c>
+      <c r="C131" s="47"/>
+      <c r="D131" s="235"/>
+      <c r="E131" s="47"/>
+      <c r="F131" s="47"/>
+      <c r="G131" s="55"/>
+      <c r="H131" s="152"/>
+    </row>
+    <row r="132" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="151"/>
+      <c r="B132" s="49">
+        <v>0.51388888888888795</v>
+      </c>
+      <c r="C132" s="47"/>
+      <c r="D132" s="236"/>
+      <c r="E132" s="47"/>
+      <c r="F132" s="47"/>
+      <c r="G132" s="55"/>
+      <c r="H132" s="152"/>
+    </row>
+    <row r="133" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="151"/>
+      <c r="B133" s="49">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="C133" s="174" t="s">
+        <v>438</v>
+      </c>
+      <c r="D133" s="47"/>
+      <c r="E133" s="174" t="s">
+        <v>462</v>
+      </c>
+      <c r="F133" s="225" t="s">
+        <v>449</v>
+      </c>
+      <c r="G133" s="176" t="s">
         <v>453</v>
       </c>
-      <c r="H41" s="245"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="243"/>
-      <c r="B42" s="154">
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="C42" s="147"/>
-      <c r="D42" s="147"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="226"/>
-      <c r="H42" s="245"/>
-    </row>
-    <row r="43" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="243"/>
-      <c r="B43" s="154">
-        <v>0.38888888888888901</v>
-      </c>
-      <c r="C43" s="147"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="226"/>
-      <c r="H43" s="245"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="243"/>
-      <c r="B44" s="154">
-        <v>0.39583333333333298</v>
-      </c>
-      <c r="C44" s="145" t="s">
-        <v>437</v>
-      </c>
-      <c r="D44" s="147"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="146" t="s">
-        <v>445</v>
-      </c>
-      <c r="G44" s="226"/>
-      <c r="H44" s="245"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="243"/>
-      <c r="B45" s="154">
-        <v>0.40277777777777801</v>
-      </c>
-      <c r="C45" s="162"/>
-      <c r="D45" s="147"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="165"/>
-      <c r="G45" s="226"/>
-      <c r="H45" s="245"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="243"/>
-      <c r="B46" s="154">
-        <v>0.40972222222222199</v>
-      </c>
-      <c r="C46" s="162"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="165"/>
-      <c r="G46" s="226"/>
-      <c r="H46" s="245"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="243"/>
-      <c r="B47" s="154">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="C47" s="162"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="147"/>
-      <c r="F47" s="165"/>
-      <c r="G47" s="226"/>
-      <c r="H47" s="245"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="243"/>
-      <c r="B48" s="154">
-        <v>0.42361111111111099</v>
-      </c>
-      <c r="C48" s="162"/>
-      <c r="D48" s="147"/>
-      <c r="E48" s="147"/>
-      <c r="F48" s="165"/>
-      <c r="G48" s="226"/>
-      <c r="H48" s="245"/>
-    </row>
-    <row r="49" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="243"/>
-      <c r="B49" s="154">
-        <v>0.43055555555555503</v>
-      </c>
-      <c r="C49" s="163"/>
-      <c r="D49" s="147"/>
-      <c r="E49" s="147"/>
-      <c r="F49" s="165"/>
-      <c r="G49" s="226"/>
-      <c r="H49" s="245"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="243"/>
-      <c r="B50" s="154">
-        <v>0.4375</v>
-      </c>
-      <c r="C50" s="147"/>
-      <c r="D50" s="145" t="s">
+      <c r="H133" s="152"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="151"/>
+      <c r="B134" s="49">
+        <v>0.52777777777777701</v>
+      </c>
+      <c r="C134" s="175"/>
+      <c r="D134" s="47"/>
+      <c r="E134" s="175"/>
+      <c r="F134" s="226"/>
+      <c r="G134" s="177"/>
+      <c r="H134" s="152"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="151"/>
+      <c r="B135" s="49">
+        <v>0.53472222222222199</v>
+      </c>
+      <c r="C135" s="175"/>
+      <c r="D135" s="47"/>
+      <c r="E135" s="175"/>
+      <c r="F135" s="226"/>
+      <c r="G135" s="177"/>
+      <c r="H135" s="152"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="151"/>
+      <c r="B136" s="49">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="C136" s="175"/>
+      <c r="D136" s="47"/>
+      <c r="E136" s="175"/>
+      <c r="F136" s="226"/>
+      <c r="G136" s="177"/>
+      <c r="H136" s="152"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="151"/>
+      <c r="B137" s="49">
+        <v>0.54861111111111005</v>
+      </c>
+      <c r="C137" s="175"/>
+      <c r="D137" s="47"/>
+      <c r="E137" s="175"/>
+      <c r="F137" s="226"/>
+      <c r="G137" s="177"/>
+      <c r="H137" s="152"/>
+    </row>
+    <row r="138" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="151"/>
+      <c r="B138" s="49">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="C138" s="231"/>
+      <c r="D138" s="47"/>
+      <c r="E138" s="231"/>
+      <c r="F138" s="226"/>
+      <c r="G138" s="177"/>
+      <c r="H138" s="152"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="151"/>
+      <c r="B139" s="49">
+        <v>0.562499999999999</v>
+      </c>
+      <c r="C139" s="47"/>
+      <c r="D139" s="47"/>
+      <c r="E139" s="234" t="s">
+        <v>443</v>
+      </c>
+      <c r="F139" s="226"/>
+      <c r="G139" s="177"/>
+      <c r="H139" s="152"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="151"/>
+      <c r="B140" s="49">
+        <v>0.56944444444444398</v>
+      </c>
+      <c r="C140" s="47"/>
+      <c r="D140" s="47"/>
+      <c r="E140" s="235"/>
+      <c r="F140" s="226"/>
+      <c r="G140" s="177"/>
+      <c r="H140" s="152"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="151"/>
+      <c r="B141" s="49">
+        <v>0.57638888888888795</v>
+      </c>
+      <c r="C141" s="47"/>
+      <c r="D141" s="47"/>
+      <c r="E141" s="235"/>
+      <c r="F141" s="226"/>
+      <c r="G141" s="177"/>
+      <c r="H141" s="152"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="151"/>
+      <c r="B142" s="49">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C142" s="47"/>
+      <c r="D142" s="47"/>
+      <c r="E142" s="235"/>
+      <c r="F142" s="226"/>
+      <c r="G142" s="177"/>
+      <c r="H142" s="152"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="151"/>
+      <c r="B143" s="49">
+        <v>0.59027777777777701</v>
+      </c>
+      <c r="C143" s="47"/>
+      <c r="D143" s="47"/>
+      <c r="E143" s="235"/>
+      <c r="F143" s="226"/>
+      <c r="G143" s="177"/>
+      <c r="H143" s="152"/>
+    </row>
+    <row r="144" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="151"/>
+      <c r="B144" s="49">
+        <v>0.59722222222222099</v>
+      </c>
+      <c r="C144" s="47"/>
+      <c r="D144" s="47"/>
+      <c r="E144" s="235"/>
+      <c r="F144" s="226"/>
+      <c r="G144" s="177"/>
+      <c r="H144" s="152"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="151"/>
+      <c r="B145" s="49">
+        <v>0.60416666666666596</v>
+      </c>
+      <c r="C145" s="179" t="s">
+        <v>451</v>
+      </c>
+      <c r="D145" s="180"/>
+      <c r="E145" s="180"/>
+      <c r="F145" s="180"/>
+      <c r="G145" s="177"/>
+      <c r="H145" s="152"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="151"/>
+      <c r="B146" s="49">
+        <v>0.61111111111111005</v>
+      </c>
+      <c r="C146" s="181"/>
+      <c r="D146" s="182"/>
+      <c r="E146" s="182"/>
+      <c r="F146" s="182"/>
+      <c r="G146" s="177"/>
+      <c r="H146" s="152"/>
+    </row>
+    <row r="147" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="151"/>
+      <c r="B147" s="49">
+        <v>0.61805555555555503</v>
+      </c>
+      <c r="C147" s="183"/>
+      <c r="D147" s="184"/>
+      <c r="E147" s="184"/>
+      <c r="F147" s="184"/>
+      <c r="G147" s="178"/>
+      <c r="H147" s="152"/>
+    </row>
+    <row r="148" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="151"/>
+      <c r="B148" s="49">
+        <v>0.624999999999999</v>
+      </c>
+      <c r="C148" s="47"/>
+      <c r="D148" s="223" t="s">
+        <v>442</v>
+      </c>
+      <c r="E148" s="230" t="s">
+        <v>444</v>
+      </c>
+      <c r="F148" s="228" t="s">
+        <v>450</v>
+      </c>
+      <c r="G148" s="55"/>
+      <c r="H148" s="152"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="151"/>
+      <c r="B149" s="49">
+        <v>0.63194444444444398</v>
+      </c>
+      <c r="C149" s="47"/>
+      <c r="D149" s="223"/>
+      <c r="E149" s="228"/>
+      <c r="F149" s="228"/>
+      <c r="G149" s="55"/>
+      <c r="H149" s="152"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="151"/>
+      <c r="B150" s="49">
+        <v>0.63888888888888795</v>
+      </c>
+      <c r="C150" s="47"/>
+      <c r="D150" s="223"/>
+      <c r="E150" s="228"/>
+      <c r="F150" s="228"/>
+      <c r="G150" s="55"/>
+      <c r="H150" s="152"/>
+    </row>
+    <row r="151" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="151"/>
+      <c r="B151" s="49">
+        <v>0.64583333333333204</v>
+      </c>
+      <c r="C151" s="47"/>
+      <c r="D151" s="223"/>
+      <c r="E151" s="228"/>
+      <c r="F151" s="228"/>
+      <c r="G151" s="55"/>
+      <c r="H151" s="152"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="151"/>
+      <c r="B152" s="49">
+        <v>0.65277777777777701</v>
+      </c>
+      <c r="C152" s="47"/>
+      <c r="D152" s="223"/>
+      <c r="E152" s="228"/>
+      <c r="F152" s="228"/>
+      <c r="G152" s="55"/>
+      <c r="H152" s="152"/>
+    </row>
+    <row r="153" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="151"/>
+      <c r="B153" s="49">
+        <v>0.65972222222222099</v>
+      </c>
+      <c r="C153" s="47"/>
+      <c r="D153" s="224"/>
+      <c r="E153" s="229"/>
+      <c r="F153" s="228"/>
+      <c r="G153" s="55"/>
+      <c r="H153" s="152"/>
+    </row>
+    <row r="154" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="151"/>
+      <c r="B154" s="49">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C154" s="174" t="s">
+        <v>456</v>
+      </c>
+      <c r="D154" s="47"/>
+      <c r="E154" s="47"/>
+      <c r="F154" s="228"/>
+      <c r="G154" s="55"/>
+      <c r="H154" s="152"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="151"/>
+      <c r="B155" s="49">
+        <v>0.67361111111111005</v>
+      </c>
+      <c r="C155" s="175"/>
+      <c r="D155" s="47"/>
+      <c r="E155" s="47"/>
+      <c r="F155" s="228"/>
+      <c r="G155" s="55"/>
+      <c r="H155" s="152"/>
+    </row>
+    <row r="156" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="151"/>
+      <c r="B156" s="49">
+        <v>0.68055555555555403</v>
+      </c>
+      <c r="C156" s="175"/>
+      <c r="D156" s="47"/>
+      <c r="E156" s="47"/>
+      <c r="F156" s="229"/>
+      <c r="G156" s="55"/>
+      <c r="H156" s="152"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="151"/>
+      <c r="B157" s="49">
+        <v>0.687499999999999</v>
+      </c>
+      <c r="C157" s="175"/>
+      <c r="D157" s="156" t="s">
         <v>455</v>
       </c>
-      <c r="E50" s="147"/>
-      <c r="F50" s="165"/>
-      <c r="G50" s="226"/>
-      <c r="H50" s="245"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="243"/>
-      <c r="B51" s="154">
-        <v>0.44444444444444398</v>
-      </c>
-      <c r="C51" s="147"/>
-      <c r="D51" s="162"/>
-      <c r="E51" s="147"/>
-      <c r="F51" s="165"/>
-      <c r="G51" s="226"/>
-      <c r="H51" s="245"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="243"/>
-      <c r="B52" s="154">
-        <v>0.45138888888888901</v>
-      </c>
-      <c r="C52" s="147"/>
-      <c r="D52" s="162"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="165"/>
-      <c r="G52" s="226"/>
-      <c r="H52" s="245"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="243"/>
-      <c r="B53" s="154">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="C53" s="147"/>
-      <c r="D53" s="162"/>
-      <c r="E53" s="147"/>
-      <c r="F53" s="165"/>
-      <c r="G53" s="226"/>
-      <c r="H53" s="245"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="243"/>
-      <c r="B54" s="154">
-        <v>0.46527777777777801</v>
-      </c>
-      <c r="C54" s="147"/>
-      <c r="D54" s="162"/>
-      <c r="E54" s="147"/>
-      <c r="F54" s="165"/>
-      <c r="G54" s="226"/>
-      <c r="H54" s="245"/>
-    </row>
-    <row r="55" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="243"/>
-      <c r="B55" s="154">
-        <v>0.47222222222222199</v>
-      </c>
-      <c r="C55" s="147"/>
-      <c r="D55" s="163"/>
-      <c r="E55" s="147"/>
-      <c r="F55" s="166"/>
-      <c r="G55" s="226"/>
-      <c r="H55" s="245"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="243"/>
-      <c r="B56" s="154">
-        <v>0.47916666666666602</v>
-      </c>
-      <c r="C56" s="194" t="s">
-        <v>451</v>
-      </c>
-      <c r="D56" s="195"/>
-      <c r="E56" s="195"/>
-      <c r="F56" s="195"/>
-      <c r="G56" s="226"/>
-      <c r="H56" s="245"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="243"/>
-      <c r="B57" s="154">
-        <v>0.48611111111111099</v>
-      </c>
-      <c r="C57" s="196"/>
-      <c r="D57" s="197"/>
-      <c r="E57" s="197"/>
-      <c r="F57" s="197"/>
-      <c r="G57" s="226"/>
-      <c r="H57" s="245"/>
-    </row>
-    <row r="58" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="243"/>
-      <c r="B58" s="154">
-        <v>0.49305555555555503</v>
-      </c>
-      <c r="C58" s="198"/>
-      <c r="D58" s="199"/>
-      <c r="E58" s="199"/>
-      <c r="F58" s="199"/>
-      <c r="G58" s="226"/>
-      <c r="H58" s="245"/>
-    </row>
-    <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="243"/>
-      <c r="B59" s="154">
-        <v>0.5</v>
-      </c>
-      <c r="C59" s="145" t="s">
-        <v>436</v>
-      </c>
-      <c r="D59" s="147"/>
-      <c r="E59" s="250" t="s">
+      <c r="E157" s="157"/>
+      <c r="F157" s="157"/>
+      <c r="G157" s="158"/>
+      <c r="H157" s="152"/>
+    </row>
+    <row r="158" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="151"/>
+      <c r="B158" s="49">
+        <v>0.69444444444444298</v>
+      </c>
+      <c r="C158" s="175"/>
+      <c r="D158" s="159"/>
+      <c r="E158" s="160"/>
+      <c r="F158" s="160"/>
+      <c r="G158" s="161"/>
+      <c r="H158" s="152"/>
+    </row>
+    <row r="159" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="151"/>
+      <c r="B159" s="49">
+        <v>0.70138888888888795</v>
+      </c>
+      <c r="C159" s="63"/>
+      <c r="D159" s="162"/>
+      <c r="E159" s="163"/>
+      <c r="F159" s="163"/>
+      <c r="G159" s="164"/>
+      <c r="H159" s="152"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="151"/>
+      <c r="B160" s="49">
+        <v>0.70833333333333204</v>
+      </c>
+      <c r="C160" s="185" t="s">
         <v>466</v>
       </c>
-      <c r="F59" s="146" t="s">
-        <v>446</v>
-      </c>
-      <c r="G59" s="226"/>
-      <c r="H59" s="245"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="243"/>
-      <c r="B60" s="154">
-        <v>0.50694444444444398</v>
-      </c>
-      <c r="C60" s="162"/>
-      <c r="D60" s="147"/>
-      <c r="E60" s="250"/>
-      <c r="F60" s="165"/>
-      <c r="G60" s="226"/>
-      <c r="H60" s="245"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="243"/>
-      <c r="B61" s="154">
-        <v>0.51388888888888795</v>
-      </c>
-      <c r="C61" s="162"/>
-      <c r="D61" s="147"/>
-      <c r="E61" s="250"/>
-      <c r="F61" s="165"/>
-      <c r="G61" s="226"/>
-      <c r="H61" s="245"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="243"/>
-      <c r="B62" s="154">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="C62" s="162"/>
-      <c r="D62" s="147"/>
-      <c r="E62" s="250"/>
-      <c r="F62" s="165"/>
-      <c r="G62" s="226"/>
-      <c r="H62" s="245"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="243"/>
-      <c r="B63" s="154">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="C63" s="162"/>
-      <c r="D63" s="147"/>
-      <c r="E63" s="250"/>
-      <c r="F63" s="165"/>
-      <c r="G63" s="226"/>
-      <c r="H63" s="245"/>
-    </row>
-    <row r="64" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="243"/>
-      <c r="B64" s="154">
-        <v>0.53472222222222199</v>
-      </c>
-      <c r="C64" s="163"/>
-      <c r="D64" s="147"/>
-      <c r="E64" s="251"/>
-      <c r="F64" s="166"/>
-      <c r="G64" s="226"/>
-      <c r="H64" s="245"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="243"/>
-      <c r="B65" s="154">
-        <v>0.54166666666666596</v>
-      </c>
-      <c r="C65" s="195" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65" s="195"/>
-      <c r="E65" s="195"/>
-      <c r="F65" s="200"/>
-      <c r="G65" s="226"/>
-      <c r="H65" s="245"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="243"/>
-      <c r="B66" s="154">
-        <v>0.54861111111111005</v>
-      </c>
-      <c r="C66" s="197"/>
-      <c r="D66" s="197"/>
-      <c r="E66" s="197"/>
-      <c r="F66" s="201"/>
-      <c r="G66" s="226"/>
-      <c r="H66" s="245"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="243"/>
-      <c r="B67" s="154">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="C67" s="197"/>
-      <c r="D67" s="197"/>
-      <c r="E67" s="197"/>
-      <c r="F67" s="201"/>
-      <c r="G67" s="226"/>
-      <c r="H67" s="245"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="243"/>
-      <c r="B68" s="154">
-        <v>0.562499999999999</v>
-      </c>
-      <c r="C68" s="197"/>
-      <c r="D68" s="197"/>
-      <c r="E68" s="197"/>
-      <c r="F68" s="201"/>
-      <c r="G68" s="226"/>
-      <c r="H68" s="245"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="243"/>
-      <c r="B69" s="154">
-        <v>0.56944444444444398</v>
-      </c>
-      <c r="C69" s="197"/>
-      <c r="D69" s="197"/>
-      <c r="E69" s="197"/>
-      <c r="F69" s="201"/>
-      <c r="G69" s="226"/>
-      <c r="H69" s="245"/>
-    </row>
-    <row r="70" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="243"/>
-      <c r="B70" s="154">
-        <v>0.57638888888888795</v>
-      </c>
-      <c r="C70" s="197"/>
-      <c r="D70" s="197"/>
-      <c r="E70" s="197"/>
-      <c r="F70" s="201"/>
-      <c r="G70" s="226"/>
-      <c r="H70" s="245"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="243"/>
-      <c r="B71" s="154">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="C71" s="147"/>
-      <c r="D71" s="148" t="s">
-        <v>440</v>
-      </c>
-      <c r="E71" s="145" t="s">
-        <v>465</v>
-      </c>
-      <c r="F71" s="146" t="s">
-        <v>447</v>
-      </c>
-      <c r="G71" s="226"/>
-      <c r="H71" s="245"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="243"/>
-      <c r="B72" s="154">
-        <v>0.59027777777777701</v>
-      </c>
-      <c r="C72" s="147"/>
-      <c r="D72" s="149"/>
-      <c r="E72" s="162"/>
-      <c r="F72" s="165"/>
-      <c r="G72" s="226"/>
-      <c r="H72" s="245"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="243"/>
-      <c r="B73" s="154">
-        <v>0.59722222222222099</v>
-      </c>
-      <c r="C73" s="147"/>
-      <c r="D73" s="149"/>
-      <c r="E73" s="162"/>
-      <c r="F73" s="165"/>
-      <c r="G73" s="226"/>
-      <c r="H73" s="245"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="243"/>
-      <c r="B74" s="154">
-        <v>0.60416666666666596</v>
-      </c>
-      <c r="C74" s="147"/>
-      <c r="D74" s="149"/>
-      <c r="E74" s="162"/>
-      <c r="F74" s="165"/>
-      <c r="G74" s="226"/>
-      <c r="H74" s="245"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="243"/>
-      <c r="B75" s="154">
-        <v>0.61111111111111005</v>
-      </c>
-      <c r="C75" s="147"/>
-      <c r="D75" s="149"/>
-      <c r="E75" s="162"/>
-      <c r="F75" s="165"/>
-      <c r="G75" s="226"/>
-      <c r="H75" s="245"/>
-    </row>
-    <row r="76" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="243"/>
-      <c r="B76" s="154">
-        <v>0.61805555555555503</v>
-      </c>
-      <c r="C76" s="147"/>
-      <c r="D76" s="149"/>
-      <c r="E76" s="163"/>
-      <c r="F76" s="166"/>
-      <c r="G76" s="226"/>
-      <c r="H76" s="245"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="243"/>
-      <c r="B77" s="154">
-        <v>0.624999999999999</v>
-      </c>
-      <c r="C77" s="147"/>
-      <c r="D77" s="165"/>
-      <c r="E77" s="148" t="s">
-        <v>464</v>
-      </c>
-      <c r="F77" s="146" t="s">
-        <v>448</v>
-      </c>
-      <c r="G77" s="226"/>
-      <c r="H77" s="245"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="243"/>
-      <c r="B78" s="154">
-        <v>0.63194444444444398</v>
-      </c>
-      <c r="C78" s="147"/>
-      <c r="D78" s="165"/>
-      <c r="E78" s="149"/>
-      <c r="F78" s="165"/>
-      <c r="G78" s="226"/>
-      <c r="H78" s="245"/>
-    </row>
-    <row r="79" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="243"/>
-      <c r="B79" s="154">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="C79" s="147"/>
-      <c r="D79" s="166"/>
-      <c r="E79" s="149"/>
-      <c r="F79" s="165"/>
-      <c r="G79" s="226"/>
-      <c r="H79" s="245"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="243"/>
-      <c r="B80" s="154">
-        <v>0.64583333333333204</v>
-      </c>
-      <c r="C80" s="238" t="s">
-        <v>460</v>
-      </c>
-      <c r="D80" s="147"/>
-      <c r="E80" s="149"/>
-      <c r="F80" s="165"/>
-      <c r="G80" s="226"/>
-      <c r="H80" s="245"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="243"/>
-      <c r="B81" s="154">
-        <v>0.65277777777777701</v>
-      </c>
-      <c r="C81" s="239"/>
-      <c r="D81" s="147"/>
-      <c r="E81" s="149"/>
-      <c r="F81" s="165"/>
-      <c r="G81" s="226"/>
-      <c r="H81" s="245"/>
-    </row>
-    <row r="82" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="243"/>
-      <c r="B82" s="154">
-        <v>0.65972222222222099</v>
-      </c>
-      <c r="C82" s="239"/>
-      <c r="D82" s="147"/>
-      <c r="E82" s="175"/>
-      <c r="F82" s="165"/>
-      <c r="G82" s="226"/>
-      <c r="H82" s="245"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="243"/>
-      <c r="B83" s="154">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="C83" s="239"/>
-      <c r="D83" s="147"/>
-      <c r="E83" s="147"/>
-      <c r="F83" s="165"/>
-      <c r="G83" s="226"/>
-      <c r="H83" s="245"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="243"/>
-      <c r="B84" s="154">
-        <v>0.67361111111111005</v>
-      </c>
-      <c r="C84" s="239"/>
-      <c r="D84" s="147"/>
-      <c r="E84" s="147"/>
-      <c r="F84" s="165"/>
-      <c r="G84" s="226"/>
-      <c r="H84" s="245"/>
-    </row>
-    <row r="85" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="243"/>
-      <c r="B85" s="154">
-        <v>0.68055555555555403</v>
-      </c>
-      <c r="C85" s="239"/>
-      <c r="D85" s="147"/>
-      <c r="E85" s="147"/>
-      <c r="F85" s="165"/>
-      <c r="G85" s="226"/>
-      <c r="H85" s="245"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="243"/>
-      <c r="B86" s="154">
-        <v>0.687499999999999</v>
-      </c>
-      <c r="C86" s="176" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="177"/>
-      <c r="E86" s="177"/>
-      <c r="F86" s="177"/>
-      <c r="G86" s="178"/>
-      <c r="H86" s="245"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="243"/>
-      <c r="B87" s="154">
-        <v>0.69444444444444298</v>
-      </c>
-      <c r="C87" s="179"/>
-      <c r="D87" s="180"/>
-      <c r="E87" s="180"/>
-      <c r="F87" s="180"/>
-      <c r="G87" s="181"/>
-      <c r="H87" s="245"/>
-    </row>
-    <row r="88" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="243"/>
-      <c r="B88" s="154">
-        <v>0.70138888888888795</v>
-      </c>
-      <c r="C88" s="182"/>
-      <c r="D88" s="183"/>
-      <c r="E88" s="183"/>
-      <c r="F88" s="183"/>
-      <c r="G88" s="184"/>
-      <c r="H88" s="245"/>
-    </row>
-    <row r="89" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="243"/>
-      <c r="B89" s="154">
-        <v>0.70833333333333204</v>
-      </c>
-      <c r="C89" s="202" t="s">
-        <v>462</v>
-      </c>
-      <c r="D89" s="203"/>
-      <c r="E89" s="203"/>
-      <c r="F89" s="203"/>
-      <c r="G89" s="204"/>
-      <c r="H89" s="245"/>
-    </row>
-    <row r="90" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="243"/>
-      <c r="B90" s="154">
+      <c r="D160" s="185"/>
+      <c r="E160" s="185"/>
+      <c r="F160" s="185"/>
+      <c r="G160" s="185"/>
+      <c r="H160" s="152"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="151"/>
+      <c r="B161" s="49">
         <v>0.71527777777777701</v>
       </c>
-      <c r="C90" s="205"/>
-      <c r="D90" s="206"/>
-      <c r="E90" s="206"/>
-      <c r="F90" s="206"/>
-      <c r="G90" s="207"/>
-      <c r="H90" s="245"/>
-    </row>
-    <row r="91" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="243"/>
-      <c r="B91" s="154">
+      <c r="C161" s="186"/>
+      <c r="D161" s="186"/>
+      <c r="E161" s="186"/>
+      <c r="F161" s="186"/>
+      <c r="G161" s="186"/>
+      <c r="H161" s="152"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="151"/>
+      <c r="B162" s="49">
         <v>0.72222222222222099</v>
       </c>
-      <c r="C91" s="205"/>
-      <c r="D91" s="206"/>
-      <c r="E91" s="206"/>
-      <c r="F91" s="206"/>
-      <c r="G91" s="207"/>
-      <c r="H91" s="245"/>
-    </row>
-    <row r="92" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="243"/>
-      <c r="B92" s="154">
+      <c r="C162" s="186"/>
+      <c r="D162" s="186"/>
+      <c r="E162" s="186"/>
+      <c r="F162" s="186"/>
+      <c r="G162" s="186"/>
+      <c r="H162" s="152"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="151"/>
+      <c r="B163" s="49">
         <v>0.72916666666666496</v>
       </c>
-      <c r="C92" s="205"/>
-      <c r="D92" s="206"/>
-      <c r="E92" s="206"/>
-      <c r="F92" s="206"/>
-      <c r="G92" s="207"/>
-      <c r="H92" s="245"/>
-    </row>
-    <row r="93" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="243"/>
-      <c r="B93" s="154">
+      <c r="C163" s="186"/>
+      <c r="D163" s="186"/>
+      <c r="E163" s="186"/>
+      <c r="F163" s="186"/>
+      <c r="G163" s="186"/>
+      <c r="H163" s="152"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="151"/>
+      <c r="B164" s="49">
         <v>0.73611111111111005</v>
       </c>
-      <c r="C93" s="205"/>
-      <c r="D93" s="206"/>
-      <c r="E93" s="206"/>
-      <c r="F93" s="206"/>
-      <c r="G93" s="207"/>
-      <c r="H93" s="245"/>
-    </row>
-    <row r="94" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="243"/>
-      <c r="B94" s="154">
+      <c r="C164" s="186"/>
+      <c r="D164" s="186"/>
+      <c r="E164" s="186"/>
+      <c r="F164" s="186"/>
+      <c r="G164" s="186"/>
+      <c r="H164" s="152"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="151"/>
+      <c r="B165" s="49">
         <v>0.74305555555555403</v>
       </c>
-      <c r="C94" s="208"/>
-      <c r="D94" s="209"/>
-      <c r="E94" s="209"/>
-      <c r="F94" s="209"/>
-      <c r="G94" s="210"/>
-      <c r="H94" s="245"/>
-    </row>
-    <row r="95" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="243"/>
-      <c r="B95" s="154">
+      <c r="C165" s="186"/>
+      <c r="D165" s="186"/>
+      <c r="E165" s="186"/>
+      <c r="F165" s="186"/>
+      <c r="G165" s="186"/>
+      <c r="H165" s="152"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="151"/>
+      <c r="B166" s="49">
         <v>0.749999999999999</v>
       </c>
-      <c r="C95" s="211" t="s">
-        <v>452</v>
-      </c>
-      <c r="D95" s="212"/>
-      <c r="E95" s="212"/>
-      <c r="F95" s="212"/>
-      <c r="G95" s="213"/>
-      <c r="H95" s="245"/>
-    </row>
-    <row r="96" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="243"/>
-      <c r="B96" s="154">
+      <c r="C166" s="186"/>
+      <c r="D166" s="186"/>
+      <c r="E166" s="186"/>
+      <c r="F166" s="186"/>
+      <c r="G166" s="186"/>
+      <c r="H166" s="152"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="151"/>
+      <c r="B167" s="49">
         <v>0.75694444444444298</v>
       </c>
-      <c r="C96" s="214"/>
-      <c r="D96" s="215"/>
-      <c r="E96" s="215"/>
-      <c r="F96" s="215"/>
-      <c r="G96" s="216"/>
-      <c r="H96" s="245"/>
-    </row>
-    <row r="97" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="243"/>
-      <c r="B97" s="154">
+      <c r="C167" s="186"/>
+      <c r="D167" s="186"/>
+      <c r="E167" s="186"/>
+      <c r="F167" s="186"/>
+      <c r="G167" s="186"/>
+      <c r="H167" s="152"/>
+    </row>
+    <row r="168" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="151"/>
+      <c r="B168" s="49">
         <v>0.76388888888888795</v>
       </c>
-      <c r="C97" s="214"/>
-      <c r="D97" s="215"/>
-      <c r="E97" s="215"/>
-      <c r="F97" s="215"/>
-      <c r="G97" s="216"/>
-      <c r="H97" s="245"/>
-    </row>
-    <row r="98" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="243"/>
-      <c r="B98" s="154">
+      <c r="C168" s="187"/>
+      <c r="D168" s="187"/>
+      <c r="E168" s="187"/>
+      <c r="F168" s="187"/>
+      <c r="G168" s="187"/>
+      <c r="H168" s="152"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="151"/>
+      <c r="B169" s="49">
         <v>0.77083333333333204</v>
       </c>
-      <c r="C98" s="214"/>
-      <c r="D98" s="215"/>
-      <c r="E98" s="215"/>
-      <c r="F98" s="215"/>
-      <c r="G98" s="216"/>
-      <c r="H98" s="245"/>
-    </row>
-    <row r="99" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="243"/>
-      <c r="B99" s="154">
+      <c r="C169" s="165" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="166"/>
+      <c r="E169" s="166"/>
+      <c r="F169" s="166"/>
+      <c r="G169" s="167"/>
+      <c r="H169" s="152"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="151"/>
+      <c r="B170" s="49">
         <v>0.77777777777777601</v>
       </c>
-      <c r="C99" s="214"/>
-      <c r="D99" s="215"/>
-      <c r="E99" s="215"/>
-      <c r="F99" s="215"/>
-      <c r="G99" s="216"/>
-      <c r="H99" s="245"/>
-    </row>
-    <row r="100" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="243"/>
-      <c r="B100" s="154">
+      <c r="C170" s="168"/>
+      <c r="D170" s="169"/>
+      <c r="E170" s="169"/>
+      <c r="F170" s="169"/>
+      <c r="G170" s="170"/>
+      <c r="H170" s="152"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="151"/>
+      <c r="B171" s="49">
         <v>0.78472222222222099</v>
       </c>
-      <c r="C100" s="214"/>
-      <c r="D100" s="215"/>
-      <c r="E100" s="215"/>
-      <c r="F100" s="215"/>
-      <c r="G100" s="216"/>
-      <c r="H100" s="245"/>
-    </row>
-    <row r="101" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="243"/>
-      <c r="B101" s="154">
+      <c r="C171" s="168"/>
+      <c r="D171" s="169"/>
+      <c r="E171" s="169"/>
+      <c r="F171" s="169"/>
+      <c r="G171" s="170"/>
+      <c r="H171" s="152"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="151"/>
+      <c r="B172" s="49">
         <v>0.79166666666666496</v>
       </c>
-      <c r="C101" s="214"/>
-      <c r="D101" s="215"/>
-      <c r="E101" s="215"/>
-      <c r="F101" s="215"/>
-      <c r="G101" s="216"/>
-      <c r="H101" s="245"/>
-    </row>
-    <row r="102" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="243"/>
-      <c r="B102" s="154">
+      <c r="C172" s="168"/>
+      <c r="D172" s="169"/>
+      <c r="E172" s="169"/>
+      <c r="F172" s="169"/>
+      <c r="G172" s="170"/>
+      <c r="H172" s="152"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="151"/>
+      <c r="B173" s="49">
         <v>0.79861111111111005</v>
       </c>
-      <c r="C102" s="214"/>
-      <c r="D102" s="215"/>
-      <c r="E102" s="215"/>
-      <c r="F102" s="215"/>
-      <c r="G102" s="216"/>
-      <c r="H102" s="245"/>
-    </row>
-    <row r="103" spans="1:8" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="243"/>
-      <c r="B103" s="154">
+      <c r="C173" s="168"/>
+      <c r="D173" s="169"/>
+      <c r="E173" s="169"/>
+      <c r="F173" s="169"/>
+      <c r="G173" s="170"/>
+      <c r="H173" s="152"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="151"/>
+      <c r="B174" s="49">
         <v>0.80555555555555403</v>
       </c>
-      <c r="C103" s="217"/>
-      <c r="D103" s="218"/>
-      <c r="E103" s="218"/>
-      <c r="F103" s="218"/>
-      <c r="G103" s="219"/>
-      <c r="H103" s="245"/>
-    </row>
-    <row r="104" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="243"/>
-      <c r="B104" s="154">
+      <c r="C174" s="168"/>
+      <c r="D174" s="169"/>
+      <c r="E174" s="169"/>
+      <c r="F174" s="169"/>
+      <c r="G174" s="170"/>
+      <c r="H174" s="152"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="151"/>
+      <c r="B175" s="49">
         <v>0.812499999999998</v>
       </c>
-      <c r="C104" s="202" t="s">
-        <v>461</v>
-      </c>
-      <c r="D104" s="203"/>
-      <c r="E104" s="203"/>
-      <c r="F104" s="203"/>
-      <c r="G104" s="204"/>
-      <c r="H104" s="245"/>
-    </row>
-    <row r="105" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="243"/>
-      <c r="B105" s="154">
+      <c r="C175" s="168"/>
+      <c r="D175" s="169"/>
+      <c r="E175" s="169"/>
+      <c r="F175" s="169"/>
+      <c r="G175" s="170"/>
+      <c r="H175" s="152"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="151"/>
+      <c r="B176" s="49">
         <v>0.81944444444444298</v>
       </c>
-      <c r="C105" s="205"/>
-      <c r="D105" s="206"/>
-      <c r="E105" s="206"/>
-      <c r="F105" s="206"/>
-      <c r="G105" s="207"/>
-      <c r="H105" s="245"/>
-    </row>
-    <row r="106" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="243"/>
-      <c r="B106" s="154">
+      <c r="C176" s="168"/>
+      <c r="D176" s="169"/>
+      <c r="E176" s="169"/>
+      <c r="F176" s="169"/>
+      <c r="G176" s="170"/>
+      <c r="H176" s="152"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="151"/>
+      <c r="B177" s="49">
         <v>0.82638888888888695</v>
       </c>
-      <c r="C106" s="205"/>
-      <c r="D106" s="206"/>
-      <c r="E106" s="206"/>
-      <c r="F106" s="206"/>
-      <c r="G106" s="207"/>
-      <c r="H106" s="245"/>
-    </row>
-    <row r="107" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="243"/>
-      <c r="B107" s="154">
+      <c r="C177" s="168"/>
+      <c r="D177" s="169"/>
+      <c r="E177" s="169"/>
+      <c r="F177" s="169"/>
+      <c r="G177" s="170"/>
+      <c r="H177" s="152"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="151"/>
+      <c r="B178" s="49">
         <v>0.83333333333333204</v>
       </c>
-      <c r="C107" s="205"/>
-      <c r="D107" s="206"/>
-      <c r="E107" s="206"/>
-      <c r="F107" s="206"/>
-      <c r="G107" s="207"/>
-      <c r="H107" s="245"/>
-    </row>
-    <row r="108" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="243"/>
-      <c r="B108" s="154">
+      <c r="C178" s="168"/>
+      <c r="D178" s="169"/>
+      <c r="E178" s="169"/>
+      <c r="F178" s="169"/>
+      <c r="G178" s="170"/>
+      <c r="H178" s="152"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="151"/>
+      <c r="B179" s="49">
         <v>0.84027777777777601</v>
       </c>
-      <c r="C108" s="205"/>
-      <c r="D108" s="206"/>
-      <c r="E108" s="206"/>
-      <c r="F108" s="206"/>
-      <c r="G108" s="207"/>
-      <c r="H108" s="245"/>
-    </row>
-    <row r="109" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="243"/>
-      <c r="B109" s="154">
+      <c r="C179" s="168"/>
+      <c r="D179" s="169"/>
+      <c r="E179" s="169"/>
+      <c r="F179" s="169"/>
+      <c r="G179" s="170"/>
+      <c r="H179" s="152"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="151"/>
+      <c r="B180" s="49">
         <v>0.84722222222222099</v>
       </c>
-      <c r="C109" s="205"/>
-      <c r="D109" s="206"/>
-      <c r="E109" s="206"/>
-      <c r="F109" s="206"/>
-      <c r="G109" s="207"/>
-      <c r="H109" s="245"/>
-    </row>
-    <row r="110" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="243"/>
-      <c r="B110" s="154">
+      <c r="C180" s="168"/>
+      <c r="D180" s="169"/>
+      <c r="E180" s="169"/>
+      <c r="F180" s="169"/>
+      <c r="G180" s="170"/>
+      <c r="H180" s="152"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="151"/>
+      <c r="B181" s="49">
         <v>0.85416666666666496</v>
       </c>
-      <c r="C110" s="205"/>
-      <c r="D110" s="206"/>
-      <c r="E110" s="206"/>
-      <c r="F110" s="206"/>
-      <c r="G110" s="207"/>
-      <c r="H110" s="245"/>
-    </row>
-    <row r="111" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="243"/>
-      <c r="B111" s="154">
+      <c r="C181" s="168"/>
+      <c r="D181" s="169"/>
+      <c r="E181" s="169"/>
+      <c r="F181" s="169"/>
+      <c r="G181" s="170"/>
+      <c r="H181" s="152"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="151"/>
+      <c r="B182" s="49">
         <v>0.86111111111110905</v>
       </c>
-      <c r="C111" s="205"/>
-      <c r="D111" s="206"/>
-      <c r="E111" s="206"/>
-      <c r="F111" s="206"/>
-      <c r="G111" s="207"/>
-      <c r="H111" s="245"/>
-    </row>
-    <row r="112" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="243"/>
-      <c r="B112" s="154">
+      <c r="C182" s="168"/>
+      <c r="D182" s="169"/>
+      <c r="E182" s="169"/>
+      <c r="F182" s="169"/>
+      <c r="G182" s="170"/>
+      <c r="H182" s="152"/>
+    </row>
+    <row r="183" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="151"/>
+      <c r="B183" s="49">
         <v>0.86805555555555403</v>
       </c>
-      <c r="C112" s="205"/>
-      <c r="D112" s="206"/>
-      <c r="E112" s="206"/>
-      <c r="F112" s="206"/>
-      <c r="G112" s="207"/>
-      <c r="H112" s="245"/>
-    </row>
-    <row r="113" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="243"/>
-      <c r="B113" s="154">
-        <v>0.874999999999998</v>
-      </c>
-      <c r="C113" s="208"/>
-      <c r="D113" s="209"/>
-      <c r="E113" s="209"/>
-      <c r="F113" s="209"/>
-      <c r="G113" s="210"/>
-      <c r="H113" s="245"/>
-    </row>
-    <row r="114" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="258"/>
-      <c r="B114" s="258"/>
-      <c r="C114" s="258"/>
-      <c r="D114" s="258"/>
-      <c r="E114" s="258"/>
-      <c r="F114" s="258"/>
-      <c r="G114" s="258"/>
-      <c r="H114" s="258"/>
-    </row>
-    <row r="115" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="258"/>
-      <c r="B115" s="258"/>
-      <c r="C115" s="258"/>
-      <c r="D115" s="258"/>
-      <c r="E115" s="258"/>
-      <c r="F115" s="258"/>
-      <c r="G115" s="258"/>
-      <c r="H115" s="258"/>
-    </row>
-    <row r="116" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="154"/>
-      <c r="C116" s="147"/>
-      <c r="D116" s="147"/>
-      <c r="E116" s="147"/>
-      <c r="F116" s="147"/>
-      <c r="G116" s="225"/>
-    </row>
-    <row r="117" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="154"/>
-      <c r="C117" s="147"/>
-      <c r="D117" s="147"/>
-      <c r="E117" s="147"/>
-      <c r="F117" s="147"/>
-      <c r="G117" s="225"/>
-    </row>
-    <row r="118" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="154"/>
-      <c r="C118" s="147"/>
-      <c r="D118" s="147"/>
-      <c r="E118" s="147"/>
-      <c r="F118" s="147"/>
-      <c r="G118" s="225"/>
-    </row>
-    <row r="119" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="255" t="s">
-        <v>471</v>
-      </c>
-      <c r="C119" s="256"/>
-      <c r="D119" s="256"/>
-      <c r="E119" s="256"/>
-      <c r="F119" s="256"/>
-      <c r="G119" s="257"/>
-    </row>
-    <row r="120" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C120" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120" s="248" t="s">
-        <v>301</v>
-      </c>
-      <c r="E120" s="246" t="s">
-        <v>302</v>
-      </c>
-      <c r="F120" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" s="252" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="58"/>
-      <c r="C121" s="60"/>
-      <c r="D121" s="249"/>
-      <c r="E121" s="247"/>
-      <c r="F121" s="65"/>
-      <c r="G121" s="253"/>
-    </row>
-    <row r="122" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="154"/>
-      <c r="C122" s="147"/>
-      <c r="D122" s="147"/>
-      <c r="E122" s="147"/>
-      <c r="F122" s="147"/>
-      <c r="G122" s="225"/>
-    </row>
-    <row r="123" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="154"/>
-      <c r="C123" s="147"/>
-      <c r="D123" s="147"/>
-      <c r="E123" s="147"/>
-      <c r="F123" s="147"/>
-      <c r="G123" s="225"/>
-    </row>
-    <row r="124" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="154"/>
-      <c r="C124" s="147"/>
-      <c r="D124" s="147"/>
-      <c r="E124" s="147"/>
-      <c r="F124" s="147"/>
-      <c r="G124" s="225"/>
-    </row>
-    <row r="125" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="154"/>
-      <c r="C125" s="147"/>
-      <c r="D125" s="147"/>
-      <c r="E125" s="147"/>
-      <c r="F125" s="147"/>
-      <c r="G125" s="225"/>
-    </row>
-    <row r="126" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="154"/>
-      <c r="C126" s="147"/>
-      <c r="D126" s="147"/>
-      <c r="E126" s="147"/>
-      <c r="F126" s="147"/>
-      <c r="G126" s="225"/>
-    </row>
-    <row r="127" spans="1:8" s="235" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="243" t="s">
-        <v>2</v>
-      </c>
-      <c r="B127" s="220"/>
-      <c r="C127" s="221" t="s">
-        <v>435</v>
-      </c>
-      <c r="D127" s="221" t="s">
-        <v>434</v>
-      </c>
-      <c r="E127" s="221" t="s">
-        <v>429</v>
-      </c>
-      <c r="F127" s="221" t="s">
-        <v>433</v>
-      </c>
-      <c r="G127" s="223" t="s">
-        <v>432</v>
-      </c>
-      <c r="H127" s="245" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" s="235" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="243"/>
-      <c r="B128" s="220"/>
-      <c r="C128" s="222" t="s">
-        <v>431</v>
-      </c>
-      <c r="D128" s="222" t="s">
-        <v>430</v>
-      </c>
-      <c r="E128" s="222" t="s">
-        <v>429</v>
-      </c>
-      <c r="F128" s="222" t="s">
-        <v>428</v>
-      </c>
-      <c r="G128" s="224" t="s">
-        <v>427</v>
-      </c>
-      <c r="H128" s="245"/>
-    </row>
-    <row r="129" spans="1:8" s="235" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="243"/>
-      <c r="B129" s="153" t="s">
-        <v>2</v>
-      </c>
-      <c r="C129" s="153"/>
-      <c r="D129" s="153"/>
-      <c r="E129" s="153"/>
-      <c r="F129" s="153"/>
-      <c r="G129" s="153"/>
-      <c r="H129" s="245"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="243"/>
-      <c r="B130" s="154">
-        <v>0.5</v>
-      </c>
-      <c r="C130" s="147"/>
-      <c r="D130" s="144" t="s">
-        <v>441</v>
-      </c>
-      <c r="E130" s="147"/>
-      <c r="F130" s="147"/>
-      <c r="G130" s="225"/>
-      <c r="H130" s="245"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="243"/>
-      <c r="B131" s="154">
-        <v>0.50694444444444398</v>
-      </c>
-      <c r="C131" s="147"/>
-      <c r="D131" s="173"/>
-      <c r="E131" s="147"/>
-      <c r="F131" s="147"/>
-      <c r="G131" s="225"/>
-      <c r="H131" s="245"/>
-    </row>
-    <row r="132" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="243"/>
-      <c r="B132" s="154">
-        <v>0.51388888888888795</v>
-      </c>
-      <c r="C132" s="147"/>
-      <c r="D132" s="174"/>
-      <c r="E132" s="147"/>
-      <c r="F132" s="147"/>
-      <c r="G132" s="225"/>
-      <c r="H132" s="245"/>
-    </row>
-    <row r="133" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="243"/>
-      <c r="B133" s="154">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="C133" s="145" t="s">
-        <v>438</v>
-      </c>
-      <c r="D133" s="147"/>
-      <c r="E133" s="145" t="s">
-        <v>463</v>
-      </c>
-      <c r="F133" s="146" t="s">
-        <v>449</v>
-      </c>
-      <c r="G133" s="151" t="s">
-        <v>453</v>
-      </c>
-      <c r="H133" s="245"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="243"/>
-      <c r="B134" s="154">
-        <v>0.52777777777777701</v>
-      </c>
-      <c r="C134" s="162"/>
-      <c r="D134" s="147"/>
-      <c r="E134" s="162"/>
-      <c r="F134" s="165"/>
-      <c r="G134" s="226"/>
-      <c r="H134" s="245"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="243"/>
-      <c r="B135" s="154">
-        <v>0.53472222222222199</v>
-      </c>
-      <c r="C135" s="162"/>
-      <c r="D135" s="147"/>
-      <c r="E135" s="162"/>
-      <c r="F135" s="165"/>
-      <c r="G135" s="226"/>
-      <c r="H135" s="245"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="243"/>
-      <c r="B136" s="154">
-        <v>0.54166666666666596</v>
-      </c>
-      <c r="C136" s="162"/>
-      <c r="D136" s="147"/>
-      <c r="E136" s="162"/>
-      <c r="F136" s="165"/>
-      <c r="G136" s="226"/>
-      <c r="H136" s="245"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="243"/>
-      <c r="B137" s="154">
-        <v>0.54861111111111005</v>
-      </c>
-      <c r="C137" s="162"/>
-      <c r="D137" s="147"/>
-      <c r="E137" s="162"/>
-      <c r="F137" s="165"/>
-      <c r="G137" s="226"/>
-      <c r="H137" s="245"/>
-    </row>
-    <row r="138" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="243"/>
-      <c r="B138" s="154">
-        <v>0.55555555555555503</v>
-      </c>
-      <c r="C138" s="163"/>
-      <c r="D138" s="147"/>
-      <c r="E138" s="163"/>
-      <c r="F138" s="165"/>
-      <c r="G138" s="226"/>
-      <c r="H138" s="245"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="243"/>
-      <c r="B139" s="154">
-        <v>0.562499999999999</v>
-      </c>
-      <c r="C139" s="147"/>
-      <c r="D139" s="147"/>
-      <c r="E139" s="144" t="s">
-        <v>443</v>
-      </c>
-      <c r="F139" s="165"/>
-      <c r="G139" s="226"/>
-      <c r="H139" s="245"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="243"/>
-      <c r="B140" s="154">
-        <v>0.56944444444444398</v>
-      </c>
-      <c r="C140" s="147"/>
-      <c r="D140" s="147"/>
-      <c r="E140" s="173"/>
-      <c r="F140" s="165"/>
-      <c r="G140" s="226"/>
-      <c r="H140" s="245"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="243"/>
-      <c r="B141" s="154">
-        <v>0.57638888888888795</v>
-      </c>
-      <c r="C141" s="147"/>
-      <c r="D141" s="147"/>
-      <c r="E141" s="173"/>
-      <c r="F141" s="165"/>
-      <c r="G141" s="226"/>
-      <c r="H141" s="245"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A142" s="243"/>
-      <c r="B142" s="154">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="C142" s="147"/>
-      <c r="D142" s="147"/>
-      <c r="E142" s="173"/>
-      <c r="F142" s="165"/>
-      <c r="G142" s="226"/>
-      <c r="H142" s="245"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" s="243"/>
-      <c r="B143" s="154">
-        <v>0.59027777777777701</v>
-      </c>
-      <c r="C143" s="147"/>
-      <c r="D143" s="147"/>
-      <c r="E143" s="173"/>
-      <c r="F143" s="165"/>
-      <c r="G143" s="226"/>
-      <c r="H143" s="245"/>
-    </row>
-    <row r="144" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="243"/>
-      <c r="B144" s="154">
-        <v>0.59722222222222099</v>
-      </c>
-      <c r="C144" s="147"/>
-      <c r="D144" s="147"/>
-      <c r="E144" s="173"/>
-      <c r="F144" s="165"/>
-      <c r="G144" s="226"/>
-      <c r="H144" s="245"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" s="243"/>
-      <c r="B145" s="154">
-        <v>0.60416666666666596</v>
-      </c>
-      <c r="C145" s="167" t="s">
-        <v>451</v>
-      </c>
-      <c r="D145" s="168"/>
-      <c r="E145" s="168"/>
-      <c r="F145" s="168"/>
-      <c r="G145" s="226"/>
-      <c r="H145" s="245"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" s="243"/>
-      <c r="B146" s="154">
-        <v>0.61111111111111005</v>
-      </c>
-      <c r="C146" s="169"/>
-      <c r="D146" s="170"/>
-      <c r="E146" s="170"/>
-      <c r="F146" s="170"/>
-      <c r="G146" s="226"/>
-      <c r="H146" s="245"/>
-    </row>
-    <row r="147" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="243"/>
-      <c r="B147" s="154">
-        <v>0.61805555555555503</v>
-      </c>
-      <c r="C147" s="171"/>
-      <c r="D147" s="172"/>
-      <c r="E147" s="172"/>
-      <c r="F147" s="172"/>
-      <c r="G147" s="236"/>
-      <c r="H147" s="245"/>
-    </row>
-    <row r="148" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="243"/>
-      <c r="B148" s="154">
-        <v>0.624999999999999</v>
-      </c>
-      <c r="C148" s="147"/>
-      <c r="D148" s="250" t="s">
-        <v>442</v>
-      </c>
-      <c r="E148" s="148" t="s">
-        <v>444</v>
-      </c>
-      <c r="F148" s="149" t="s">
-        <v>450</v>
-      </c>
-      <c r="G148" s="225"/>
-      <c r="H148" s="245"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" s="243"/>
-      <c r="B149" s="154">
-        <v>0.63194444444444398</v>
-      </c>
-      <c r="C149" s="147"/>
-      <c r="D149" s="250"/>
-      <c r="E149" s="149"/>
-      <c r="F149" s="149"/>
-      <c r="G149" s="225"/>
-      <c r="H149" s="245"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="243"/>
-      <c r="B150" s="154">
-        <v>0.63888888888888795</v>
-      </c>
-      <c r="C150" s="147"/>
-      <c r="D150" s="250"/>
-      <c r="E150" s="149"/>
-      <c r="F150" s="149"/>
-      <c r="G150" s="225"/>
-      <c r="H150" s="245"/>
-    </row>
-    <row r="151" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="243"/>
-      <c r="B151" s="154">
-        <v>0.64583333333333204</v>
-      </c>
-      <c r="C151" s="147"/>
-      <c r="D151" s="250"/>
-      <c r="E151" s="149"/>
-      <c r="F151" s="149"/>
-      <c r="G151" s="225"/>
-      <c r="H151" s="245"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" s="243"/>
-      <c r="B152" s="154">
-        <v>0.65277777777777701</v>
-      </c>
-      <c r="C152" s="147"/>
-      <c r="D152" s="250"/>
-      <c r="E152" s="149"/>
-      <c r="F152" s="149"/>
-      <c r="G152" s="225"/>
-      <c r="H152" s="245"/>
-    </row>
-    <row r="153" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="243"/>
-      <c r="B153" s="154">
-        <v>0.65972222222222099</v>
-      </c>
-      <c r="C153" s="147"/>
-      <c r="D153" s="251"/>
-      <c r="E153" s="175"/>
-      <c r="F153" s="149"/>
-      <c r="G153" s="225"/>
-      <c r="H153" s="245"/>
-    </row>
-    <row r="154" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="243"/>
-      <c r="B154" s="154">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="C154" s="145" t="s">
-        <v>457</v>
-      </c>
-      <c r="D154" s="147"/>
-      <c r="E154" s="147"/>
-      <c r="F154" s="149"/>
-      <c r="G154" s="225"/>
-      <c r="H154" s="245"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155" s="243"/>
-      <c r="B155" s="154">
-        <v>0.67361111111111005</v>
-      </c>
-      <c r="C155" s="162"/>
-      <c r="D155" s="147"/>
-      <c r="E155" s="147"/>
-      <c r="F155" s="149"/>
-      <c r="G155" s="225"/>
-      <c r="H155" s="245"/>
-    </row>
-    <row r="156" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="243"/>
-      <c r="B156" s="154">
-        <v>0.68055555555555403</v>
-      </c>
-      <c r="C156" s="162"/>
-      <c r="D156" s="147"/>
-      <c r="E156" s="147"/>
-      <c r="F156" s="175"/>
-      <c r="G156" s="225"/>
-      <c r="H156" s="245"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="243"/>
-      <c r="B157" s="154">
-        <v>0.687499999999999</v>
-      </c>
-      <c r="C157" s="162"/>
-      <c r="D157" s="185" t="s">
-        <v>456</v>
-      </c>
-      <c r="E157" s="186"/>
-      <c r="F157" s="186"/>
-      <c r="G157" s="187"/>
-      <c r="H157" s="245"/>
-    </row>
-    <row r="158" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="243"/>
-      <c r="B158" s="154">
-        <v>0.69444444444444298</v>
-      </c>
-      <c r="C158" s="162"/>
-      <c r="D158" s="188"/>
-      <c r="E158" s="189"/>
-      <c r="F158" s="189"/>
-      <c r="G158" s="190"/>
-      <c r="H158" s="245"/>
-    </row>
-    <row r="159" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="243"/>
-      <c r="B159" s="154">
-        <v>0.70138888888888795</v>
-      </c>
-      <c r="C159" s="237"/>
-      <c r="D159" s="191"/>
-      <c r="E159" s="192"/>
-      <c r="F159" s="192"/>
-      <c r="G159" s="193"/>
-      <c r="H159" s="245"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="243"/>
-      <c r="B160" s="154">
-        <v>0.70833333333333204</v>
-      </c>
-      <c r="C160" s="241" t="s">
-        <v>467</v>
-      </c>
-      <c r="D160" s="241"/>
-      <c r="E160" s="241"/>
-      <c r="F160" s="241"/>
-      <c r="G160" s="241"/>
-      <c r="H160" s="245"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="243"/>
-      <c r="B161" s="154">
-        <v>0.71527777777777701</v>
-      </c>
-      <c r="C161" s="240"/>
-      <c r="D161" s="240"/>
-      <c r="E161" s="240"/>
-      <c r="F161" s="240"/>
-      <c r="G161" s="240"/>
-      <c r="H161" s="245"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="243"/>
-      <c r="B162" s="154">
-        <v>0.72222222222222099</v>
-      </c>
-      <c r="C162" s="240"/>
-      <c r="D162" s="240"/>
-      <c r="E162" s="240"/>
-      <c r="F162" s="240"/>
-      <c r="G162" s="240"/>
-      <c r="H162" s="245"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="243"/>
-      <c r="B163" s="154">
-        <v>0.72916666666666496</v>
-      </c>
-      <c r="C163" s="240"/>
-      <c r="D163" s="240"/>
-      <c r="E163" s="240"/>
-      <c r="F163" s="240"/>
-      <c r="G163" s="240"/>
-      <c r="H163" s="245"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="243"/>
-      <c r="B164" s="154">
-        <v>0.73611111111111005</v>
-      </c>
-      <c r="C164" s="240"/>
-      <c r="D164" s="240"/>
-      <c r="E164" s="240"/>
-      <c r="F164" s="240"/>
-      <c r="G164" s="240"/>
-      <c r="H164" s="245"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="243"/>
-      <c r="B165" s="154">
-        <v>0.74305555555555403</v>
-      </c>
-      <c r="C165" s="240"/>
-      <c r="D165" s="240"/>
-      <c r="E165" s="240"/>
-      <c r="F165" s="240"/>
-      <c r="G165" s="240"/>
-      <c r="H165" s="245"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="243"/>
-      <c r="B166" s="154">
-        <v>0.749999999999999</v>
-      </c>
-      <c r="C166" s="240"/>
-      <c r="D166" s="240"/>
-      <c r="E166" s="240"/>
-      <c r="F166" s="240"/>
-      <c r="G166" s="240"/>
-      <c r="H166" s="245"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" s="243"/>
-      <c r="B167" s="154">
-        <v>0.75694444444444298</v>
-      </c>
-      <c r="C167" s="240"/>
-      <c r="D167" s="240"/>
-      <c r="E167" s="240"/>
-      <c r="F167" s="240"/>
-      <c r="G167" s="240"/>
-      <c r="H167" s="245"/>
-    </row>
-    <row r="168" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="243"/>
-      <c r="B168" s="154">
-        <v>0.76388888888888795</v>
-      </c>
-      <c r="C168" s="242"/>
-      <c r="D168" s="242"/>
-      <c r="E168" s="242"/>
-      <c r="F168" s="242"/>
-      <c r="G168" s="242"/>
-      <c r="H168" s="245"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="243"/>
-      <c r="B169" s="154">
-        <v>0.77083333333333204</v>
-      </c>
-      <c r="C169" s="202" t="s">
-        <v>11</v>
-      </c>
-      <c r="D169" s="203"/>
-      <c r="E169" s="203"/>
-      <c r="F169" s="203"/>
-      <c r="G169" s="204"/>
-      <c r="H169" s="245"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="243"/>
-      <c r="B170" s="154">
-        <v>0.77777777777777601</v>
-      </c>
-      <c r="C170" s="205"/>
-      <c r="D170" s="206"/>
-      <c r="E170" s="206"/>
-      <c r="F170" s="206"/>
-      <c r="G170" s="207"/>
-      <c r="H170" s="245"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" s="243"/>
-      <c r="B171" s="154">
-        <v>0.78472222222222099</v>
-      </c>
-      <c r="C171" s="205"/>
-      <c r="D171" s="206"/>
-      <c r="E171" s="206"/>
-      <c r="F171" s="206"/>
-      <c r="G171" s="207"/>
-      <c r="H171" s="245"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="243"/>
-      <c r="B172" s="154">
-        <v>0.79166666666666496</v>
-      </c>
-      <c r="C172" s="205"/>
-      <c r="D172" s="206"/>
-      <c r="E172" s="206"/>
-      <c r="F172" s="206"/>
-      <c r="G172" s="207"/>
-      <c r="H172" s="245"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="243"/>
-      <c r="B173" s="154">
-        <v>0.79861111111111005</v>
-      </c>
-      <c r="C173" s="205"/>
-      <c r="D173" s="206"/>
-      <c r="E173" s="206"/>
-      <c r="F173" s="206"/>
-      <c r="G173" s="207"/>
-      <c r="H173" s="245"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="243"/>
-      <c r="B174" s="154">
-        <v>0.80555555555555403</v>
-      </c>
-      <c r="C174" s="205"/>
-      <c r="D174" s="206"/>
-      <c r="E174" s="206"/>
-      <c r="F174" s="206"/>
-      <c r="G174" s="207"/>
-      <c r="H174" s="245"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" s="243"/>
-      <c r="B175" s="154">
-        <v>0.812499999999998</v>
-      </c>
-      <c r="C175" s="205"/>
-      <c r="D175" s="206"/>
-      <c r="E175" s="206"/>
-      <c r="F175" s="206"/>
-      <c r="G175" s="207"/>
-      <c r="H175" s="245"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" s="243"/>
-      <c r="B176" s="154">
-        <v>0.81944444444444298</v>
-      </c>
-      <c r="C176" s="205"/>
-      <c r="D176" s="206"/>
-      <c r="E176" s="206"/>
-      <c r="F176" s="206"/>
-      <c r="G176" s="207"/>
-      <c r="H176" s="245"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="243"/>
-      <c r="B177" s="154">
-        <v>0.82638888888888695</v>
-      </c>
-      <c r="C177" s="205"/>
-      <c r="D177" s="206"/>
-      <c r="E177" s="206"/>
-      <c r="F177" s="206"/>
-      <c r="G177" s="207"/>
-      <c r="H177" s="245"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="243"/>
-      <c r="B178" s="154">
-        <v>0.83333333333333204</v>
-      </c>
-      <c r="C178" s="205"/>
-      <c r="D178" s="206"/>
-      <c r="E178" s="206"/>
-      <c r="F178" s="206"/>
-      <c r="G178" s="207"/>
-      <c r="H178" s="245"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" s="243"/>
-      <c r="B179" s="154">
-        <v>0.84027777777777601</v>
-      </c>
-      <c r="C179" s="205"/>
-      <c r="D179" s="206"/>
-      <c r="E179" s="206"/>
-      <c r="F179" s="206"/>
-      <c r="G179" s="207"/>
-      <c r="H179" s="245"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="243"/>
-      <c r="B180" s="154">
-        <v>0.84722222222222099</v>
-      </c>
-      <c r="C180" s="205"/>
-      <c r="D180" s="206"/>
-      <c r="E180" s="206"/>
-      <c r="F180" s="206"/>
-      <c r="G180" s="207"/>
-      <c r="H180" s="245"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="243"/>
-      <c r="B181" s="154">
-        <v>0.85416666666666496</v>
-      </c>
-      <c r="C181" s="205"/>
-      <c r="D181" s="206"/>
-      <c r="E181" s="206"/>
-      <c r="F181" s="206"/>
-      <c r="G181" s="207"/>
-      <c r="H181" s="245"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="243"/>
-      <c r="B182" s="154">
-        <v>0.86111111111110905</v>
-      </c>
-      <c r="C182" s="205"/>
-      <c r="D182" s="206"/>
-      <c r="E182" s="206"/>
-      <c r="F182" s="206"/>
-      <c r="G182" s="207"/>
-      <c r="H182" s="245"/>
-    </row>
-    <row r="183" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="243"/>
-      <c r="B183" s="154">
-        <v>0.86805555555555403</v>
-      </c>
-      <c r="C183" s="208"/>
-      <c r="D183" s="209"/>
-      <c r="E183" s="209"/>
-      <c r="F183" s="209"/>
-      <c r="G183" s="210"/>
-      <c r="H183" s="245"/>
+      <c r="C183" s="171"/>
+      <c r="D183" s="172"/>
+      <c r="E183" s="172"/>
+      <c r="F183" s="172"/>
+      <c r="G183" s="173"/>
+      <c r="H183" s="152"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" s="258"/>
-      <c r="B184" s="258"/>
-      <c r="C184" s="258"/>
-      <c r="D184" s="258"/>
-      <c r="E184" s="258"/>
-      <c r="F184" s="258"/>
-      <c r="G184" s="258"/>
-      <c r="H184" s="258"/>
+      <c r="A184" s="147"/>
+      <c r="B184" s="147"/>
+      <c r="C184" s="147"/>
+      <c r="D184" s="147"/>
+      <c r="E184" s="147"/>
+      <c r="F184" s="147"/>
+      <c r="G184" s="147"/>
+      <c r="H184" s="147"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" s="258"/>
-      <c r="B185" s="258"/>
-      <c r="C185" s="258"/>
-      <c r="D185" s="258"/>
-      <c r="E185" s="258"/>
-      <c r="F185" s="258"/>
-      <c r="G185" s="258"/>
-      <c r="H185" s="258"/>
+      <c r="A185" s="147"/>
+      <c r="B185" s="147"/>
+      <c r="C185" s="147"/>
+      <c r="D185" s="147"/>
+      <c r="E185" s="147"/>
+      <c r="F185" s="147"/>
+      <c r="G185" s="147"/>
+      <c r="H185" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="A25:H26"/>
-    <mergeCell ref="A114:H115"/>
-    <mergeCell ref="A184:H185"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E139:E144"/>
+    <mergeCell ref="D71:D79"/>
+    <mergeCell ref="D130:D132"/>
+    <mergeCell ref="C133:C138"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="C80:C85"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="E77:E82"/>
+    <mergeCell ref="E133:E138"/>
+    <mergeCell ref="F6:F14"/>
+    <mergeCell ref="C95:G103"/>
+    <mergeCell ref="G6:G23"/>
+    <mergeCell ref="C86:G88"/>
+    <mergeCell ref="C56:F58"/>
+    <mergeCell ref="C65:F70"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="G41:G85"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="F44:F55"/>
+    <mergeCell ref="F59:F64"/>
+    <mergeCell ref="F71:F76"/>
+    <mergeCell ref="F77:F85"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
     <mergeCell ref="A3:A24"/>
     <mergeCell ref="H3:H24"/>
     <mergeCell ref="H127:H183"/>
@@ -14810,42 +14814,29 @@
     <mergeCell ref="G133:G147"/>
     <mergeCell ref="C145:F147"/>
     <mergeCell ref="C160:G168"/>
+    <mergeCell ref="A184:H185"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="B119:G119"/>
     <mergeCell ref="B120:B121"/>
     <mergeCell ref="C120:C121"/>
-    <mergeCell ref="F6:F14"/>
-    <mergeCell ref="C95:G103"/>
-    <mergeCell ref="G6:G23"/>
-    <mergeCell ref="C86:G88"/>
-    <mergeCell ref="C56:F58"/>
-    <mergeCell ref="C65:F70"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="G41:G85"/>
-    <mergeCell ref="B40:G40"/>
     <mergeCell ref="D148:D153"/>
-    <mergeCell ref="F44:F55"/>
     <mergeCell ref="F133:F144"/>
-    <mergeCell ref="F59:F64"/>
-    <mergeCell ref="F71:F76"/>
-    <mergeCell ref="F77:F85"/>
     <mergeCell ref="F148:F156"/>
     <mergeCell ref="D120:D121"/>
     <mergeCell ref="E148:E153"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
     <mergeCell ref="C44:C49"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="A25:H26"/>
+    <mergeCell ref="A114:H115"/>
+    <mergeCell ref="B30:G30"/>
     <mergeCell ref="C59:C64"/>
-    <mergeCell ref="C133:C138"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="C80:C85"/>
-    <mergeCell ref="E59:E64"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="E77:E82"/>
-    <mergeCell ref="E133:E138"/>
-    <mergeCell ref="E139:E144"/>
-    <mergeCell ref="D71:D79"/>
-    <mergeCell ref="D130:D132"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.25" bottom="0.25" header="0.05" footer="0.05"/>
   <pageSetup paperSize="9" scale="45" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -14896,65 +14887,65 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="248" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="I4" s="57" t="s">
+      <c r="C4" s="250"/>
+      <c r="D4" s="250"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="250"/>
+      <c r="G4" s="250"/>
+      <c r="I4" s="136" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="I5" s="58"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="I5" s="137"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="I6" s="59" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="I6" s="138" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="I7" s="60"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="I7" s="139"/>
     </row>
     <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="I8" s="137" t="s">
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="I8" s="237" t="s">
         <v>20</v>
       </c>
     </row>
@@ -14962,29 +14953,29 @@
       <c r="A9" s="2">
         <v>0.75</v>
       </c>
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="78" t="s">
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="138"/>
+      <c r="I9" s="238"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="83"/>
-      <c r="I10" s="64" t="s">
+      <c r="B10" s="245"/>
+      <c r="C10" s="246"/>
+      <c r="D10" s="246"/>
+      <c r="E10" s="246"/>
+      <c r="F10" s="247"/>
+      <c r="G10" s="87"/>
+      <c r="I10" s="144" t="s">
         <v>21</v>
       </c>
     </row>
@@ -14992,35 +14983,35 @@
       <c r="A11" s="2">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B11" s="128"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="83"/>
-      <c r="I11" s="65"/>
+      <c r="B11" s="245"/>
+      <c r="C11" s="246"/>
+      <c r="D11" s="246"/>
+      <c r="E11" s="246"/>
+      <c r="F11" s="247"/>
+      <c r="G11" s="87"/>
+      <c r="I11" s="145"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>0.8125</v>
       </c>
-      <c r="B12" s="128"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="83"/>
+      <c r="B12" s="245"/>
+      <c r="C12" s="246"/>
+      <c r="D12" s="246"/>
+      <c r="E12" s="246"/>
+      <c r="F12" s="247"/>
+      <c r="G12" s="87"/>
     </row>
     <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="79"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="88"/>
     </row>
     <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -15047,25 +15038,25 @@
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="248" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
+      <c r="C16" s="249"/>
+      <c r="D16" s="249"/>
+      <c r="E16" s="249"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="249"/>
     </row>
     <row r="17" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D17" s="95" t="s">
+      <c r="D17" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="63" t="s">
+      <c r="E17" s="94"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="89" t="s">
         <v>17</v>
       </c>
     </row>
@@ -15073,57 +15064,57 @@
       <c r="A18" s="2">
         <v>0.4375</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="256" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="84"/>
+      <c r="D18" s="253"/>
+      <c r="E18" s="254"/>
+      <c r="F18" s="255"/>
+      <c r="G18" s="90"/>
     </row>
     <row r="19" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="84"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="257"/>
+      <c r="D19" s="253"/>
+      <c r="E19" s="254"/>
+      <c r="F19" s="255"/>
+      <c r="G19" s="90"/>
     </row>
     <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D20" s="120"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="84"/>
+      <c r="D20" s="253"/>
+      <c r="E20" s="254"/>
+      <c r="F20" s="255"/>
+      <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>0.5</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="69" t="s">
+      <c r="E21" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="69" t="s">
+      <c r="F21" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="84"/>
+      <c r="G21" s="90"/>
       <c r="L21" t="s">
         <v>300</v>
       </c>
@@ -15132,187 +15123,187 @@
       <c r="A22" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="84"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="84"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>0.5625</v>
       </c>
-      <c r="B24" s="108"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="84"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="126" t="s">
+      <c r="C25" s="251" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="69" t="s">
+      <c r="E25" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="69" t="s">
+      <c r="F25" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="84"/>
+      <c r="G25" s="90"/>
     </row>
     <row r="26" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="84"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="252"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="90"/>
     </row>
     <row r="27" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0.625</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="84"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="90"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="70" t="s">
+      <c r="D28" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="70" t="s">
+      <c r="E28" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="F28" s="70"/>
-      <c r="G28" s="84"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="90"/>
     </row>
     <row r="29" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="84"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="90"/>
     </row>
     <row r="30" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>0.6875</v>
       </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="85"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="91"/>
     </row>
     <row r="31" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B31" s="101" t="s">
+      <c r="B31" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="105" t="s">
+      <c r="B32" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="107"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="80"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="128"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="130"/>
+      <c r="B33" s="245"/>
+      <c r="C33" s="246"/>
+      <c r="D33" s="246"/>
+      <c r="E33" s="246"/>
+      <c r="F33" s="246"/>
+      <c r="G33" s="247"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="128"/>
-      <c r="C34" s="129"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="130"/>
+      <c r="B34" s="245"/>
+      <c r="C34" s="246"/>
+      <c r="D34" s="246"/>
+      <c r="E34" s="246"/>
+      <c r="F34" s="246"/>
+      <c r="G34" s="247"/>
     </row>
     <row r="35" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="110"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="83"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="47"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="117"/>
     </row>
     <row r="37" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="120"/>
     </row>
     <row r="38" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -15344,31 +15335,31 @@
       <c r="A41" s="2">
         <v>0.5</v>
       </c>
-      <c r="B41" s="123" t="s">
+      <c r="B41" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="124"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
-      <c r="F41" s="124"/>
-      <c r="G41" s="124"/>
+      <c r="C41" s="249"/>
+      <c r="D41" s="249"/>
+      <c r="E41" s="249"/>
+      <c r="F41" s="249"/>
+      <c r="G41" s="249"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B42" s="82" t="s">
+      <c r="B42" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="82" t="s">
+      <c r="C42" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="95" t="s">
+      <c r="D42" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="96"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="78" t="s">
+      <c r="E42" s="94"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="86" t="s">
         <v>17</v>
       </c>
     </row>
@@ -15376,156 +15367,178 @@
       <c r="A43" s="2">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="122"/>
-      <c r="G43" s="83"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="253"/>
+      <c r="E43" s="254"/>
+      <c r="F43" s="255"/>
+      <c r="G43" s="87"/>
     </row>
     <row r="44" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>0.5625</v>
       </c>
-      <c r="D44" s="98"/>
-      <c r="E44" s="99"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="83"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="87"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B45" s="82" t="s">
+      <c r="B45" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="82" t="s">
+      <c r="C45" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="69" t="s">
+      <c r="D45" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="E45" s="69" t="s">
+      <c r="E45" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="69" t="s">
+      <c r="F45" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="G45" s="83"/>
+      <c r="G45" s="87"/>
     </row>
     <row r="46" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="83"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="87"/>
     </row>
     <row r="47" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>0.625</v>
       </c>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="83"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="87"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="82" t="s">
+      <c r="C48" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="69" t="s">
+      <c r="D48" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="69" t="s">
+      <c r="E48" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="F48" s="70"/>
-      <c r="G48" s="83"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="87"/>
     </row>
     <row r="49" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="83"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="87"/>
     </row>
     <row r="50" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>0.6875</v>
       </c>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="79"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="88"/>
     </row>
     <row r="51" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B51" s="112" t="s">
+      <c r="B51" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="113"/>
-      <c r="G51" s="114"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="104"/>
+      <c r="G51" s="105"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="131"/>
-      <c r="C52" s="132"/>
-      <c r="D52" s="132"/>
-      <c r="E52" s="132"/>
-      <c r="F52" s="132"/>
-      <c r="G52" s="133"/>
+      <c r="B52" s="239"/>
+      <c r="C52" s="240"/>
+      <c r="D52" s="240"/>
+      <c r="E52" s="240"/>
+      <c r="F52" s="240"/>
+      <c r="G52" s="241"/>
     </row>
     <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="134"/>
-      <c r="C53" s="135"/>
-      <c r="D53" s="135"/>
-      <c r="E53" s="135"/>
-      <c r="F53" s="135"/>
-      <c r="G53" s="136"/>
+      <c r="B53" s="242"/>
+      <c r="C53" s="243"/>
+      <c r="D53" s="243"/>
+      <c r="E53" s="243"/>
+      <c r="F53" s="243"/>
+      <c r="G53" s="244"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B54" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="47"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="117"/>
     </row>
     <row r="55" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="51"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="119"/>
+      <c r="G55" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D17:F20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="D42:F44"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B4:G8"/>
+    <mergeCell ref="B23:F24"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B9:F13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="B52:G53"/>
     <mergeCell ref="B54:G55"/>
     <mergeCell ref="B36:G37"/>
@@ -15542,33 +15555,11 @@
     <mergeCell ref="F45:F50"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B4:G8"/>
-    <mergeCell ref="B23:F24"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F25:F30"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B9:F13"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="D42:F44"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D17:F20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="G9:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
